--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -580,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HZ3"/>
+  <dimension ref="A1:IM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -588,102 +588,102 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="17.72265625"/>
+    <col customWidth="true" min="1" max="1" width="13.8359375"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
-    <col customWidth="true" min="6" max="6" width="20.5078125"/>
-    <col customWidth="true" min="7" max="7" width="13.8359375"/>
-    <col customWidth="true" min="8" max="8" width="29.8828125"/>
-    <col customWidth="true" min="9" max="9" width="13.8359375"/>
-    <col customWidth="true" min="10" max="10" width="14.20703125"/>
-    <col customWidth="true" min="11" max="11" width="13.8359375"/>
-    <col customWidth="true" min="12" max="12" width="13.8359375"/>
-    <col customWidth="true" min="13" max="13" width="13.8359375"/>
-    <col customWidth="true" min="14" max="14" width="20.06640625"/>
+    <col customWidth="true" min="6" max="6" width="10.984375"/>
+    <col customWidth="true" min="7" max="7" width="7.46875"/>
+    <col customWidth="true" min="8" max="8" width="36.03515625"/>
+    <col customWidth="true" min="9" max="9" width="29.296875"/>
+    <col customWidth="true" min="10" max="10" width="13.8359375"/>
+    <col customWidth="true" min="11" max="11" width="11.71875"/>
+    <col customWidth="true" min="12" max="12" width="67.52734375"/>
+    <col customWidth="true" min="13" max="13" width="70.8984375"/>
+    <col customWidth="true" min="14" max="14" width="17.72265625"/>
     <col customWidth="true" min="15" max="15" width="13.8359375"/>
-    <col customWidth="true" min="16" max="16" width="18.75"/>
-    <col customWidth="true" min="17" max="17" width="12.890625"/>
-    <col customWidth="true" min="18" max="18" width="27.68359375"/>
-    <col customWidth="true" min="19" max="19" width="28.7109375"/>
-    <col customWidth="true" min="20" max="20" width="20.359375"/>
-    <col customWidth="true" min="21" max="21" width="20.65234375"/>
-    <col customWidth="true" min="22" max="22" width="28.7109375"/>
-    <col customWidth="true" min="23" max="23" width="20.359375"/>
-    <col customWidth="true" min="24" max="24" width="20.65234375"/>
-    <col customWidth="true" min="25" max="25" width="28.7109375"/>
-    <col customWidth="true" min="26" max="26" width="20.359375"/>
-    <col customWidth="true" min="27" max="27" width="20.65234375"/>
-    <col customWidth="true" min="28" max="28" width="16.2578125"/>
-    <col customWidth="true" min="29" max="29" width="15.96484375"/>
-    <col customWidth="true" min="30" max="30" width="27.09765625"/>
-    <col customWidth="true" min="31" max="31" width="17.72265625"/>
-    <col customWidth="true" min="32" max="32" width="17.4296875"/>
-    <col customWidth="true" min="33" max="33" width="27.09765625"/>
-    <col customWidth="true" min="34" max="34" width="17.72265625"/>
-    <col customWidth="true" min="35" max="35" width="17.4296875"/>
-    <col customWidth="true" min="36" max="36" width="27.09765625"/>
-    <col customWidth="true" min="37" max="37" width="17.72265625"/>
-    <col customWidth="true" min="38" max="38" width="17.4296875"/>
-    <col customWidth="true" min="39" max="39" width="27.09765625"/>
-    <col customWidth="true" min="40" max="40" width="17.72265625"/>
-    <col customWidth="true" min="41" max="41" width="17.4296875"/>
-    <col customWidth="true" min="42" max="42" width="28.85546875"/>
-    <col customWidth="true" min="43" max="43" width="14.6484375"/>
-    <col customWidth="true" min="44" max="44" width="13.8359375"/>
-    <col customWidth="true" min="45" max="45" width="25.48828125"/>
-    <col customWidth="true" min="46" max="46" width="16.11328125"/>
-    <col customWidth="true" min="47" max="47" width="15.8203125"/>
-    <col customWidth="true" min="48" max="48" width="25.48828125"/>
-    <col customWidth="true" min="49" max="49" width="16.11328125"/>
-    <col customWidth="true" min="50" max="50" width="15.8203125"/>
-    <col customWidth="true" min="51" max="51" width="25.48828125"/>
-    <col customWidth="true" min="52" max="52" width="16.11328125"/>
-    <col customWidth="true" min="53" max="53" width="15.8203125"/>
-    <col customWidth="true" min="54" max="54" width="29.44140625"/>
-    <col customWidth="true" min="55" max="55" width="29.1484375"/>
-    <col customWidth="true" min="56" max="56" width="31.4921875"/>
-    <col customWidth="true" min="57" max="57" width="19.1875"/>
-    <col customWidth="true" min="58" max="58" width="31.4921875"/>
-    <col customWidth="true" min="59" max="59" width="19.1875"/>
-    <col customWidth="true" min="60" max="60" width="31.4921875"/>
-    <col customWidth="true" min="61" max="61" width="19.1875"/>
-    <col customWidth="true" min="62" max="62" width="17.28515625"/>
-    <col customWidth="true" min="63" max="63" width="18.1640625"/>
-    <col customWidth="true" min="64" max="64" width="34.5703125"/>
-    <col customWidth="true" min="65" max="65" width="36.62109375"/>
-    <col customWidth="true" min="66" max="66" width="24.31640625"/>
-    <col customWidth="true" min="67" max="67" width="36.62109375"/>
-    <col customWidth="true" min="68" max="68" width="24.31640625"/>
-    <col customWidth="true" min="69" max="69" width="36.62109375"/>
-    <col customWidth="true" min="70" max="70" width="24.31640625"/>
-    <col customWidth="true" min="71" max="71" width="32.51953125"/>
-    <col customWidth="true" min="72" max="72" width="20.21484375"/>
-    <col customWidth="true" min="73" max="73" width="35.0078125"/>
-    <col customWidth="true" min="74" max="74" width="34.71484375"/>
-    <col customWidth="true" min="75" max="75" width="32.51953125"/>
-    <col customWidth="true" min="76" max="76" width="20.21484375"/>
-    <col customWidth="true" min="77" max="77" width="35.0078125"/>
-    <col customWidth="true" min="78" max="78" width="30.90625"/>
-    <col customWidth="true" min="79" max="79" width="32.51953125"/>
-    <col customWidth="true" min="80" max="80" width="20.21484375"/>
-    <col customWidth="true" min="81" max="81" width="35.0078125"/>
-    <col customWidth="true" min="82" max="82" width="34.71484375"/>
-    <col customWidth="true" min="83" max="83" width="50.390625"/>
-    <col customWidth="true" min="84" max="84" width="13.8359375"/>
-    <col customWidth="true" min="85" max="85" width="13.8359375"/>
-    <col customWidth="true" min="86" max="86" width="13.8359375"/>
-    <col customWidth="true" min="87" max="87" width="13.8359375"/>
-    <col customWidth="true" min="88" max="88" width="13.8359375"/>
-    <col customWidth="true" min="89" max="89" width="13.8359375"/>
-    <col customWidth="true" min="90" max="90" width="13.8359375"/>
-    <col customWidth="true" min="91" max="91" width="13.8359375"/>
-    <col customWidth="true" min="92" max="92" width="13.8359375"/>
-    <col customWidth="true" min="93" max="93" width="13.8359375"/>
-    <col customWidth="true" min="94" max="94" width="13.8359375"/>
-    <col customWidth="true" min="95" max="95" width="13.8359375"/>
-    <col customWidth="true" min="96" max="96" width="13.8359375"/>
+    <col customWidth="true" min="16" max="16" width="13.8359375"/>
+    <col customWidth="true" min="17" max="17" width="13.8359375"/>
+    <col customWidth="true" min="18" max="18" width="13.8359375"/>
+    <col customWidth="true" min="19" max="19" width="20.5078125"/>
+    <col customWidth="true" min="20" max="20" width="13.8359375"/>
+    <col customWidth="true" min="21" max="21" width="29.8828125"/>
+    <col customWidth="true" min="22" max="22" width="13.8359375"/>
+    <col customWidth="true" min="23" max="23" width="14.20703125"/>
+    <col customWidth="true" min="24" max="24" width="13.8359375"/>
+    <col customWidth="true" min="25" max="25" width="13.8359375"/>
+    <col customWidth="true" min="26" max="26" width="13.8359375"/>
+    <col customWidth="true" min="27" max="27" width="20.06640625"/>
+    <col customWidth="true" min="28" max="28" width="13.8359375"/>
+    <col customWidth="true" min="29" max="29" width="18.75"/>
+    <col customWidth="true" min="30" max="30" width="12.890625"/>
+    <col customWidth="true" min="31" max="31" width="27.68359375"/>
+    <col customWidth="true" min="32" max="32" width="28.7109375"/>
+    <col customWidth="true" min="33" max="33" width="20.359375"/>
+    <col customWidth="true" min="34" max="34" width="20.65234375"/>
+    <col customWidth="true" min="35" max="35" width="28.7109375"/>
+    <col customWidth="true" min="36" max="36" width="20.359375"/>
+    <col customWidth="true" min="37" max="37" width="20.65234375"/>
+    <col customWidth="true" min="38" max="38" width="28.7109375"/>
+    <col customWidth="true" min="39" max="39" width="20.359375"/>
+    <col customWidth="true" min="40" max="40" width="20.65234375"/>
+    <col customWidth="true" min="41" max="41" width="16.2578125"/>
+    <col customWidth="true" min="42" max="42" width="15.96484375"/>
+    <col customWidth="true" min="43" max="43" width="27.09765625"/>
+    <col customWidth="true" min="44" max="44" width="17.72265625"/>
+    <col customWidth="true" min="45" max="45" width="17.4296875"/>
+    <col customWidth="true" min="46" max="46" width="27.09765625"/>
+    <col customWidth="true" min="47" max="47" width="17.72265625"/>
+    <col customWidth="true" min="48" max="48" width="17.4296875"/>
+    <col customWidth="true" min="49" max="49" width="27.09765625"/>
+    <col customWidth="true" min="50" max="50" width="17.72265625"/>
+    <col customWidth="true" min="51" max="51" width="17.4296875"/>
+    <col customWidth="true" min="52" max="52" width="27.09765625"/>
+    <col customWidth="true" min="53" max="53" width="17.72265625"/>
+    <col customWidth="true" min="54" max="54" width="17.4296875"/>
+    <col customWidth="true" min="55" max="55" width="28.85546875"/>
+    <col customWidth="true" min="56" max="56" width="14.6484375"/>
+    <col customWidth="true" min="57" max="57" width="13.8359375"/>
+    <col customWidth="true" min="58" max="58" width="25.48828125"/>
+    <col customWidth="true" min="59" max="59" width="16.11328125"/>
+    <col customWidth="true" min="60" max="60" width="15.8203125"/>
+    <col customWidth="true" min="61" max="61" width="25.48828125"/>
+    <col customWidth="true" min="62" max="62" width="16.11328125"/>
+    <col customWidth="true" min="63" max="63" width="15.8203125"/>
+    <col customWidth="true" min="64" max="64" width="25.48828125"/>
+    <col customWidth="true" min="65" max="65" width="16.11328125"/>
+    <col customWidth="true" min="66" max="66" width="15.8203125"/>
+    <col customWidth="true" min="67" max="67" width="29.44140625"/>
+    <col customWidth="true" min="68" max="68" width="29.1484375"/>
+    <col customWidth="true" min="69" max="69" width="31.4921875"/>
+    <col customWidth="true" min="70" max="70" width="19.1875"/>
+    <col customWidth="true" min="71" max="71" width="31.4921875"/>
+    <col customWidth="true" min="72" max="72" width="19.1875"/>
+    <col customWidth="true" min="73" max="73" width="31.4921875"/>
+    <col customWidth="true" min="74" max="74" width="19.1875"/>
+    <col customWidth="true" min="75" max="75" width="17.28515625"/>
+    <col customWidth="true" min="76" max="76" width="18.1640625"/>
+    <col customWidth="true" min="77" max="77" width="34.5703125"/>
+    <col customWidth="true" min="78" max="78" width="36.62109375"/>
+    <col customWidth="true" min="79" max="79" width="24.31640625"/>
+    <col customWidth="true" min="80" max="80" width="36.62109375"/>
+    <col customWidth="true" min="81" max="81" width="24.31640625"/>
+    <col customWidth="true" min="82" max="82" width="36.62109375"/>
+    <col customWidth="true" min="83" max="83" width="24.31640625"/>
+    <col customWidth="true" min="84" max="84" width="32.51953125"/>
+    <col customWidth="true" min="85" max="85" width="20.21484375"/>
+    <col customWidth="true" min="86" max="86" width="35.0078125"/>
+    <col customWidth="true" min="87" max="87" width="34.71484375"/>
+    <col customWidth="true" min="88" max="88" width="32.51953125"/>
+    <col customWidth="true" min="89" max="89" width="20.21484375"/>
+    <col customWidth="true" min="90" max="90" width="35.0078125"/>
+    <col customWidth="true" min="91" max="91" width="30.90625"/>
+    <col customWidth="true" min="92" max="92" width="32.51953125"/>
+    <col customWidth="true" min="93" max="93" width="20.21484375"/>
+    <col customWidth="true" min="94" max="94" width="35.0078125"/>
+    <col customWidth="true" min="95" max="95" width="34.71484375"/>
+    <col customWidth="true" min="96" max="96" width="50.390625"/>
     <col customWidth="true" min="97" max="97" width="13.8359375"/>
     <col customWidth="true" min="98" max="98" width="13.8359375"/>
     <col customWidth="true" min="99" max="99" width="13.8359375"/>
@@ -691,29 +691,29 @@
     <col customWidth="true" min="101" max="101" width="13.8359375"/>
     <col customWidth="true" min="102" max="102" width="13.8359375"/>
     <col customWidth="true" min="103" max="103" width="13.8359375"/>
-    <col customWidth="true" min="104" max="104" width="21.82421875"/>
-    <col customWidth="true" min="105" max="105" width="18.1640625"/>
+    <col customWidth="true" min="104" max="104" width="13.8359375"/>
+    <col customWidth="true" min="105" max="105" width="13.8359375"/>
     <col customWidth="true" min="106" max="106" width="13.8359375"/>
-    <col customWidth="true" min="107" max="107" width="23.14453125"/>
-    <col customWidth="true" min="108" max="108" width="18.1640625"/>
-    <col customWidth="true" min="109" max="109" width="36.9140625"/>
-    <col customWidth="true" min="110" max="110" width="20.5078125"/>
-    <col customWidth="true" min="111" max="111" width="57.71484375"/>
-    <col customWidth="true" min="112" max="112" width="46.2890625"/>
-    <col customWidth="true" min="113" max="113" width="23.14453125"/>
+    <col customWidth="true" min="107" max="107" width="13.8359375"/>
+    <col customWidth="true" min="108" max="108" width="13.8359375"/>
+    <col customWidth="true" min="109" max="109" width="13.8359375"/>
+    <col customWidth="true" min="110" max="110" width="13.8359375"/>
+    <col customWidth="true" min="111" max="111" width="13.8359375"/>
+    <col customWidth="true" min="112" max="112" width="13.8359375"/>
+    <col customWidth="true" min="113" max="113" width="13.8359375"/>
     <col customWidth="true" min="114" max="114" width="13.8359375"/>
     <col customWidth="true" min="115" max="115" width="13.8359375"/>
     <col customWidth="true" min="116" max="116" width="13.8359375"/>
-    <col customWidth="true" min="117" max="117" width="13.8359375"/>
-    <col customWidth="true" min="118" max="118" width="13.8359375"/>
+    <col customWidth="true" min="117" max="117" width="21.82421875"/>
+    <col customWidth="true" min="118" max="118" width="18.1640625"/>
     <col customWidth="true" min="119" max="119" width="13.8359375"/>
-    <col customWidth="true" min="120" max="120" width="13.8359375"/>
-    <col customWidth="true" min="121" max="121" width="13.8359375"/>
-    <col customWidth="true" min="122" max="122" width="13.8359375"/>
-    <col customWidth="true" min="123" max="123" width="13.8359375"/>
-    <col customWidth="true" min="124" max="124" width="13.8359375"/>
-    <col customWidth="true" min="125" max="125" width="13.8359375"/>
-    <col customWidth="true" min="126" max="126" width="13.8359375"/>
+    <col customWidth="true" min="120" max="120" width="23.14453125"/>
+    <col customWidth="true" min="121" max="121" width="18.1640625"/>
+    <col customWidth="true" min="122" max="122" width="36.9140625"/>
+    <col customWidth="true" min="123" max="123" width="20.5078125"/>
+    <col customWidth="true" min="124" max="124" width="57.71484375"/>
+    <col customWidth="true" min="125" max="125" width="46.2890625"/>
+    <col customWidth="true" min="126" max="126" width="23.14453125"/>
     <col customWidth="true" min="127" max="127" width="13.8359375"/>
     <col customWidth="true" min="128" max="128" width="13.8359375"/>
     <col customWidth="true" min="129" max="129" width="13.8359375"/>
@@ -726,72 +726,72 @@
     <col customWidth="true" min="136" max="136" width="13.8359375"/>
     <col customWidth="true" min="137" max="137" width="13.8359375"/>
     <col customWidth="true" min="138" max="138" width="13.8359375"/>
-    <col customWidth="true" min="139" max="139" width="39.98828125"/>
-    <col customWidth="true" min="140" max="140" width="41.015625"/>
-    <col customWidth="true" min="141" max="141" width="20.359375"/>
-    <col customWidth="true" min="142" max="142" width="22.41015625"/>
-    <col customWidth="true" min="143" max="143" width="22.41015625"/>
-    <col customWidth="true" min="144" max="144" width="22.41015625"/>
-    <col customWidth="true" min="145" max="145" width="22.41015625"/>
-    <col customWidth="true" min="146" max="146" width="22.41015625"/>
-    <col customWidth="true" min="147" max="147" width="22.41015625"/>
-    <col customWidth="true" min="148" max="148" width="22.41015625"/>
-    <col customWidth="true" min="149" max="149" width="39.84375"/>
-    <col customWidth="true" min="150" max="150" width="33.984375"/>
+    <col customWidth="true" min="139" max="139" width="13.8359375"/>
+    <col customWidth="true" min="140" max="140" width="13.8359375"/>
+    <col customWidth="true" min="141" max="141" width="13.8359375"/>
+    <col customWidth="true" min="142" max="142" width="13.8359375"/>
+    <col customWidth="true" min="143" max="143" width="13.8359375"/>
+    <col customWidth="true" min="144" max="144" width="13.8359375"/>
+    <col customWidth="true" min="145" max="145" width="13.8359375"/>
+    <col customWidth="true" min="146" max="146" width="13.8359375"/>
+    <col customWidth="true" min="147" max="147" width="13.8359375"/>
+    <col customWidth="true" min="148" max="148" width="13.8359375"/>
+    <col customWidth="true" min="149" max="149" width="13.8359375"/>
+    <col customWidth="true" min="150" max="150" width="13.8359375"/>
     <col customWidth="true" min="151" max="151" width="13.8359375"/>
-    <col customWidth="true" min="152" max="152" width="23.14453125"/>
-    <col customWidth="true" min="153" max="153" width="13.8359375"/>
-    <col customWidth="true" min="154" max="154" width="13.8359375"/>
-    <col customWidth="true" min="155" max="155" width="22.703125"/>
-    <col customWidth="true" min="156" max="156" width="13.8359375"/>
-    <col customWidth="true" min="157" max="157" width="13.8359375"/>
-    <col customWidth="true" min="158" max="158" width="13.8359375"/>
-    <col customWidth="true" min="159" max="159" width="81.4453125"/>
-    <col customWidth="true" min="160" max="160" width="78.953125"/>
-    <col customWidth="true" min="161" max="161" width="20.5078125"/>
-    <col customWidth="true" min="162" max="162" width="22.41015625"/>
-    <col customWidth="true" min="163" max="163" width="13.8359375"/>
+    <col customWidth="true" min="152" max="152" width="39.98828125"/>
+    <col customWidth="true" min="153" max="153" width="41.015625"/>
+    <col customWidth="true" min="154" max="154" width="20.359375"/>
+    <col customWidth="true" min="155" max="155" width="22.41015625"/>
+    <col customWidth="true" min="156" max="156" width="22.41015625"/>
+    <col customWidth="true" min="157" max="157" width="22.41015625"/>
+    <col customWidth="true" min="158" max="158" width="22.41015625"/>
+    <col customWidth="true" min="159" max="159" width="22.41015625"/>
+    <col customWidth="true" min="160" max="160" width="22.41015625"/>
+    <col customWidth="true" min="161" max="161" width="22.41015625"/>
+    <col customWidth="true" min="162" max="162" width="39.84375"/>
+    <col customWidth="true" min="163" max="163" width="33.984375"/>
     <col customWidth="true" min="164" max="164" width="13.8359375"/>
-    <col customWidth="true" min="165" max="165" width="13.8359375"/>
+    <col customWidth="true" min="165" max="165" width="23.14453125"/>
     <col customWidth="true" min="166" max="166" width="13.8359375"/>
     <col customWidth="true" min="167" max="167" width="13.8359375"/>
-    <col customWidth="true" min="168" max="168" width="13.8359375"/>
-    <col customWidth="true" min="169" max="169" width="24.16796875"/>
-    <col customWidth="true" min="170" max="170" width="22.99609375"/>
+    <col customWidth="true" min="168" max="168" width="22.703125"/>
+    <col customWidth="true" min="169" max="169" width="13.8359375"/>
+    <col customWidth="true" min="170" max="170" width="13.8359375"/>
     <col customWidth="true" min="171" max="171" width="13.8359375"/>
-    <col customWidth="true" min="172" max="172" width="13.8359375"/>
-    <col customWidth="true" min="173" max="173" width="13.8359375"/>
-    <col customWidth="true" min="174" max="174" width="13.8359375"/>
-    <col customWidth="true" min="175" max="175" width="13.8359375"/>
+    <col customWidth="true" min="172" max="172" width="81.4453125"/>
+    <col customWidth="true" min="173" max="173" width="78.953125"/>
+    <col customWidth="true" min="174" max="174" width="20.5078125"/>
+    <col customWidth="true" min="175" max="175" width="22.41015625"/>
     <col customWidth="true" min="176" max="176" width="13.8359375"/>
     <col customWidth="true" min="177" max="177" width="13.8359375"/>
     <col customWidth="true" min="178" max="178" width="13.8359375"/>
-    <col customWidth="true" min="179" max="179" width="26.8046875"/>
-    <col customWidth="true" min="180" max="180" width="26.8046875"/>
-    <col customWidth="true" min="181" max="181" width="36.328125"/>
-    <col customWidth="true" min="182" max="182" width="30.17578125"/>
-    <col customWidth="true" min="183" max="183" width="13.8359375"/>
-    <col customWidth="true" min="184" max="184" width="22.265625"/>
+    <col customWidth="true" min="179" max="179" width="13.8359375"/>
+    <col customWidth="true" min="180" max="180" width="13.8359375"/>
+    <col customWidth="true" min="181" max="181" width="13.8359375"/>
+    <col customWidth="true" min="182" max="182" width="24.16796875"/>
+    <col customWidth="true" min="183" max="183" width="22.99609375"/>
+    <col customWidth="true" min="184" max="184" width="13.8359375"/>
     <col customWidth="true" min="185" max="185" width="13.8359375"/>
     <col customWidth="true" min="186" max="186" width="13.8359375"/>
-    <col customWidth="true" min="187" max="187" width="33.25"/>
+    <col customWidth="true" min="187" max="187" width="13.8359375"/>
     <col customWidth="true" min="188" max="188" width="13.8359375"/>
     <col customWidth="true" min="189" max="189" width="13.8359375"/>
-    <col customWidth="true" min="190" max="190" width="29.8828125"/>
-    <col customWidth="true" min="191" max="191" width="35.88671875"/>
-    <col customWidth="true" min="192" max="192" width="36.328125"/>
-    <col customWidth="true" min="193" max="193" width="36.328125"/>
+    <col customWidth="true" min="190" max="190" width="13.8359375"/>
+    <col customWidth="true" min="191" max="191" width="13.8359375"/>
+    <col customWidth="true" min="192" max="192" width="26.8046875"/>
+    <col customWidth="true" min="193" max="193" width="26.8046875"/>
     <col customWidth="true" min="194" max="194" width="36.328125"/>
-    <col customWidth="true" min="195" max="195" width="36.328125"/>
-    <col customWidth="true" min="196" max="196" width="36.328125"/>
-    <col customWidth="true" min="197" max="197" width="36.328125"/>
-    <col customWidth="true" min="198" max="198" width="36.328125"/>
-    <col customWidth="true" min="199" max="199" width="36.328125"/>
-    <col customWidth="true" min="200" max="200" width="36.328125"/>
-    <col customWidth="true" min="201" max="201" width="36.328125"/>
-    <col customWidth="true" min="202" max="202" width="36.328125"/>
-    <col customWidth="true" min="203" max="203" width="36.328125"/>
-    <col customWidth="true" min="204" max="204" width="36.328125"/>
+    <col customWidth="true" min="195" max="195" width="30.17578125"/>
+    <col customWidth="true" min="196" max="196" width="13.8359375"/>
+    <col customWidth="true" min="197" max="197" width="22.265625"/>
+    <col customWidth="true" min="198" max="198" width="13.8359375"/>
+    <col customWidth="true" min="199" max="199" width="13.8359375"/>
+    <col customWidth="true" min="200" max="200" width="33.25"/>
+    <col customWidth="true" min="201" max="201" width="13.8359375"/>
+    <col customWidth="true" min="202" max="202" width="13.8359375"/>
+    <col customWidth="true" min="203" max="203" width="29.8828125"/>
+    <col customWidth="true" min="204" max="204" width="35.88671875"/>
     <col customWidth="true" min="205" max="205" width="36.328125"/>
     <col customWidth="true" min="206" max="206" width="36.328125"/>
     <col customWidth="true" min="207" max="207" width="36.328125"/>
@@ -810,1187 +810,1265 @@
     <col customWidth="true" min="220" max="220" width="36.328125"/>
     <col customWidth="true" min="221" max="221" width="36.328125"/>
     <col customWidth="true" min="222" max="222" width="36.328125"/>
-    <col customWidth="true" min="223" max="223" width="26.8046875"/>
-    <col customWidth="true" min="224" max="224" width="21.82421875"/>
-    <col customWidth="true" min="225" max="225" width="20.9453125"/>
-    <col customWidth="true" min="226" max="226" width="18.30859375"/>
-    <col customWidth="true" min="227" max="227" width="13.8359375"/>
-    <col customWidth="true" min="228" max="228" width="18.015625"/>
-    <col customWidth="true" min="229" max="229" width="13.8359375"/>
-    <col customWidth="true" min="230" max="230" width="13.8359375"/>
-    <col customWidth="true" min="231" max="231" width="13.8359375"/>
-    <col customWidth="true" min="232" max="232" width="13.8359375"/>
-    <col customWidth="true" min="233" max="233" width="13.8359375"/>
-    <col customWidth="true" min="234" max="234" width="13.8359375"/>
+    <col customWidth="true" min="223" max="223" width="36.328125"/>
+    <col customWidth="true" min="224" max="224" width="36.328125"/>
+    <col customWidth="true" min="225" max="225" width="36.328125"/>
+    <col customWidth="true" min="226" max="226" width="36.328125"/>
+    <col customWidth="true" min="227" max="227" width="36.328125"/>
+    <col customWidth="true" min="228" max="228" width="36.328125"/>
+    <col customWidth="true" min="229" max="229" width="36.328125"/>
+    <col customWidth="true" min="230" max="230" width="36.328125"/>
+    <col customWidth="true" min="231" max="231" width="36.328125"/>
+    <col customWidth="true" min="232" max="232" width="36.328125"/>
+    <col customWidth="true" min="233" max="233" width="36.328125"/>
+    <col customWidth="true" min="234" max="234" width="36.328125"/>
+    <col customWidth="true" min="235" max="235" width="36.328125"/>
+    <col customWidth="true" min="236" max="236" width="26.8046875"/>
+    <col customWidth="true" min="237" max="237" width="21.82421875"/>
+    <col customWidth="true" min="238" max="238" width="20.9453125"/>
+    <col customWidth="true" min="239" max="239" width="18.30859375"/>
+    <col customWidth="true" min="240" max="240" width="13.8359375"/>
+    <col customWidth="true" min="241" max="241" width="18.015625"/>
+    <col customWidth="true" min="242" max="242" width="13.8359375"/>
+    <col customWidth="true" min="243" max="243" width="13.8359375"/>
+    <col customWidth="true" min="244" max="244" width="13.8359375"/>
+    <col customWidth="true" min="245" max="245" width="13.8359375"/>
+    <col customWidth="true" min="246" max="246" width="13.8359375"/>
+    <col customWidth="true" min="247" max="247" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Tab_1a_Ziele.ZNr</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>BezKurzDe</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>BezKurzEn</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>BezLangDe</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>BezLangEn</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_2a_Bereiche.BNr</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_2a_Bereiche.ZNr</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_2a_Bereiche.BezDe</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_2a_Bereiche.BezEn</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_3a_Postulate.PNr</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_3a_Postulate.BNr</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_3a_Postulate.BezDe</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_3a_Postulate.BezEn</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
           <t>Tab_4a_Indikatorenblätter.IbNr</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PNr</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_4a_Indikatorenblätter.PNr</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Tab_4a_Indikatorenblätter.Indikatoren</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>BezDe</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>BezEn</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_4a_Indikatorenblätter.BezDe</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_4a_Indikatorenblätter.BezEn</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>DefinitionDe</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>DefinitionEn</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>IntentionDe</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>IntentionEn</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>InhaltDe</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>InhaltEn</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>SDG1</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>SDG2</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Tab_4b_Grafikoptionen.IbNr</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>Tab_4b_Grafikoptionen.Indikatoren</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>Karte anzeigen?</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>Grafiktyp</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>Gestapelte Disaggregation</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 1 Spezifikation</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 1 Min</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 1 Max</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 2 Spezifikation</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 2 Min</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 2 Max</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 3 Spezifikation</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 3 Min</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AN1" s="2" t="inlineStr">
         <is>
           <t>Achsenlimit 3 Max</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AO1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel De</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AP1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel En</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AQ1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 1 Spezifikation</t>
         </is>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
+      <c r="AR1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 1 De</t>
         </is>
       </c>
-      <c r="AF1" s="2" t="inlineStr">
+      <c r="AS1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 1 En</t>
         </is>
       </c>
-      <c r="AG1" s="2" t="inlineStr">
+      <c r="AT1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 2 Spezifikation</t>
         </is>
       </c>
-      <c r="AH1" s="2" t="inlineStr">
+      <c r="AU1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 2 De</t>
         </is>
       </c>
-      <c r="AI1" s="2" t="inlineStr">
+      <c r="AV1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 2 En</t>
         </is>
       </c>
-      <c r="AJ1" s="2" t="inlineStr">
+      <c r="AW1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 3 Spezifikation</t>
         </is>
       </c>
-      <c r="AK1" s="2" t="inlineStr">
+      <c r="AX1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 3 De</t>
         </is>
       </c>
-      <c r="AL1" s="2" t="inlineStr">
+      <c r="AY1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 3 En</t>
         </is>
       </c>
-      <c r="AM1" s="2" t="inlineStr">
+      <c r="AZ1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 4 Spezifikation</t>
         </is>
       </c>
-      <c r="AN1" s="2" t="inlineStr">
+      <c r="BA1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 4 De</t>
         </is>
       </c>
-      <c r="AO1" s="2" t="inlineStr">
+      <c r="BB1" s="2" t="inlineStr">
         <is>
           <t>Grafiktitel 4 En</t>
         </is>
       </c>
-      <c r="AP1" s="2" t="inlineStr">
+      <c r="BC1" s="2" t="inlineStr">
         <is>
           <t>Zusätzliche Infos anzeigen?</t>
         </is>
       </c>
-      <c r="AQ1" s="2" t="inlineStr">
+      <c r="BD1" s="2" t="inlineStr">
         <is>
           <t>Fußnote De</t>
         </is>
       </c>
-      <c r="AR1" s="2" t="inlineStr">
+      <c r="BE1" s="2" t="inlineStr">
         <is>
           <t>Fußnote En</t>
         </is>
       </c>
-      <c r="AS1" s="2" t="inlineStr">
+      <c r="BF1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 1 Spezifikation</t>
         </is>
       </c>
-      <c r="AT1" s="2" t="inlineStr">
+      <c r="BG1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 1 De</t>
         </is>
       </c>
-      <c r="AU1" s="2" t="inlineStr">
+      <c r="BH1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 1 En</t>
         </is>
       </c>
-      <c r="AV1" s="2" t="inlineStr">
+      <c r="BI1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 2 Spezifikation</t>
         </is>
       </c>
-      <c r="AW1" s="2" t="inlineStr">
+      <c r="BJ1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 2 De</t>
         </is>
       </c>
-      <c r="AX1" s="2" t="inlineStr">
+      <c r="BK1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 2 En</t>
         </is>
       </c>
-      <c r="AY1" s="2" t="inlineStr">
+      <c r="BL1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 3 Spezifikation</t>
         </is>
       </c>
-      <c r="AZ1" s="2" t="inlineStr">
+      <c r="BM1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 3 De</t>
         </is>
       </c>
-      <c r="BA1" s="2" t="inlineStr">
+      <c r="BN1" s="2" t="inlineStr">
         <is>
           <t>Fußnote 3 En</t>
         </is>
       </c>
-      <c r="BB1" s="2" t="inlineStr">
+      <c r="BO1" s="2" t="inlineStr">
         <is>
           <t>Geografische Abdeckung De</t>
         </is>
       </c>
-      <c r="BC1" s="2" t="inlineStr">
+      <c r="BP1" s="2" t="inlineStr">
         <is>
           <t>Geografische Abdeckung En</t>
         </is>
       </c>
-      <c r="BD1" s="2" t="inlineStr">
+      <c r="BQ1" s="2" t="inlineStr">
         <is>
           <t>Dezimalstellen 1 Spezifikation</t>
         </is>
       </c>
-      <c r="BE1" s="2" t="inlineStr">
+      <c r="BR1" s="2" t="inlineStr">
         <is>
           <t>Dezimalstellen 1</t>
         </is>
       </c>
-      <c r="BF1" s="2" t="inlineStr">
+      <c r="BS1" s="2" t="inlineStr">
         <is>
           <t>Dezimalstellen 2 Spezifikation</t>
         </is>
       </c>
-      <c r="BG1" s="2" t="inlineStr">
+      <c r="BT1" s="2" t="inlineStr">
         <is>
           <t>Dezimalstellen 2</t>
         </is>
       </c>
-      <c r="BH1" s="2" t="inlineStr">
+      <c r="BU1" s="2" t="inlineStr">
         <is>
           <t>Dezimalstellen 3 Spezifikation</t>
         </is>
       </c>
-      <c r="BI1" s="2" t="inlineStr">
+      <c r="BV1" s="2" t="inlineStr">
         <is>
           <t>Dezimalstellen 3</t>
         </is>
       </c>
-      <c r="BJ1" s="2" t="inlineStr">
+      <c r="BW1" s="2" t="inlineStr">
         <is>
           <t>Lücken füllen?</t>
         </is>
       </c>
-      <c r="BK1" s="2" t="inlineStr">
+      <c r="BX1" s="2" t="inlineStr">
         <is>
           <t>Linie anzeigen?</t>
         </is>
       </c>
-      <c r="BL1" s="2" t="inlineStr">
+      <c r="BY1" s="2" t="inlineStr">
         <is>
           <t>Umschalten zwischen Zeitreihen?</t>
         </is>
       </c>
-      <c r="BM1" s="2" t="inlineStr">
+      <c r="BZ1" s="2" t="inlineStr">
         <is>
           <t>Schrittweite y-Achse 1 Spezifikation</t>
         </is>
       </c>
-      <c r="BN1" s="2" t="inlineStr">
+      <c r="CA1" s="2" t="inlineStr">
         <is>
           <t>Schrittweite y-Achse 1</t>
         </is>
       </c>
-      <c r="BO1" s="2" t="inlineStr">
+      <c r="CB1" s="2" t="inlineStr">
         <is>
           <t>Schrittweite y-Achse 2 Spezifikation</t>
         </is>
       </c>
-      <c r="BP1" s="2" t="inlineStr">
+      <c r="CC1" s="2" t="inlineStr">
         <is>
           <t>Schrittweite y-Achse 2</t>
         </is>
       </c>
-      <c r="BQ1" s="2" t="inlineStr">
+      <c r="CD1" s="2" t="inlineStr">
         <is>
           <t>Schrittweite y-Achse 3 Spezifikation</t>
         </is>
       </c>
-      <c r="BR1" s="2" t="inlineStr">
+      <c r="CE1" s="2" t="inlineStr">
         <is>
           <t>Schrittweite y-Achse 3</t>
         </is>
       </c>
-      <c r="BS1" s="2" t="inlineStr">
+      <c r="CF1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 1 Spezifikation</t>
         </is>
       </c>
-      <c r="BT1" s="2" t="inlineStr">
+      <c r="CG1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 1</t>
         </is>
       </c>
-      <c r="BU1" s="2" t="inlineStr">
+      <c r="CH1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 1 Beschriftung De</t>
         </is>
       </c>
-      <c r="BV1" s="2" t="inlineStr">
+      <c r="CI1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 1 Beschriftung En</t>
         </is>
       </c>
-      <c r="BW1" s="2" t="inlineStr">
+      <c r="CJ1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 2 Spezifikation</t>
         </is>
       </c>
-      <c r="BX1" s="2" t="inlineStr">
+      <c r="CK1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 2</t>
         </is>
       </c>
-      <c r="BY1" s="2" t="inlineStr">
+      <c r="CL1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 2 Beschriftung De</t>
         </is>
       </c>
-      <c r="BZ1" s="2" t="inlineStr">
+      <c r="CM1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 2 Beschriftung En</t>
         </is>
       </c>
-      <c r="CA1" s="2" t="inlineStr">
+      <c r="CN1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 3 Spezifikation</t>
         </is>
       </c>
-      <c r="CB1" s="2" t="inlineStr">
+      <c r="CO1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 3</t>
         </is>
       </c>
-      <c r="CC1" s="2" t="inlineStr">
+      <c r="CP1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 3 Beschriftung De</t>
         </is>
       </c>
-      <c r="CD1" s="2" t="inlineStr">
+      <c r="CQ1" s="2" t="inlineStr">
         <is>
           <t>Zeitreihenbruch 3 Beschriftung En</t>
         </is>
       </c>
-      <c r="CE1" s="2" t="inlineStr">
+      <c r="CR1" s="2" t="inlineStr">
         <is>
           <t>Tab_4c_Linkzuordnung.IbNr</t>
         </is>
       </c>
-      <c r="CF1" s="2" t="inlineStr">
+      <c r="CS1" s="2" t="inlineStr">
         <is>
           <t>Tab_4c_Linkzuordnung.Indikator</t>
         </is>
       </c>
-      <c r="CG1" s="2" t="inlineStr">
+      <c r="CT1" s="2" t="inlineStr">
         <is>
           <t>Link1</t>
         </is>
       </c>
-      <c r="CH1" s="2" t="inlineStr">
+      <c r="CU1" s="2" t="inlineStr">
         <is>
           <t>Link2</t>
         </is>
       </c>
-      <c r="CI1" s="2" t="inlineStr">
+      <c r="CV1" s="2" t="inlineStr">
         <is>
           <t>Link3</t>
         </is>
       </c>
-      <c r="CJ1" s="2" t="inlineStr">
+      <c r="CW1" s="2" t="inlineStr">
         <is>
           <t>Link4</t>
         </is>
       </c>
-      <c r="CK1" s="2" t="inlineStr">
+      <c r="CX1" s="2" t="inlineStr">
         <is>
           <t>Link5</t>
         </is>
       </c>
-      <c r="CL1" s="2" t="inlineStr">
+      <c r="CY1" s="2" t="inlineStr">
         <is>
           <t>Link6</t>
         </is>
       </c>
-      <c r="CM1" s="2" t="inlineStr">
+      <c r="CZ1" s="2" t="inlineStr">
         <is>
           <t>Link7</t>
         </is>
       </c>
-      <c r="CN1" s="2" t="inlineStr">
+      <c r="DA1" s="2" t="inlineStr">
         <is>
           <t>Link8</t>
         </is>
       </c>
-      <c r="CO1" s="2" t="inlineStr">
+      <c r="DB1" s="2" t="inlineStr">
         <is>
           <t>Link9</t>
         </is>
       </c>
-      <c r="CP1" s="2" t="inlineStr">
+      <c r="DC1" s="2" t="inlineStr">
         <is>
           <t>Link10</t>
         </is>
       </c>
-      <c r="CQ1" s="2" t="inlineStr">
+      <c r="DD1" s="2" t="inlineStr">
         <is>
           <t>Link11</t>
         </is>
       </c>
-      <c r="CR1" s="2" t="inlineStr">
+      <c r="DE1" s="2" t="inlineStr">
         <is>
           <t>Link12</t>
         </is>
       </c>
-      <c r="CS1" s="2" t="inlineStr">
+      <c r="DF1" s="2" t="inlineStr">
         <is>
           <t>Link13</t>
         </is>
       </c>
-      <c r="CT1" s="2" t="inlineStr">
+      <c r="DG1" s="2" t="inlineStr">
         <is>
           <t>Link14</t>
         </is>
       </c>
-      <c r="CU1" s="2" t="inlineStr">
+      <c r="DH1" s="2" t="inlineStr">
         <is>
           <t>Link15</t>
         </is>
       </c>
-      <c r="CV1" s="2" t="inlineStr">
+      <c r="DI1" s="2" t="inlineStr">
         <is>
           <t>Link16</t>
         </is>
       </c>
-      <c r="CW1" s="2" t="inlineStr">
+      <c r="DJ1" s="2" t="inlineStr">
         <is>
           <t>Link17</t>
         </is>
       </c>
-      <c r="CX1" s="2" t="inlineStr">
+      <c r="DK1" s="2" t="inlineStr">
         <is>
           <t>Link18</t>
         </is>
       </c>
-      <c r="CY1" s="2" t="inlineStr">
+      <c r="DL1" s="2" t="inlineStr">
         <is>
           <t>Link19</t>
         </is>
       </c>
-      <c r="CZ1" s="2" t="inlineStr">
+      <c r="DM1" s="2" t="inlineStr">
         <is>
           <t>Tab_5a_Indikatoren.INr</t>
         </is>
       </c>
-      <c r="DA1" s="2" t="inlineStr">
+      <c r="DN1" s="2" t="inlineStr">
         <is>
           <t>Tab_5a_Indikatoren.IbNr</t>
         </is>
       </c>
-      <c r="DB1" s="2" t="inlineStr">
+      <c r="DO1" s="2" t="inlineStr">
         <is>
           <t>Tab_5a_Indikatoren.Indikator</t>
         </is>
       </c>
-      <c r="DC1" s="2" t="inlineStr">
+      <c r="DP1" s="2" t="inlineStr">
         <is>
           <t>Indikator kurz De</t>
         </is>
       </c>
-      <c r="DD1" s="2" t="inlineStr">
+      <c r="DQ1" s="2" t="inlineStr">
         <is>
           <t>Indikator kurz En</t>
         </is>
       </c>
-      <c r="DE1" s="2" t="inlineStr">
+      <c r="DR1" s="2" t="inlineStr">
         <is>
           <t>Indikator De</t>
         </is>
       </c>
-      <c r="DF1" s="2" t="inlineStr">
+      <c r="DS1" s="2" t="inlineStr">
         <is>
           <t>Indikator En</t>
         </is>
       </c>
-      <c r="DG1" s="2" t="inlineStr">
+      <c r="DT1" s="2" t="inlineStr">
         <is>
           <t>Ziel De</t>
         </is>
       </c>
-      <c r="DH1" s="2" t="inlineStr">
+      <c r="DU1" s="2" t="inlineStr">
         <is>
           <t>Ziel En</t>
         </is>
       </c>
-      <c r="DI1" s="2" t="inlineStr">
+      <c r="DV1" s="2" t="inlineStr">
         <is>
           <t>Tab_5b_Wetter.INr</t>
         </is>
       </c>
-      <c r="DJ1" s="2" t="inlineStr">
+      <c r="DW1" s="2" t="inlineStr">
         <is>
           <t>Tab_5b_Wetter.Indikator</t>
         </is>
       </c>
-      <c r="DK1" s="2" t="inlineStr">
+      <c r="DX1" s="2" t="inlineStr">
         <is>
           <t>Jahr t-6</t>
         </is>
       </c>
-      <c r="DL1" s="2" t="inlineStr">
+      <c r="DY1" s="2" t="inlineStr">
         <is>
           <t>Jahr t-5</t>
         </is>
       </c>
-      <c r="DM1" s="2" t="inlineStr">
+      <c r="DZ1" s="2" t="inlineStr">
         <is>
           <t>Jahr t-4</t>
         </is>
       </c>
-      <c r="DN1" s="2" t="inlineStr">
+      <c r="EA1" s="2" t="inlineStr">
         <is>
           <t>Jahr t-3</t>
         </is>
       </c>
-      <c r="DO1" s="2" t="inlineStr">
+      <c r="EB1" s="2" t="inlineStr">
         <is>
           <t>Jahr t-2</t>
         </is>
       </c>
-      <c r="DP1" s="2" t="inlineStr">
+      <c r="EC1" s="2" t="inlineStr">
         <is>
           <t>Jahr t-1</t>
         </is>
       </c>
-      <c r="DQ1" s="2" t="inlineStr">
+      <c r="ED1" s="2" t="inlineStr">
         <is>
           <t>Jahr t-0</t>
         </is>
       </c>
-      <c r="DR1" s="2" t="inlineStr">
+      <c r="EE1" s="2" t="inlineStr">
         <is>
           <t>Ws t-6</t>
         </is>
       </c>
-      <c r="DS1" s="2" t="inlineStr">
+      <c r="EF1" s="2" t="inlineStr">
         <is>
           <t>Ws t-5</t>
         </is>
       </c>
-      <c r="DT1" s="2" t="inlineStr">
+      <c r="EG1" s="2" t="inlineStr">
         <is>
           <t>Ws t-4</t>
         </is>
       </c>
-      <c r="DU1" s="2" t="inlineStr">
+      <c r="EH1" s="2" t="inlineStr">
         <is>
           <t>Ws t-3</t>
         </is>
       </c>
-      <c r="DV1" s="2" t="inlineStr">
+      <c r="EI1" s="2" t="inlineStr">
         <is>
           <t>Ws t-2</t>
         </is>
       </c>
-      <c r="DW1" s="2" t="inlineStr">
+      <c r="EJ1" s="2" t="inlineStr">
         <is>
           <t>Ws t-1</t>
         </is>
       </c>
-      <c r="DX1" s="2" t="inlineStr">
+      <c r="EK1" s="2" t="inlineStr">
         <is>
           <t>Ws t-0</t>
         </is>
       </c>
-      <c r="DY1" s="2" t="inlineStr">
+      <c r="EL1" s="2" t="inlineStr">
         <is>
           <t>Altes Ziel De</t>
         </is>
       </c>
-      <c r="DZ1" s="2" t="inlineStr">
+      <c r="EM1" s="2" t="inlineStr">
         <is>
           <t>Altes Ziel En</t>
         </is>
       </c>
-      <c r="EA1" s="2" t="inlineStr">
+      <c r="EN1" s="2" t="inlineStr">
         <is>
           <t>Altes Ziel gültig bis</t>
         </is>
       </c>
-      <c r="EB1" s="2" t="inlineStr">
+      <c r="EO1" s="2" t="inlineStr">
         <is>
           <t>Ws altes Ziel t-6</t>
         </is>
       </c>
-      <c r="EC1" s="2" t="inlineStr">
+      <c r="EP1" s="2" t="inlineStr">
         <is>
           <t>Ws altes Ziel t-5</t>
         </is>
       </c>
-      <c r="ED1" s="2" t="inlineStr">
+      <c r="EQ1" s="2" t="inlineStr">
         <is>
           <t>Ws altes Ziel t-4</t>
         </is>
       </c>
-      <c r="EE1" s="2" t="inlineStr">
+      <c r="ER1" s="2" t="inlineStr">
         <is>
           <t>Ws altes Ziel t-3</t>
         </is>
       </c>
-      <c r="EF1" s="2" t="inlineStr">
+      <c r="ES1" s="2" t="inlineStr">
         <is>
           <t>Ws altes Ziel t-2</t>
         </is>
       </c>
-      <c r="EG1" s="2" t="inlineStr">
+      <c r="ET1" s="2" t="inlineStr">
         <is>
           <t>Ws altes Ziel t-1</t>
         </is>
       </c>
-      <c r="EH1" s="2" t="inlineStr">
+      <c r="EU1" s="2" t="inlineStr">
         <is>
           <t>Ws altes Ziel t-0</t>
         </is>
       </c>
-      <c r="EI1" s="2" t="inlineStr">
+      <c r="EV1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 De</t>
         </is>
       </c>
-      <c r="EJ1" s="2" t="inlineStr">
+      <c r="EW1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 En</t>
         </is>
       </c>
-      <c r="EK1" s="2" t="inlineStr">
+      <c r="EX1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Jahr</t>
         </is>
       </c>
-      <c r="EL1" s="2" t="inlineStr">
+      <c r="EY1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Ws t-6</t>
         </is>
       </c>
-      <c r="EM1" s="2" t="inlineStr">
+      <c r="EZ1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Ws t-5</t>
         </is>
       </c>
-      <c r="EN1" s="2" t="inlineStr">
+      <c r="FA1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Ws t-4</t>
         </is>
       </c>
-      <c r="EO1" s="2" t="inlineStr">
+      <c r="FB1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Ws t-3</t>
         </is>
       </c>
-      <c r="EP1" s="2" t="inlineStr">
+      <c r="FC1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Ws t-2</t>
         </is>
       </c>
-      <c r="EQ1" s="2" t="inlineStr">
+      <c r="FD1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Ws t-1</t>
         </is>
       </c>
-      <c r="ER1" s="2" t="inlineStr">
+      <c r="FE1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 1 Ws t-0</t>
         </is>
       </c>
-      <c r="ES1" s="2" t="inlineStr">
+      <c r="FF1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 De</t>
         </is>
       </c>
-      <c r="ET1" s="2" t="inlineStr">
+      <c r="FG1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 En</t>
         </is>
       </c>
-      <c r="EU1" s="2" t="inlineStr">
+      <c r="FH1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Jahr</t>
         </is>
       </c>
-      <c r="EV1" s="2" t="inlineStr">
+      <c r="FI1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Ws t-6</t>
         </is>
       </c>
-      <c r="EW1" s="2" t="inlineStr">
+      <c r="FJ1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Ws t-5</t>
         </is>
       </c>
-      <c r="EX1" s="2" t="inlineStr">
+      <c r="FK1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Ws t-4</t>
         </is>
       </c>
-      <c r="EY1" s="2" t="inlineStr">
+      <c r="FL1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Ws t-3</t>
         </is>
       </c>
-      <c r="EZ1" s="2" t="inlineStr">
+      <c r="FM1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Ws t-2</t>
         </is>
       </c>
-      <c r="FA1" s="2" t="inlineStr">
+      <c r="FN1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Ws t-1</t>
         </is>
       </c>
-      <c r="FB1" s="2" t="inlineStr">
+      <c r="FO1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 2 Ws t-0</t>
         </is>
       </c>
-      <c r="FC1" s="2" t="inlineStr">
+      <c r="FP1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 De</t>
         </is>
       </c>
-      <c r="FD1" s="2" t="inlineStr">
+      <c r="FQ1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 En</t>
         </is>
       </c>
-      <c r="FE1" s="2" t="inlineStr">
+      <c r="FR1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Jahr</t>
         </is>
       </c>
-      <c r="FF1" s="2" t="inlineStr">
+      <c r="FS1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Ws t-6</t>
         </is>
       </c>
-      <c r="FG1" s="2" t="inlineStr">
+      <c r="FT1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Ws t-5</t>
         </is>
       </c>
-      <c r="FH1" s="2" t="inlineStr">
+      <c r="FU1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Ws t-4</t>
         </is>
       </c>
-      <c r="FI1" s="2" t="inlineStr">
+      <c r="FV1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Ws t-3</t>
         </is>
       </c>
-      <c r="FJ1" s="2" t="inlineStr">
+      <c r="FW1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Ws t-2</t>
         </is>
       </c>
-      <c r="FK1" s="2" t="inlineStr">
+      <c r="FX1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Ws t-1</t>
         </is>
       </c>
-      <c r="FL1" s="2" t="inlineStr">
+      <c r="FY1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 3 Ws t-0</t>
         </is>
       </c>
-      <c r="FM1" s="2" t="inlineStr">
+      <c r="FZ1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 De</t>
         </is>
       </c>
-      <c r="FN1" s="2" t="inlineStr">
+      <c r="GA1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 En</t>
         </is>
       </c>
-      <c r="FO1" s="2" t="inlineStr">
+      <c r="GB1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Jahr</t>
         </is>
       </c>
-      <c r="FP1" s="2" t="inlineStr">
+      <c r="GC1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Ws t-6</t>
         </is>
       </c>
-      <c r="FQ1" s="2" t="inlineStr">
+      <c r="GD1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Ws t-5</t>
         </is>
       </c>
-      <c r="FR1" s="2" t="inlineStr">
+      <c r="GE1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Ws t-4</t>
         </is>
       </c>
-      <c r="FS1" s="2" t="inlineStr">
+      <c r="GF1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Ws t-3</t>
         </is>
       </c>
-      <c r="FT1" s="2" t="inlineStr">
+      <c r="GG1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Ws t-2</t>
         </is>
       </c>
-      <c r="FU1" s="2" t="inlineStr">
+      <c r="GH1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Ws t-1</t>
         </is>
       </c>
-      <c r="FV1" s="2" t="inlineStr">
+      <c r="GI1" s="2" t="inlineStr">
         <is>
           <t>Etappenziel 4 Ws t-0</t>
         </is>
       </c>
-      <c r="FW1" s="2" t="inlineStr">
+      <c r="GJ1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 De</t>
         </is>
       </c>
-      <c r="FX1" s="2" t="inlineStr">
+      <c r="GK1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 En</t>
         </is>
       </c>
-      <c r="FY1" s="2" t="inlineStr">
+      <c r="GL1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1  gültig bis</t>
         </is>
       </c>
-      <c r="FZ1" s="2" t="inlineStr">
+      <c r="GM1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Jahr</t>
         </is>
       </c>
-      <c r="GA1" s="2" t="inlineStr">
+      <c r="GN1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Ws t-6</t>
         </is>
       </c>
-      <c r="GB1" s="2" t="inlineStr">
+      <c r="GO1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Ws t-5</t>
         </is>
       </c>
-      <c r="GC1" s="2" t="inlineStr">
+      <c r="GP1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Ws t-4</t>
         </is>
       </c>
-      <c r="GD1" s="2" t="inlineStr">
+      <c r="GQ1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Ws t-3</t>
         </is>
       </c>
-      <c r="GE1" s="2" t="inlineStr">
+      <c r="GR1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Ws t-2</t>
         </is>
       </c>
-      <c r="GF1" s="2" t="inlineStr">
+      <c r="GS1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Ws t-1</t>
         </is>
       </c>
-      <c r="GG1" s="2" t="inlineStr">
+      <c r="GT1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 1 Ws t-0</t>
         </is>
       </c>
-      <c r="GH1" s="2" t="inlineStr">
+      <c r="GU1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 De</t>
         </is>
       </c>
-      <c r="GI1" s="2" t="inlineStr">
+      <c r="GV1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 En</t>
         </is>
       </c>
-      <c r="GJ1" s="2" t="inlineStr">
+      <c r="GW1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2  gültig bis</t>
         </is>
       </c>
-      <c r="GK1" s="2" t="inlineStr">
+      <c r="GX1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Jahr</t>
         </is>
       </c>
-      <c r="GL1" s="2" t="inlineStr">
+      <c r="GY1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Ws t-6</t>
         </is>
       </c>
-      <c r="GM1" s="2" t="inlineStr">
+      <c r="GZ1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Ws t-5</t>
         </is>
       </c>
-      <c r="GN1" s="2" t="inlineStr">
+      <c r="HA1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Ws t-4</t>
         </is>
       </c>
-      <c r="GO1" s="2" t="inlineStr">
+      <c r="HB1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Ws t-3</t>
         </is>
       </c>
-      <c r="GP1" s="2" t="inlineStr">
+      <c r="HC1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Ws t-2</t>
         </is>
       </c>
-      <c r="GQ1" s="2" t="inlineStr">
+      <c r="HD1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Ws t-1</t>
         </is>
       </c>
-      <c r="GR1" s="2" t="inlineStr">
+      <c r="HE1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 2 Ws t-0</t>
         </is>
       </c>
-      <c r="GS1" s="2" t="inlineStr">
+      <c r="HF1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 De</t>
         </is>
       </c>
-      <c r="GT1" s="2" t="inlineStr">
+      <c r="HG1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 En</t>
         </is>
       </c>
-      <c r="GU1" s="2" t="inlineStr">
+      <c r="HH1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3  gültig bis</t>
         </is>
       </c>
-      <c r="GV1" s="2" t="inlineStr">
+      <c r="HI1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Jahr</t>
         </is>
       </c>
-      <c r="GW1" s="2" t="inlineStr">
+      <c r="HJ1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Ws t-6</t>
         </is>
       </c>
-      <c r="GX1" s="2" t="inlineStr">
+      <c r="HK1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Ws t-5</t>
         </is>
       </c>
-      <c r="GY1" s="2" t="inlineStr">
+      <c r="HL1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Ws t-4</t>
         </is>
       </c>
-      <c r="GZ1" s="2" t="inlineStr">
+      <c r="HM1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Ws t-3</t>
         </is>
       </c>
-      <c r="HA1" s="2" t="inlineStr">
+      <c r="HN1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Ws t-2</t>
         </is>
       </c>
-      <c r="HB1" s="2" t="inlineStr">
+      <c r="HO1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Ws t-1</t>
         </is>
       </c>
-      <c r="HC1" s="2" t="inlineStr">
+      <c r="HP1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 3 Ws t-0</t>
         </is>
       </c>
-      <c r="HD1" s="2" t="inlineStr">
+      <c r="HQ1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 De</t>
         </is>
       </c>
-      <c r="HE1" s="2" t="inlineStr">
+      <c r="HR1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 En</t>
         </is>
       </c>
-      <c r="HF1" s="2" t="inlineStr">
+      <c r="HS1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4  gültig bis</t>
         </is>
       </c>
-      <c r="HG1" s="2" t="inlineStr">
+      <c r="HT1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Jahr</t>
         </is>
       </c>
-      <c r="HH1" s="2" t="inlineStr">
+      <c r="HU1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Ws t-6</t>
         </is>
       </c>
-      <c r="HI1" s="2" t="inlineStr">
+      <c r="HV1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Ws t-5</t>
         </is>
       </c>
-      <c r="HJ1" s="2" t="inlineStr">
+      <c r="HW1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Ws t-4</t>
         </is>
       </c>
-      <c r="HK1" s="2" t="inlineStr">
+      <c r="HX1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Ws t-3</t>
         </is>
       </c>
-      <c r="HL1" s="2" t="inlineStr">
+      <c r="HY1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Ws t-2</t>
         </is>
       </c>
-      <c r="HM1" s="2" t="inlineStr">
+      <c r="HZ1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Ws t-1</t>
         </is>
       </c>
-      <c r="HN1" s="2" t="inlineStr">
+      <c r="IA1" s="2" t="inlineStr">
         <is>
           <t>Altes Etappenziel 4 Ws t-0</t>
         </is>
       </c>
-      <c r="HO1" s="2" t="inlineStr">
-        <is>
-          <t>ZNr</t>
-        </is>
-      </c>
-      <c r="HP1" s="2" t="inlineStr">
+      <c r="IB1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_6a_Zeitreihen.ZNr</t>
+        </is>
+      </c>
+      <c r="IC1" s="2" t="inlineStr">
         <is>
           <t>Tab_6a_Zeitreihen.INr</t>
         </is>
       </c>
-      <c r="HQ1" s="2" t="inlineStr">
+      <c r="ID1" s="2" t="inlineStr">
         <is>
           <t>Bezeichnung De</t>
         </is>
       </c>
-      <c r="HR1" s="2" t="inlineStr">
+      <c r="IE1" s="2" t="inlineStr">
         <is>
           <t>Bezeichnung En</t>
         </is>
       </c>
-      <c r="HS1" s="2" t="inlineStr">
+      <c r="IF1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr 1</t>
         </is>
       </c>
-      <c r="HT1" s="2" t="inlineStr">
+      <c r="IG1" s="2" t="inlineStr">
         <is>
           <t>Zielwert 1</t>
         </is>
       </c>
-      <c r="HU1" s="2" t="inlineStr">
+      <c r="IH1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr 2</t>
         </is>
       </c>
-      <c r="HV1" s="2" t="inlineStr">
+      <c r="II1" s="2" t="inlineStr">
         <is>
           <t>Zielwert 2</t>
         </is>
       </c>
-      <c r="HW1" s="2" t="inlineStr">
+      <c r="IJ1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr 3</t>
         </is>
       </c>
-      <c r="HX1" s="2" t="inlineStr">
+      <c r="IK1" s="2" t="inlineStr">
         <is>
           <t>Zielwert 3</t>
         </is>
       </c>
-      <c r="HY1" s="2" t="inlineStr">
+      <c r="IL1" s="2" t="inlineStr">
         <is>
           <t>Zieljahr 4</t>
         </is>
       </c>
-      <c r="HZ1" s="2" t="inlineStr">
+      <c r="IM1" s="2" t="inlineStr">
         <is>
           <t>Zielwert 4</t>
         </is>
@@ -1999,329 +2077,349 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>Z07</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Bezahlbare und saubere Energie</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Affordable and clean energy</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Zugang zu bezahlbarer, verlässlicher, nachhaltiger und moderner Energie für alle sichern</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Ensure access to affordable, reliable, sustainable and modern energy for all</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>Z07</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>Ressourcenschonung</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>Resource conservation</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>Ressourcen sparsam und effizient nutzen</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>Using resources economically and efficiently</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität und Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity and primary energy consumption</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.&lt;br&gt;Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.&lt;br&gt;Final energy productivity means how much added value accrues from each unit of final energy used. It constitutes a measurement of energy efficiency in the production of goods and in household energy use. However, estimates of energy efficiency in the transformation process (plant efficiency) or in the transmission of energy (elimination of leakages, improved heat insulation, etc.) cannot be directly inferred from the indicator.&lt;br&gt;According to provisional findings, final energy productivity in the period from 2008 to 2019 increased by 15.4%, which equates to an average annual increase of about 1.4%. This means that the goal of an annual increase of 2.1% on average up to 2050 is not yet being achieved. In 2019, energy productivity showed a slight year-on-year decline of 0.6 percentage points.&lt;br&gt;Primary energy consumption registered a year-on-year decline in 2019. Provisional findings indicate that primary energy consumption fell by 11.1% in the period from 2008 to 2019. Accordingly, if the trend of past years were to remain unchanged, the target value for 2020 would not be achieved.</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>The final energy productivity indicator shows the trend of value added for each unit of final energy used. “Final energy” refers to the part of the energy that is available as thermal or electrical energy for the manufacture of goods or for use by households.&lt;br&gt;The primary energy consumption indicator shows how much energy has been consumed in a country, on the one hand for transformation by the energy industries and on the other hand in industry, households and transport.</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es mit möglichst wenig Energie, viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und zur Wettbewerbsfähigkeit der Industrie bei.&lt;br&gt;Dem Energiekonzept der Bundesregierung zufolge soll die Endenergieproduktivität in den Jahren 2008 bis 2050 jährlich um 2,1 % erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 %, bis 2030 um 30 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>After the promotion of renewable energies, the reduction of energy consumption through increased energy efficiency is the second pillar of the energy transition. The aim is to achieve a high level of economic output while using as little energy as possible. Energy saving protects the climate and the environment and helps to improve the security of supply and industrial competitiveness.&lt;br&gt;According to the German Government’s energy blueprint, final energy productivity is to be increased by 2.1% annually from 2008 to 2050. At the same time, primary energy consumption is to be reduced by 20% from its 2008 level by 2020, 30% by 2030 and 50% by 2050.</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>Endenergie- und Primärenergieverbrauch sind direkt miteinander verbunden. Der Endenergieverbrauch ergibt sich aus dem Primärenergieverbrauch abzüglich der Summe aus Umwandlungs-, Fackel- und Leitungsverlusten sowie der statistischen Differenz.&lt;br&gt;Der Primärenergieverbrauch ist die Summe aus den im Inland gewonnenen Primärenergieträgern, Vorratsentnahmen und sämtlichen importierten Energieträgern abzüglich der Bevorratung, Energieexporte und Hochseebunkerungen. Wesentliche Grundlage für die Berechnung des Energieverbrauchs sind die Daten der Energiebilanzen der Arbeitsgemeinschaft Energiebilanzen (AGEB), welche um Daten aus weiteren Quellen ergänzt werden.&lt;br&gt;Die Endenergieproduktivität gibt an, wie hoch die Wertschöpfung je eingesetzter Einheit Endenergie ist. Sie stellt ein Maß für die Energieeffizienz bei der Herstellung von Gütern und im Energieeinsatz der privaten Haushalte dar. Einschätzungen zur Energieeffizienz in den Umwandlungsbereichen (Wirkungsgrad der Kraftwerke) oder in der Energieübertragung und -speicherung (Beseitigung von Leckagen, bessere Wärmedämmung usw.) lassen sich anhand des Indikators jedoch nicht direkt ableiten.&lt;br&gt;Die Endenergieproduktivität hat sich nach vorläufigen Ergebnissen im Zeitraum 2008 bis 2019 um 15,4 % erhöht, was einem durchschnittlichen jährlichen Anstieg von rund 1,4 % entspricht. Somit wird das Ziel eines jährlichen Anstieges von durchschnittlich 2,1 % bis 2050 zum jetzigen Zeitpunkt noch nicht erreicht. Gegenüber dem Vorjahr ist die Energieproduktivität im Jahr 2019 um 0,6 Prozentpunkte gesunken.&lt;br&gt;Der Primärenergieverbrauch ist im Jahr 2019 gegenüber dem Vorjahr gesunken. Im gesamten Zeitraum von 2008 bis 2019 wurde der Primärenergieverbrauch nach vorläufigen Ergebnissen um 11,1 % reduziert. Bei gleichbleibender Entwicklung wie in den vergangenen Jahren würde der Zielwert im Jahr 2020 somit nicht erreicht.</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.&lt;br&gt;Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.&lt;br&gt;Final energy productivity means how much added value accrues from each unit of final energy used. It constitutes a measurement of energy efficiency in the production of goods and in household energy use. However, estimates of energy efficiency in the transformation process (plant efficiency) or in the transmission of energy (elimination of leakages, improved heat insulation, etc.) cannot be directly inferred from the indicator.&lt;br&gt;According to provisional findings, final energy productivity in the period from 2008 to 2019 increased by 15.4%, which equates to an average annual increase of about 1.4%. This means that the goal of an annual increase of 2.1% on average up to 2050 is not yet being achieved. In 2019, energy productivity showed a slight year-on-year decline of 0.6 percentage points.&lt;br&gt;Primary energy consumption registered a year-on-year decline in 2019. Provisional findings indicate that primary energy consumption fell by 11.1% in the period from 2008 to 2019. Accordingly, if the trend of past years were to remain unchanged, the target value for 2020 would not be achieved.</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>7.3.1</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="AB2" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="P2" s="6" t="b">
+      <c r="AC2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="AD2" s="4" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T2" s="7">
+      <c r="AE2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG2" s="7">
         <v>0</v>
       </c>
-      <c r="U2" s="7">
+      <c r="AH2" s="7">
         <v>250</v>
       </c>
-      <c r="V2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AI2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AJ2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AL2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AM2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AO2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AP2" s="6" t="b">
+      <c r="AP2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AQ2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS2" s="4" t="inlineStr">
+      <c r="BD2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
-      <c r="AT2" s="4" t="inlineStr">
+      <c r="BG2" s="4" t="inlineStr">
         <is>
           <t>2020 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Steigerung der Endenergieproduktivität um jährlich 2,1% gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
         </is>
       </c>
-      <c r="AU2" s="4" t="inlineStr">
+      <c r="BH2" s="4" t="inlineStr">
         <is>
           <t>2020 preliminary data.&lt;br&gt;The target represents an annual increase of 2.1% in final energy productivity from 2008 to 2050 (energy concept).</t>
         </is>
       </c>
-      <c r="AV2" s="4" t="inlineStr">
+      <c r="BI2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
-      <c r="AW2" s="4" t="inlineStr">
+      <c r="BJ2" s="4" t="inlineStr">
         <is>
           <t>2020 und 2021 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Senkung des Primärenergieverbrauchs um 20 % gegenüber 2008 bis 2020, um 30 % bis 2030 bzw. um 50 % gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
         </is>
       </c>
-      <c r="AX2" s="4" t="inlineStr">
+      <c r="BK2" s="4" t="inlineStr">
         <is>
           <t>2020 und 2021 preliminary data.&lt;br&gt;The target represents reduction of primary energy consumption by 20% compared to 2008 in 2020, by 30% to 2008 in 2030 or by 50% compared to 2008 in 2050 (energy concept).</t>
         </is>
       </c>
-      <c r="AY2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BA2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BB2" s="4" t="inlineStr">
+      <c r="BL2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO2" s="4" t="inlineStr">
         <is>
           <t>Deutschland</t>
         </is>
       </c>
-      <c r="BC2" s="4" t="inlineStr">
+      <c r="BP2" s="4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="BD2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE2" s="8">
+      <c r="BQ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR2" s="8">
         <v>1</v>
       </c>
-      <c r="BF2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BH2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BJ2" s="6" t="b">
+      <c r="BS2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="BK2" s="6" t="b">
+      <c r="BX2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="BL2" s="6" t="b">
+      <c r="BY2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="BM2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BV2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BZ2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="CA2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC2" s="4" t="inlineStr">
+      <c r="CB2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2331,81 +2429,61 @@
           <t/>
         </is>
       </c>
-      <c r="CE2" s="4" t="inlineStr">
+      <c r="CF2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CH2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CJ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CL2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CN2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="CF2" s="4" t="inlineStr">
+      <c r="CS2" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="CG2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CH2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CJ2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CL2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CN2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CQ2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CR2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CS2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="CT2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2438,181 +2516,186 @@
       </c>
       <c r="CZ2" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DA2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DB2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DC2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DD2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DE2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DF2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DI2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DJ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DK2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DL2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DM2" s="4" t="inlineStr">
+        <is>
           <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="DA2" s="4" t="inlineStr">
+      <c r="DN2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DB2" s="4" t="inlineStr">
+      <c r="DO2" s="4" t="inlineStr">
         <is>
           <t>7.1.a</t>
         </is>
       </c>
-      <c r="DC2" s="4" t="inlineStr">
+      <c r="DP2" s="4" t="inlineStr">
         <is>
           <t>a) Endenergieproduktivität</t>
         </is>
       </c>
-      <c r="DD2" s="4" t="inlineStr">
+      <c r="DQ2" s="4" t="inlineStr">
         <is>
           <t>a) Final energy productivity</t>
         </is>
       </c>
-      <c r="DE2" s="4" t="inlineStr">
+      <c r="DR2" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität</t>
         </is>
       </c>
-      <c r="DF2" s="4" t="inlineStr">
+      <c r="DS2" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity</t>
         </is>
       </c>
-      <c r="DG2" s="4" t="inlineStr">
+      <c r="DT2" s="4" t="inlineStr">
         <is>
           <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
-      <c r="DH2" s="4" t="inlineStr">
+      <c r="DU2" s="4" t="inlineStr">
         <is>
           <t>Increase by 2.1% per year from 2008 to 2050</t>
         </is>
       </c>
-      <c r="DI2" s="4" t="inlineStr">
+      <c r="DV2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="DJ2" s="4" t="inlineStr">
+      <c r="DW2" s="4" t="inlineStr">
         <is>
           <t>7.1.a</t>
         </is>
       </c>
-      <c r="DK2" s="8">
+      <c r="DX2" s="8">
         <v>2014</v>
       </c>
-      <c r="DL2" s="8">
+      <c r="DY2" s="8">
         <v>2015</v>
       </c>
-      <c r="DM2" s="8">
+      <c r="DZ2" s="8">
         <v>2016</v>
       </c>
-      <c r="DN2" s="8">
+      <c r="EA2" s="8">
         <v>2017</v>
       </c>
-      <c r="DO2" s="8">
+      <c r="EB2" s="8">
         <v>2018</v>
       </c>
-      <c r="DP2" s="8">
+      <c r="EC2" s="8">
         <v>2019</v>
       </c>
-      <c r="DQ2" s="8">
+      <c r="ED2" s="8">
         <v>2020</v>
       </c>
-      <c r="DR2" s="4" t="inlineStr">
+      <c r="EE2" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="DS2" s="4" t="inlineStr">
+      <c r="EF2" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="DT2" s="4" t="inlineStr">
+      <c r="EG2" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="DU2" s="4" t="inlineStr">
+      <c r="EH2" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="DV2" s="4" t="inlineStr">
+      <c r="EI2" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="DW2" s="4" t="inlineStr">
+      <c r="EJ2" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="DX2" s="4" t="inlineStr">
+      <c r="EK2" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="DY2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DZ2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EB2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EC2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ED2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EE2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EF2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EG2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EH2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EI2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EJ2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EL2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EM2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EN2" s="4" t="inlineStr">
+      <c r="EL2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EM2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2637,27 +2720,27 @@
           <t/>
         </is>
       </c>
-      <c r="ES2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ET2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EV2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EW2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EX2" s="4" t="inlineStr">
+      <c r="ES2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ET2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EU2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EV2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EW2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2682,27 +2765,27 @@
           <t/>
         </is>
       </c>
-      <c r="FC2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FD2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FF2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FG2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FH2" s="4" t="inlineStr">
+      <c r="FC2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FD2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FE2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FF2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FG2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2727,27 +2810,27 @@
           <t/>
         </is>
       </c>
-      <c r="FM2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FN2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FP2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FQ2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FR2" s="4" t="inlineStr">
+      <c r="FM2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FN2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FO2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FP2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FQ2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2772,22 +2855,27 @@
           <t/>
         </is>
       </c>
-      <c r="FW2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FX2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GA2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GB2" s="4" t="inlineStr">
+      <c r="FW2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FX2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FY2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FZ2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GA2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2817,22 +2905,22 @@
           <t/>
         </is>
       </c>
-      <c r="GH2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GI2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GL2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GM2" s="4" t="inlineStr">
+      <c r="GH2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GI2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GJ2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GK2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2862,22 +2950,22 @@
           <t/>
         </is>
       </c>
-      <c r="GS2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GT2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GW2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GX2" s="4" t="inlineStr">
+      <c r="GS2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GT2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GU2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GV2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2907,22 +2995,22 @@
           <t/>
         </is>
       </c>
-      <c r="HD2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="HE2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="HH2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="HI2" s="4" t="inlineStr">
+      <c r="HD2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HE2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HF2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HG2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2954,357 +3042,432 @@
       </c>
       <c r="HO2" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HP2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HQ2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HR2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HU2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HV2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HW2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HX2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HY2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HZ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="IA2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="IB2" s="4" t="inlineStr">
+        <is>
           <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
-      <c r="HP2" s="4" t="inlineStr">
+      <c r="IC2" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="HQ2" s="4" t="inlineStr">
+      <c r="ID2" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität</t>
         </is>
       </c>
-      <c r="HR2" s="4" t="inlineStr">
+      <c r="IE2" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity</t>
         </is>
       </c>
-      <c r="HS2" s="8">
+      <c r="IF2" s="8">
         <v>2050</v>
       </c>
-      <c r="HT2" s="9">
+      <c r="IG2" s="9">
         <v>239.4</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
+          <t>Z07</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Bezahlbare und saubere Energie</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Affordable and clean energy</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Zugang zu bezahlbarer, verlässlicher, nachhaltiger und moderner Energie für alle sichern</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Ensure access to affordable, reliable, sustainable and modern energy for all</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>Z07</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Ressourcenschonung</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>Resource conservation</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Ressourcen sparsam und effizient nutzen</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>Using resources economically and efficiently</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität und Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity and primary energy consumption</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.&lt;br&gt;Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.&lt;br&gt;Final energy productivity means how much added value accrues from each unit of final energy used. It constitutes a measurement of energy efficiency in the production of goods and in household energy use. However, estimates of energy efficiency in the transformation process (plant efficiency) or in the transmission of energy (elimination of leakages, improved heat insulation, etc.) cannot be directly inferred from the indicator.&lt;br&gt;According to provisional findings, final energy productivity in the period from 2008 to 2019 increased by 15.4%, which equates to an average annual increase of about 1.4%. This means that the goal of an annual increase of 2.1% on average up to 2050 is not yet being achieved. In 2019, energy productivity showed a slight year-on-year decline of 0.6 percentage points.&lt;br&gt;Primary energy consumption registered a year-on-year decline in 2019. Provisional findings indicate that primary energy consumption fell by 11.1% in the period from 2008 to 2019. Accordingly, if the trend of past years were to remain unchanged, the target value for 2020 would not be achieved.</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>The final energy productivity indicator shows the trend of value added for each unit of final energy used. “Final energy” refers to the part of the energy that is available as thermal or electrical energy for the manufacture of goods or for use by households.&lt;br&gt;The primary energy consumption indicator shows how much energy has been consumed in a country, on the one hand for transformation by the energy industries and on the other hand in industry, households and transport.</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es mit möglichst wenig Energie, viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und zur Wettbewerbsfähigkeit der Industrie bei.&lt;br&gt;Dem Energiekonzept der Bundesregierung zufolge soll die Endenergieproduktivität in den Jahren 2008 bis 2050 jährlich um 2,1 % erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 %, bis 2030 um 30 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>After the promotion of renewable energies, the reduction of energy consumption through increased energy efficiency is the second pillar of the energy transition. The aim is to achieve a high level of economic output while using as little energy as possible. Energy saving protects the climate and the environment and helps to improve the security of supply and industrial competitiveness.&lt;br&gt;According to the German Government’s energy blueprint, final energy productivity is to be increased by 2.1% annually from 2008 to 2050. At the same time, primary energy consumption is to be reduced by 20% from its 2008 level by 2020, 30% by 2030 and 50% by 2050.</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>Endenergie- und Primärenergieverbrauch sind direkt miteinander verbunden. Der Endenergieverbrauch ergibt sich aus dem Primärenergieverbrauch abzüglich der Summe aus Umwandlungs-, Fackel- und Leitungsverlusten sowie der statistischen Differenz.&lt;br&gt;Der Primärenergieverbrauch ist die Summe aus den im Inland gewonnenen Primärenergieträgern, Vorratsentnahmen und sämtlichen importierten Energieträgern abzüglich der Bevorratung, Energieexporte und Hochseebunkerungen. Wesentliche Grundlage für die Berechnung des Energieverbrauchs sind die Daten der Energiebilanzen der Arbeitsgemeinschaft Energiebilanzen (AGEB), welche um Daten aus weiteren Quellen ergänzt werden.&lt;br&gt;Die Endenergieproduktivität gibt an, wie hoch die Wertschöpfung je eingesetzter Einheit Endenergie ist. Sie stellt ein Maß für die Energieeffizienz bei der Herstellung von Gütern und im Energieeinsatz der privaten Haushalte dar. Einschätzungen zur Energieeffizienz in den Umwandlungsbereichen (Wirkungsgrad der Kraftwerke) oder in der Energieübertragung und -speicherung (Beseitigung von Leckagen, bessere Wärmedämmung usw.) lassen sich anhand des Indikators jedoch nicht direkt ableiten.&lt;br&gt;Die Endenergieproduktivität hat sich nach vorläufigen Ergebnissen im Zeitraum 2008 bis 2019 um 15,4 % erhöht, was einem durchschnittlichen jährlichen Anstieg von rund 1,4 % entspricht. Somit wird das Ziel eines jährlichen Anstieges von durchschnittlich 2,1 % bis 2050 zum jetzigen Zeitpunkt noch nicht erreicht. Gegenüber dem Vorjahr ist die Energieproduktivität im Jahr 2019 um 0,6 Prozentpunkte gesunken.&lt;br&gt;Der Primärenergieverbrauch ist im Jahr 2019 gegenüber dem Vorjahr gesunken. Im gesamten Zeitraum von 2008 bis 2019 wurde der Primärenergieverbrauch nach vorläufigen Ergebnissen um 11,1 % reduziert. Bei gleichbleibender Entwicklung wie in den vergangenen Jahren würde der Zielwert im Jahr 2020 somit nicht erreicht.</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.&lt;br&gt;Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.&lt;br&gt;Final energy productivity means how much added value accrues from each unit of final energy used. It constitutes a measurement of energy efficiency in the production of goods and in household energy use. However, estimates of energy efficiency in the transformation process (plant efficiency) or in the transmission of energy (elimination of leakages, improved heat insulation, etc.) cannot be directly inferred from the indicator.&lt;br&gt;According to provisional findings, final energy productivity in the period from 2008 to 2019 increased by 15.4%, which equates to an average annual increase of about 1.4%. This means that the goal of an annual increase of 2.1% on average up to 2050 is not yet being achieved. In 2019, energy productivity showed a slight year-on-year decline of 0.6 percentage points.&lt;br&gt;Primary energy consumption registered a year-on-year decline in 2019. Provisional findings indicate that primary energy consumption fell by 11.1% in the period from 2008 to 2019. Accordingly, if the trend of past years were to remain unchanged, the target value for 2020 would not be achieved.</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>7.3.1</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="AB3" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="P3" s="6" t="b">
+      <c r="AC3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="AD3" s="4" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T3" s="7">
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG3" s="7">
         <v>0</v>
       </c>
-      <c r="U3" s="7">
+      <c r="AH3" s="7">
         <v>250</v>
       </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AG3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AI3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AJ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AL3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AM3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AN3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AO3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AP3" s="6" t="b">
+      <c r="AP3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AQ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AR3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS3" s="4" t="inlineStr">
+      <c r="BD3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
-      <c r="AT3" s="4" t="inlineStr">
+      <c r="BG3" s="4" t="inlineStr">
         <is>
           <t>2020 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Steigerung der Endenergieproduktivität um jährlich 2,1% gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
         </is>
       </c>
-      <c r="AU3" s="4" t="inlineStr">
+      <c r="BH3" s="4" t="inlineStr">
         <is>
           <t>2020 preliminary data.&lt;br&gt;The target represents an annual increase of 2.1% in final energy productivity from 2008 to 2050 (energy concept).</t>
         </is>
       </c>
-      <c r="AV3" s="4" t="inlineStr">
+      <c r="BI3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
-      <c r="AW3" s="4" t="inlineStr">
+      <c r="BJ3" s="4" t="inlineStr">
         <is>
           <t>2020 und 2021 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Senkung des Primärenergieverbrauchs um 20 % gegenüber 2008 bis 2020, um 30 % bis 2030 bzw. um 50 % gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
         </is>
       </c>
-      <c r="AX3" s="4" t="inlineStr">
+      <c r="BK3" s="4" t="inlineStr">
         <is>
           <t>2020 und 2021 preliminary data.&lt;br&gt;The target represents reduction of primary energy consumption by 20% compared to 2008 in 2020, by 30% to 2008 in 2030 or by 50% compared to 2008 in 2050 (energy concept).</t>
         </is>
       </c>
-      <c r="AY3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BA3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BB3" s="4" t="inlineStr">
+      <c r="BL3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO3" s="4" t="inlineStr">
         <is>
           <t>Deutschland</t>
         </is>
       </c>
-      <c r="BC3" s="4" t="inlineStr">
+      <c r="BP3" s="4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="BD3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE3" s="8">
+      <c r="BQ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BR3" s="8">
         <v>1</v>
       </c>
-      <c r="BF3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BH3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BJ3" s="6" t="b">
+      <c r="BS3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="BK3" s="6" t="b">
+      <c r="BX3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="BL3" s="6" t="b">
+      <c r="BY3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="BM3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BV3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BZ3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="CA3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC3" s="4" t="inlineStr">
+      <c r="CB3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3314,81 +3477,61 @@
           <t/>
         </is>
       </c>
-      <c r="CE3" s="4" t="inlineStr">
+      <c r="CF3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CH3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CJ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CL3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CN3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CQ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CR3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="CF3" s="4" t="inlineStr">
+      <c r="CS3" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="CG3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CH3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CJ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CL3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CN3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CQ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CR3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CS3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="CT3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3421,140 +3564,145 @@
       </c>
       <c r="CZ3" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DA3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DB3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DC3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DD3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DE3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DF3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DI3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DJ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DK3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DL3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DM3" s="4" t="inlineStr">
+        <is>
           <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="DA3" s="4" t="inlineStr">
+      <c r="DN3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DB3" s="4" t="inlineStr">
+      <c r="DO3" s="4" t="inlineStr">
         <is>
           <t>7.1.b</t>
         </is>
       </c>
-      <c r="DC3" s="4" t="inlineStr">
+      <c r="DP3" s="4" t="inlineStr">
         <is>
           <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="DD3" s="4" t="inlineStr">
+      <c r="DQ3" s="4" t="inlineStr">
         <is>
           <t>b) Primary energy consumption</t>
         </is>
       </c>
-      <c r="DE3" s="4" t="inlineStr">
+      <c r="DR3" s="4" t="inlineStr">
         <is>
           <t>Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="DF3" s="4" t="inlineStr">
+      <c r="DS3" s="4" t="inlineStr">
         <is>
           <t>Primary energy consumption</t>
         </is>
       </c>
-      <c r="DG3" s="4" t="inlineStr">
+      <c r="DT3" s="4" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
-      <c r="DH3" s="4" t="inlineStr">
+      <c r="DU3" s="4" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
         </is>
       </c>
-      <c r="DI3" s="4" t="inlineStr">
+      <c r="DV3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="DJ3" s="4" t="inlineStr">
+      <c r="DW3" s="4" t="inlineStr">
         <is>
           <t>7.1.b</t>
         </is>
       </c>
-      <c r="DK3" s="8">
+      <c r="DX3" s="8">
         <v>2015</v>
       </c>
-      <c r="DL3" s="8">
+      <c r="DY3" s="8">
         <v>2016</v>
       </c>
-      <c r="DM3" s="8">
+      <c r="DZ3" s="8">
         <v>2017</v>
       </c>
-      <c r="DN3" s="8">
+      <c r="EA3" s="8">
         <v>2018</v>
       </c>
-      <c r="DO3" s="8">
+      <c r="EB3" s="8">
         <v>2019</v>
       </c>
-      <c r="DP3" s="8">
+      <c r="EC3" s="8">
         <v>2020</v>
       </c>
-      <c r="DQ3" s="8">
+      <c r="ED3" s="8">
         <v>2021</v>
       </c>
-      <c r="DR3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DS3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DT3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DU3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DV3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DW3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DX3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DY3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DZ3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EB3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EC3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ED3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="EE3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3575,211 +3723,216 @@
           <t/>
         </is>
       </c>
-      <c r="EI3" s="5" t="inlineStr">
+      <c r="EI3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EJ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EK3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EL3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EM3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EO3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EP3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EQ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ER3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ES3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ET3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EU3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EV3" s="5" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020 gegenüber 2008</t>
         </is>
       </c>
-      <c r="EJ3" s="5" t="inlineStr">
+      <c r="EW3" s="5" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020 compared to 2008</t>
         </is>
       </c>
-      <c r="EK3" s="7">
+      <c r="EX3" s="7">
         <v>2020</v>
       </c>
-      <c r="EL3" s="4" t="inlineStr">
+      <c r="EY3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="EM3" s="4" t="inlineStr">
+      <c r="EZ3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="EN3" s="4" t="inlineStr">
+      <c r="FA3" s="4" t="inlineStr">
         <is>
           <t>Blitz</t>
         </is>
       </c>
-      <c r="EO3" s="4" t="inlineStr">
+      <c r="FB3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="EP3" s="4" t="inlineStr">
+      <c r="FC3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="EQ3" s="4" t="inlineStr">
+      <c r="FD3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="ER3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ES3" s="5" t="inlineStr">
+      <c r="FE3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="FF3" s="5" t="inlineStr">
         <is>
           <t>Senkung um 30 % bis 2030 gegenüber 2008</t>
         </is>
       </c>
-      <c r="ET3" s="5" t="inlineStr">
+      <c r="FG3" s="5" t="inlineStr">
         <is>
           <t>Reduction by 30% by 2030 compared to 2008</t>
         </is>
       </c>
-      <c r="EU3" s="7">
+      <c r="FH3" s="7">
         <v>2030</v>
       </c>
-      <c r="EV3" s="4" t="inlineStr">
+      <c r="FI3" s="4" t="inlineStr">
         <is>
           <t>Leicht bewölkt</t>
         </is>
       </c>
-      <c r="EW3" s="4" t="inlineStr">
+      <c r="FJ3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="EX3" s="4" t="inlineStr">
+      <c r="FK3" s="4" t="inlineStr">
         <is>
           <t>Blitz</t>
         </is>
       </c>
-      <c r="EY3" s="4" t="inlineStr">
+      <c r="FL3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="EZ3" s="4" t="inlineStr">
+      <c r="FM3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="FA3" s="4" t="inlineStr">
+      <c r="FN3" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="FB3" s="4" t="inlineStr">
+      <c r="FO3" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="FC3" s="5" t="inlineStr">
+      <c r="FP3" s="5" t="inlineStr">
         <is>
           <t>Senkung um 50 % bis 2050 gegenüber 2008</t>
         </is>
       </c>
-      <c r="FD3" s="5" t="inlineStr">
+      <c r="FQ3" s="5" t="inlineStr">
         <is>
           <t>Reduction 50% by 2050 compared to 2008</t>
         </is>
       </c>
-      <c r="FE3" s="7">
+      <c r="FR3" s="7">
         <v>2050</v>
       </c>
-      <c r="FF3" s="4" t="inlineStr">
+      <c r="FS3" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="FG3" s="4" t="inlineStr">
+      <c r="FT3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="FH3" s="4" t="inlineStr">
+      <c r="FU3" s="4" t="inlineStr">
         <is>
           <t>Blitz</t>
         </is>
       </c>
-      <c r="FI3" s="4" t="inlineStr">
+      <c r="FV3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="FJ3" s="4" t="inlineStr">
+      <c r="FW3" s="4" t="inlineStr">
         <is>
           <t>Wolke</t>
         </is>
       </c>
-      <c r="FK3" s="4" t="inlineStr">
+      <c r="FX3" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="FL3" s="4" t="inlineStr">
+      <c r="FY3" s="4" t="inlineStr">
         <is>
           <t>Sonne</t>
         </is>
       </c>
-      <c r="FM3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FN3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FP3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FQ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FR3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FS3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FT3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FU3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FV3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FW3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="FX3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GA3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GB3" s="4" t="inlineStr">
+      <c r="FZ3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GA3" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3809,74 +3962,74 @@
           <t/>
         </is>
       </c>
-      <c r="GH3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GI3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GJ3" s="7">
+      <c r="GH3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GI3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GJ3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GK3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GN3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GO3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GP3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GQ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GR3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GS3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GT3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GU3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GV3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="GW3" s="7">
         <v>2020</v>
       </c>
-      <c r="GL3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GM3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GN3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GO3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GP3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GQ3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GR3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GS3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GT3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GW3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="GX3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="GY3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3902,22 +4055,22 @@
           <t/>
         </is>
       </c>
-      <c r="HD3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="HE3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="HH3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="HI3" s="4" t="inlineStr">
+      <c r="HD3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HE3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HF3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HG3" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3949,40 +4102,95 @@
       </c>
       <c r="HO3" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HP3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HQ3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HR3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HU3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HV3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HW3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HX3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HY3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="HZ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="IA3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="IB3" s="4" t="inlineStr">
+        <is>
           <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
-      <c r="HP3" s="4" t="inlineStr">
+      <c r="IC3" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
-      <c r="HQ3" s="4" t="inlineStr">
+      <c r="ID3" s="4" t="inlineStr">
         <is>
           <t>Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="HR3" s="4" t="inlineStr">
+      <c r="IE3" s="4" t="inlineStr">
         <is>
           <t>Primary energy consumption</t>
         </is>
       </c>
-      <c r="HS3" s="8">
+      <c r="IF3" s="8">
         <v>2020</v>
       </c>
-      <c r="HT3" s="9">
+      <c r="IG3" s="9">
         <v>80</v>
       </c>
-      <c r="HU3" s="8">
+      <c r="IH3" s="8">
         <v>2030</v>
       </c>
-      <c r="HV3" s="9">
+      <c r="II3" s="9">
         <v>70</v>
       </c>
-      <c r="HW3" s="8">
+      <c r="IJ3" s="8">
         <v>2050</v>
       </c>
-      <c r="HX3" s="9">
+      <c r="IK3" s="9">
         <v>50</v>
       </c>
     </row>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -578,7 +578,7 @@
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
     <col customWidth="true" min="18" max="18" width="13.8359375"/>
     <col customWidth="true" min="19" max="19" width="20.5078125"/>
-    <col customWidth="true" min="20" max="20" width="13.8359375"/>
+    <col customWidth="true" min="20" max="20" width="24.31640625"/>
     <col customWidth="true" min="21" max="21" width="29.8828125"/>
     <col customWidth="true" min="22" max="22" width="13.8359375"/>
     <col customWidth="true" min="23" max="23" width="14.20703125"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t>The calculation of the indicator takes account of nitrogen input resulting from fertilisers, from biological fixation, from atmospheric deposition, from seeds and plants and from animal feed. Nitrogen removal takes place through plant and animal market products. The surplus nitrogen may escape in gaseous form into the atmosphere, be enriched in the soil or leach into groundwater. In this way it can ultimately find its way into rivers or other ecosystems too. Here, the nitrogen surplus in agriculture has a direct effect on the trend in indicators 6.1.b (Nitrate in groundwater), 14.1.a (Nitrogen input via the inflows into the North and Baltic Seas) and 15.2 (Eutrophication of ecosystems) In the case of indicator 3.2.a (Emissions of air pollutants), nitrogen is released into the atmosphere as a result of agriculture impacts on the formation of nitrogen dioxides and ammonia.&lt;br&gt;The indicator is calculated by the Institute for Crop and Soil Science at the Julius Kühn Institute and the Institute of Landscape Ecology and Resources Management at the University of Giessen. &lt;br&gt;For 2018, fertilisers were found to be the main source of nitrogen input, accounting for 54.5% (94 kg nitrogen per hectare) in the overall nitrogen balance. Other important sources of nitrogen input were animal feed, with 34.1% (59 kg/ha), biological fixation, with 7.6% (13 kg/ha) and non-agricultural emissions, with 1.8% (3 kg/ha). The calculation of the indicator is based on a five-year moving average, the mean value being obtained from five reference years. The five-year moving average provides the value for the middle year of the five reference years. The figure thus takes account of year-to-year fluctuations caused by meteorological and market conditions which are beyond the control of farms. The indicator gives no information on the regional distribution of nitrogen surpluses. For the years 2016 and 2017 various input data were retrospectively updated. The calculation method was also revised, and some coefficients were updated. This has given rise to divergences from the indicator values shown in the previous publication.&lt;br&gt;In the period from 1992 to 2016, the moving five-year average nitrogen surplus fell by 19.9% from 116.6 to 93.3 kilograms per hectare/year. The reductions in the nitrogen surplus, however, are largely due to developments from the start of the time series until 2011. Since then the nitrogen surplus has stagnated, and it now remains at the 2011 level of 93 kg/ha. If the current trend continues, the aim of a reduction to an annual average of 70 kilograms per hectare of utilised agricultural area by the reference period 2028-2032 will not be achievable. The significant reduction of the nitrogen surplus at the start of the 1990s resulted from reduced use of fertilisers and falling livestock numbers in the new Länder. The comparatively meagre decline over the remainder of the time series stemmed from a slight decline in the use of mineral fertilisers and higher crop yields resulting from technical progress in plant production and cultivation, reflected in more efficient nitrogen usage and in the range of crop varieties. The same period has seen increases in the area given over to high-yield crops, such as maize and wheat, and improvements in feed conversion efficiency in livestock farming.</t>
+          <t>Der Indikator stellt den jährlichen Stickstoffüberschuss für den Sektor Landwirtschaft, berechnet als Stickstoffzufuhr abzüglich Abfuhr von Stickstoff, in Kilogramm (kg) je Hektar (ha) und Jahr landwirtschaftlich genutzter Fläche dar.</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>Data on organic farming is collected by the Federal Office for Agriculture and Food (BLE) on behalf of the Federal Ministry of Food and Agriculture (BMEL) and by the Federal Statistical Office.&lt;br&gt;The Federal Statistical Office uses various surveys to determine the area of organically farmed land. The reference value in the percentage computation is the total utilised agricultural area determined in the annual land survey. The agriculturally utilised area comprises all surfaces used for agricultural or horticultural purposes. Accordingly, building and farmyard areas of agricultural holdings are not included in the reference value.&lt;br&gt;The data collected by the BMEL includes details of the amount of organically farmed land reported annually by the organic regulatory authorities of the Länder. The reporting date is 31 December of each year. All reports for a current year are accumulated no later than this reporting date. The values shown in the data held by the Federal Ministry of Food and Agriculture are somewhat higher. One of the reasons for this is that areas not subject to cut-off thresholds are measured against areas to which cut-off thresholds apply. This means that, in the calculation of the percentage, the numerator includes very small plots, whereas only areas of a certain minimum size count towards the denominator.&lt;br&gt;According to the data held by the Federal Statistical Office, the share of organically farmed land increased from 2.9% to 7.8% of the utilised agricultural area between 1999 and 2019. The figure for 2019 corresponds to an organically farmed area of 1.29 million hectares. The data from the Federal Ministry of Food and Agriculture indicate a higher percentage of organically farmed agricultural land. According to those data the value for 2019 was 9.7% or 1.61 million hectares.&lt;br&gt;Although the last few years have seen a further increase in the area of organically farmed land, the annual percentage increase from year to year has fluctuated widely. Percentage growth stagnated, for example, between 2016 and 2017 but rose sharply again in the period from 2017 to 2019. On the basis of the figures from the Federal Statistical Office, if the trend of the last five reference years were to continue, the target of 20% of utilised agricultural area being farmed organically by 2030 would not be achieved.&lt;br&gt;Germany’s organically farmed land was used as follows in 2019: 57.2% as permanent pasture, 46.7% as arable land and 1.8% for other uses. By contrast, the main use in agriculture as a whole was as arable land, with 70.4%, while the share of permanent pasture was 28.5% and other uses accounted for 1.2% of total utilised agricultural area. According to the results of the 2016 agricultural structure survey, Bavaria held the largest share of organically farmed land among all the Länder with around 23%, followed by Brandenburg with 12% and Baden-Württemberg with just under 12%.&lt;br&gt;The conversion to organic farming is promoted to varying degrees by the individual Länder.&lt;br&gt;According to Eurostat data, a total area of 13.4 million hectares was organically farmed in the EU-28 states in 2018. This represented 7.5% of the entire utilised agricultural area. The highest ratios of organically farmed land within EU countries were registered for Austria, with 24.1%, followed by Estonia with 20.6%, Sweden with 20.3%, Italy with 15.2% and the Czech Republic with 14.8%.</t>
+          <t>Der Indikator stellt die ökologisch bewirtschaftete Fläche landwirtschaftlicher Betriebe, die dem Kontrollverfahren der EU-Rechtsvorschriften für den ökologischen Landbau unterliegen (Verordnung [EG] Nr. 834/2007 und Durchführungsvorschriften), als Anteil an der gesamten landwirtschaftlich bewirtschafteten Fläche in Deutschland dar. Hierbei sind sowohl die voll auf ökologische Bewirtschaftung umgestellten als auch die noch in der Umstellung befindlichen Flächen einbezogen.</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
@@ -2843,7 +2843,8 @@
       </c>
       <c r="S5" s="5" t="inlineStr">
         <is>
-          <t>The collection of data for the indicator is undertaken by the Federal Ministry of Food and Agriculture (BMEL) and the Federal Ministry for Economic Cooperation and Development (BMZ). To this end, all project and programme documents relating to food security projects are examined. The initial survey for 2016 was reviewed externally. That validation revealed that the data collection criteria and the definition of good governance needed to be specified in order to ensure comparability of the results. The methodology was subsequently revised.&lt;br&gt;A project is now counted if the objective, the effect matrix or the project description (a) specifically names a guideline or recommendation of the Global Strategic Framework for Food Security and Nutrition, or (b) a core element of the content of a guideline/recommendation is a substantial part of the project, and the project simultaneously aims to improve legal, institutional or political conditions. There must be congruity with the recording of the related spending as official development assistance (ODA).&lt;br&gt;In 2016, EUR 148 million of ODA for food security fell under the subheading of governance. On the basis of the revised methodology, this amount corresponds to 16.7% of the total expenditure of EUR 887 million. Both the total expenditure and the expenditure under the subheading of governance are thus considerably lower than the values calculated before the methodology was revised, which put governance expenditure for 2016 at 32% of a total of EUR 1,472 million. This is primarily due to a redefinition of the concept of governance and the use of an additional criterion in the form of the OECD governance indicator or, alternatively, of the governance criteria used in German development cooperation. &lt;br&gt;In 2018, a total of EUR 223 million, or 18.3% of the total expenditure of EUR 1,215 million on ODA for food security, fell under the subheading of governance. Compared with the total amount of official development assistance, however, the proportions allocated to both governance and food security are small. In 2018, for example, total spending on ODA amounted to EUR 25 billion. Of that amount, 4.9% went to food security and 0.9% to good governance within the realm of food security.&lt;br&gt;The indicator represents one facet of Germany’s contribution to the achievement of SDG 2. In recent years the overall situation in the countries with which Germany engages in development cooperation initially showed a considerable improvement. According to figures from the United Nations Food and Agriculture Organization (FAO), the percentage of people suffering from undernourishment in these partner countries fell from 19% in the year 2000 to 14% in 2015. Current FAO estimates, however, indicate that the undernourishment rate has been rising worldwide since 2015 and that 280 million people were undernourished in 2018. That corresponds to 11% of the world’s population.</t>
+          <t>Der Indikator misst in Prozent den Anteil der ausgezahlten Mittel an den Gesamtausgaben für Ernährungssicherung, mit dem die Anwendung relevanter internationaler Normen und Empfehlungen zur Verwirklichung des Rechts auf Nahrung (definiert nach dem Global Strategic Framework des Ausschusses für die Welternährungssicherheit der Vereinten Nationen) unterstützt werden.
+</t>
         </is>
       </c>
       <c r="T5" s="5" t="inlineStr">
@@ -3340,7 +3341,8 @@
       </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
-          <t>The data sources are the cause of death statistics and the population statistics of the Federal Statistical Office. For the cause of death statistics, all official death certificates are recorded and evaluated. The population statistics shows the current population data based on the results of the most recent census. The data relate to the old European standard population. A standard population is a modelled population that makes it possible to compare change rates over time. The cohort under one year of age, and hence infant mortality, is disregarded. The indicator is also part of the health reporting conducted by the Federal Government.&lt;br&gt;Premature mortality decreased steadily between 1991 and 2018 for both women (-36%) and men (-43%). The larger decline among men has also reduced the gender-specific difference in premature mortality. In 2018, for example, 151 women and 279 men per 100,000 inhabitants died before the age of 70. If the trend of past years remains unchanged, however, the gender-specific targets for 2030 will be missed.&lt;br&gt;Reflecting the steady decrease in premature mortality, life expectancy in Germany has continued to follow an upward curve. Todays 70-year-old women can, statistically, expect to live another 17.0 years and 60-year-old men another 14.3.&lt;br&gt;In the period from 2016 to 2018, the average life expectancy for newborn girls was 83.3 years and for boys 78.5 years, which was 4.3 years more for girls and 6.0 years more for boys girls than in the years 1991 to 1993. Differences in life expectancy between the old Länder and the new Länder (each excluding Berlin) are to be seen only among newborn boys. This difference amounts to 1.4 years.&lt;br&gt;The main cause of premature mortality in 2018 was malignant tumours, accounting for 37.0% of premature deaths, followed by cardiovascular diseases at 20.1%. At 8.9%, fatalities due to external causes, such as accidents, poisoning and suicide, were also a significant factor. Diseases of the digestive and respiratory systems contributed with figures of 7.0% and 5.9% respectively. Since 1991, the share of malignant tumours and diseases of the respiratory system among all causes of death have increased by 11.2% and 47.1% respectively. In contrast, there have been decreases in the shares of cardiovascular diseases (-35.4%), external causes (-19.0%) and diseases of the digestive system (-8.3%).&lt;br&gt;Besides factors such as health related behaviour (see, for instance, indicators 3.1.c and 3.1.d on adolescent and adult smoking rates or 3.1.e and 3.1.f on child/adolescent and adult obesity rates), medical care also has a important influence on mortality rates. Health expenditure rose to EUR 391 billion in 2018. This was EUR 15 billion or 4.0% higher than in 2017. This expenditure corresponds to 11.7% of Germany’s gross domestic product. It is equivalent to an annual amount of EUR 4,712 per head of population, compared with EUR 4,545 in 2017.</t>
+          <t>Der Indikator umfasst die Todesfälle der weiblichen (3.1.a) und männlichen (3.1.b) unter 70-jährigen Bevölkerung, bezogen auf 100 000 Einwohnerinnen und Einwohner der alten Europastandardbevölkerung unter 70 Jahren (unter Ausschluss der unter 1-Jährigen).
+</t>
         </is>
       </c>
       <c r="T6" s="5" t="inlineStr">
@@ -3837,7 +3839,7 @@
       </c>
       <c r="S7" s="5" t="inlineStr">
         <is>
-          <t>The data for adolescents are collected in surveys on substance consumption among adolescents and young adults which are conducted by means of telephone interviews by the Federal Centre for Health Education. The surveys initially took place at intervals of three to four years, but since 2001 they have been conducted almost every year. In order to ensure that the data are comparable over time, they are weighted on the basis of gender, region and age. The data for years without surveys have been interpolated for inclusion in the time series. The random sample used in 2019 comprised 7,000 adolescents and young adults.&lt;br&gt;The data for adults is surveyed every four years as part of the microcensus conducted by the Federal Statistical Office. The data for years without surveys have been interpolated for inclusion in the time series for the indicator. The microcensus, which is a sample survey, covers 1% of the whole population and is the largest household survey in Germany and Europe. The responses to the questions regarding smoking habits are voluntary and were provided by 79% of respondents in 2017.&lt;br&gt;In the group of adolescents between 12 and 17 years of age, the proportion of smokers initially increased from 23.9% (1995) to 28.1% (1997 and 2001), but then declined steadily to 5.6% (5.2% for adolescent girls, 6.0% of adolescent boys) by 2019. Provided that the trend of recent years is maintained, the target value set for 2030 is already achieved.&lt;br&gt;In 2017, a total of 22.4% of the sample population above the age of 15 indicated that they smoked occasionally or regularly. This compares with a figure of 28.3 % for 1995 and 1999. The smoking rate for adults, in other words, has shown only a slight decrease. If the average trend over the last five years is maintained, the target for this sub-indicator can also be achieved.&lt;br&gt;In 2017, 18.8% of all adult respondents aged 15 years or older considered themselves regular smokers, while 3.7% smoked occasionally. The rate among women (18.6%) was significantly lower than for men (26.4%). While the proportion of women smokers has fallen by 2.9 percentage points since 1995, the proportion of men who smoke has dropped by 9.2 percentage points.&lt;br&gt;In 2017, 96.2% of the respondent smokers preferred cigarettes. The frequency of tobacco consumption is important when considering the threat to the health of individuals. A total of 10.8% of regular smokers, compared with 17.4% in 1995, fell into the category of heavy smokers with more than 20 cigarettes a day, while 81.4% smoked 5 to 20 a day. Within these figures there were also differences between the sexes. Almost one in seven of the male regular cigarette smokers was a heavy smoker, but only one in thirteen of the female smokers.&lt;br&gt;Smoking poses a high but avoidable risk to health. In 2018, 4.8% of all deaths (3.4% among women, 6.3% among men) could be attributed to symptomatic diseases for smokers (lung, bronchial, laryngeal and tracheal cancers). In 2018, the average age of those who died of lung, bronchial, and tracheal cancers was 71.1 years, which is more than seven years below the average age at death (78.4 years). Lower smoking rates would therefore help reduce premature mortality.</t>
+          <t>Die Raucherquote von Jugendlichen (3.1.c) gibt den Anteil der 12- bis 17-Jährigen wieder, die angeben, gelegentlich oder ständig zu rauchen. Die Raucherquote von Erwachsenen (3.1.d) gibt den Anteil der Befragten ab 15 Jahren an, welche im Mikrozensus die Fragen zum Rauchverhalten beantwortet haben und gelegentlich oder regelmäßig rauchen.</t>
         </is>
       </c>
       <c r="T7" s="5" t="inlineStr">
@@ -4334,7 +4336,7 @@
       </c>
       <c r="S8" s="5" t="inlineStr">
         <is>
-          <t>The body mass index (BMI) is a benchmark that is used to identify excess weight and especially obesity. It is calculated by dividing the body weight in kilograms by the square of an individual’s height in metres (kg/m²). This calculation does not take account of age- and gender-specific differences or of an individual’s body mass composition. Since the ratio of height to weight constantly changes in children and adolescents, there is no single threshold value for all age groups for the classification of excess weight and obesity. Excess weight and obesity among children and adolescents are defined by using an individual’s age and gender to compare his or her BMI with those of a predefined reference population. The percentile reference values proposed by Katrin Kromeyer-Hauschild are used as a comparison, as recommended by the Childhood Obesity Federation (AGA). In this method, children and adolescents are said to be overweight if their BMI is above the 90th age and gender-specific percentile of the reference population (&gt; P90), that is to say if they fall within the range of those 10% of the reference group with the highest BMIs. A BMI above the 97th percentile of the reference population (i.e. as high as the 3% of children and adolescents with the highest BMIs) is classified as obesity (&gt; P97). For example, girls and boys aged three with a BMI of 18.8 kg/m² are considered to be obese. These reference values are based on details of body size and weight that were recorded between 1985 and 1998 in various regions of Germany, using different methods.&lt;br&gt;The data for the indicator was collected by the Robert Koch Institute. The German Health Interview and Examination Survey for Children and Adolescents (KiGGS) for the period 2003 to 2006 delivered the first nationwide representative findings. Comparable measurement data are available for the period from 2014 to 2017 from the second follow-up of the KiGGS study (KiGGS Wave 2). To allow proper data comparison, the findings were standardised on the basis of extrapolated population data for 31 December 2015.&lt;br&gt;For the 2014-2017 period, 3.9% of the 3 to 10-year-olds and 8.0% of the 11 to 17-year-olds were classed as obese. While there were no differences between the sexes in the 3-10 age group, the rates for the 11 to 17-year-olds were 7.2% for girls and 8.7% for boys. In the period from 2003 to 2006, the proportion of 3 to 10-year-olds with obesity was about 5.2%; among the 11 to 17-year-olds, it was about 8.3%. In that period too, girls and boys in the 3-10 age group were equally affected. The figure for the 11-17 age group broke down into 8.2% of the girls and 8.4% of the boys. The obesity rate has therefore fallen more sharply among 3 to 10-year-olds than in the 11-17 age group. While it fell by 1.0 percentage points among girls aged 11 to 17, it showed a slight increase of 0.3 of a percentage point among boys in that age group.&lt;br&gt;The percentage of overweight 11-17-year-olds (&gt; P90) had not changed substantially since the 2003-2006 period, showing a decline of 0.6 of a percentage point to 12.3% in the 3-10 age group and an increase of 0.6 of a percentage point to 18.7% among 11 to 17-year-olds.&lt;br&gt;Key factors in becoming overweight are nutrition and exercise habits, which vary considerably when the findings are examined in the light of socio-economic status (SES). The findings of KiGGS Wave 2 confirm that 3 to 17-year-olds with a low socio-economic status more often have an unhealthy diet and more rarely take part in sport than their contemporaries with a higher socio-economic status. The risk of excess weight and obesity among 3 to 17-year-olds with a low socio-economic status are about three to four times greater than in the high status group; each group comprises about 20% of the sample population.</t>
+          <t>Der Indikator gibt den Anteil der 3- bis 10-Jährigen sowie der 11- bis 17-Jährigen mit Adipositas an.</t>
         </is>
       </c>
       <c r="T8" s="5" t="inlineStr">
@@ -4831,7 +4833,7 @@
       </c>
       <c r="S9" s="5" t="inlineStr">
         <is>
-          <t>The body mass index (BMI) is a benchmark that is used to identify excess weight and especially obesity. It is calculated by dividing the body weight in kilograms by the square of an individual’s height in metres (kg/m²). This calculation does not take account of age- and gender-specific differences or of an individual’s body mass composition.&lt;br&gt;People with a BMI of 25 and above are regarded as overweight, according to the World Health Organization (WHO) classification, and those with a BMI of 30 as obese.&lt;br&gt;The data basis for the indicator is the microcensus conducted by the Federal Statistical Office. That sample survey covers 1% of the total population. The questions on health are asked every four years as a rule, and responses to them are voluntary. The indicator is thus based on the proportion of the population with a BMI of 30 and higher who answered the questions concerning body weight and height in the microcensus.&lt;br&gt;The corresponding data were standardised relative to the European population of 1990 to allow comparisons of data from different years and regions without distortions resulting from diverse age structures. Since the questions on health in the microcensus are not asked annually, the chart data for the intervening years have been interpolated. Where people provide information about themselves, as in the microcensus, body weight is often understated compared with measured values, whereas height is more likely to be overstated. As a result, the BMI calculated on the basis of respondents’ own information is lower than a BMI based on measured data.&lt;br&gt;In 2017, 14.8% of the population in Germany over the age of 18 were classified as obese. The obesity rate for men in this population, at 16.4%, was higher than that for women (13.0%). In 1999, 10.7% of the population were obese. At that time too, the proportion of women affected by obesity (10.2%) was slightly lower than that of men (11.1%). The obesity rate among adults, in other words, has increased and so is moving away from the goal of the German Sustainable Development Strategy. A further 34.0% of the population aged 18 and above had a BMI of at least 25 but below 30 in 2017. This means that 48.8% have a BMI of 25 or more and are therefore considered overweight. Again, the proportion of women (39.0%) was lower than that of men (58.0%).&lt;br&gt;The proportion of adults suffering from obesity increases with age and does not decrease until an advanced age is reached. In 2017, 3.4% of 18- to 19-year-old women were obese. For the 30-34 age group, the figure had already risen to 10.1%. The obesity rate for women peaked in the 65-69 age group at 21.7%. In each of the age groups below 75, the obesity rate for men was higher than for women of the same age, the highest rates being recorded in the 60-64 age group, at 24.5%, and the 65-69 age group, at 25.3%.</t>
+          <t>Der Indikator gibt den Anteil der Erwachsenen (ab 18 Jahren) mit Adipositas an der erwachsenen Gesamtbevölkerung an.</t>
         </is>
       </c>
       <c r="T9" s="5" t="inlineStr">
@@ -5328,7 +5330,7 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>Germany has made a commitment to the European Union to reduce emissions of air pollutants by 2030 as follows: Sulphur dioxide by 58%, nitrogen oxides by 65%, ammonia by 29%, volatile organic compounds by 28% and particulate matter by 43%. On this basis, the Federal Environment Agency calculated a non-weighted, arithmetic mean of the individual reductions in the specified air pollutants as a target. The rates of change in the individual air pollutants are offset equally against one another. Notwithstanding the separate reduction targets, this means that increasing emissions of individual pollutants covered by this indicator may be offset by higher reductions in the emissions of other pollutants.&lt;br&gt;The data are computed annually by the Federal Environment Agency from various sources. They serve as a basis for the reporting obligation under the Geneva Convention on Long-Range Transboundary Air Pollution (CLRTAP) and the National Emission Ceilings (NEC) Directive. The data undergo further analysis as part of the environmental economic accounting performed by the Federal Statistical Office. The emissions, for instance, are broken down by origin into various branches of economic activity and private households.&lt;br&gt;Overall emissions of air pollutants fell by 24.7% from 2005 to 2018. The indicator has thus moved in the desired direction, and the target for 2030 will be achieved if the trend is maintained. Emissions of individual pollutants changed to varying degrees, however, in the period from 2005 to 2018.&lt;br&gt;Emissions of non-methane volatile organic compounds (NMVOC)s, which are primarily due to the industrial use of solvents, were reduced by a significant 24.6% during that period. This means that the targeted reduction of 28% by 2030 is achievable.&lt;br&gt;Emissions of particulate matter (PM2.5) fell by 31.5% in the aforesaid period. If the annual average trend were maintained, the set reduction target would be achieved for these emissions too. The largest source of particulate emissions in 2018 was industry, which accounted for 29.3% of the total. Households and small-scale consumers discharged 24.1%, chiefly from heating systems. Transport accounted for 25.5% of particulate emissions, which was 10.6 percentage points down on 2005.&lt;br&gt;Emissions of nitrogen oxides (NOxx) fell by 27.0% from 2005 to 2018 and so are heading in the desired direction. The average reduction of the past few years, however, would not suffice to meet the target. The majority of nitrogen oxides emitted in 2018 came from transport and the energy industry.&lt;br&gt;Emissions of sulphur dioxide (SO2), which are mainly discharged by the energy industry, fell by 39.5% in the reference period. This trend has moved in the right direction. The average reduction of the past few years would be sufficient to meet the target.&lt;br&gt;Emissions of ammonia (NH3) declined by 0.8% from 2005 to 2018 and remain persistently high. This stagnation is mainly due to the spreading of fermentation residues from fuel crops. According to calculations by the Federal Environment Agency, 95.3% of all national ammonia emissions in 2018 originated from agricultural production, particularly livestock farming.</t>
+          <t>Der Indikator stellt den Mittelwert der Indizes der nationalen Emissionen der fünf Luftschadstoffe Schwefeldioxid (SO2), Stickstoffoxid (NOx), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2.5) dar.</t>
         </is>
       </c>
       <c r="T10" s="5" t="inlineStr">
@@ -5825,7 +5827,7 @@
       </c>
       <c r="S11" s="5" t="inlineStr">
         <is>
-          <t>Direct sources of particulate matter are the industrial generation of energy and heat, agriculture, road traffic and heating, particularly with solid fuels and more especially with wood in household fireplaces or stoves. Particulate matter, however, can also occur through the formation of secondary particles as a result of chemical reactions with precursors such as sulphur oxide, nitrogen oxides, ammonia and organic carbon.&lt;br&gt;The particulate matter (PM10) contained in the air is measured at a total of more than 370 air monitoring sites in both metropolitan and rural areas of Germany. For methodological reasons, the indicator is based only on the readings from the monitoring sites that are not exposed to direct particulate emissions from traffic or to any other significant local sources, because these measure only high localised concentrations (hot spots) and not area-wide particulate air pollution. From a combination of model results with the measured monitoring data on background concentrations, the particulate concentrations for the whole area of Germany are obtained. These concentrations are combined with information on population distribution to determine the number of persons who are exposed to annual mean particulate pollution of more than 20 micrograms per cubic metre of air at their place of residence. Since the model includes only those monitoring sites which are not exposed to direct particulate emissions from local sources, it may be assumed that the indicator underestimates the actual number of persons whose exposure to particulate matter exceeds the guideline value of the World Health Organization.&lt;br&gt;Rather than reflecting nationwide adherence to the guideline value, the indicator therefore depicts the level of adherence for the population who live in places remote from sources of high particulate emissions. It says nothing about the exposure level of the population as a whole or about variations in the course of the year. This indicator, moreover, does not take separate account of emissions of finer particulates (PM2.5 and PM0.1).&lt;br&gt;Exposure to PM10 fell considerably from 2007 to 2018. The average exposure, weighted by population, was around 18.9 micrograms per cubic metre of air in 2007, it was down to about 15.4 µg/m³ by 2018. Over the same period there was also a sharp fall in the number of people who were exposed at their place of residence to annual mean concentrations of more than 20 µg of PM10 per m³. In 2007, there were 29.7 million such persons, but in 2018 there were only about 2.9 million.&lt;br&gt;Weather also influences the measurements of airborne particulate matter. Part of the reason for the sharp drop in 2011 and subsequent years is presumably that there were relatively few instances of temperature inversion in the winter months, although that curve has flattened out since 2015. Depending on wind speed, direction and air temperature, particulate matter may be transported into other regions and countries or else, during inversions, may become more concentrated at its place of origin.&lt;br&gt;If the average trend of recent years continues, the target of ensuring that the population nationwide is exposed to an annual mean concentration of less that 20 µg of airborne PM10 per cubic metre is likely to be achieved.</t>
+          <t>Der Indikator zeigt die Anzahl an Personen, die an ihrem Wohnort im Jahresmittel einer Exposition von mehr als 20 Mikrogramm (µg) Feinstaub PM10 (Staubteilchen mit einem Durchmesser kleiner 10 Mikrometer) pro Kubikmeter (m³) Luft ausgesetzt waren (nur Hintergrundbelastungen, ohne lokale Quellen).</t>
         </is>
       </c>
       <c r="T11" s="5" t="inlineStr">
@@ -6322,7 +6324,7 @@
       </c>
       <c r="S12" s="5" t="inlineStr">
         <is>
-          <t>The data for the indicator come from special analyses of the relevant budget headings and commitment appropriations from the Federal Foreign Office, the Federal Ministry of Education and Research, the Federal Ministry of Health and the Federal Ministry for Economic Cooperation and Development. Programmes are taken into account in the analyses if, by dint of their objectives, they fall directly under the heading of pandemic prevention and response or if they are primarily intended to enhance relevant capabilities in the field of health care. The programmes cover matters such as the pandemic prevention and response functions of the World Health Organization (WHO), sanitation, One Health (a holistic approach that recognises the interconnection between human, animal and environmental health), vaccination infrastructure and research and development, both at home and abroad, in so far as the R&amp;D findings and innovations also benefit the countries of the Global South. Additionally, programmes launched in response to the COVID-19 pandemic have also been taken into account. The latter include WHO programmes and activities, humanitarian aid, vaccine development, crisis response and emergency assistance and loans to help health services in countries of the Global South to respond to the crisis. By definition, expenditure and pledges made in response to the COVID-19 pandemic are excluded from the indicator and shown separately.&lt;br&gt;As regards the figures, it should be noted that it is not possible to draw hard and fast lines between the content of programmes, since the indicator field is closely interlinked with numerous other areas of the health system. The indicator therefore takes account of a range of programmes, such as Germany’s contribution to the WHO to support its emergency programme and to provide flexible initial funding for crisis response measures through the Contingency Fund for Emergencies, support for a vaccination programme for the reduction of child mortality in the East African Community, improvement of drinking water supply and sanitation in Burkina Faso and a biosecurity cooperation programme. Besides the thematic prioritisation, it should also be noted that some of the programmes are focused on general reinforcement of global coordination and organisational capacity and therefore do not exclusively benefit countries of the Global South.&lt;br&gt;Nor can a precise line be drawn between preventive and reactive measures. Developing preventive capacity may, for example, enhance responsiveness to a pandemic situation, while reactive measures may contribute to capacity-building in the long term. To avoid a statistical outlier resulting from the response to the COVID-19 pandemic, these expenditure items and pledges are not part of the indicators but are shown separately in the chart.&lt;br&gt;The amounts of expenditure and pledges that are displayed, moreover, say nothing about the success of the programmes. The indicator represents Germany’s monetary contribution to pandemic prevention and response. A more extensive assessment would be needed to gauge the impact of that contribution. In view of the foregoing provisos, therefore, the recorded figures are not by any means a full reflection of the German expenditure and pledges that directly or indirectly influence the pandemic prevention and response effort.&lt;br&gt;Between the years 2015 and 2020, expenditure and pledges for pandemic prevention and response rose from EUR 137.9 million to EUR 353.1 million (provisional figure). This represents an average annual increase of EUR 43.1 million over those last five years. If this trend continued, the objective of increasing Germany’s contribution substantially from 2019 to 2030 would be achieved. The chart also clearly shows the upsurge of EUR 635.2 million in expenditure and pledges in 2020 to contain the COVID-19 pandemic.</t>
+          <t>Der Indikator umfasst Ausgaben bzw. Zusagen Deutschlands für Programme zur globalen Pandemieprävention und -reaktion. Ausgenommen sind hierbei Programme zur Eindämmung der COVID-19-Pandemie. Um die Aussagekraft des Indikators zu verbessern, wird er bis zur nächsten Neuauflage der DNS im Hinblick auf seine Wirkung evaluiert, mit dem Ziel, ihn zu einem Output-Indikator fortzuentwickeln.</t>
         </is>
       </c>
       <c r="T12" s="5" t="inlineStr">
@@ -6819,7 +6821,7 @@
       </c>
       <c r="S13" s="5" t="inlineStr">
         <is>
-          <t>The term “early school leavers” does not refer to young “high-flyers” who achieve a school leaving certificate before the end of the normal period of schooling. Nor should the term be confused with school drop-outs. On the contrary, it refers to people between 18 and 24 years of age who neither possess a university entrance qualification, such as an Abitur or Fachhochschulreife, nor have completed a course of vocational training and who are not currently undergoing training or continuing education. This means that even those young people who, for example, have successfully completed lower secondary education at a Hauptschule or intermediate secondary education at a Realschule but are no longer in the education process are counted as early school leavers.&lt;br&gt;The data for this indicator originate from the microcensus, which is based on an annual sample survey covering 1% of the population. It cannot be elicited from the indicator when respondents last attended an educational establishment or what type of establishment it was. Additional information is provided by the annual school statistic, coordinated by the Länder that are published by the Federal Statistical Office.&lt;br&gt;In 2019, the indicator value was 10.3%. This corresponds to a total of 625,000 young people who had not successfully completed upper secondary school and who were not, or were no longer, undergoing education or training. The indicator value had risen slightly since 2014, when it was 9.5%, and so the trend had moved in the wrong direction. If the current trend were to continue, the target of 9.5% for 2030 would not be met.&lt;br&gt;As for gender-specific indicator rates, there were no systematic differences between men and women for the period between 1999 and 2005. Since 2006, the rate for women has been lower than that for men. The values in 2019, for instance, were 8.7% for women and 11.8% for men.&lt;br&gt;According to the school statistics, a total of some 53,000 young people, or 7% of the resident population in the relevant age group, left school in 2019 without a certificate of lower secondary education. Compared with 1999, this equates to a reduction by more than a third. By this measure too, the proportion remains markedly lower among young women (5.0%) than among young men (9.0%).&lt;br&gt;By contrast, 17.4% (132,429) of the resident population of the same age obtained a certificate of lower secondary education from a Hauptschule in 2019, 44.5% (337,578) obtained a certificate of intermediate secondary education, 32.1% (227,308) obtained a general university entrance qualification, and 0.1% (624) obtained a certificate qualifying them to enter a university of applied sciences. The period from 1999 to 2019 saw particularly significant changes for two types of certificate. One was the Hauptschule certificate of lower secondary education, the share of which fell by 8.7 percentage points, while the proportion of school leavers obtaining the general university entrance qualification rose by 7.4 percentage points (each figure relates to the population of the same age).</t>
+          <t>Der Indikator gibt den Anteil derjenigen 18- bis 24-Jährigen an allen Personen derselben Altersgruppe an, die weder über eine Hochschulzugangsberechtigung wie Abitur oder die Fachhochschulreife noch über eine abgeschlossene Berufsausbildung verfügen und die derzeit nicht an Aus- und Weiterbildungsmaßnahmen teilnehmen.</t>
         </is>
       </c>
       <c r="T13" s="5" t="inlineStr">
@@ -7317,7 +7319,7 @@
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>The definition of the indicator is linked to the tradition of a dual system of vocational training in Germany. Besides the tertiary diplomas awarded by universities, universities of applied sciences, colleges of public administration, vocational academies, technical colleges and specialised academies and master craftsmen’s and technician’s diplomas, there are numerous post-secondary non-tertiary certificates nationwide. In general terms, these include all certificates awarded on completion of post-Abitur vocational courses but also qualifications in health professions obtained by students who do not have an Abitur, for example on completion of training as a medical laboratory technician.&lt;br&gt;The International Standard Classification of Education (ISCED) serves as the basis for international comparison of statistics and indicators regarding educational certificates. Certificates regarded as equivalents are assigned to the same ISCED level. The indicator therefore covers both the tertiary diplomas corresponding to ISCED levels 5 to 8 and the post-secondary non-tertiary certificates corresponding to ISCED level 4.&lt;br&gt;The data used for the indicator are obtained from the microcensus, which is based on an annual sample survey covering 1% of the population. Additional information is provided by the higher education statistics, which are likewise compiled by the Federal Statistical Office.&lt;br&gt;From 33.4% in 1999, the indicator rose 17.1 percentage points to 50.5% by 2019. If the average growth rate of the last five reference years is maintained, the target value of 55% could be achieved considerably earlier than 2030. The relation between the gender-specific percentages has changed over time. In 1999, the indicator for men was 3.8 percentage points higher than for women. In 2006, the values were the same for both sexes. Since 2007, the percentage of women with a tertiary or post-secondary non-tertiary qualification has been higher that of men. If the average trend of the past five reference years is examined for these figures too, it emerges that the proportion of women qualified to these levels, having reached 54.4% in 2019, could already overachieve the 55% target in 2020. While the proportion of men, which was 46.8% in 2019, would reach the target a good bit later. &lt;br&gt;In many other countries there are no post-secondary non-tertiary qualifications. For this reason, the indicator used for the Europe 2020 strategy of the European Union is more narrowly defined and takes only tertiary diplomas (ISCED levels 5 to 8) into account.&lt;br&gt;Following a steady increase since 2005, the indicator for the EU-28 reached a total of 41.6% in 2019. When this more narrowly defined indicator is applied to Germany, the figure for 2019 comes to 35.5%, which is 6.1 percentage points below the EU value. In 2019, the proportion of women, at 36.0%, was slightly higher than that of men (35.1%).&lt;br&gt;The total number of graduates of institutions of higher education in 2019 was 512,285. This was more than twice as many as in 1999. They included 131,989 engineering graduates (three times as many as in 1999) and 55,555 graduates in mathematics and science (70.7 % more than in 1999).</t>
+          <t>Der Indikator gibt den Anteil der 30- bis 34-Jährigen an, die über einen Abschluss des Tertiärbereichs (Stufen 5 bis 8 der Internationalen Standardklassifikation des Bildungswesens, ISCED 2011) oder einen postsekundaren nicht-tertiären Abschluss (Stufe 4 der ISCED) verfügen.</t>
         </is>
       </c>
       <c r="T14" s="5" t="inlineStr">
@@ -7814,7 +7816,8 @@
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>The indicator shows the proportion of children for whom daily care of more than seven hours’ duration has been arranged. This defined length of time may differ from the actual duration of care of which parents avail themselves. Contractually agreed childcare provision of seven hours and less, which can likewise make work and family life more compatible, and additional types of care such as day care at private homes are not included in the indicator. Information about childcare services for children aged six and older is also relevant to this topic. Such supplementary information is provided, for example, by data from the Standing Conference of the Ministers of Education and Cultural Affairs of the Länder in the Federal Republic of Germany (see the last section).&lt;br&gt;The information for these indicators is taken from the annual statistics of the Federal Statistical Office on children and employees in child daycare centres. In 2020, all-day care in child daycare centres had been arranged for 47.6% of children aged 3 to 5 (kindergarten age). This means that the proportion of 3 to 5-year old children receiving all-day care increased by 25.6 percentage points since 2006 and had therefore more than doubled. The target of 60% which was set for 2020 was not achieved. For children under three (nursery age), the proportion is about 17.1%. All-day care provision for children under three years of age, in other words, increased by 11.2 percentage points from 2006 to 2020 and hence almost trebled.&lt;br&gt;The absolute number of children below the age of six receiving all-day care in child daycare centres came to about 1.53 million in 2020. Another 67,385 children below six years of age were receiving publicly subsidised childminder care; like those five-year-old children who are already at school, they are not covered by the indicator. In addition, in 2020 some 1.3 million children were receiving part-time care of seven hours or less.&lt;br&gt;More than a quarter of the children aged below six receiving care in daycare centres or publicly subsidised childminder care in 2019 had a migration background, meaning that they had at least one parent of foreign origin. The care rate for these children was 50%, while the rate for children with no migration background was around 70%.&lt;br&gt;The percentages of children enrolled in daycare centres differs sharply between the old Länder and the new Länder. The highest full-time care rates for 0 to 2-year-olds are recorded in the new Länder and in Berlin. The figures range from 50.3% in Thuringia to 9.9% in Baden-Württemberg. For 3 to 5-year-olds, the highest percentage of all-day care – 92.2% – is also found in Thuringia, while Baden-Württemberg has the lowest ratio of 25.2% (both 2020).&lt;br&gt;In terms of childcare facilities for schoolchildren, after-school care centres and all-day schools also play an important role. In 2020, a total of 20,200 children between 5 and 13 years of age were cared for on an all-day basis in after-school care centres, while about 492,600 children received part-time care in those centres; classroom time is not counted as care time. In 2018/2019 school year, of all pupils enrolled in schools providing a general education, 45.0% were in school all day. This figure, however, encompasses pupils at all stages of schooling, including pupils who are older than 13. In the same school year, 42.2% of the children in primary schools received all-day care. In comparison with 2006, the number of all-day pupils had risen sharply by 2018, from almost 1.5 million to 3.3 million in all schools providing a general education and from 400,000 to around 1.2 million in primary schools alone.</t>
+          <t>Der Indikator gibt den Anteil der Kinder in Ganztagsbetreuung am Stichtag 1. März an allen Kindern der gleichen Altersgruppe am 31. Dezember des Vorjahres an. Ganztagsbetreuung entspricht dabei einer durchgehenden vertraglich vereinbarten Betreuungszeit von mehr als sieben Stunden pro Betreuungstag; Tagespflege sowie die Betreuung von Schulkindern sind nicht berücksichtigt. Indikator 4.2.a bezieht sich auf die Gruppe der 0- bis 2-jährigen, Indikator 4.2.b auf die 3- bis 5-jährigen Kinder.
+</t>
         </is>
       </c>
       <c r="T15" s="5" t="inlineStr">
@@ -8311,7 +8314,7 @@
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>Information provided by the Federal Ministry for Economic Cooperation and Development (BMZ) on supported projects that entered the implementation phase in 2015 served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds provided through the Kreditanstalt für Wiederaufbau (KfW). The data were collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH, and are updated at three-annual intervals. This means that it is not yet possible to gauge the prospects of meeting the target on the basis of the methodology set out in the Indicator Report.&lt;br&gt;In 2018, some 863,000 women and girls were reached by skills development measures. This is 243% higher than 2015, the first year for which data were collected. Of these women and girls, 26.5% were reached directly through individual vocational training. A total of 31.6% of the women and girls were reached through institutional funding and 41.8% through measures in specific policy fields. Of all these women and girls, 93.0% were reached through financial cooperation.&lt;br&gt;Because women and girls in developing and emerging countries are reached by German development cooperation by three different levels, the data were searched for each of those levels. (1) In the case of individualised measures, the number of women and girls who received vocational training and continuing education or participated in individualised extension measures can be recorded directly. When it comes to (2) the funding of institutions and (3) the allocation of funds to specific policy fields, the number of beneficiaries reached in the supported training and further education facilities has to be estimated. In this case, the total number of female trainees and students in each of the funded education and training establishments as well as all women and girls receiving education or training in the relevant policy field are assumed to be beneficiaries of German development cooperation. As a result, there can be overestimates and duplication, especially in the figures for policy fields. Furthermore, in the case of follow-on projects or when two or more projects are implemented simultaneously in the same region, the possibility of double counting some of the beneficiary women and girls cannot be ruled out.&lt;br&gt;The value of the indicator depends heavily on the funding level, as funding through institutions or policy fields generally reaches more women and girls than individual measures. The indicator does not provide any information on the success, scope and quality of the qualification measures, which can vary considerably. The measures designed to promote the vocational skills of women and girls are part of overall official development assistance. The total amount of ODA is shown in indicator 17.1.</t>
+          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
         </is>
       </c>
       <c r="T16" s="5" t="inlineStr">
@@ -8808,7 +8811,7 @@
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>The indicator presented here shows the unadjusted gender pay gap. It simply uses the percentage ratio between the average gross hourly rates of pay. Factors such as qualification levels, hours worked and occupational experience profiles are not taken into account.&lt;br&gt;The data for the indicator are based on the four-yearly wage structure survey conducted by the statistical offices of the Länder in the form of a representative sample survey with a disclosure obligation covering a maximum total of 60,000 businesses. On the basis of these data, results are calculated, broken down by age group, education level, performance group, activity category, collective agreement coverage, company size class and economic sector, and the resulting adjusted gender pay gap (GPG) is published. For the interim years, the rates of change from the quarterly wage survey are used to extrapolate the unadjusted GPG. When the adjusted and the unadjusted GPG are calculated, the EU categorisation is used, in which employees in agriculture, forestry and fishing and in public administration, defence and compulsory social security as well as employees of microenterprises are not taken into account.&lt;br&gt;According to provisional figures, the average unadjusted gender pay gap between women and men in 2019 was 19%. This means that the average gross hourly pay earned by women was about a fifth lower than that earned by men. Over the longer term, a slow but steady narrowing of the unadjusted gender pay gap is evident in the whole of Germany. It stood at 22% in 2014, which is three percentage points higher than in 2019. If the trend recorded over the last five years continues, the target will not be achieved in 2020 or in 2030.&lt;br&gt;At the same time, the picture for Germany is not a uniform one. There are considerable differences between Länder: the highest unadjusted GPG in 2019 was 25% in Bremen, while in Mecklenburg-Western Pomerania and in Thuringia the gap was only 6%. Pay levels generally, however, were lower in Mecklenburg-Western Pomerania and Thuringia than in Bremen.&lt;br&gt;Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the wage structure survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71% of the gender pay gap, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs. The remaining 29% of the pay differential corresponds to the adjusted GPG of 6% in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4% in Berlin to 7% in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.&lt;br&gt;Comparative figures for the European Union are also available for 2018. At 20%, the unadjusted gender pay gap in Germany for 2018 lay considerably above the provisional European Union average of 15%. Of the 28 EU states in 2018, only Estonia, with 22% had a higher gender pay gap. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1%, and Romania, with 2%.</t>
+          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer in Prozent der durchschnittlichen Bruttostundenverdienste der Männer.</t>
         </is>
       </c>
       <c r="T17" s="5" t="inlineStr">
@@ -9305,7 +9308,7 @@
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The indicator records the percentage of women on the supervisory boards of joint-stock companies and partnerships limited by shares with more than 2,000 employees plus European companies (SEs) and listed companies with full co-determination. The data basis for the indicator comprises the publications of listed and fully co-determined companies, which are analysed by the Frauen in die Aufsichtsräte (Women on Board) association and published in the form of a WOB index.&lt;br&gt;In January 2020, women’s share of positions on the supervisory boards of these companies came to about 35.2%. In January 2015, it was still only 21.3%. The target of 30% was reached in 2018, which was twelve years in advance of the deadline set in the German Sustainable Development Strategy. The Gender Equality (Management Positions) Act prescribed that, in cases where elections were held for positions on the supervisory boards of the companies defined above in or after 2016, at least 30% of the seats on those boards must be occupied by women, and so compliance with the Act could be expected to yield this increase.&lt;br&gt;Given the definition used for the indicator, most of the businesses in Germany and the majority of management positions in the private sector are not taken into account. At the present time, the reported and analysed data relate to a group of 105 companies. The positions on supervisory boards that the WOB association has examined to date, fewer than 1,600 in number, are but a small fraction of the total of 882,000 management positions in the private sector identified by the pay structure survey in 2018. The figures show clearly that focusing on the supervisory board of a company reveals only some of the management positions in that company.&lt;br&gt;According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, direct, coordinate and evaluate the overall activities of enterprises, governments and other organisations, or of organisational units within them, and formulate and review their policies, laws, rules and regulations. This definition includes the activities of supervisory boards. If the ISCO classification is used as a basis, 22% of the 882,000 management positions in businesses were held by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O – Public administration and defence; compulsory social security – and parts of sector P – Education. Compared with 2014, the year of the previous pay structure survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. Before then they were compiled annually.&lt;br&gt;In 2019, according to preliminary data, the proportion of women in management positions in the federal civil service was about 37.6%. In 2000, the indicator value was 19.5%. This represents a 92.8% increase in the proportion of women since 2000. If the trend of the last five years were maintained, the target of virtual numerical equality in management positions in the federal civil service by 2025 would be narrowly missed.&lt;br&gt;The indicator is focused on the employees in management positions in all departments of the federal government. Their number includes all persons employed on a full-time or part-time basis as well as those who have been given leave of absence on grounds of family or c</t>
+          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen an Führungspositionen im öffentlichen Dienst des Bundes.</t>
         </is>
       </c>
       <c r="T18" s="5" t="inlineStr">
@@ -9802,7 +9805,7 @@
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.&lt;br&gt;Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99% of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.&lt;br&gt;The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. For the children born in 2008, fathers received parental allowance in 21.2% of cases, and this figure rose to 40.4% by 2017. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98% in every year.&lt;br&gt;Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.4 months for children born in 2017.&lt;br&gt;These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2017. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.2 months for those born in 2017.&lt;br&gt;The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The figures relate in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.&lt;br&gt;It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.&lt;br&gt;For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
+          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
@@ -10299,7 +10302,7 @@
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>The pollution of rivers with phosphorus is measured by the Länder as part of their monitoring under the EU Water Framework Directive. The data used for the indicator are taken from the surveillance network, which comprises some 250 monitoring sites. In most cases, the monitoring sites were established in the main flows of the large rivers and at the mouths of important tributaries. The data are compiled by the Federal Environment Agency on the basis of information from the German Working Group on Water Issues of the Länder and the Federal Government (LAWA).&lt;br&gt;Each of the figures used to calculate the indicator value shows whether the annual average reading from a particular monitoring site adhered to or fell below the benchmark value but not the extent to which the threshold was exceeded. The information from the individual monitoring sites is presented in aggregated form. Accordingly, the value of the indicator depends on the number of monitoring sites and how representative their distribution is. Lakes and other bodies of water are not covered by the indicator.&lt;br&gt;Since the different bodies of water react with differing levels of sensitivity to nutrients such as phosphorous, the precise benchmark values vary. The vast majority of flowing waters use the benchmark value of 0.1 mg/l of phosphorous. In organic substrate-dominated rivers, the benchmark value is 0.15 mg/l, for marshland streams 0.3 mg/l and for transitional waters influenced by tidal movement 0.045 mg/l.&lt;br&gt;The indicators of phosphorous and nitrate levels (6.1.a and 6.1.b) cover two key aspects of water quality. However, there are other, additional components such as the existence of natural habitats around water bodies and the exposure to pollutants (such as pesticides, metals, medicines), all of which are also relevant to water quality. Phosphorous generally enters a body of water through the input of phosphates.&lt;br&gt;In 2018, the annual average of values measured was below the benchmark value at 44% of the monitoring points at rivers. 50% of the monitoring points showed average concentrations of up to twice the benchmark value, while 4% of the monitoring points were in the range of up to four times the benchmark value (not shown in the chart). The remaining 2% showed even higher concentrations.&lt;br&gt;When viewed over time, the proportion of monitoring points not exceeding the benchmark value has continuously increased and has doubled since 1990. However, the percentage rate of monitoring points with concentrations of up to twice the benchmark value tripled during the same period. Conversely, the share of monitoring points with even higher values has fallen significantly since the early 1990s. The level of pollution has been reduced significantly thanks in particular to the introduction of phosphate-free detergents and the specification of threshold values for the discharge of treated waste water.&lt;br&gt;Considering the average trend of the last five years, the indicator has developed slightly positively. The goal of not exceeding the specified threshold value at all monitoring points was still clearly missed.&lt;br&gt;</t>
+          <t>Der Indikator gibt den Anteil derjenigen Messstellen an, an denen die gewässertypischen Orientierungswerte des guten ökologischen Zustands für Phosphor in Fließgewässern eingehalten werden.</t>
         </is>
       </c>
       <c r="T20" s="5" t="inlineStr">
@@ -10796,7 +10799,7 @@
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>The nitrate content in groundwater is collected by the Länder for the purpose of reporting on the status of groundwater in Germany to the European Environment Agency (EEA). The monitoring sites used for this purpose together form the so-called EEA monitoring network. The EEA monitoring network comprises a total of 1214 monitoring sites and provides a representative picture of Germany. The data are compiled by the Federal Environment Agency from information provided by the German Working Group on Water Issues of the Länder and the Federal Government (LAWA).&lt;br&gt;Like the indicator of phosphorus content in flowing waters, the nitrate indicator does not reveal how far above or below the threshold the readings have been. The indicator merely records how many of all the monitoring sites complied with the prescribed threshold. The nitrate load may have fallen sharply at some monitoring sites. Nevertheless, if the concentration remains above the maximum of 50 mg/l, the reduction will not be reflected in the indicator.&lt;br&gt;The same applies to nitrate loads that have increased but are still below the threshold. The interpretation must also take into account that measures to reduce nitrate pollution may have a delayed effect, since the period of infiltration from the surface to the groundwater can take several years.&lt;br&gt;The naturally occurring level of nitrate lies between 0 and 10 mg/l. Concentrations between 10 and 25 mg/l indicate minor to medium loads. Concentrations between 25 and 50 milligrams per liter indicate severe groundwater contamination. Figures above the threshold of 50 mg/l which is set in the Ground Water Ordinance and which also underlies this indicator mean that the groundwater has a poor chemical status and cannot be used as drinking water without treatment.&lt;br&gt;In 2018 the target of less than 50 mg of nitrate per litre was met at 82.7 of all monitoring sites. Since 2008, the percentage of monitoring sites at which this target is met has remained virtually unchanged. This means that the goal of recording concentrations below the threshold at all monitoring sites has not been achieved and that the indicator value is not recognisably moving in that direction. Conversely, in 2018 the nitrate threshold of 50 mg/l was exceeded at 17.3% of the groundwater monitoring sites in the EEA monitoring network. Consequently, the groundwater at these locations cannot be used for drinking-water supplies without treatment. At 17.3% of the monitoring sites the nitrate value lay between 25 and 50 mg/l, which still indicates an elevated degree of pollution. This percentage rate also remained virtually unchanged over the years.&lt;br&gt;The pollution of groundwater with nitrate is caused primarily by the leaching of nitrate from various nitrogen fertilisers. Besides farmyard manures such as liquid manure and slurry, these also include the mineral fertilisers that are used in intensive crop-farming. The last few years have also seen an increase in the use of digestate, which occurs as a by-product of biogas power plants, as an agricultural fertiliser. All of these things can contribute to higher nitrate values in groundwater if fertilisation is not matched to specific crop requirements. Accordingly, the development of indicator 2.1.a – Nitrogen surplus in agriculture – influences the nitrate load in groundwater.&lt;br&gt;In order to measure the actual influence of agricultural activity on the nitrate load of waters, there is a separate system of nitrate reporting to the EU. For this report, the monitoring sites for waters in predominantly agricultural catchment areas are selected from the EEA site network. The nitrate load in that specific part of the monitoring network is therefore above the average for indicator 6.1.b.</t>
+          <t>Der Indikator gibt den Anteil der Messstellen an, an denen der Grenzwert von 50 Milligramm pro Liter Nitrat im Grundwasser im Jahresmittel eingehalten wird.</t>
         </is>
       </c>
       <c r="T21" s="5" t="inlineStr">
@@ -11293,7 +11296,7 @@
       </c>
       <c r="S22" s="5" t="inlineStr">
         <is>
-          <t>The indicator is based on data from the Kreditanstalt für Wiederaufbau (KfW) and only measures the number of people reached through its support. Measures taken by other parties, such as the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ), Länder and private aid agencies, are not taken into account. The indicator is based exclusively on the planned scope of new funding commitments for drinking water and sanitation projects at the time of submission of the programme proposal to the Federal Ministry for Economic Cooperation and Development. The KfW assesses the number of people who, following completion of the construction projects, will have obtained first-time or improved access to drinking water and sanitation or will be able to benefit from the constructed facilities. Whether people are actually reached cannot be estimated in practice until the infrastructure has become operational, and this is not what the indicator shows. Since a person may obtain first-time or improved access to both drinking water and sanitation, double counting is possible between the two indicators and between two years.&lt;br&gt;The funding granted by the KfW comprises grants and loans financed from the federal budget and funds raised in the financial markets. The recipients are generally developing and emerging countries, which means that this indicator is related to indicator 17.1 – official development assistance as a proportion of gross national income.&lt;br&gt;In 2019 the data collection method was revised. Whereas the indicator previously counted people who were reached either directly, e.g. by domestic connections, or indirectly, e.g. the entire population of a country supported by a sectoral reform programme, it now covers only those people who are reached directly. In 2017, for instance, of the total of 28.6 million recorded beneficiaries, 9.5 million were reached indirectly. In 2018, 45.1 million out of a total of 60.3 million were indirect beneficiaries. In 2017 and 2018 the indirectly reached target group represented 33.2% and 74.8% respectively of the total number of beneficiaries. Another change lies in the fact that the figure is based only on the proportion of beneficiaries who have been reached by German-funded share of measures. Contributions made by other donors and the efforts of the host country itself are not counted. Similarly, no consideration is given to energy-efficiency measures, improvements to operational processes or renewals of pumping stations, since these do not lead directly to improved access for the target group.&lt;br&gt;In recent years, the planned numbers of people who were to obtain access to drinking water and sanitation with German support have always been above the target of ten million. Under the revised methodology, the planned numbers of people who were to obtain first-time or improved access in 2019 were about 14.3 million for drinking water and 6.1 million for wastewater and sanitation.&lt;br&gt;The commitments made by the KfW with regard to drinking water and sanitation rose by 26.0% from 2012 to 2018 to more than EUR 1 billion. By contrast with the commitments, disbursements have steadily declined since 2015 to the most recent figure of EUR 424.9 million. One of the main reasons for this lies in the time lag between commitments and payments.</t>
+          <t>Der Indikator stellt die Anzahl der Menschen dar, die im jeweiligen Berichtsjahr direkt durch deutsche Unterstützung Neuzugang oder verbesserten Zugang zu Trinkwasser- (6.2.a) und/oder Sanitärversorgung (6.2.b) erhalten haben.</t>
         </is>
       </c>
       <c r="T22" s="5" t="inlineStr">
@@ -11790,7 +11793,9 @@
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.&lt;br&gt;Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.&lt;br&gt;Final energy productivity means how much added value accrues from each unit of final energy used. It constitutes a measurement of energy efficiency in the production of goods and in household energy use. However, estimates of energy efficiency in the transformation process (plant efficiency) or in the transmission of energy (elimination of leakages, improved heat insulation, etc.) cannot be directly inferred from the indicator.&lt;br&gt;According to provisional findings, final energy productivity in the period from 2008 to 2019 increased by 15.4%, which equates to an average annual increase of about 1.4%. This means that the goal of an annual increase of 2.1% on average up to 2050 is not yet being achieved. In 2019, energy productivity showed a slight year-on-year decline of 0.6 percentage points.&lt;br&gt;Primary energy consumption registered a year-on-year decline in 2019. Provisional findings indicate that primary energy consumption fell by 11.1% in the period from 2008 to 2019. Accordingly, if the trend of past years were to remain unchanged, the target value for 2020 would not be achieved.</t>
+          <t>Der Indikator „Endenergieproduktivität“ stellt die Entwicklung der Wertschöpfung je eingesetzter Einheit Endenergie dar. Der Begriff „Endenergie“ bezieht sich dabei auf den Teil der Energie, der energetisch als thermische oder elektrische Energie zur Herstellung von Gütern oder zur Nutzung in den privaten Haushalten zur Verfügung steht.
+Der Indikator „Primärenergieverbrauch“ gibt an, wie viel Energie in einem Land einerseits in den Energiesektoren zur Umwandlung, sowie andererseits in der Produktion, den privaten Haushalten und im Verkehr verbraucht wurde.
+</t>
         </is>
       </c>
       <c r="T23" s="5" t="inlineStr">
@@ -12296,7 +12301,7 @@
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>For this indicator, the electricity generated from renewable sources, which include hydro power, onshore and offshore wind power and solar power, the heat generated from sources such as geothermal energy, biomass and biogenic waste and the consumption of regenerative motor fuels are presented as a percentage of the energy generated from all sources that is consumed in Germany. Besides renewables, these sources also include imported electricity and fossil fuels such as coal and lignite, oil and gas.&lt;br&gt;The indicator is calculated by AGEE-Stat, the Working Group on Renewable Energy Statistics. In contrast to the reporting under the Renewable Energy Directive of the European Union (Directive 2009/28/EC), uses an average value for hydro and wind power over several years to smoothen the effects of varying supply, this indicator takes account of the volumes of electricity actually generated from wind and hydro power (German Government Energy Concept).&lt;br&gt;With regard to the method used to calculate the indicator, it should be noted that imports and exports of electricity are not included in full in the consumption of energy from renewable sources, whereas they are factored into gross final energy consumption. Accordingly, the indicator may overstate or understate the ratio of energy from renewable sources to gross final energy consumption, depending on the balance of trade. If there were an export surplus for electricity – as has been the case since 2001 – the actual percentage of renewables in the energy mix would be lower than the level represented by the indicator.&lt;br&gt;Between 2005 and 2019, the share of renewable energy in gross final energy consumption rose from 7.1% to 17.7%. If the trend continues at the average pace seen in the past few years, the goal for 2020 will be achieved.&lt;br&gt;The use of renewables varies widely between sectors. In 2019, the share accounted for 42.0% of gross electricity generation, 15.0% of final energy consumption for heating and cooling and 5.6% in the transport sector. Among renewable energies, biomass, with a share of 58.8% and wind power, which accounts for 24.1%, play the greatest part in primary energy consumption.&lt;br&gt;The indicator has dependencies with indicator 13.1.a (Greenhouse gas emissions), as well as with indicators 3.2.a (Emissions of air pollutants) and 7.2.b (Share of electricity from renewable energies in gross electricity consumption).</t>
+          <t>Der Indikator setzt die Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch. Der Brutto-Endenergieverbrauch umfasst den Energieverbrauch beim Letztverbraucher, die Übertragungsverluste sowie den Eigenverbrauch der Energiegewinnungsbereiche.</t>
         </is>
       </c>
       <c r="T24" s="5" t="inlineStr">
@@ -12793,7 +12798,7 @@
       </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>The indicator is calculated by the Working Group on Renewable Energy Statistics (AGEE-Stat) from various official and unofficial sources. Gross electricity consumption is the sum of all generated and imported electricity minus the volume of exported electricity. It therefore comprises the electricity generated in Germany, the balance of exchanges across national borders, power stations’ own electricity consumption and network losses. The following are considered to be renewable energies: wind power, hydro power, solar radiation energy, geothermal energy and biomass including biogas, biomethane, landfill gas and sludge gas as well as the biodegradable proportion of waste from households and industry.&lt;br&gt;Over the period from 2005 to 2019, the share of renewable energies in electricity consumption increased from 10.3% to 42.0%. This means that the target set by the German Government in its energy policy blueprint of at least 35% by 2020 was already achieved in 2017. This trend was accelerated by legal measures such as the Renewable Energy Sources Act (Erneuerbare-Energien-Gesetz). Among other things, the Act requires grid operators to give priority to energy from renewable sources for electricity feed-in. If the trend of past years continues, the target for 2030 is also likely to be achieved.&lt;br&gt;As in the case of indicator 7.2.a, with regard to the calculation method it should be noted that external trade in electricity directly influences the denominator of the indicator but not the numerator. Regardless of whether electricity is produced from renewable sources, net exports reduce gross electricity consumption, while net imports increase gross electricity consumption. Since 2003, Germany has increasingly been a net exporter of electricity, which means that the indicator has been overstating the actual share of renewable energies in gross electricity consumption over the subsequent period.&lt;br&gt;Since 2005, the share of renewable energies in electricity generation has risen, particularly because of the increased use of wind power, photovoltaics and biomass. Between 2005 and 2019, declining electricity generation from conventional energy sources was offset by an increase of almost 180 terawatt-hours in the production of electricity from renewable sources. In particular, onshore and offshore electricity generation from wind power soared from 27.8 TWh in 2005 to 126 TWh in 2019. Offshore wind farms contributed about 24.7 TWh of the total in 2019. Electricity generation from photovoltaics rose between 2005 and 2019 from 1.3 TWh to 46.4 TWh. Electricity generation from biomass more than trebled in the same period to 50.2 TWh.</t>
+          <t>Der Indikator gibt den Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch wieder.</t>
         </is>
       </c>
       <c r="T25" s="5" t="inlineStr">
@@ -13290,7 +13295,8 @@
       </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>To calculate this indicator, it is necessary to determine, among other things, the mass of all raw materials required to produce the country’s imports. The calculation of this variable, designated as imports in raw material equivalents, is based on a complex model that employs data from various official and unofficial sources.&lt;br&gt;By considering imports in terms of both monetary value and mass, the indicator takes into account the value added and the raw material input along the entire domestic and foreign production chain. In this way, it also takes full account of the degree of economic interdependence with other countries. The raw material input reflected in the indicator covers not only domestic final use but also export. Accordingly, it should not be confused with a resource footprint for Germany.&lt;br&gt;Besides non-renewable resources – mineral resources and fossil fuels – the indicator also covers plant products from agriculture and forestry. As a result, there are a very few instances of double counting. For example, both the mass of a harvested agricultural product and that of the mineral fertiliser used to produce it are recorded.&lt;br&gt;According to preliminary data, the value of the indicator increased by 35% from 2000 to 2016. This increase results in particular from the growth of the numerator, that is to say the value of final use (domestic consumption and domestic investment plus exports), which rose by 39% during the reference period. Domestic extraction of raw materials fell to a moderate extent between 2000 and 2016; at the same time, however, the mass of imports in raw material equivalents increased, resulting in a slight increase of approximately 3% in the indicator denominator.&lt;br&gt;The export – or re-export – of domestically extracted and imported raw materials also increased. Consequently, the denominator of this indicator does not point to increased global raw material extraction for consumption and investment in Germany but reflects a generally closer interdependence between the German economy and the rest of the world.&lt;br&gt;Because of the exceptional economic situation during the European financial and economic crisis, the year 2009 should be regarded as an outlier. In 2010 and 2011, investments and exports, as well as the associated input of raw materials, rose sharply again. This marked a resumption of the trend that had been seen in the period up to 2008. From 2013 to 2014, the value of the indicator rose by 4%, from 2014 to 2015 it rose by 7%, and from 2015 to 2016 it rose by 1%; the upward trend of the preceding years was thus maintained.</t>
+          <t>Der Indikator Gesamtrohstoffproduktivität setzt den Wert aller an die letzte Verwendung abgegebenen Güter (in Euro, preisbereinigt) in Relation zur Masse der für ihre Produktion im In- und Ausland eingesetzten Rohstoffe (in Tonnen). Die letzte Verwendung umfasst dabei sowohl inländischen Konsum und inländische Investitionen als auch den Export.
+Im Nenner des Indikators werden sowohl aus der Umwelt entnommene abiotische und biotische Rohstoffe berücksichtigt, als auch Pflanzenmaterial, das durch die Land- und Forstwirtschaft produziert wurde. In der Grafik sind sowohl der Indikator selbst als auch Zähler und Nenner einzeln dargestellt.</t>
         </is>
       </c>
       <c r="T26" s="5" t="inlineStr">
@@ -13787,7 +13793,7 @@
       </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>The method used to calculate GDP and the financial balance of general government is laid down in the European System of National and Regional Accounts (ESA) and is applied by the Federal Statistical Office. The structural financial balance, on the other hand, is determined by the Federal Ministry of Finance. The calculation of government net borrowing takes into account the finances of the public authorities, that is to say the Federal Government, the Länder and local government, and the finances of the social insurance system.&lt;br&gt;In contrast to the previous indicator report, the national accounts calculations were reviewed and revised in 2019 as part of their periodic major revision, and the reference year was changed to 2015. As a result, nominal GDP figures are slightly lower on average than they were before the major revision of 2019. The overall economic picture, however, has remained largely unchanged.&lt;br&gt;In 2012, the Government achieved an overall surplus of EUR 0.3 billion, which was the first positive balance since the financial and economic crisis of 2008/2009. In 2019, the financial surplus amounted to EUR 52.5 billion and 1.5% of GDP (preliminary data). The federal surplus came to EUR 22.7 billion. At the same time, Länder yet again recorded an aggregate surplus (EUR 16.4 billion). The balances for local government (EUR 5.1 billion) and the social insurance fund (EUR 8.7 billion) were also positive. The national budget in 2019 showed a structural surplus of 0.6% of GDP (preliminary data). This meant that the EU convergence criteria for both the government deficit and the structural deficit had been met ever since 2012.&lt;br&gt;Given the economic repercussions of the COVID-19 pandemic and the government support measures, however, bodies such as the German Council of Economic Experts are already forecasting a negative financial balance in the forthcoming accounts for the 2020 and 2021 reporting years. This development has not yet been factored into the current status calculation and so has had no bearing on the displayed weather symbol. A valid assessment will not be possible until the figures for 2020 have been presented.&lt;br&gt;Over the entire period from 1991 to 2019 the growth of government revenue (134.7%) exceeded that of GDP (117.5%) at current prices as well as expenditure growth (111.4%). Government revenue as a proportion of GDP therefore increased from 43.3% to 46.7%.&lt;br&gt;The largest item on the expenditure side of the national accounts is monetary social benefits. These rose by 131.5% from 1991 to 2019, thus exceeding the GDP growth rate of 117.5%. Around 70% of monetary social benefits fall under the heading of social insurance, primarily in the form of pensions and unemployment benefits. As a proportion of GDP, monetary social benefits fell from 18.5% in 2003 to 15.8% in 2019, which is chiefly due to a steep decline in payments from the unemployment insurance fund. These payments fell by about EUR 22.6 billion between 2003 and 2019 as a result of the Hartz welfare legislation and an upturn in the job market.</t>
+          <t>Die Indikatoren setzen den Finanzierungssaldo des Staates (Defizit beziehungsweise Überschuss) und den strukturellen Finanzierungssaldo in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen. Der staatliche Finanzierungssaldo berechnet sich aus Staatseinnahmen abzüglich Staatsausgaben in der Abgrenzung der Volkswirtschaftlichen Gesamtrechnungen. Beim jährlichen strukturellen Saldo handelt es sich um denjenigen Teil des Finanzierungssaldos, der nicht auf konjunkturelle Schwankungen und temporäre Effekte zurückzuführen ist.</t>
         </is>
       </c>
       <c r="T27" s="5" t="inlineStr">
@@ -14284,7 +14290,7 @@
       </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>The national debt is determined by the Bundesbank twice annually in accordance with the requirements of the Maastricht Treaty on the basis of calculations performed by the Federal Statistical Office. Gross domestic product (GDP) at current prices is determined as part of the national accounts by the Federal Statistical Office and published as a provisional figure in January of the following year. As part of the major revision of the national accounts in 2019 the calculations underwent thorough review and revision. As a result, nominal GDP figures are slightly lower on average than they were before the major revision of 2019. The overall economic picture, however, has remained largely unchanged.&lt;br&gt;The debt-to-GDP ratio is influenced by the state of the public budgets and by economic development in general. The indicator measures a stock, namely the volume of debt, against a flow, namely the value of GDP. With this formula, if the level of debt is constant, the faster GDP grows the more sharply the ratio will fall. In the event of an economic upswing, then, the debt-to-GDP ratio will fall even if absolute total public debt does not. Conversely, the debt ratio may rise even though absolute debt decreases if GDP falls faster than the volume of debt.&lt;br&gt;The indicator, moreover, does not include implicit government debt, in other words future financial commitments for which funds are yet to be disbursed.&lt;br&gt;Between 2003 and 2018, Germany’s debt-to-GDP ratio was above the prescribed EU-wide reference level. Following budgetary consolidation measures, the ratio fell from 67.3% in 2005 to 64.0% in 2007, but then it rose again to peak at 82.3% in 2010. This increase must be seen in the context of the financial and economic crisis. In that period, Germany’s public debt rose by EUR 511 billion from EUR 1,600 billion to EUR 2,111 billion.&lt;br&gt;Over the last eight years the debt ratio steadily declined, reaching 59.6% in 2019, the first year since 2002 in which it had fallen below the 60% reference value prescribed by the Maastricht Treaty. The German Bundesbank, however, expects that government debt will have increased sharply in 2020 as a result of the COVID-19 pandemic and that the debt ratio will again have risen considerably higher than the reference value. This development has not yet been factored into the current status calculation and so has had no bearing on the displayed weather symbol. A valid assessment will not be possible until the figures for 2020 have been disseminated.&lt;br&gt;The Federal Government reduced its debt for the first time in 2015, lowering it by EUR 24.3 billion to EUR 1,372 billion. In 2019, the volume of federal debt stood at about EUR 1,299 billion. The debts of the Länder fell from their high point in 2012 by EUR 75.1 billion to EUR 609 billion in 2019. Local government debt had continued to fall since 2017, reaching EUR 165 billion in 2019. Between 2010 and 2019 the social insurance funds were able to reduce their debts by EUR 651 million to EUR 695 million. Of the total amount of government debt in 2019, about 62.6% was federal debt, while some 29.4% was owed by the Länder and 8.0% by local government.&lt;br&gt;In the balance sheet, government debts are balanced against assets, both financial and non-financial. The largest items on the assets side are state-owned infrastructural properties, such as roads, schools and public buildings. According to the balance sheet drawn up by the Federal Statistical Office, these assets had a written-down value of EUR 1,418 billion in 2018. Financial assets were valued in 2018 at EUR 1,291 billion. Securities are the largest of the financial assets.</t>
+          <t>Der Indikator gibt den Schuldenstand des Staates in der Abgrenzung des Maastricht-Vertrages in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen an. Damit dient der Indikator als Maßzahl der Staatsverschuldung.</t>
         </is>
       </c>
       <c r="T28" s="5" t="inlineStr">
@@ -14781,7 +14787,7 @@
       </c>
       <c r="S29" s="5" t="inlineStr">
         <is>
-          <t>The value of gross fixed capital formation is determined by the Federal Statistical Office. Gross fixed capital formation comprises resident producers’ net acquisitions, i.e. acquisitions less disposals, of fixed assets, excluding depreciation. Fixed assets are non-financial produced assets that are to be used repeatedly or continuously for more than a year in the production process. These include building structures, machinery and equipment (machines, vehicles and apparatus), military weapon systems and other systems (intellectual property such as investments in research and development, software, copyrights and mineral exploration as well as livestock and crops). They also include major improvements to existing stocks of fixed assets. Gross fixed capital formation is determined within the framework of the national accounts, which are compiled in accordance with harmonised European rules and are based on all available relevant data sources. As part of the major revision of 2019 the national accounts calculations were thoroughly reviewed and revised, and the reference year was changed to 2015. As a result, nominal GDP figures are slightly lower on average than they were before the major revision of 2019. The overall economic picture, however, has remained largely unchanged.&lt;br&gt;In 2019 the ratio of gross fixed capital formation to GDP was about 21.7%, which was 3.2 percentage points below the initial value for 1991 for the entire federal territory and 1.4 percentage points lower than in the year 2000. In the short and medium term, the indicator has been moving in the right direction, with a slight increase recorded from 2015 (20.0%) to 2019 (21.7%). The price-adjusted ratio in 2019 stood at about 21.2%. The average investment ratio in Germany over the years 2009 to 2018, at 20.1%, was lower than the investment ratio for the entire OECD region (21.0 %). The difference is smaller than in the period between 1999 and 2008 (-2.1 percentage points).&lt;br&gt;The time series reveals an undulating trend in the investment ratio with a slump at the start of the millennium and, after a slight recovery, another slump in 2009 following the financial and economic crisis of 2008/2009. By 2011 investment activity had recovered, and gross fixed capital formation once again exceeded the level of the pre-crisis year. In the years from 2014 to 2019, gross fixed capital formation soared by a total of 27.5%, reaching EUR 774 billion. Since the increase in nominal GDP was somewhat lower, at 17.8%, the investment ratio increased slightly from 20.0% to 21.7 %.&lt;br&gt;With regard to investments in building projects, housing construction has recorded strong nominal growth (+69.4%) since 2010, while the growth of investments in non-residential construction, including civil engineering, in the same period was less pronounced (+41.2%) and even dipped slightly in 2012 and 2015. Investments in tangible fixed assets at current prices showed year-on-year increases of 4.9% in 2018 and 1.9% in 2019. The highest growth rates for the period from 1991 were recorded for investments in research and development as well as in software and databases. Between 1991 and 2019, their volume more than trebled.&lt;br&gt;The period from 1991 to 2018 witnessed a strong shift in investment activity from the manufacturing sector to the service sector. Whereas 30.4% of new capital investments were still being made by manufacturing companies in 1991, by 2019 this figure had fallen to just 23.5%. In 2019, 75.2% of capital investments were made by companies in the service sector; in 1991, the figure had been 67.9%. The largest single investment area was that of property and housing. In 2019, this sector alone accounted for 31.6% of all new capital investments. In 2019, 11.4% of total gross fixed capital formation was attributable to the government sector, whose investment activity is distributed among various activity classifications.</t>
+          <t>Der Indikator zeigt den Anteil der Bruttoanlageinvestitionen am nominalen Bruttoinlandsprodukt (das heißt in jeweiligen Preisen). Dieser Anteil wird auch als Investitionsquote bezeichnet.</t>
         </is>
       </c>
       <c r="T29" s="5" t="inlineStr">
@@ -15278,7 +15284,7 @@
       </c>
       <c r="S30" s="5" t="inlineStr">
         <is>
-          <t>GDP expresses the value of total economic output produced within the country in a reference period. It focuses primarily on market goods and services and public goods and services. The value of GDP is determined quarterly and annually by the Federal Statistical Office on the basis of internationally harmonised rules and standards, such as the European System of National and Regional Accounts (ESA). Because of the early calculation dates, many of the essential basic data are not available in time for the first publication date. Accordingly, the initial publication is still based to a considerable extent on indicators and estimates. Missing information is initially estimated or extrapolated.&lt;br&gt;The data basis is subsequently improved with additional statistics, which are successively incorporated into the calculations. It takes about four years until almost all of the baseline statistics are available, at which point the data are classified as final.&lt;br&gt;GDP is a key variable in the national accounts. The national accounts are the consolidation of several accounts that portray the economic activity of a given period. The results are recorded in the form of a closed sequence of accounts and presented in tables. The national accounts calculations were last reviewed and revised in 2019 as part of their periodic major revision, and the reference year was changed to 2015. This resulted in new rates of change for real gross domestic product as a whole. The overall economic picture, however, has remained largely unchanged.&lt;br&gt;GDP is not designed to portray all of the social aspects that can be included in a measurement of overall well-being. If these variables are to be measured too, Additional indicators are needed that are specifically designed for these purposes.&lt;br&gt;This includes e.g. environmental economic accounts that portray the interactions between the economy and the environment and indicators showing, for example, the volume of unpaid work in households. Furthermore, the distribution of income and assets among different population groups is not shown by GDP either.&lt;br&gt;Stock changes are not reflected in GDP, except in the case of capital stock resulting from the calculation of investments and depreciation.&lt;br&gt;Key economic variables like quantities and qualities of human capital, such as education and health, of social capital, such as security and integration, and of natural capital, such as resources and ecosystems, are not factored into GDP. It is therefore impossible to conclude whether GDP and its growth have served to preserve capital in the fullest sense. This means that GDP cannot be used to gauge the sustainability of economic growth.&lt;br&gt;The basis for the calculation of per capita GDP comprise the average population figures interpolated and extrapolated by the Federal Statistical Office from the 2011 census data.&lt;br&gt;Between 1991 and 2019, price-adjusted GDP per head of population increased by a total of 40.2%. Following vigorous year-on-year GDP growth averaging 2.8% per annum over the period from 2005 to 2008, per capita GDP fell by 5.4% from 2008 to 2009 as a result of the global financial and economic crisis. Economic output then recovered, and by 2011 GDP had regained and exceeded its 2008 level. In the last five years of the time series, the indicator has been on an upward trajectory, with an average annual increase of 1.2%. In 2019, the value of GDP was EUR 39,000 per head of population.</t>
+          <t>Der Indikator zeigt das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin bzw. Einwohner in Deutschland auf Basis des Jahres 2015. Das BIP misst den Wert der im Inland erwirtschafteten Leistung; als Einwohnerinnen und Einwohner gelten dabei alle Personen, die in Deutschland ihren ständigen Wohnsitz haben.</t>
         </is>
       </c>
       <c r="T30" s="5" t="inlineStr">
@@ -15775,7 +15781,7 @@
       </c>
       <c r="S31" s="5" t="inlineStr">
         <is>
-          <t>The data source for the indicators is the EU Labour Force Survey, which is integrated into the microcensus in Germany. The Labour Force Survey is conducted throughout each year and is initially summarised by Eurostat in the form of quarterly findings, which are then consolidated into annual average values. It covers the population living in private households but excludes people living in shared accommodation. The available labour force potential in the Labour Force Survey comprises persons who have reached the age of 15 and who, for at least one hour during the reference week, have performed paid work or have acted as unpaid family workers. The survey also includes persons who temporarily did not work, because they were absent, for example because of leave or illness.&lt;br&gt;It should also be noted that annual average findings have been used for the employment rates since 2005. In previous years, the calculations were based on one fixed reporting week per year. From 2011 onwards, the interviewing was redesigned in order to improve the recording of employment, and the extrapolation factor for population estimates based on the intercensal population updates was adapted in the light of the 2011 census. From the 2016 reference year the sampling frame was updated on the basis of the 2011 census.&lt;br&gt;The employment rate overall (20 to 64-year-olds) rose by 11.9 percentage points from 68.7% in 2000 to 80.6% in 2019, which means that the target value of 78.0% for 2030 has already been achieved.&lt;br&gt;The employment rate for among older people (60 to 64-year-olds) rose by 42.2 percentage points from 19.6% in 2000 to 61.8% in 2019. The employment rate for men in that age group had more than doubled, rising by 39.4 percentage points to 66.6%. The rate for women even increased almost fivefold to 57.1%. And so the targeted 60% employment rate for older people in employment was likewise reached ahead of the deadline set in the German Sustainable Development Strategy.&lt;br&gt;The overall employment rates for women and men have developed in the same direction since 2000 but at different rates. The rate for 20 to 64-year-old men rose in the period under review by 8.1 percentage points to 84.6%, whereas in the case of women it rose by 15.9 percentage points to 76.6%, which was a far more rapid rise, albeit from a lower starting point. When assessing the increase in the employment rate for women, it should be taken into account that this growth was accompanied by an increase in part-time employment. In the year 2000, 61.5% of employed women worked full-time, while 38.5% worked part-time. In 2019 the breakdown was 52.9% full-time and 47.1% part-time. By way of comparison, the proportion of the male workforce in full-time employment dropped from 95.7% in 2000 to 90.5% in 2019.&lt;br&gt;A breakdown into age groups shows diverse employment rate trends. Among 20 to 24-year-olds, the rate rose from 2000 to 2019 by 2.5 percentage points to 67.3%. Their lower rate of employment compared with the 25- to 59-year-olds is partly due to average periods of training in colleges and universities, which delays their entry into working life. Among 25- to 59-year-olds, by contrast, the employment rate rose to 84.8%, an increase of 8.6 percentage points from 2000 to 2019.</t>
+          <t>Die Indikatoren geben die Anteile der Erwerbstätigen im Alter zwischen 20 und 64 Jahren (8.5.a) und im Alter zwischen 60 und 64 Jahren (8.5.b) jeweils gemessen an der Gesamtbevölkerung derselben Altersklasse an.</t>
         </is>
       </c>
       <c r="T31" s="5" t="inlineStr">
@@ -16272,7 +16278,7 @@
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>The indicator shows the number of members of the Textiles Partnership. Being a multi-stakeholder initiative, the Textiles Partnership has more than just business enterprises in its ranks. On the basis of jointly defined Partnership objectives, each company, by joining the Textiles Partnership, pledges to implement measures for continuous improvement of conditions and for compliance with social and environmental objectives of the Partnership throughout the company’s supply chain. To this end, since 2017 all members are bound to draw up individual action plans known as road maps. These road maps are then reviewed for plausibility by an external service provider.&lt;br&gt;In its founding year of 2014, 59 members joined the Textiles Partnership. The end of 2016 saw membership reach its peak, having more than trebled to 188. Since the introduction of the compulsory plans of action, however, there have been expulsions and several withdrawals from the Textiles Partnership. On the one hand, some members were expelled for non-fulfilment of their reporting obligations. On the other hand, some members withdrew, citing compliance costs or insufficient relevance, which meant that total membership stood at 124 at the end of December 2019. Of the original founding members that joined in October or November 2014, there were still 30 in the Partnership at the end of December 2019. Over that five-year period there was an overall downward trend in the number of members.&lt;br&gt;At the end of December 2019, 75 out of 124 members (60%) were classed as companies; eight of them did not have their registered office in Germany. If a company is a member of the Textiles Partnership, this does not necessarily mean that its main economic activity is in the field of textiles and/or clothing manufacture. According to the statistical business register of the Federal Statistical Office, some 70% of the member companies operated primarily in the manufacture, wholesaling or retailing of textiles and/or clothing in 2019. Their aggregate turnover in 2019 amounted to EUR 17.4 billion. According to the trade statistics of the Federal Statistical Office, total retail turnover for the whole of 2018 amounted to EUR 579.6 billion, while total wholesale turnover came to EUR 1,325.6 billion. About 4.8% of these amounts were earned by companies primarily assigned to the wholesale and retail sector through sales of clothing, textiles and curtains, excluding footwear, leather goods and carpets.</t>
+          <t>Der Indikator zeigt die Anzahl der Mitglieder des Bündnisses für nachhaltige Textilien (Textilbündnis). Dem Textilbündnis gehören ordentliche, beratende und assoziierte Mitglieder an. Ordentliche Mitglieder werden weiter in die sogenannten Akteursgruppen Wirtschaft (Unternehmen sowie Initiativen und Verbände), Gewerkschaften, Nichtregierungsorganisationen, Standardorganisationen sowie Bundesregierung unterschieden. Eine Standardorganisation ist eine Organisation, die nicht-kommerzielle Standards für nachhaltige Textilien anbietet oder entwickelt. Die Mitgliedschaft im Textilbündnis ist freiwillig und erfolgt durch Eintritt.</t>
         </is>
       </c>
       <c r="T32" s="5" t="inlineStr">
@@ -16769,7 +16775,7 @@
       </c>
       <c r="S33" s="5" t="inlineStr">
         <is>
-          <t>Research and development are scientific activities and are defined as creative and systematic work with the goal of expanding knowledge – including knowledge of humankind, culture and society – as well as developing new applications on the basis of existing knowledge. The main criterion that differentiates R&amp;D from related activities is the existence of an appreciable element of novelty or advancement from a previous position.&lt;br&gt;The Federal Statistical Office annually calculates how much has been spent on research and development as a proportion of gross domestic product. Overall spending on research and development comprises expenditure by the public sector (including private non-profit research institutions), businesses and institutions of higher education. The data-gathering and calculations adhere to the recommended methodologies of the OECD Frascati Manual on statistics about research and development, which enables international comparisons.&lt;br&gt;Overall R&amp;D expenditure in Germany in 2018 amounted to EUR 104.7 billion, equivalent to 3.1% of GDP. It was thus 0.4 percentage points below the target set for 2025 of at least 3.5% of GDP annually. The intended target has not been reached.&lt;br&gt;Since 2000, spending on research and development in Germany has risen by about 0.7 percentage points as a proportion of GDP. The indicator has shown the strongest growth since 2007. While the figure increased by an average of 0.01 percentage points per annum between 2000 and 2007, it grew by an annual 0.06 percentage points on average from 2007 until 2018.&lt;br&gt;As an international comparison, Germany is ahead of the United States with its 2.8% and the EU-28 region with its 2.0%. On the other hand, several countries are ahead of Germany, including Sweden and Japan (both at 3.3%).&lt;br&gt;In 2018, the private sector accounted for by far the largest share of R&amp;D expenditure in Germany at 68.9%, with 17.6% spent by institutions of higher education and a further 13.5% by public and private non-profit research institutions. Staff employed in R&amp;D comprised around 708,000 full-time equivalents, a figure that includes only the share of their working hours actually spent on R&amp;D work. Some 63.7% of these employees work in the private sector, 20.8% in institutions of higher education and 15.5% in public or private non-profit research institutions.</t>
+          <t>Der Indikator zeigt die Ausgaben für Forschung und Entwicklung von Wirtschaft, Staat und Hochschulen in Relation zum Bruttoinlandsprodukt.</t>
         </is>
       </c>
       <c r="T33" s="5" t="inlineStr">
@@ -17266,7 +17272,7 @@
       </c>
       <c r="S34" s="5" t="inlineStr">
         <is>
-          <t>The indicator measures the availability of broadband to households in Germany at downstream speeds of at least 1,000 Mbps, or one gigabit per second, using wired technology – fibre optics (FTTB/H) and cable television (CATV). The figures are collated on behalf of the Federal Ministry of Transport and Digital Infrastructure and published on the Government’s Broadband Atlas.&lt;br&gt;As of the middle of 2020, fully fibre-optic internet connections (FTTB/H) capable of more than 1,000 Mbps were available in 13.8% of households in Germany. Between 2015 and 2020, the availability of 1,000 Mbps FTTB/H broadband rose by 7.1 percentage points. In other words, it more than doubled, increasing by +105.9%. From the end of 2018 to the middle of 2020, the proportion of households with equally rapid connections using CATV grew from 23.7 to 50.2%. This is also more than double, equating to a +111.8% increase. Altogether, 55.9% of households had gigabit-capable connections available as of mid-2020.&lt;br&gt;Within the country, availability can be seen to vary depending on the region. For all technologies, the provision of gigabit broadband is concentrated particularly in urban areas, where some 74.6% of households had gigabit-speed internet access as of 2020. That figure is markedly lower for areas of a rural character, at 16.7% in 2020. To consider the distribution of the different technologies, 70.7% of urban and 7.8% of rural households had gigabit connections via CATV in mid-2020, while gigabit-capable fibre broadband was available to 17.6% of households in urban areas and 8.9% of those in rural areas. Rural locations are thus predominantly supplied with gigabit speeds via fibre-optic networks, while urban areas rely more on CATV.&lt;br&gt;Differences in availability between urban and more rural areas are also discernible among the Länder. Of all the Länder that are not city states, Schleswig-Holstein has the highest level of gigabit-speed provision using any technology in 2020, at 74.0% of all households, followed by North Rhine-Westphalia on 62.0%. At the other end of the scale, 12% of households in Saxony-Anhalt can say the same, with Brandenburg the next-lowest at 22.1%. In contrast, provision of gigabit-speed broadband is markedly higher than 90% in the three city states, Berlin, Bremen and Hamburg.&lt;br&gt;Various sources are used to calculate these data. Alongside the digital landscape model produced by the Federal Agency for Cartography and Geodesy and OpenStreetMap, more than 500 telecommunications companies in Germany are surveyed about their current provision. To preserve the companies’ business and trade secrets, the resultant data are aggregated into a grid of 250-metre by 250-metre cells and grouped according to seven classes of broadband. Although full-fibre networks with speeds of over 1,000 Mbps have been included in observations since the end of 2015, that class has only been studied in detail since the end of 2018 in light of the latest technological advances.&lt;br&gt;Methodologically, it should be noted that the telecom companies provide their data on broadband availability on a voluntary basis, as there is no legal framework. Furthermore, the figures for availability refer to the technology that telecom companies have installed, as opposed to the actually usable broadband capacity in the area. Additional information on broadband measurement can be found in the annual report of the Bundesnetzagentur, Germany’s federal networks agency.</t>
+          <t>Der Indikator zeigt die Entwicklung der technisch verlegten Breitbandverfügbarkeit bei den Haushalten in Deutschland für Gigabitanschlüsse (≥ 1000 Mbit/s) über reine Glasfasernetze (FTTB/H), Kabelfernsehen (CATV) und alle leitungsgebundenen Technologien.</t>
         </is>
       </c>
       <c r="T34" s="5" t="inlineStr">
@@ -17763,7 +17769,7 @@
       </c>
       <c r="S35" s="5" t="inlineStr">
         <is>
-          <t>The data for this indicator come from the school statistics compiled by the individual Länder. These statistics are generally derived from a full census for which a disclosure obligation applies. The Federal Statistical Office collates them to create a national result on the basis of the catalogue of definitions compiled by the Standing Conference of the Ministers of Education and Cultural Affairs. It is difficult to aggregate the Länder findings into a national whole because of the Länders’ different education policies with regard to, for example, moving between schools or the creation of qualification pathways for vocational schools. Even formal rules for how the disparate elements should be counted can only partially offset this difficulty.&lt;br&gt;Graduates are former pupils who have left a particular type of school with the relevant school leaving certificate. They include those who have moved to another general-education school to pursue an additional qualification.&lt;br&gt;Foreigners are defined as all those who are not German under Article 116 (1) of the Basic Law, i.e. who do not possess German citizenship. They include people who are stateless or whose citizenship status is unclear. Germans who also possess citizenship of another country do not count as foreigners.&lt;br&gt;In 2019, the proportion of all foreign school leavers who obtained at least a lower secondary school leaving certificate was 82.4%. This represents a slight increase compared with the previous year. If one splits the figures by gender, female foreign school leavers graduated at a rate of 85.5%, while the proportion was lower among their male counterparts, at 79.5%. The proportion of German school leavers obtaining at least a lower secondary school leaving certificate has remained fairly stable, most recently recorded as 94.5%.&lt;br&gt;The gap between the share of foreign and German pupils graduating from school has risen slightly from 11.9 percentage points in 1996 to 12.2 percentage points in 2019. After tending towards convergence until 2013, the figures diverged again until 2017 and have remained almost parallel since.&lt;br&gt;To break the figures down by types of certificate obtained, 31.0% of foreign pupils who graduated from general schools achieved a lower secondary school leaving certificate in 2019, while 36.8% completed their schooling with an intermediate secondary school leaving certificate and 14.5% gained university-entrance qualifications. Among German school graduates, 15.5% received a lower secondary school leaving certificate, 42.7% gained an intermediate secondary school leaving certificate and 36.8% earned university-entrance qualifications. This leaves young foreigners considerably under-represented in comparison to Germans, especially when it comes to the higher-level school leaving certificates.</t>
+          <t>Der Indikator zeigt den Anteil ausländischer Schulabsolventinnen und -absolventen in Prozent aller ausländischen Schulabgängerinnen und -abgänger eines Jahrgangs. Als Absolventinnen und Absolventen gelten hierbei Personen, die die allgemeinbildenden Schulen mit mindestens einem Hauptschulabschluss verlassen.</t>
         </is>
       </c>
       <c r="T35" s="5" t="inlineStr">
@@ -18260,7 +18266,7 @@
       </c>
       <c r="S36" s="5" t="inlineStr">
         <is>
-          <t>The Gini coefficient is a statistical measure of income inequality. It has a value between 0 and 1. If everyone had exactly the same income, the coefficient would be 0. If all of the income went to a single person – the situation of maximum inequality – it would have a value of 1. The smaller the Gini coefficient, the greater the equality in income distribution.&lt;br&gt;Equivalised income is a value derived from the total income of a household and the number and age of the people living on that income. With the help of an equivalence scale, the incomes are weighted according to household size and composition, as the shared use of living space and household appliances results in savings. With the equivalised income then allocated equally to each household member, it becomes possible to compare people’s incomes independently of age or household size. A household’s equivalised disposable income is the income, including social transfers, which remains after taxes and other deductions, and is therefore the income available for spending and saving. A distinction must be made between this measure and equivalised income before social transfers, which looks at disposable income without any possible welfare payments, such as unemployment benefit or housing assistance, or market income, which is calculated before taxes, social contributions and social benefits. In none of these ways of looking at income is a differentiation made between the sources of income, i.e. whether it takes the form of wages, rental income or capital gains.&lt;br&gt;The data used to calculate equivalised income come from the annual harmonised European statistics on income and living conditions (EU-SILC).&lt;br&gt;The wealth distribution figures are taken from the Household Finance and Consumption Survey (HFCS) conducted on an irregular basis by the European Central Bank. The fact that households with high incomes and/or extensive assets are under-represented in voluntary sample surveys is compensated for methodologically. Therefore, this methodology, the values for income as well as for assets in Germany can be compared with those in Europe or the euro area. Since no Gini coefficient is calculated for market income from the EU-SILC, data from the German Socio-Economic Panel (SOEP) held by the German Institute for Economic Research are used instead.&lt;br&gt;As in previous years, the Gini coefficient for equivalised disposable income in Germany for 2019 (0.297) is close to the value for the EU as a whole (0.307) and has remained stable. There are therefore no significant differences in income distribution to be discerned between Germany and Europe as a whole. At 0.297, the Gini coefficient for equivalised disposable income remains clearly below that for equivalised income before social benefits (0.352). As expected, the 2017 Gini coefficient for market income was higher, at 0.500. Social benefits, social insurance and taxes in Germany contribute considerably to reducing inequalities in disposable income.&lt;br&gt;Measured by the relevant Gini coefficients, the distribution of wealth in Germany, at 0.739 in 2017, is considerably less equal than that of income. In this context, virtually no change can be detected over time (2010: 0.758 and 2014: 0.762). The equivalent value for the euro area in 2017 was lower than Germany’s, at 0.695. However, the impression of above-average wealth inequality is qualified by several factors not covered by the Gini coefficient. For instance, the assessment of wealth does not take future pension entitlements into account. Moreover, Germany’s higher level of protection for tenants means that people here are more likely to rent rather than own their homes compared with other European countries.</t>
+          <t>Der Indikator stellt die Verteilung des verfügbaren Äquivalenzeinkommens pro Person mittels Gini-Koeffizienten dar.</t>
         </is>
       </c>
       <c r="T36" s="5" t="inlineStr">
@@ -18757,7 +18763,7 @@
       </c>
       <c r="S37" s="5" t="inlineStr">
         <is>
-          <t>Settlement and transport area should not be equated with sealed land. Settlement land includes areas used for residential building, industry and commerce, public facilities, recreational amenities or cemeteries. It also covers land used for surface or sub-surface mining. However, mining land is not counted in the calculations for this indicator, as it ends up being reclaimed for other uses in the long term (e.g. as renaturalised post-mining landscapes). Transport area is made up of four subcategories: road transport, rail, aviation and shipping. The indicator therefore refers not only to sealed areas but also to undeveloped and unsealed land. These include, for example, domestic gardens, parks and other green spaces. As calculated in the environmental economic accounts compiled by the Länder, the sealed share of their settlement and transport area is estimated at 45% on average (2017).&lt;br&gt;The indicator is derived from the area survey by type of actual use (official land-use statistics), which in turn is based on data from the official land register maintained by the Länder. Some areas of land have been reclassified in the official land register in recent years without any actual change in the way they are used. To balance out the effect this has on the statistics for any particular year, a four-year moving average is also shown, averaging out the year in question and the three preceding years. Moreover, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. It is for this reason that the overall indicator value for 2016 is also not subdivided into types of settlement or transport use.&lt;br&gt;From 2000 to 2018, 5,880 km² of land was converted into settlement and transport area. This is equivalent to more than twice the area of Saarland. The majority, 84%, was converted into settlement land, while 16% went to accommodate transport infrastructure.&lt;br&gt;The four-year moving average of previously undeveloped areas newly converted to settlement or transport area continuously decreased throughout the time series, going from 129 hectares per day in 2000 down to 56 hectares per day in 2018. Considered for each reporting year separately, the value for new settlement or transport area was lowest in 2016, at 51 hectares per day. The figure has risen again since then, to 58 hectares per day in 2018.&lt;br&gt;In 2018, the area of settlement or transport use amounted to 49,819 km², or 14% of the total area of Germany. The largest land types in Germany are agricultural land at 181,625 km² (51%) followed by woodland at 106,546 km² (30%).&lt;br&gt;Settlement and transport area grew by 565 km² between 2016 and 2018. Agricultural land shrank by 1,012 km² during the same period, while woodland grew by 376 km². It can therefore be assumed that the increase in settlement and transport area was primarily at the expense of agricultural land.</t>
+          <t>Der Indikator zeigt den durchschnittlichen täglichen Anstieg der Siedlungs- und Verkehrsfläche in Hektar pro Tag.</t>
         </is>
       </c>
       <c r="T37" s="5" t="inlineStr">
@@ -19254,7 +19260,7 @@
       </c>
       <c r="S38" s="5" t="inlineStr">
         <is>
-          <t>Open space area includes areas of vegetation, such as arable land, pasture and woodland, as well as mining land and bodies of water. A distinction is made between open space proper and open areas within settlement zones, such as cemeteries, gardens, parks and recreational amenities, which, although largely undeveloped, are generally considered part of settlement and transport area. As a result, if previously undeveloped parts of settlement land are built on, this is not reflected in the indicator for loss of open space area.&lt;br&gt;In the period under review, the national average for per capita loss of open space area went down. Whereas the four-year moving average for 2001-2004 was still around 5 m2 per capita, the current average for 2015-2018 reveals a figure of just 3 m2.&lt;br&gt;Although subject to a similar trend, significant differences can be observed between rural and non-rural areas in terms of the degree of change. The loss of per capita open space area per inhabitant in rural areas contracted from 7.4 to 4.5 m2 per year In non-rural areas, it fell from 1.8 m2 to 0.6 m2. In this context, it important to remember that non-rural districts and district-free cities have much less open space, such as forest or farmland, than rural areas do. Demographic trends also differ, and the indicator reflects those disparities, with rural areas mostly seeing their populations shrink during the period under review, while population numbers in non-rural areas rose slightly overall.&lt;br&gt;The data sources for the indicator are the population figures and the area survey by type of actual use compiled by the Federal Statistical Office. Since population data at regional level are used for the associated calculations, the 2011 census caused a jump in the time series. Moreover, some areas of land have been reclassified in the official land register maintained by the Länder in recent years, without any actual change to the landscape. To smooth out these effects and depict the long-term trend, a four-year moving average is shown, averaging out the figures for each year with those for the three preceding years. Additionally, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. This is why the development of the indicator for 2016 is only shown as a broken outline in the graph.&lt;br&gt;The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density and share of farmland and woodland. The classification is thus applied to whole districts rather than to smaller entities like towns or villages.</t>
+          <t>Der Indikator stellt als gleitender Vierjahresdurchschnitt die jährliche Veränderung der Freiraumfläche in Quadratmetern je Einwohnerin und Einwohner dar.</t>
         </is>
       </c>
       <c r="T38" s="5" t="inlineStr">
@@ -19751,7 +19757,7 @@
       </c>
       <c r="S39" s="5" t="inlineStr">
         <is>
-          <t>Settlement density looks at the number of inhabitants in relation to the amount of settlement and transport area – in contrast to population density, which is based on the entire land area.&lt;br&gt;Apart from residential building land, settlement land includes areas of special functional character (such as hospitals and schools), industrial and commercial land, mixed-use land (such as shopping streets), and areas for sports, leisure and recreation. Changes in the number of inhabitants and changes in the extent of settlement and transport area both affect figures for the density of settlements.&lt;br&gt;Settlement density varies considerably between rural and non-rural areas, with the figures for 2018 showing an average of 3,344 people per square kilometre of settlement and transport area in non-rural districts but around 1,205 in rural districts. 2018). Residential building land in towns and cities is frequently much more densely developed, and with more multiple-floor buildings, than in rural regions, where more scattered development incorporating larger unsealed areas such as domestic gardens is prevalent.&lt;br&gt;From 2000 to 2009, there was a steady decline in settlement density in both rural and non-rural regions. The reduction in absolute terms is slightly smaller in non-rural areas than in rural regions. In relative terms, given the distinctly lower settlement density in rural areas, the reduction was considerably greater there, at 11%, than the 4% reduction observed in non-rural areas. Settlement density in non-rural regions been rising again since 2011. This shows that settlement and transport area in relatively urban areas is being used more efficiently than in previous years.&lt;br&gt;Looking at the trends in population numbers and settlement and transport area separately reveals marked differences between rural and non-rural regions. Between 2000 and 2018, the amount of settlement and transport area in both rural and non-rural regions increased, though to differing extents – by 15% and 8% respectively. After rising slightly at the beginning of the century, the rural population then shrank by approximately 2.3% before increasing again by 1.8% between 2010 and 2018. In contrast, the population in non-rural regions grew by 1.7% between 2000 and 2010 and again, by 5.4%, between 2011 and 2018. The effects that the development of additional settlement and transport area had on the indicator were therefore amplified in rural regions by the declining population numbers there.&lt;br&gt;The data sources for this indicator are the population figures and the area survey by type of actual use compiled by the Federal Statistical Office. In the population numbers, the 2011 census caused a jump in the time series. Some areas of land have moreover been reclassified in the official land register maintained by the Länder in recent years, without any actual change in the way they are used. Additionally, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. So that comparisons can nevertheless be drawn, the relevant values were extrapolated on the basis of the 2011 census and the 2016 reform of the land-use survey.&lt;br&gt;The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density and share of farmland and woodland. The classification is thus applied to whole districts rather than to smaller entities like towns or villages.</t>
+          <t>Der Indikator zeigt die Entwicklung der Bevölkerung je Quadratkilometer Siedlungs- und Verkehrsfläche im Vergleich zum Basisjahr 2000.</t>
         </is>
       </c>
       <c r="T39" s="5" t="inlineStr">
@@ -20248,7 +20254,7 @@
       </c>
       <c r="S40" s="5" t="inlineStr">
         <is>
-          <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption within Germany irrespective of where refuelling takes place. “Final energy” refers to that part of the total energy used that is directly consumed in transport. It does not cover the conversion losses that arise during the production of fuels or any pipeline losses that may occur.&lt;br&gt;TREMOD also supplies the goods transport volumes which are used to calculate the specific energy consumption of this sector. Air freight transport is not included, as it accounts for negligibly small volumes.&lt;br&gt;By definition, the indicator for final energy consumption in goods transport refers to consumption within Germany. It gives only an inadequate reflection of the German economy’s increasingly complex international ties in a globalised world. As a result, transport flows and the associated energy consumption that arises due to German exports and imports are not included.&lt;br&gt;The energy-consumption data presented here is supplemented by energy efficiency, or energy consumed per tonne-kilometre. The number of tonne-kilometres provides information about the extent to which transport intensity or the distance per transported tonne changes.&lt;br&gt;Contrary to the German Government’s target, final energy consumption for the carriage of goods was 6.2% higher in 2018 compared with 2005. Goods thereby accounted for almost 30% of total final energy consumption in the transport sector. The sharp increase can be attributed primarily to freight transport by road. Final energy consumption in road goods transport increased by 7.8% during this period, while consumption for rail and inland shipping was significantly reduced (-5.3% and -26.7% respectively).&lt;br&gt;During the same period, goods transport volumes increased by 22.0%. In conjunction with comparable energy consumption in 2005 and 2018, this means a significant increase in efficiency of 13.0% during that time.&lt;br&gt;During the economic crisis of 2009, price-adjusted gross value added in the manufacturing industry suffered a particularly sharp decline of just under 20%. This heavy loss particularly affected the transport sector, which reacts directly to increases and falls in the production of goods. The resultant decrease in the utilisation of transport capacity explains why average energy consumption per tonne-kilometre rose slightly despite the sharp fall in overall energy consumption in absolute terms during the crisis years.&lt;br&gt;Besides the more short-term consequences of the economic crisis of 2009, a number of long-term ramifications also affected the development of final energy consumption in goods transport during the 2005 to 2018 review period. For instance, there was a decrease in the average number of manufacturing steps a company performs, something that is normally associated with greater transport volumes because companies procure more intermediate goods from domestic and international suppliers. Furthermore, the average distance between where goods are manufactured and where they are used increased, which also caused transport volumes to rise. These effects are countered by a shift towards a less material-intensive pattern of demand (e.g. increasing demand for services). The resulting change in the composition of goods volumes dampened the increase in transport-related energy consumption.</t>
+          <t>Der Endenergieverbrauch im Gütertransport stellt den Energieverbrauch für den Transport von Gütern im Inland in der Binnenschifffahrt, im Eisenbahn- und im Straßengüterverkehr dar.</t>
         </is>
       </c>
       <c r="T40" s="5" t="inlineStr">
@@ -20745,7 +20751,7 @@
       </c>
       <c r="S41" s="5" t="inlineStr">
         <is>
-          <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption associated with passenger transport within Germany, irrespective of where refuelling takes place (in accordance with the principle of actual final consumption). “Final energy” refers to that part of the total energy used that is directly consumed in transport, so it excludes conversion losses that arise during the production of fuels as well as any pipeline losses that may occur.&lt;br&gt;The volume of passenger transport is expressed in terms of the number of passenger-kilometres travelled. Provided by TREMOD, this figure is used to calculate the specific level of energy consumption in this sector. In the aviation statistics, only domestic flights are taken into account. International flights departing from or landing in German territory are not counted. Nor is waterborne passenger transport included.&lt;br&gt;Some 30.1% of overall final energy consumption can be attributed to transport. Of this, more than 70% is accounted for by passenger transport. Savings in final energy consumption in passenger transport therefore have a marked effect on total energy consumption in Germany. The number of passenger-kilometres provides information about the extent to which transport intensity or the distance per transported tonne changes. In addition to final energy consumption, the indicator also examines energy efficiency in passenger transport, measured in terms of energy consumption per passenger-kilometre.&lt;br&gt;Final energy consumption in passenger transport decreased by a total of 0.9% between 2005 and 2018. However, analysis of progress since 2008 reveals that the indicator value increased by 1.1%, meaning that final energy consumption in passenger transport is developing contrary to the target set in the German Sustainable Development Strategy.&lt;br&gt;Although the number of passenger-kilometres covered increased by 9.0% between 2005 and 2018, energy consumption with reference to all forms of transport fell by 9.1% to 1.49 megajoules per passenger-kilometre during the same period. This indicates a notable increase in efficiency in passenger transport. A particularly large share of the efficiency gain can be attributed to the railways. The number of passenger-kilometres travelled by rail rose by 25.3%, while final energy consumption was reduced by 8.9%. This equates to a 27.3% increase in efficiency. A significant increase in efficiency was also achieved in aviation, with a 17.1% rise compared with 2005. Road transport registered a slight gain in efficiency of 7.4% recently, thanks to a rise in passenger-kilometres, even though final energy consumption remained almost constant (-0.5%).&lt;br&gt;Private motorised transport by car or two-wheeled vehicle accounted for 81.4% of total passenger transport volumes in 2018. Its share in 2017 was 81.6%. It can be subdivided into various categories. In 2017 (more recent figures not yet available), work-related transport, i.e. commuter traffic and business travel, accounted for the largest share, at 39.2%, followed by recreational transport at 29.5%. Travel for shopping accounted for 17.1%. These purpose-based categories of transport have developed differently since 2005. Work-related travel in particularly has increased significantly (+30.0%), while journeys for recreation or shopping have declined (-11.4% and -2.7% respectively).</t>
+          <t>Der Endenergieverbrauch im Personenverkehr stellt den Energieverbrauch durch die Beförderung von Personen mit der Bahn, im Luft- und Straßenverkehr (öffentlicher und Individualverkehr) im Inland dar.</t>
         </is>
       </c>
       <c r="T41" s="5" t="inlineStr">
@@ -21243,7 +21249,7 @@
       </c>
       <c r="S42" s="5" t="inlineStr">
         <is>
-          <t>The indicator is computed by the Federal Institute for Research on Building, Urban Affairs and Spatial Development. Public means of transport are defined as transport services that anyone can use on payment of the relevant fees. Flexible forms of operation, such as on-call buses that operate on demand without fixed stopping points and timetables, are not taken into account.&lt;br&gt;Comparing the indicator values for 2012 and 2018 shows that the population-weighted average travel time to the nearest medium-sized or major city fell from 23.5 to 21.9 minutes during that period. This equates to a reduction of 6.9%.&lt;br&gt;However, the number of medium-sized and major cities grew from 1,010 in 2012 to 1,109 in 2018. Much of this growth can be traced to the designation of additional urban centres as medium-sized cities in Bavaria.&lt;br&gt;It is beyond the purview of this report to assess whether that change of status reflects an actual improvement in the provision available in those cities. Nonetheless, the increase in medium-sized and major cities notably helped reduce the average travel time required to reach one.&lt;br&gt;If the average travel time for each reporting year is calculated on the basis of only those intermediate and major cities which existed in 2012, it is found to have decreased from 23.5 minutes in 2012 to 22.5 minutes in 2018. This equates to a reduction in travel time of only 4.3% in relation to 2012.&lt;br&gt;The data for these calculations were taken from the timetables of Deutsche Bahn, various networks and numerous other transport providers. With the help of the timetable data, the travel times to the nearest intermediate or major city during peak morning traffic times were determined for some 258,000 stops. This period is defined differently across the reporting years. Whereas connections with arrival times between 6 a.m. and 9 a.m. were taken into account in 2012, the figures for 2016 and 2018 refer to connections with arrival times between 8 a.m and 12 noon.&lt;br&gt;Not least because not all local transport schedules had been fully incorporated into the database used, the values for the different reporting years cannot be compared without caveats. Therefore, the frequency of transport services to the nearest intermediate or major city is ignored, as is travel time to and from the stopping point. Furthermore, this indicator is based on timetable data – which means that delays or even cancellations are not taken into account.&lt;br&gt;The classification of an urban centre as a medium-size or major city is determined according to the availability of goods, services and infrastructure that are not available in the surrounding regional towns. These include, among other things, specialist medical practices, hospitals, cultural facilities as well as secondary schools and institutions of higher education. In each intermediate or major city, especially in large cities, only one location in the city centre was designated as the destination. The destination stops were selected within a radius of one kilometre around that destination point, and the quickest connection from each departure stop to that point was sought. A population-weighted average value of the travel time for Germany was then determined with the help of small-scale population data from the Federal Statistical Office.</t>
+          <t>Der Indikator weist die bevölkerungsgewichtete durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum aus.</t>
         </is>
       </c>
       <c r="T42" s="5" t="inlineStr">
@@ -21740,7 +21746,7 @@
       </c>
       <c r="S43" s="5" t="inlineStr">
         <is>
-          <t>The data used for this indicator come from the harmonised European statistics on income and living conditions (EU‑SILC). The indicator expresses housing costs relative to disposable household income. If a household is receiving housing benefits or comparable social benefits, such as social-security payments for accommodation and heating, these are also included in the calculations. These social benefits are not added to the income amount but are deducted from the housing costs, so that the burden of housing expenses on households that rely on housing-related social benefits is reduced or almost nullified.&lt;br&gt;The purchase of owner-occupied property is not included in housing costs. Other spending on measures to enhance the value of a property is not taken into account either – though it is not always possible to clearly differentiate such spending from value-maintaining expenditure, which does count as part of housing costs. In such cases, established assumptions are applied to simplify the calculation. Nor does the indicator take into account any additional costs associated with the geographical location. For instance, expenditure on travel from a person’s place of residence to their workplace is not taken into account, although it is possible that the long commuting distance is the only reason that their housing costs remain below the 40% threshold.&lt;br&gt;By defining the threshold value as 40% of disposable household income, the indicator provides no information about average housing costs in absolute terms. If clusters emerge close to the threshold, even small alterations in the ratio of income to housing costs can cause major changes in the indicator. The indicator rose from 14.5% in 2010 to a relatively constant 16% from 2011 to 2016. In 2017, it went back down to the starting rate of 14.5%, before reducing further in 2018, to 14.2%, and yet further in 2019, when it reached 13.9%. The value is therefore lower than the level it started at in 2010. If the average trend recorded over the last five years continued, the goal set for 2030 would be achieved.&lt;br&gt;With regard to the actual housing situation and disposable income, the indicator provides only a limited amount of meaningful information. After all, the calculation method means that households with high incomes and high expenditure on housing also appear to be overburdened. Meanwhile, the data show that it is people at risk of poverty – that is, those with less than 60% of the median equivalised income for the population – who are particularly affected by excessive housing costs. Some 42.2% of people at risk of poverty were overburdened by housing costs in 2010, rising to 54.4% by 2014. That figure then sank to 48.3% by 2019. In contrast, excessive housing costs affected a markedly smaller proportion of people considered not at risk of poverty. The 2019 figure of 8.0% was lower than the 9.4% recorded in 2010 and peak of 10.5% reached in 2011.</t>
+          <t>Der Indikator zeigt den Anteil der Personen, die in Haushalten leben, welche mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben. Ausgaben für Wohnen sind dabei die Nettokaltmiete, Nebenkosten, Energiekosten und Ausgaben für Wasserversorgung sowie bei Wohneigentum werterhaltende Investitionen und Zinszahlungen für Kredite.</t>
         </is>
       </c>
       <c r="T43" s="5" t="inlineStr">
@@ -22237,7 +22243,7 @@
       </c>
       <c r="S44" s="5" t="inlineStr">
         <is>
-          <t>The German Digital Library is a platform created to connect the digital holdings of institutions like archives, libraries and museums. It is managed by a network of such repositories of culture and learning from the Federal Government, the Länder and local-authorities, and it is jointly funded by the Federal Government and the Länder. Most of the digital materials are held not by the German Digital Library itself but by partner institutions, while the DDB only hosts links to those objects. The partner institutions are responsible for the stability of the connection. As of May 2020, the number of partner institutions making data available for the German Digital Library had reached 448. The majority are museums or archives – 183 and 174 of them respectively.&lt;br&gt;The German Digital Library online platform has been accessible since 2012, at which point it hosted links to 5.6 million objects. By the middle of 2020, that number had risen to 33 million. If the trend continues as it has to date, the target of 50 million by 2030 could be achieved. Some of the objects made available by libraries may repeat the same content; for example, two libraries might post links in the German Digital Library to the same edition of a book. In such cases, the two links are counted separately.&lt;br&gt;Since 2015, it has been possible to differentiate between objects with and without digitised media. For those with digitised content, the German Digital Library link gives direct access to the digitised reproduction of the book, certificate, painting or other object in question. For objects without digitised media, on the other hand, the links lead only to information about them. The link pertaining to a painting, for instance, will provide information about who painted it, what year it is from and where it is kept. Objects with digitised media thus provide a good deal more information than those for which only metadata are made available.&lt;br&gt;There were 5.4 million objects with digitised media at the end of 2015, rising to 11.3 million by the middle of 2020. Objects with digitised media also increased as a proportion of all the objects linked to in the German Digital Library, rising from around 30% in 2015 to around 34% by mid-2020. At the end of the first half of 2020, the majority of digitised objects available via the Library were texts (60.2%), followed by pictures (33.8%) and other media (5.5%). In contrast, audio and video recordings made up only a very small proportion of digitised Library objects, at 0.4% and 0.1% respectively.</t>
+          <t>Der Indikator zeigt die Anzahl der Objekte, die in der Deutschen Digitalen Bibliothek vernetzt sind.</t>
         </is>
       </c>
       <c r="T44" s="5" t="inlineStr">
@@ -22734,7 +22740,7 @@
       </c>
       <c r="S45" s="5" t="inlineStr">
         <is>
-          <t>The spending habits of private households affect the environment in various ways. This indicator reflects three of the factors behind this impact, namely energy, CO2 emissions and the use of raw materials. The relevant data are collected  in the environmental economic accounts of a range of governmental and non-governmental sources.&lt;br&gt;Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.&lt;br&gt;The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.&lt;br&gt;However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources is steadily shrinking, there are greater fluctuations in the area of agricultural products. This resulted in a slight overall reduction of 3% between 2010 and 2016.&lt;br&gt;In contrast, energy consumption went down by 6% during the same period. Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,402 petajoules in total, home life accounted for the largest proportion, 36% of private household consumption, in 2016.&lt;br&gt;A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2016 amounted to 667 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2016, direct CO2 emissions fell by 6%, while the emissions footprint of consumer goods fell by 1%. The last five years, on the other hand, show no reduction but a slight increase in emissions.&lt;br&gt;This indicator can be usefully cross-referenced with indicator 8.1 on raw material input productivity.</t>
+          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Energieverbrauch, Ausstoß von Kohlendioxid (CO2) und Rohstoffeinsatz im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
         </is>
       </c>
       <c r="T45" s="5" t="inlineStr">
@@ -23231,7 +23237,7 @@
       </c>
       <c r="S46" s="5" t="inlineStr">
         <is>
-          <t>The indicator is calculated on the basis of data from the consumer research institute GfK, the Federal Motor Transport Authority, the agricultural market information firm AMI, the Organic Food Production Alliance, the sustainable-mobility association Verkehrsclub Deutschland and the Federal Environment Agency. The latter has been calculating the indicator values for each reporting year since 2012.&lt;br&gt;The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups are examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.&lt;br&gt;The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.&lt;br&gt;It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.&lt;br&gt;Between 2012 and 2018, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6% to 7.5%. This is equivalent to a turnover of EUR 23.8 billion in 2018. The indicator value sank in 2017 and 2018 relative to the previous year, which is not the desired direction of travel. Unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.</t>
+          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden.</t>
         </is>
       </c>
       <c r="T46" s="5" t="inlineStr">
@@ -23728,7 +23734,7 @@
       </c>
       <c r="S47" s="5" t="inlineStr">
         <is>
-          <t>EMAS is a voluntary instrument of the European Union that helps organisations of any size and in any sector to continuously improve their environmental performance. Having EMAS certification does not automatically mean that organisations or their products are more environmentally friendly than comparable organisations and products. EMAS involves a reporting obligation requiring organisations to submit environmental statements. These statements include reporting on the main environmental impacts of the organisation in question as well as data pertaining to energy and material efficiency, emissions, water, waste and use of land/biodiversity. Organisations have to update their environmental statements annually, with the exception introduced in 2010 that SMEs can apply to do so every two years instead. The environmental statement, which is public, and various additional internal documents are inspected by independent, licensed environmental verifiers. The verification must be repeated on a regular basis, no less than every three years. Organisations that pass the verification process and have no breaches of environmental regulations or complaints to answer for are added to the EMAS register. The German EMAS Advisory Board is responsible for quality assurance. EMAS organisations and locations are registered by the responsible chambers of industry and commerce and stored in a publicly accessible database at the Association of German Chambers of Commerce and Industry.&lt;br&gt;In terms of methodology, it should be noted that the EMAS register shows the number of registrations. Participating organisations are free to include several locations under a single organisation registration (corporate registration) or to have their locations registered individually. Some organisations have had their sites abroad registered in Germany. These are present in the EMAS register, but they are not included in the number of EMAS locations recorded here.&lt;br&gt;In 2019, there were 2,176 EMAS locations registered in Germany. This equates to an increase of 11% compared with 2005. Considered over the last five years, the indicator has been gradually moving in the direction of the target. Nevertheless, if that trend continues unchanged, the goal for 2030 will not be achieved.&lt;br&gt;The registered organisations employed a total of 988,401 people in 2019. This equates to an decline of 2.8% compared with 2005.&lt;br&gt;The 2,176 EMAS locations on the register in 2019 belong to 1,150 German organisations and one organisation headquartered abroad. The number of German organisations had shrunk by 22.9% since 2005. Furthermore, those organisations were very well spread throughout the country. The majority were based in Baden-Württemberg (347) and Bavaria (288), followed by North Rhine-Westphalia (105). In contrast, there were just two registered organisations in Mecklenburg-Western Pomerania. Divided by sector, the distribution in 2019 was as follows: 38.3% of the German organisations represented the manufacturing industry, 9.4% miscellaneous services, 8.0% the education sector and 7.6% the hospitality industry. It should be noted that some of the organisations belong to more than one sector.</t>
+          <t>Der Indikator zeigt die Anzahl der in Deutschland für das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) registrierten Standorte sowohl deutscher als auch ausländischer Organisationen.</t>
         </is>
       </c>
       <c r="T47" s="5" t="inlineStr">
@@ -24225,7 +24231,9 @@
       </c>
       <c r="S48" s="5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Paper with Blue Angel certification as a proportion of the direct federal administration’s total paper consumption&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data used to calculate the proportion of Blue Angel-certified paper in the direct federal administration’s total paper consumption are collated through the monitoring of the Programme of Sustainability Measures being conducted by the Federal Chancellery and supported by the Centre of Excellence for Sustainable Procurement at the Procurement Office of the Federal Ministry of the Interior. The Blue Angel is an ecolabel for environmentally friendly products and services. When awarded to paper, it means that 100% of the paper fibres were recovered from wastepaper and that no harmful chemicals or bleaching agents were used in the production process.&lt;br&gt;According to the preliminary data, the proportion of Blue Angel-certified paper rose by around 104% between 2015 and 2019. In 2015, 45% of all the paper used by the direct federal administration bore the Blue Angel label; that figure had risen to 92% by 2019. This equates to an increase of 104.1% (or an index value of 204.1). The indicator is thus in line with the target set in the Programme of Sustainability Measures to raise the use of paper with the Blue Angel label to 95% by 2020. Total paper consumption, after rising by 11.5% to 993.4 million sheets of paper in 2016, shrank again in 2019, according to the (provisional) data, resulting in a 13.6% reduction in total paper consumption between 2015 and 2019.&lt;br&gt;When comparing the data over time, it should be noted that there was a change in methodology in 2018 regarding the definition of paper. Since the 2018 reporting year, only non-coloured A4-sized printer and copier paper has been included in the data. The reduction in total paper use can in part be traced to this methodological change.&lt;br&gt;More generally, it should be noted that the use of Blue Angel-certified paper has limited relevance in terms of sustainable procurement overall, as paper accounts for a small proportion of the total financial volumes involved in procurement for the public sector.&lt;br&gt;&lt;b&gt;&lt;i&gt;CO2 emissions of motor vehicles Of the public sector milage&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data on publicly owned vehicles are provided by the environmental economic accounts compiled by the Federal Statistical Office using the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. The public sector comprises the federal government, the Länder and municipalities, the police, the Federal Border Police and the fire services.&lt;br&gt;Because of the small number of data points and a methodological change affecting the TREMOD database in 2016, it is not possible to assess the trend. The definitions of vehicles have been modified, which is reflected in the data on vehicle fleets. There have also been alterations in the outcomes for distance travelled, energy consumed and emissions in the environmental economic accounts.&lt;br&gt;If, instead of looking at publicly owned vehicles, one focuses on vehicles owned by the direct federal administration, average CO2 emissions amounted to 203.3 grams per kilometre travelled in 2019. There was a methodological change in the statistics of the Federal Environment Agency as well.&lt;br&gt;The direct federal administration encompasses federal government’s own central and subordinate authorities, which are legally dependent. The data on CO2 emissions per kilometre travelled for vehicles owned by the direct federal administration are provided by Federal Environment Agency. &lt;br&gt;As for the data on publicly owned vehicles, the direct federal administration figures count all passenger vehicles weighing up to 3.5 tonnes but not light commercial vehicles within that class. Between 2015 and 2017, the proportion of vehicles newly acquired for the direct federal administration that produced emissions lower than 50 grams per kilometre rose from 2.6% to 4.1% of all newly purchased vehicles. That share f</t>
+          <t>Die Indikatoren zeigen Nachhaltigkeit in der Beschaffung exemplarisch anhand der Teilbereiche Papier sowie CO2-Emissionen von Kraftfahrzeugen (Kfz). Beide Indikatoren werden als Indizes mit dem Basisjahr 2015 dargestellt.
+Der Indikator 12.3.a „Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung“ bildet den Anteil von Papier mit dem Umweltsiegel Blauer Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ab.
+Der Indikator 12.3.b „CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand“ setzt die CO2-Emissionen ins Verhältnis zu den entsprechenden Fahrleistungen.</t>
         </is>
       </c>
       <c r="T48" s="5" t="inlineStr">
@@ -24722,7 +24730,7 @@
       </c>
       <c r="S49" s="5" t="inlineStr">
         <is>
-          <t>So that the various greenhouse gases can be collated into a single index, they are each expressed in CO2 equivalents, which means that their mass is converted into the amount of CO2 that would have an equivalent effect on global warming. However, this cumulative reporting obscures the development of each greenhouse gas on its own, as a negative trend in one can be balanced out by the positive trend in another.&lt;br&gt;The data are provided annually by the Federal Environment Agency as part of the reporting required under the United Nations Framework Convention on Climate Change (UNFCCC) and the Kyoto Protocol. The measuring and reporting of emissions is subject to a comprehensive quality-management regime.&lt;br&gt;The emissions are calculated in accordance with the territoriality or production principle.&lt;br&gt;The largest emitters of greenhouse gases and air pollutants within Germany were therefore identified, and the quantity of their emissions under certain circumstances was investigated. A specific emissions factor derived from those findings was then multiplied by the emitter’s activity data to arrive at the overall quantity of emissions. It should be noted that, in accordance with the Kyoto Protocol, the indicator does not show carbon dioxide emissions arising from land use, land-use change and forestry (LULUCF). Maritime shipping and international aviation are also excluded from the calculation. Looking at developments between 2015 and 2019, it is clear that the indicator has not progressed in a stable manner. In 2015 and 2016, greenhouse-gas emissions rose slightly, by 0.3 and 0.2 percentage points respectively. Since 2017, however, they have sunk noticeably, by 1.2 percentage points in 2017 and 2.9 percentage points in 2018. Over the long term, the projected figures for 2019 from the Federal Environment Agency show a total reduction of 35.7% compared with 1990. If the trend seen over the last five reporting years continues, the target for 2020 – a reduction of 40% compared with 1990 – is unlikely to be reached.&lt;br&gt;By far the greatest share of total greenhouse-gas emissions in 2019 was carbon dioxide, at 87.7%, compared with 84.1% in 1990. Most recently, methane accounted for 6.2% of the total, with nitrous oxide on 4.3%, HFCs on 1.3% and sulphur hexafluoride on 0.5% (the latter two being figures for 2017). By far the largest proportion of CO2 emissions arise from the generation of electricity and heat. Methane and nitrous oxide are emitted primarily by agricultural production.</t>
+          <t>Der Indikator zeigt den Index der Emissionen folgender Treibhausgase (Stoffe oder Stoffgruppen, in CO2-Äquivalenten): Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC), perfluorierte Kohlenwasserstoffe (FKW/PFC) sowie Schwefelhexafluorid (SF6).</t>
         </is>
       </c>
       <c r="T49" s="5" t="inlineStr">
@@ -25219,7 +25227,7 @@
       </c>
       <c r="S50" s="5" t="inlineStr">
         <is>
-          <t>The data for this indicator are derived from reporting carried out under the EU Regulation on a mechanism for monitoring greenhouse gas emissions. The source of the annually collected data is the Federal Ministry for Economic Cooperation and Development, which also reports in this context on climate finance from other federal ministries. In the case of bilateral climate finance, expenditure is calculated on the basis of funds allocated; in the case of multilateral climate finance and contributions to energy and climate funds, it is calculated on the basis of funds actually paid. The indicator also includes climate finance that is attributed to donors pro rata on the basis of their contributions to multilateral funds managed by development banks. As climate finance primarily benefits developing countries, it is considered to be part of official development expenditure (see indicator 17.1).&lt;br&gt;In 2019, Germany committed or provided EUR 4.34 billion in public funds for international climate finance for the reduction of greenhouse gases and adaptation to climate change. Compared with the previous year, when climate finance amounted to EUR 3.37 billion, this represents an increase of 29%. The target for 2020 – to reach EUR 4 billion – was thus met a year early. In 2019, 44% of climate finance went to fund projects to reduce emissions, while 25% went towards adaptation to climate change. The remaining 31% was used to finance horizontal measures. As the horizontal measures serve both the reduction and adaptation efforts, the final split in 2019, as in previous years, shows more funds being used for emissions reduction (59%) than for adaptation (41%).&lt;br&gt;14% of climate finance, or EUR 588 million, was provided through multilateral channels in 2019. EUR 248 million of that can be attributed to Germany on the basis of the climate-related shares of Germany’s contributions to multilateral development banks, the Global Environment Facility and the International Fund for Agricultural Development. Germany provides the remaining EUR 340 million through multilateral institutions and contributions to international climate funds.&lt;br&gt;In addition to official climate finance from public funds, Kreditanstalt für Wiederaufbau (KfW) and DEG (Deutsche Investitions- und Entwicklungsgesellschaft) also provide climate-related loans with funds from the market. These represent mobilised public climate finance and are not included in the indicator. In 2019, the resources mobilised in this way amounted to approximately EUR 2.47 billion, compared with EUR 3.25 billion the previous year. Here too, more funding went towards emissions reduction (86%) than adaptation (14%).</t>
+          <t>Der Indikator umfasst die Finanzierung von Maßnahmen zur Reduktion von Treibhausgasen, zur Anpassung an den Klimawandel sowie klimarelevante Maßnahmen zum Erhalt der Biodiversität und zum Waldschutz (Projekte zum Schutz, nachhaltiger Nutzung und Wiederaufforstung von Wald im Rahmen des REDD+ Regelwerks). Die Maßnahmen erfolgen vorrangig in Entwicklungs- und Schwellenländern und werden aus deutschen Haushaltsmitteln (einschließlich der Schenkungsäquivalente von Entwicklungskrediten) finanziert.</t>
         </is>
       </c>
       <c r="T50" s="5" t="inlineStr">
@@ -25716,7 +25724,8 @@
       </c>
       <c r="S51" s="5" t="inlineStr">
         <is>
-          <t>One of the main causes of nitrogen inputs reaching the North and Baltic Seas via inflows is nitrogen surplus in agriculture, which is measured in indicator 2.1.a. Like nitrogen, phosphorus also leads to eutrophication. Phosphorus pollution in rivers is examined separately, in indicator 6.1.a.&lt;br&gt;The calculations for this indicator use monitoring data on nitrogen concentrations and on the discharge volumes of small and major rivers flowing into the North and Baltic Seas, which the Federal Environment Agency collates as reported by the Länder and by river basin commissions. Data are also included for smaller rivers which do not flow directly into the North or Baltic Sea but are tributaries to larger rivers. In these cases, the data for each river are taken from its last monitoring site before the confluence. The Rhine is also included in the figures, even though its estuary is not in Germany. The data for the Rhine were recorded at the point where it leaves Germany (monitoring site at Bimmen, Kleve).&lt;br&gt;The nitrogen concentrations for each river are weighted for discharge volume, so that major rivers which discharge large qualities of water have a greater influence on the average that smaller ones. To prevent the graph being distorted by single extreme events like floods or droughts, which can result in anomalously very high or very low nitrogen inputs, the values are depicted as a five-year moving average.&lt;br&gt;The average nitrogen concentration for all North and Baltic Sea inflows, weighted for discharge volume, has followed a downward trend since the beginning of the time series, with the reduction in concentration more marked for the North Sea than the Baltic. The 2013-2017 average for the North Sea inflows was a concentration of 3.0 mg/l. For rivers flowing into the Baltic Sea, the average concentration for 2015-2019 was 3.2 mg/l. To achieve good quality, as defined by the Ordinance on the Protection of Surface Waters, however, each river by itself has to meet the management target.&lt;br&gt;Of the three major inflows into the Baltic Sea, the Peene, the Trave and the Warnow, only the latter had already reached the management target by 2015-2019. Nevertheless, all three rivers showed a clear reduction in concentration across the five-year averages. That reduction was most marked in the Trave. In some of the smaller Baltic Sea inflows, concentrations of nitrogen are still several times higher than the management target, with values of up to 6.1 mg/l.&lt;br&gt;Among the North Sea inflows, only the Rhine met the management target in 2013-2017. The five-year average was on the way down for concentrations in all the major North Sea inflows. In smaller rivers flowing into the North Sea, the nitrogen concentrations in 2013-2017 ranged from 2.9 to 3.6 mg/l. In conclusion, the management targets are not being permanent and nationwide fulfilled for the North or the Baltic Sea.</t>
+          <t>Die Indikatoren geben den gleitenden, abflussgewichteten Durchschnitt der letzten 5 Jahre der Stickstoffkonzentrationen in Milligramm (mg) Stickstoff pro Liter (l) Wasserabfluss von Flüssen in die Nord- und Ostsee an.&lt;sup&gt;1&lt;/sup&gt;
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Für die Nordsee sind dies die Flüsse Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal und Miele. Für die Ostsee sind dies die Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben und Zarow.&lt;/small&gt;</t>
         </is>
       </c>
       <c r="T51" s="5" t="inlineStr">
@@ -26213,7 +26222,7 @@
       </c>
       <c r="S52" s="5" t="inlineStr">
         <is>
-          <t>Not all fish stocks are inspected with reference to their sustainable management. Therefore, the number of fish populations that are sustainably managed using the MSY approach should always be viewed in relation to the totality of fish stocks. Although it would be desirable to expand the inspection to include as many stocks as possible, the high cost of these inspections means that the prospect of recording all stocks, even those that are economically less relevant and fished less extensively, is unrealistic.&lt;br&gt;Based on current estimates, a total of 58 fish stocks in the North Sea and 20 in the Baltic Sea are commercially exploited. The number of stocks inspected in accordance with the MSY approach is currently seven for the Baltic Sea; for the North Sea, a total of 22 stocks are taken into account. This means only slightly over a third of all managed stocks are fully analysed for sustainable management. All other populations, for which insufficient data were available for an inspection according to the MSY model, are not included in this indicator.&lt;br&gt;Stocks are considered to be sustainably managed if the actual catch per year and fish stock does not exceed the scientifically recommended amount based on the MSY approach or meets the requirements of a long-term management plan deemed to be sustainable according to the MSY approach. In this context, a fish stock is defined as an independently reproducing population of a specific species of fish. One species can therefore have multiple stocks, and different guideline values for catch quantities can be in place for each stock. As a rule, each stock is assigned a guideline value according to its previous development.&lt;br&gt;The guideline values for the managed stocks are calculated by the International Council for the Exploration of the Sea (ICES).&lt;br&gt;The annual calculation of sustainable catch quantities according to the MSY approach is based on stochastic predictions, which use calculations relating to the stocks’ historical development. Information about quantities of fish landed is based on reported catches. Random samples taken from those catches provide insights into the demographic parameters of the stock, such as age and size. Scientific surveys conducted on research ships independently of the fishing industry are another important source of information about the health of fish stocks.&lt;br&gt;The share of sustainably fished stocks among all the stocks investigated according to the MSY approach was 51.7% for the North and Baltic Seas together in 2018. That share was 63.6% for the North Sea and 14.3% for the Baltic Sea. Looking at the development between 2013 and 2018, the overall trajectory is positive.&lt;br&gt;It is difficult to assess this indicator, as it is influenced not only by the actual development of the stocks but also by the choice of stocks for inspection. As the exact constellation of data sources varies from year to year, any comparison between different years becomes complicated. In addition, the recommended catch quantities apply internationally and can be fulfilled only indirectly by the efforts of a single country.</t>
+          <t>Der Indikator gibt den Anteil der nachhaltig bewirtschafteten Fischbestände an der Zahl der gesamten bewirtschafteten Fischbestände in Nord- und Ostsee an. Dies erfolgt nach dem Maximum Sustainable Yield-Ansatz (MSY-Ansatz), dem Ansatz des höchstmöglichen Dauerertrags.</t>
         </is>
       </c>
       <c r="T52" s="5" t="inlineStr">
@@ -26710,7 +26719,7 @@
       </c>
       <c r="S53" s="5" t="inlineStr">
         <is>
-          <t>Other species besides birds rely on landscapes with intact, sustainably used habitats, which means that the indicator also indirectly reflects the development of many other species in the landscape and the sustainability of land use.&lt;br&gt;The calculations for this indicator are based on changes in the populations of 51 bird species, which together represent the most important types of landscape and habitat in Germany: ten species each for the sub-indicators farmland, settlements, inland waters, and coasts and seas, as well as eleven species for forests. The Alpine landscape is not currently taken into account, because of uncertainty of data.&lt;br&gt;The population size of each species is calculated annually from the results of bird-monitoring programmes by the Federation of German Avifaunists in cooperation with the Federal Agency for Nature Conservation and is expressed in relation to the target population size. The target value for each species is defined by a panel of experts. The historical values for 1970 and 1975 are reconstructed.&lt;br&gt;Each sub-indicator represents the arithmetic mean of the degrees of success achieved across the 10 or 11 selected avian species. The overall indicator is derived from a weighted summation of the sub-indicators. The weighting relates to the proportion of German territory which each main habitat or landscape type covers. On a provisional basis, the target values for the sub-indicators and the overall indicator have been applied unchanged to the 2030 target year.&lt;br&gt;In 1990, the indicator for biodiversity and landscape quality was significantly lower than the reconstructed values for 1970 and 1975. The indicator value stagnated over the last ten reporting years (2006-2016), reaching 70.5% of the target value in 2016 compared with 70.2% in 2006. If this trend continues, the goal for 2030 will not be achieved.&lt;br&gt;During the same period, however, the sub-indicators for the various types of habitat did not follow uniform trajectories. The farmland and coasts and seas sub-indicators fell during the last ten reporting years, to 60.5% and 58.0% of their target values in 2016 respectively. The equivalent values in 2006 were 68.0% for farmland and 63.2% for coasts and seas.&lt;br&gt;In contrast, the forest, settlement and inland-waters sub-indicators moved in a positive direction over the last ten reporting years. The forest sub-indicator reached 87.5% of its target value in 2016, compared with 78.6% in 2006. The settlement sub-indicator rose from 65.1% in 2006 to 75.5% in 2016. The figure for inland waters was 75.0% of the target value in 2016, compared with 63.1% in 2006.</t>
+          <t>Der Indikator zeigt die Bestandsentwicklung für 51 ausgewählte Vogelarten in Form eines Index.</t>
         </is>
       </c>
       <c r="T53" s="5" t="inlineStr">
@@ -27207,7 +27216,7 @@
       </c>
       <c r="S54" s="5" t="inlineStr">
         <is>
-          <t>Nitrogen, which escapes into the atmosphere bonded in ammonia and nitrogen oxides, can be introduced into ecosystems in gaseous form, dissolved in rain, or as a component of particulate matter. Emissions of ammonia and nitrogen oxides are depicted as part of indicator 3.2.a on emissions of air pollutants, and developments in that area directly affect the eutrophication of ecosystems. The sensitive ecosystems covered in the calculations for this indicator are forests, natural grassland, wetlands, marshes and heathland.&lt;br&gt;Excessive inputs of nitrogen compounds from the air into land ecosystems can result in nutrient imbalances. The alterations in nutrient availability can lead, for example, to changes in the species composition of an ecosystem, with organisms which prefer nitrogen-poor locations being driven out in favour of nitrogen-loving species. Meanwhile, many plants can be rendered vulnerable to frost, drought and pests by changes in nutrient availability. The effects of excessive nitrogen inputs often take several years to manifest themselves. Likewise, the positive effects of reduced inputs will become apparent only after an extended period.&lt;br&gt;For the purposes of evaluating nitrogen inputs, ecosystem-specific critical loads are determined which represent the saturation points below which, based on the latest knowledge available, the structures, functions and biological communities of an ecosystem remain protected. In total, around 11 million hectares, almost one third of the entire land mass of Germany, are assessed in this way.&lt;br&gt;In 2015, the critical loads for harmful nitrogen inputs were exceeded on 68% of the area of all the sensitive ecosystems assessed in Germany. Excesses were particularly high in parts of northern Germany, where agricultural activity releases large quantities of reactive nitrogen compounds.&lt;br&gt;Between 2005 and 2011, the proportion of areas in which critical loads for nitrogen were exceeded was reduced by nine percentage points. The indicator rose again slightly in the two subsequent years before returning to the 2011 level by 2015. The share of land where nitrogen was in excess of the critical load has thus not fallen any further since 2011.&lt;br&gt;The calculations for this indicator are produced by the Federal Environment Agency and derived from two data sets. The first of these is the critical-load data set, which the Federal Environment Agency provides for the purposes of international reporting under the aegis of the Geneva Convention on Long-Range Transboundary Air Pollution (CLRTAP). The tools used to determine that data set include the soil overview map of Germany, the map showing average annual rates of percolation into the soil, the map of land-use distribution and climatological data for Germany. The second data set comprises a time series of nitrogen inputs in Germany and was compiled as part of the PINETI III (Pollutant INput and EcosysTem Impact) project.</t>
+          <t>Der Indikator stellt den Anteil der Fläche empfindlicher Ökosysteme dar, bei der die ökologischen Belastungsgrenzen (Critical Loads) durch atmosphärische Stickstoffeinträge überschritten wurden, gemessen an der gesamten bewerteten Fläche empfindlicher Ökosysteme.</t>
         </is>
       </c>
       <c r="T54" s="5" t="inlineStr">
@@ -27704,7 +27713,7 @@
       </c>
       <c r="S55" s="5" t="inlineStr">
         <is>
-          <t>Indicator 15.3.a is based on the rulebook for reducing emissions from deforestation and forest degradation, or REDD+. REDD+ is an international concept which financially rewards governments and local communities in developing countries for reducing deforestation and thereby demonstrably cutting emissions. Contributions are paid in line with the scale of the emissions reduction measured or the amount of additional carbon sequestered. The data sources for the indicator are the financial reports compiled by the Federal Ministry for Economic Cooperation and Development and the Federal Ministry for the Environment, Nature Conservation and Nuclear Safety. The data have been collected annually since 2008. Duplicate counting is avoided by means of the mandatory establishment of a register.&lt;br&gt;The overall trend is positive. During the 2009-2019 reporting period, payments rose from EUR 3.0 million to EUR 63.5 million. The years 2011 and 2015 both saw a fall in payments. Of the funds paid out in 2019, EUR 50 million (78.7%) went to the multilateral Forest Carbon Partnership Facility (FCPF) and EUR 13.5 million (21.3%) to the bilateral REDD Early Movers Programme. No payments were made to the Amazon Fund for Forest Conservation and Climate in 2018 and 2019.&lt;br&gt;The indicator depicts part of Germany’s official development expenditure on the preservation, sustainable management and restoration of forests. Germany also supports the FCPF Readiness Fund and other programmes. Altogether, total spending for international forest conservation for 2019 amounted to EUR 660.4 million.&lt;br&gt;The data source for indicator 15.3.b is the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Relevant projects are any which Target to combat desertification or to mitigate the effects of droughts by preventing or reducing soil degradation, restoring degraded land or recultivating desert regions. However, the amounts paid give no indication as to the actual development of soil quality.&lt;br&gt;Gross development expenditure to combat desertification worldwide rose strongly in the reporting period starting in 2009. The indicator has developed positively with regard to the target set. Gross expenditure was most recently recorded at EUR 745.6 million for 2019, an 18-fold increase on the equivalent figure for 2009. A similar trend is discernible in the funds committed, which were most recently recorded at EUR 896.2 million.&lt;br&gt;Development spending under the REDD+ rulebook and in the context of the UNCCD is part of climate finance (indicator 13.1.b) and of official development assistance (indicator 17.1).</t>
+          <t>Der Indikator 15.3.a zeigt die ergebnisbasierten Auszahlungen Deutschlands an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt beziehungsweise Wiederaufbau von Wäldern unter dem REDD+-Regelwerk. Der Indikator 15.3.b umfasst die bilateralen Bruttoentwicklungsausgaben Deutschlands im Zusammenhang mit der Umsetzung des Übereinkommens der Vereinten Nationen zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern.</t>
         </is>
       </c>
       <c r="T55" s="5" t="inlineStr">
@@ -28201,7 +28210,7 @@
       </c>
       <c r="S56" s="5" t="inlineStr">
         <is>
-          <t>The indicator covers all criminal offences recorded in the Police Crime Statistics. These are criminal offences reported to and fully processed by the police, except offences against the security of the state, traffic offences and administrative offences.&lt;br&gt;Criminal offences committed outside the Federal Republic of Germany are not included, nor are offences that are not within the remit of the police, such as financial and tax offences, or are reported directly to and processed by the public prosecution office, such as offences relating to false testimony in court.&lt;br&gt;The Police Crime Statistics publications are compiled annually based on the data available from the Land Criminal Police Offices and the Federal Criminal Police Office. To calculate the number of criminal offences per 100,000 inhabitants, (extrapolated) population figures based on the 2011 census are used for the entire time series. This methodology allows comparisons over time to be made from 1993 onwards. It should be noted that this results in discrepancies in relation to the Police Crime Statistics data published prior to 2013.&lt;br&gt;Changes in the Police Crime Statistics do not always reflect actual changes, as the statistics cover only that proportion of criminal activity that officially comes to the attention of the police. Since there is no statistical data on offences which go unreported, such crimes cannot be reflected in the Police Crime Statistics. However, the proportion of reported versus unreported crime was investigated in 2012 and 2017 by means of the German Victim Survey. For the offences dealt with in the survey, no statistically significant change in reporting rates was found between 2012 and 2017.&lt;br&gt;The number of offences was 6,548 per 100,000 inhabitants in 2019. If the trend seen in recent years continues, the target value of fewer than 6,500 offences set for 2030 will be achieved. The indicator fell by 21.6% between 1993 and 2019. This trajectory, however, has not been continuous. For instance, it increased from 2000 to 2004, before entering a slight decline which continued until 2010. The large number of people who entered Germany as refugees and asylum-seekers from 2015 on is also reflected in the Police Crime Statistics, with violation of the legislation concerning foreigners (e.g. illegal entry) soaring by 211.8% in 2016 compared with 2014. Such offences had fallen drastically by 2019, though, when they made up only 3% of all criminal offences. Even when violations of the legislation concerning foreigners are accounted for, the total number of criminal offences registered by the police was lower in 2019 than in previous years.&lt;br&gt;In 2019, the total number of criminal offences registered by the police was 5.4 million. Of these, 1.6% involved domestic burglary, 15.3% involved fraud and 2.4% involved dangerous and serious bodily injury. Between 2014 and 2019, the incidence of domestic burglary fell by 42.7% and fraud fell by 14%, while cases of dangerous and serious bodily injury rose by 5.8%. The success rate for solving cases was 57.5% of all offences registered by the police in 2019, roughly the same as in the previous year. There were significant differences, however, depending on the type of criminal offence. For domestic burglary, for example, the rate of cases solved was only 17.4%. By contrast, 66.6% of fraud offences and 82.9% of cases of serious and grievous bodily harm cases were cleared up. The comparatively low success rate for domestic burglary is related to a high rate of reporting combined with the comparatively infrequent existence of solid leads pointing to the perpetrators. This is in sharp contrast to cases of fraud and bodily injury. These crimes have high clear-up rates because, in most cases, the identity of the suspect becomes known to the police as the crime is reported.</t>
+          <t>Der Indikator zeigt die Anzahl der Straftaten, die der Polizei angezeigt werden, je 100 000 Einwohnerinnen und Einwohner.</t>
         </is>
       </c>
       <c r="T56" s="5" t="inlineStr">
@@ -28698,7 +28707,7 @@
       </c>
       <c r="S57" s="5" t="inlineStr">
         <is>
-          <t>The data for the indicator come from a special evaluation by the Federal Foreign Office. This special evaluation found that the number of projects run per year rose from 8 in 2006 to 31 in 2019. According to the evaluation, the goal of Germany involving itself through at least 15 projects annually was already achieved for the first time in 2012. With the exception of 2013, that target was also reached or even exceeded in the years that followed. The regional focuses of Germany’s involvement were in East and West Africa, the Western Balkans and Ukraine. Other projects were supported in Latin America and the Caribbean. It is possible that projects with run-times longer than one year were counted more than once.&lt;br&gt;The projects reported are not all financed exclusively by the Federal Foreign Office but may also receive third-party funds. The indicator therefore includes those projects only partially funded from the public purse. Notably, the number of projects carried out says nothing about their scale or their level of success. Clearly formulated and communicated criteria are essential, moreover, for a project to be unequivocally categorised as in line with the indicator’s aims. The German Government’s Annual Disarmament Report contains a list of projects with the objective of SALW control, alongside their sources of funding. Their number differs from those reported for this indicator. One reason for this may be the particular focus of individual projects, which affects whether they are taken into account. This means that the indicator depicts more than the extent of state involvement in these projects.&lt;br&gt;In accordance with the guidelines on statistical reporting issued by its Development Assistance Committee, the Organisation for Economic Co-operation and Development (OECD) also publishes detailed figures on projects for reintegration and SALW control (CRS Purpose Code 15240). There are some discrepancies here too, which may arise from a project, though its objective is SALW control, being part of a larger project with a focus which precludes its inclusion in this category.&lt;br&gt;If the indicator were based on the number of projects counted in the above-mentioned OECD category, the target of at least 15 projects would have been reached in 2006 and every year since 2016. The target value would not have been achieved in the intervening years. In 2019, the OECD counted 22 projects. However, those projects also included measures for reintegrating former combatants from armed groups into society. Without such reintegration projects, the number of project exclusively or chiefly intended to combat SALW would be lower.</t>
+          <t>Der Indikator zeigt die Anzahl der in Afrika, Ost- und Südosteuropa, Lateinamerika und Asien mit deutscher finanzieller Unterstützung durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen.</t>
         </is>
       </c>
       <c r="T57" s="5" t="inlineStr">
@@ -29195,7 +29204,7 @@
       </c>
       <c r="S58" s="5" t="inlineStr">
         <is>
-          <t>The CPI is a composite indicator that is based on various expert and corporate surveys regarding the perception of corruption in the public sector. Depending on the survey, underlying definitions of corruption may differ, and the sources used for calculations may change over time. The index includes all countries for which at least three selected surveys are available. As such, the CPI is the most comprehensive synoptic study on perceived public sector corruption.&lt;br&gt;In its analysis of the CPI, the Joint Research Centre of the European Commission points out that interpretation of the findings should take into account whether a change is statistically significant and that the outcomes in this indicator should be treated with caution even where this is the case.&lt;br&gt;Germany’s score improved from 79 in 2012 to 80 in 2019. That is one point down from its score in 2017, which leaves Germany ranked in tenth place on the index. In this case, the change compared with 2012 cannot be considered statistically significant (at a significance level of 5%).&lt;br&gt;The Federal Statistical Office also gathers information on corruption as part of its satisfaction survey on public services. According to that survey, 4.7% of the population formed the impression during their interaction with public institutions in 2019 that public-service employees were susceptible to corruption. In the corresponding survey of companies, 4.0% of businesses had the impression that public-service employees were open to corruption.&lt;br&gt;The Police Crime Statistics record all criminal matters that become known to the police. In 2019, these included 913 cases of corruptibility, bribery, or acceptance or granting of advantages in the public sector. The Police Crime Statistics also list cases of corruptibility and bribery in commercial practice as well as what are referred to as offences associated with corruption, such as fraud and breach of trust, falsification of documents, anti-competitive agreements during tendering procedures, obstruction of justice, false certification by officials and breach of official secrecy.&lt;br&gt;Turning to German development cooperation, a total of 43 of the 85 partner countries evaluated in the CPI improved in 2019 compared with 2012. The number of partner countries developing in a positive direction increased in each year of the reporting period until 2016. It declined slightly in 2017 and stagnated thereafter. However, 20 partner countries involved in German development cooperation showed a statistically significant improvement (at a significance level of 5%) in 2019 over 2012.&lt;br&gt;For comparison, six partner countries reported a significant improvement in 2014.</t>
+          <t>Die Indikatoren geben den Corruption Perception Index (CPI) von Transparency International für Deutschland (16.3.a) sowie die Anzahl der Partnerländer der deutschen Entwicklungszusammenarbeit, deren CPI sich im Vergleich zum Jahr 2012 verbessert hat (16.3.b), wieder. Der CPI misst, wie stark Korruption im öffentlichen Sektor in einem Land wahrgenommen wird.</t>
         </is>
       </c>
       <c r="T58" s="5" t="inlineStr">
@@ -29694,7 +29703,7 @@
       </c>
       <c r="S59" s="5" t="inlineStr">
         <is>
-          <t>The data on which the indicator is based are the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Whether a flow is counted as ODA is determined by guidelines issued by the OECD Development Assistance Committee (DAC). ODA comprises public funds spent in order to advance the economic and social development of developing countries. It primarily includes expenditure for financial and technical cooperation with developing countries, humanitarian aid and development-cooperation contributions to multilateral institutions such as the United Nations, the European Union, the World Bank or regional development banks. Under certain conditions, spending on peace missions, debt relief and certain items of development expenditure in the donor country – such as tuition costs for students from developing countries, domestic spending on refugees and funding for development-related research – can also be counted as ODA.&lt;br&gt;The DAC also defines the list of developing countries eligible for ODA. This includes the least developed countries (LDCs) as well as other countries with low and medium per capita GNI. As a rule, the list is updated every three years. Changes in the indicator may therefore be the result of one or more countries being added to or removed from the list.&lt;br&gt;In 2018, there was a change in the way ODA loans are evaluated, in that the previous net-flows principle was replaced by the grant-equivalent method. In this method, only the grant element of an ODA loan, once calculated, is counted as ODA. The intention behind the new methodology is to make ODA grants and ODA loans comparable.&lt;br&gt;As calculated using the new method, Germany’s ODA came to EUR 21.6 billion in 2019, slightly higher than the EUR 21.2 billion recorded for 2018. In both years, ODA accounted for 0.61% of Germany’s GNI. For comparison, net ODA spending (using the evaluation method that was standard until 2017) came to around EUR 21.5 billion in 2019. This represented a 1% drop from the previous year’s figure of EUR 21.8 billion.&lt;br&gt;On the international scale, in 2019 Germany was once again the second-largest contributor in absolute terms, after the United States and ahead of the UK (provisional figures). Germany’s ODA: GNI ration of 0.61% was higher than the average for EU members of the DAC, which was 0.48% according to the provisional figures. Germany had the sixth-highest ODA: GNI ratio among the 29 members of the DAC. According to the provisional figures for 2019, the international target of 0.7% was met by five DAC countries: Luxembourg, Norway, Sweden, Denmark and the UK.&lt;br&gt;In addition to official development cooperation, private funds are also provided by such organisations as churches, foundations and associations.&lt;br&gt;These chiefly take the form of contributions and donations. This private development cooperation, which does not affect the ODA figures, amounted to EUR 1.36 billion in 2019, the equivalent of a 0.04% share of GNI. Private direct investment in developing countries came to EUR 10.2 billion in 2019, according to the preliminary data.</t>
+          <t>Der Indikator umfasst den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) im Verhältnis zum Bruttonationaleinkommen (BNE). Seit 2018 erfolgt die Berechnung nach der Zuschussäquivalent-Methode.</t>
         </is>
       </c>
       <c r="T59" s="5" t="inlineStr">
@@ -30193,7 +30202,7 @@
       </c>
       <c r="S60" s="5" t="inlineStr">
         <is>
-          <t>The data for the indicator are official student statistics and the statistics on university personnel collated by the Federal Statistical Office.&lt;br&gt;Data from the Federal Statistical Office both are complete counts based on the administrative data maintained by Germany’s institutions of higher education. The indicator includes all students enrolled in the winter semester starting in the relevant year. To obtain that statistic, all the higher-education institutions access the required data via their administration programs on the day set for the survey.&lt;br&gt;The number of researchers is recorded on the reporting date of 1 December. Researchers in this context are defined as full-time and part-time academic staff at German institutions of higher education (excluding undergraduate assistants). PhD candidates who are enrolled as students at an institution of higher education and simultaneously employed as academic staff can result in duplicate entries in the indicator.&lt;br&gt;The total number of all students and researchers from developing and emerging countries at German institutions of higher education in 2019 was 285,000. At 92.7%, students accounted for by far the larger share of the total indicator value.&lt;br&gt;In the 2019/20 winter semester, 264,555 students from developing and emerging countries were enrolled in German institutions of higher education. This corresponds to 9% of all enrolled students. The number of students from developing and emerging countries has increased steadily from the 134,462 recorded in 2005. The only decline recorded was in 2007. The figure for the 2019/20 winter semester represented a 6.6% increase on the approximately 250,000 students recorded in the 2018/19 winter semester. In winter semester 2019/20, a total of 13,067 students came from LDCs – 13.4% more than the previous year.&lt;br&gt;Of the students from developing and emerging countries, 44,490 came from China, 38,902 from Turkey and 25,149 from India. In total, 42.0% of them were female. Whereas the European developing and emerging countries send roughly equal numbers of women and men to study in Germany (54.0%), less than a quarter of students from Oceania are women (23.5%). The proportion of women among students from LDCs was slightly more than a quarter (27.1%).&lt;br&gt;In 2019, around 21,000 researchers from developing and emerging countries were members of academic staff at German institutions of higher education. They accounted for 5.1% of all academic staff at German institutions of higher education. The proportion of people from developing and emerging countries was thus markedly smaller among researchers than among students. Their numbers increased by 9.3% compared to the previous year and have more than tripled since 2005. A total of 681 researchers came from LDCs in 2019 (0.2% of all academic staff). The equivalent figure for the previous year was 687, so there was a slight reduction.&lt;br&gt;The target of raising the number of students and researchers from developing and emerging countries by 10% compared to the 215,000 recorded for 2015 was already achieved in 2017.</t>
+          <t>Der Indikator erfasst die Anzahl der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern pro Jahr beziehungsweise Semester. Hierbei wird die Anzahl der Studierenden und Forschenden aus den am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) gesondert ausgewiesen.</t>
         </is>
       </c>
       <c r="T60" s="5" t="inlineStr">
@@ -30690,7 +30699,7 @@
       </c>
       <c r="S61" s="5" t="inlineStr">
         <is>
-          <t>Information about imports to Germany is compiled from the foreign-trade statistics of the Federal Statistical Office. The type of the goods imported is recorded in detail in addition to their country of origin, value and weight. The service sector is not included in the foreign-trade statistics.&lt;br&gt;The various countries’ classification as LDCs is taken from the list of ODA recipients maintained by the OECD’s Development Assistance Committee (DAC). The indicator uses the list of LDCs valid according to the DAC for each particular reporting years. If the status of a country changes, this will have an impact on the indicator even if the value of imports from that country remains unchanged. However, changes in countries’ status have scarcely affected the development of the indicator in the period shown.&lt;br&gt;The issue of reimports means that the possibility of duplicate entries in the numerator and denominator of the indicator cannot be ruled out. The fact that the imports from LDCs are viewed in relation to all German imports must also be taken into account. The consequence is that the value of the indicator depends not only on the absolute quantity of imports from LDCs but also on the value of all imports.&lt;br&gt;Alongside Germany’s total imports from LDCs, the indicator also shows what share is made up of processed products. The intention here is to address the question, at least to some extent, as to whether Germany mainly uses LDCs as sources of basic materials for industrially produced goods or whether the LDCs themselves have a stake in the manufacturing process and the associated value creation. These include all goods not classified as raw materials in the classification according to product groups of the food and industrial economy (EGW). The term thus does not encompass products extracted from nature and not or hardly processed, such as petroleum, ores, timber in the rough or vegetable textile fibres. Conversely, cereals, vegetables, live animals, meat and milk are classified as processed products.&lt;br&gt;Imports from LDCs accounted for 0.94% of all imports to Germany in 2019 and were valued at EUR 10.4 billion. This equates to an increase of 116% compared with 2002, when that share was just 0.44%. However, the positive trend only goes back to 2008. The share of imports of processed products from LDCs rose even more sharply between 2002 and 2019 (+151%). It reached 0.89% of total imports to Germany in 2019 – compared to 0.36% in 2002 – which equates to a value of around EUR 9.9 billion. That share has stagnated in the last three reporting years. Nonetheless, if the increase over the last five years continues, is it to be expected that the benchmark will be reached.&lt;br&gt;Closer analysis of the various countries of origin reveals that almost three quarters of Germany’s imports from LDCs in 2019 came from Bangladesh (57%) or Cambodia (16%). If one looks not only at the LDCs but at all developing and emerging countries, their share of total imports to Germany in 2019 was 21.8%, and processed products from those countries accounted for 20.11% (up from 13.67% and 12.17% respectively in 2002). Imports from LDCs, both in terms of all goods and in terms of processed goods, thus account for a rather small share of imports from developing and emerging countries. As is shown above, however, their share of Germany’s total imports has increased more dramatically over time. Not only among developing and emerging countries but also more generally, China plays the most major role. Of all German imports in 2019, 9.97% came from China alone, with processed goods making up 9.94%.</t>
+          <t>Der Indikator gibt den Anteil der Einfuhren aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) an den gesamten Einfuhren nach Deutschland (in Euro gemessen) an.</t>
         </is>
       </c>
       <c r="T61" s="5" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -12114,12 +12114,12 @@
       </c>
       <c r="CT23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CU23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_LAK_1</t>
         </is>
       </c>
       <c r="CV23" s="4" t="inlineStr">
@@ -12611,17 +12611,17 @@
       </c>
       <c r="CT24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_EE_1</t>
         </is>
       </c>
       <c r="CU24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_LAK_2</t>
         </is>
       </c>
       <c r="CV24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="CW24" s="4" t="inlineStr">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="CU25" s="4" t="inlineStr">
         <is>
-          <t>L_LAK_2</t>
+          <t>Q_BMWK</t>
         </is>
       </c>
       <c r="CV25" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -11636,7 +11636,7 @@
       </c>
       <c r="AF23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="AG23" s="7">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="AK23" s="7">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -572,8 +572,8 @@
     <col customWidth="true" min="11" max="11" width="11.71875"/>
     <col customWidth="true" min="12" max="12" width="67.52734375"/>
     <col customWidth="true" min="13" max="13" width="70.8984375"/>
-    <col customWidth="true" min="14" max="14" width="17.72265625"/>
-    <col customWidth="true" min="15" max="15" width="13.8359375"/>
+    <col customWidth="true" min="14" max="14" width="48.19140625"/>
+    <col customWidth="true" min="15" max="15" width="42.0390625"/>
     <col customWidth="true" min="16" max="16" width="13.8359375"/>
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
     <col customWidth="true" min="18" max="18" width="13.8359375"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="AD2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE2" s="4" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Materiell deprivierte sowie erheblich materiell deprivierte Personen</t>
         </is>
       </c>
       <c r="AQ2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Materially deprived and severely materially deprived persons</t>
         </is>
       </c>
       <c r="AR2" s="4" t="inlineStr">
@@ -1479,12 +1479,12 @@
       <c r="BA2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC2" s="4" t="inlineStr">
+      <c r="BB2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1494,14 +1494,18 @@
           <t/>
         </is>
       </c>
-      <c r="BE2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF2" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE2" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.
+Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar.
+EU: Geschätzte Daten.</t>
+        </is>
+      </c>
+      <c r="BF2" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.
+The results from 2020 onwards are only comparable with previous years to a limited extent.
+EU: Data estimated.</t>
         </is>
       </c>
       <c r="BG2" s="4" t="inlineStr">
@@ -1509,12 +1513,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI2" s="4" t="inlineStr">
+      <c r="BH2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1524,24 +1528,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL2" s="4" t="inlineStr">
+      <c r="BK2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL2" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland/EU-28</t>
         </is>
       </c>
       <c r="BN2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany/EU-28</t>
         </is>
       </c>
       <c r="BO2" s="4" t="inlineStr">
@@ -1880,7 +1884,7 @@
       </c>
       <c r="AD3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE3" s="4" t="inlineStr">
@@ -1910,12 +1914,12 @@
       </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Stickstoffüberschuss der Landwirtschaft</t>
         </is>
       </c>
       <c r="AQ3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrogen surplus in agriculture</t>
         </is>
       </c>
       <c r="AR3" s="4" t="inlineStr">
@@ -1966,12 +1970,12 @@
       <c r="BA3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC3" s="4" t="inlineStr">
+      <c r="BB3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC3" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1981,14 +1985,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF3" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE3" s="5" t="inlineStr">
+        <is>
+          <t>2020 teilweise vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF3" s="5" t="inlineStr">
+        <is>
+          <t>2020 partly provisional data.</t>
         </is>
       </c>
       <c r="BG3" s="4" t="inlineStr">
@@ -1996,12 +2000,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI3" s="4" t="inlineStr">
+      <c r="BH3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI3" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2011,24 +2015,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL3" s="4" t="inlineStr">
+      <c r="BK3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL3" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO3" s="4" t="inlineStr">
@@ -2363,11 +2367,11 @@
         </is>
       </c>
       <c r="AC4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE4" s="4" t="inlineStr">
@@ -2397,12 +2401,12 @@
       </c>
       <c r="AP4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Landwirtschaftliche Fläche unter ökologischer Bewirtschaftung</t>
         </is>
       </c>
       <c r="AQ4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Organically farmed agricultural land</t>
         </is>
       </c>
       <c r="AR4" s="4" t="inlineStr">
@@ -2453,12 +2457,12 @@
       <c r="BA4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC4" s="4" t="inlineStr">
+      <c r="BB4" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC4" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2468,12 +2472,12 @@
           <t/>
         </is>
       </c>
-      <c r="BE4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF4" s="4" t="inlineStr">
+      <c r="BE4" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF4" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2483,12 +2487,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI4" s="4" t="inlineStr">
+      <c r="BH4" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI4" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2498,24 +2502,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL4" s="4" t="inlineStr">
+      <c r="BK4" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL4" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO4" s="4" t="inlineStr">
@@ -2855,7 +2859,7 @@
       </c>
       <c r="AD5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE5" s="4" t="inlineStr">
@@ -2885,12 +2889,12 @@
       </c>
       <c r="AP5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Zahlungen vorrangig an Entwicklungs- und Schwellenländer zur Unterstützung guter Regierungsführung für Ernährungssicherung</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Disbursement made primarily to developing and newly emerging countries to support good governance in the context of efforts to promote food security</t>
         </is>
       </c>
       <c r="AR5" s="4" t="inlineStr">
@@ -2941,12 +2945,12 @@
       <c r="BA5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC5" s="4" t="inlineStr">
+      <c r="BB5" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC5" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2956,14 +2960,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF5" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE5" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF5" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG5" s="4" t="inlineStr">
@@ -2971,12 +2975,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI5" s="4" t="inlineStr">
+      <c r="BH5" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI5" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2986,12 +2990,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL5" s="4" t="inlineStr">
+      <c r="BK5" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL5" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3339,11 +3343,11 @@
         </is>
       </c>
       <c r="AC6" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE6" s="4" t="inlineStr">
@@ -3373,12 +3377,12 @@
       </c>
       <c r="AP6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Vorzeitige Sterblichkeit</t>
         </is>
       </c>
       <c r="AQ6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Premature mortality</t>
         </is>
       </c>
       <c r="AR6" s="4" t="inlineStr">
@@ -3429,12 +3433,12 @@
       <c r="BA6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC6" s="4" t="inlineStr">
+      <c r="BB6" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC6" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3444,14 +3448,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF6" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE6" s="5" t="inlineStr">
+        <is>
+          <t>Altersstandardisierte Ergebnisse auf Basis der alten Europastandardbevölkerung.</t>
+        </is>
+      </c>
+      <c r="BF6" s="5" t="inlineStr">
+        <is>
+          <t>Age-standardised figures based on the old European standard population.</t>
         </is>
       </c>
       <c r="BG6" s="4" t="inlineStr">
@@ -3459,12 +3463,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI6" s="4" t="inlineStr">
+      <c r="BH6" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI6" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3474,24 +3478,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL6" s="4" t="inlineStr">
+      <c r="BK6" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL6" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO6" s="4" t="inlineStr">
@@ -3826,11 +3830,11 @@
         </is>
       </c>
       <c r="AC7" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE7" s="4" t="inlineStr">
@@ -3860,12 +3864,12 @@
       </c>
       <c r="AP7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der rauchenden Jugendlichen und Erwachsenen</t>
         </is>
       </c>
       <c r="AQ7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of adolescent and adult smokers</t>
         </is>
       </c>
       <c r="AR7" s="4" t="inlineStr">
@@ -3916,12 +3920,12 @@
       <c r="BA7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC7" s="4" t="inlineStr">
+      <c r="BB7" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC7" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3931,14 +3935,17 @@
           <t/>
         </is>
       </c>
-      <c r="BE7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF7" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE7" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten für die Erwachsenen wurden in den Jahren 1995, 1999, 2003, 2005, 2009, 2013 und 2017 erhoben.   Die Daten für die Jugendlichen wurden seit dem Jahr 2003 in allen Jahren bis auf 2006, 2009, 2013 und 2017 erhoben.  'undefined' = Für dieses Jahr erfolgte keine Erhebung.</t>
+        </is>
+      </c>
+      <c r="BF7" s="5" t="inlineStr">
+        <is>
+          <t>The data for adults were collected in 1995, 1999, 2003, 2005, 2009, 2013 and 2017. 
+The data for the intervening years have been extrapolated. The data for adolescents have 
+been collected every year since 2003 except for 2006, 2009, 2013 and 2017. 
+Interpolated data have been used for those years.</t>
         </is>
       </c>
       <c r="BG7" s="4" t="inlineStr">
@@ -3946,12 +3953,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI7" s="4" t="inlineStr">
+      <c r="BH7" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI7" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3961,24 +3968,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL7" s="4" t="inlineStr">
+      <c r="BK7" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL7" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO7" s="4" t="inlineStr">
@@ -4317,7 +4324,7 @@
       </c>
       <c r="AD8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE8" s="4" t="inlineStr">
@@ -4347,12 +4354,12 @@
       </c>
       <c r="AP8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der 3- bis 10- Jährigen und 11- bis 17-Jährigen mit Übergewicht und Adipositas</t>
         </is>
       </c>
       <c r="AQ8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Overweight and obese 3 to 10-year-olds and 11 to 17-year-olds</t>
         </is>
       </c>
       <c r="AR8" s="4" t="inlineStr">
@@ -4403,12 +4410,12 @@
       <c r="BA8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC8" s="4" t="inlineStr">
+      <c r="BB8" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC8" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4418,14 +4425,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF8" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE8" s="5" t="inlineStr">
+        <is>
+          <t>Altersstandardisierte Ergebnisse auf Basis der Bevölkerungsfortschreibung zum Stichtag 31.12.2015. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF8" s="5" t="inlineStr">
+        <is>
+          <t>Age-standardised figures based on population estimate for 31 December 2015. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG8" s="4" t="inlineStr">
@@ -4433,12 +4440,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI8" s="4" t="inlineStr">
+      <c r="BH8" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI8" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4448,24 +4455,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL8" s="4" t="inlineStr">
+      <c r="BK8" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL8" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO8" s="4" t="inlineStr">
@@ -4800,11 +4807,11 @@
         </is>
       </c>
       <c r="AC9" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE9" s="4" t="inlineStr">
@@ -4834,12 +4841,12 @@
       </c>
       <c r="AP9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Erwachsenen mit Adipositas</t>
         </is>
       </c>
       <c r="AQ9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of adults suffering from obesity</t>
         </is>
       </c>
       <c r="AR9" s="4" t="inlineStr">
@@ -4890,12 +4897,12 @@
       <c r="BA9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC9" s="4" t="inlineStr">
+      <c r="BB9" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC9" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4905,14 +4912,16 @@
           <t/>
         </is>
       </c>
-      <c r="BE9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF9" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE9" s="5" t="inlineStr">
+        <is>
+          <t>Datenerhebung in den Jahren 1999, 2003, 2005, 2009, 2013 und 2017.  Altersstandardisierte Ergebnisse auf Basis der neuen Europastandardbevölkerung. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF9" s="5" t="inlineStr">
+        <is>
+          <t> The data were collected in 1999, 2003, 2005, 2009, 2013 and 2017. 
+The data for the intervening years have been extrapolated.
+Age-standardised figures based on the new European standard population. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG9" s="4" t="inlineStr">
@@ -4920,12 +4929,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI9" s="4" t="inlineStr">
+      <c r="BH9" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI9" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4935,24 +4944,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL9" s="4" t="inlineStr">
+      <c r="BK9" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL9" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO9" s="4" t="inlineStr">
@@ -5291,7 +5300,7 @@
       </c>
       <c r="AD10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE10" s="4" t="inlineStr">
@@ -5321,12 +5330,12 @@
       </c>
       <c r="AP10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Emissionen von Luftschadstoffen</t>
         </is>
       </c>
       <c r="AQ10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Emissions of air pollutants</t>
         </is>
       </c>
       <c r="AR10" s="4" t="inlineStr">
@@ -5377,12 +5386,12 @@
       <c r="BA10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC10" s="4" t="inlineStr">
+      <c r="BB10" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC10" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5392,14 +5401,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF10" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE10" s="5" t="inlineStr">
+        <is>
+          <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx ), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2,5), gemittelter Index der Messzahlen.</t>
+        </is>
+      </c>
+      <c r="BF10" s="5" t="inlineStr">
+        <is>
+          <t>Sulphur dioxide (SO2), nitrogen oxides (NOx), non-methane volatile organic compounds (NMVOCs) and particulate matter (PM2.5), average index of measured values.</t>
         </is>
       </c>
       <c r="BG10" s="4" t="inlineStr">
@@ -5407,12 +5416,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI10" s="4" t="inlineStr">
+      <c r="BH10" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI10" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5422,24 +5431,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL10" s="4" t="inlineStr">
+      <c r="BK10" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL10" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO10" s="4" t="inlineStr">
@@ -5778,7 +5787,7 @@
       </c>
       <c r="AD11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE11" s="4" t="inlineStr">
@@ -5808,12 +5817,12 @@
       </c>
       <c r="AP11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Feinstaubexposition (PM10) oberhalb des WHO-Richtwertes von mindestens 20 µg pro m3 Luft im Jahresdurchschnitt</t>
         </is>
       </c>
       <c r="AQ11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Exposure to particulate matter (PM10) exceeding the WHO benchmark of 20 µg per m³ of air as an annual average</t>
         </is>
       </c>
       <c r="AR11" s="4" t="inlineStr">
@@ -5864,12 +5873,12 @@
       <c r="BA11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC11" s="4" t="inlineStr">
+      <c r="BB11" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC11" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5879,14 +5888,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF11" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE11" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF11" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG11" s="4" t="inlineStr">
@@ -5894,12 +5903,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI11" s="4" t="inlineStr">
+      <c r="BH11" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI11" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5909,24 +5918,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL11" s="4" t="inlineStr">
+      <c r="BK11" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL11" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO11" s="4" t="inlineStr">
@@ -6265,7 +6274,7 @@
       </c>
       <c r="AD12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE12" s="4" t="inlineStr">
@@ -6295,12 +6304,12 @@
       </c>
       <c r="AP12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ausgaben bzw. Zusagen zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="AQ12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Expenditure and commitments for global pandemic prevention and response</t>
         </is>
       </c>
       <c r="AR12" s="4" t="inlineStr">
@@ -6351,12 +6360,12 @@
       <c r="BA12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC12" s="4" t="inlineStr">
+      <c r="BB12" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC12" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6366,14 +6375,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF12" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE12" s="5" t="inlineStr">
+        <is>
+          <t>Alle Daten vorläufig. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF12" s="5" t="inlineStr">
+        <is>
+          <t>All data are provisional. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG12" s="4" t="inlineStr">
@@ -6381,12 +6390,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI12" s="4" t="inlineStr">
+      <c r="BH12" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI12" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6396,24 +6405,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL12" s="4" t="inlineStr">
+      <c r="BK12" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL12" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO12" s="4" t="inlineStr">
@@ -6748,11 +6757,11 @@
         </is>
       </c>
       <c r="AC13" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE13" s="4" t="inlineStr">
@@ -6782,12 +6791,12 @@
       </c>
       <c r="AP13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Frühe Schulabgängerinnen und Schulabgänger (18- bis 24-Jährige)</t>
         </is>
       </c>
       <c r="AQ13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Early school  leavers (ages 18 to 24)</t>
         </is>
       </c>
       <c r="AR13" s="4" t="inlineStr">
@@ -6838,12 +6847,12 @@
       <c r="BA13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC13" s="4" t="inlineStr">
+      <c r="BB13" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC13" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6853,14 +6862,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF13" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE13" s="5" t="inlineStr">
+        <is>
+          <t>Anpassung des Zieljahres und –wertes von 10 % bis 2020 auf 9,5 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF13" s="5" t="inlineStr">
+        <is>
+          <t>Adjustment of the target year and value from 10% by 2020 to 9.5% by 2030 in accordance with the German Sustainability Strategy 2021. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG13" s="4" t="inlineStr">
@@ -6868,12 +6877,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI13" s="4" t="inlineStr">
+      <c r="BH13" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI13" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6883,24 +6892,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL13" s="4" t="inlineStr">
+      <c r="BK13" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL13" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO13" s="4" t="inlineStr">
@@ -7236,11 +7245,11 @@
         </is>
       </c>
       <c r="AC14" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE14" s="4" t="inlineStr">
@@ -7270,12 +7279,12 @@
       </c>
       <c r="AP14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>30- bis 34-jährige akademisch Qualifizierte oder beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="AQ14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>30 to 34-year-olds with a tertiary or other post-secondary academic or vocational qualification</t>
         </is>
       </c>
       <c r="AR14" s="4" t="inlineStr">
@@ -7326,12 +7335,12 @@
       <c r="BA14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC14" s="4" t="inlineStr">
+      <c r="BB14" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC14" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7341,14 +7350,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF14" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE14" s="5" t="inlineStr">
+        <is>
+          <t>Anpassung des Zieljahres und –wertes von 42 % bis 2020 auf 55 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF14" s="5" t="inlineStr">
+        <is>
+          <t>Adjustment target year and value from 42% by 2020 to 55% by 2030 in accordance with the German Sustainability Strategy 2021. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG14" s="4" t="inlineStr">
@@ -7356,12 +7365,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI14" s="4" t="inlineStr">
+      <c r="BH14" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI14" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7371,24 +7380,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL14" s="4" t="inlineStr">
+      <c r="BK14" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL14" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO14" s="4" t="inlineStr">
@@ -7724,11 +7733,11 @@
         </is>
       </c>
       <c r="AC15" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE15" s="4" t="inlineStr">
@@ -7758,12 +7767,12 @@
       </c>
       <c r="AP15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kinder in Ganztagsbetreuung in Tageseinrichtungen</t>
         </is>
       </c>
       <c r="AQ15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Children in all-day care in child daycare centres</t>
         </is>
       </c>
       <c r="AR15" s="4" t="inlineStr">
@@ -7814,12 +7823,12 @@
       <c r="BA15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC15" s="4" t="inlineStr">
+      <c r="BB15" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC15" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7829,14 +7838,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF15" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE15" s="5" t="inlineStr">
+        <is>
+          <t>Betreuungszeit von mehr als sieben Stunden in Tageseinrichtungen, ohne Tagespflege. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF15" s="5" t="inlineStr">
+        <is>
+          <t>Care period of more than seven hours in child daycare centres, excluding home-based care. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG15" s="4" t="inlineStr">
@@ -7844,12 +7853,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI15" s="4" t="inlineStr">
+      <c r="BH15" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI15" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7859,24 +7868,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL15" s="4" t="inlineStr">
+      <c r="BK15" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL15" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO15" s="4" t="inlineStr">
@@ -8215,7 +8224,7 @@
       </c>
       <c r="AD16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE16" s="4" t="inlineStr">
@@ -8245,12 +8254,12 @@
       </c>
       <c r="AP16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Frauen und Mädchen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
         </is>
       </c>
       <c r="AQ16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Women and girls reached by vocational qualification measures through German development assistance</t>
         </is>
       </c>
       <c r="AR16" s="4" t="inlineStr">
@@ -8301,12 +8310,12 @@
       <c r="BA16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC16" s="4" t="inlineStr">
+      <c r="BB16" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC16" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8316,14 +8325,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF16" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE16" s="5" t="inlineStr">
+        <is>
+          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF16" s="5" t="inlineStr">
+        <is>
+          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG16" s="4" t="inlineStr">
@@ -8331,12 +8340,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI16" s="4" t="inlineStr">
+      <c r="BH16" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI16" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8346,12 +8355,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL16" s="4" t="inlineStr">
+      <c r="BK16" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL16" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8698,11 +8707,11 @@
         </is>
       </c>
       <c r="AC17" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE17" s="4" t="inlineStr">
@@ -8732,12 +8741,12 @@
       </c>
       <c r="AP17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten von Frauen und Männern</t>
         </is>
       </c>
       <c r="AQ17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Difference between average gross hourly earnings for women and men</t>
         </is>
       </c>
       <c r="AR17" s="4" t="inlineStr">
@@ -8788,12 +8797,12 @@
       <c r="BA17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC17" s="4" t="inlineStr">
+      <c r="BB17" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC17" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8803,14 +8812,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF17" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE17" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 vorläufig.</t>
+        </is>
+      </c>
+      <c r="BF17" s="5" t="inlineStr">
+        <is>
+          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020.</t>
         </is>
       </c>
       <c r="BG17" s="4" t="inlineStr">
@@ -8818,12 +8827,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI17" s="4" t="inlineStr">
+      <c r="BH17" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI17" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8833,24 +8842,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL17" s="4" t="inlineStr">
+      <c r="BK17" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL17" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO17" s="4" t="inlineStr">
@@ -9189,7 +9198,7 @@
       </c>
       <c r="AD18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE18" s="4" t="inlineStr">
@@ -9219,12 +9228,12 @@
       </c>
       <c r="AP18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil von Frauen in Führungspositionen</t>
         </is>
       </c>
       <c r="AQ18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of women in management positions</t>
         </is>
       </c>
       <c r="AR18" s="4" t="inlineStr">
@@ -9275,12 +9284,12 @@
       <c r="BA18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC18" s="4" t="inlineStr">
+      <c r="BB18" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC18" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9290,14 +9299,21 @@
           <t/>
         </is>
       </c>
-      <c r="BE18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF18" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE18" s="5" t="inlineStr">
+        <is>
+          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.
+Frauen in Aufsichtsräten: 2015 bis 2021 (Stand: Januar des jeweiligen Jahres).
+Frauen im öffentlichen Dienst des Bundes (Stand: 30.06. des jeweiligen Jahres).
+2021 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF18" s="5" t="inlineStr">
+        <is>
+          <t>In this context, equal representation means that approximately numerical equality is targeted. 
+Women on supervisory boards 2015 to 2021 (figures as at January each year).
+Women in management positions in the federal civil service (figures as at 30 June each year).
+2021 provisional data.
+</t>
         </is>
       </c>
       <c r="BG18" s="4" t="inlineStr">
@@ -9305,12 +9321,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI18" s="4" t="inlineStr">
+      <c r="BH18" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI18" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9320,24 +9336,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL18" s="4" t="inlineStr">
+      <c r="BK18" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL18" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO18" s="4" t="inlineStr">
@@ -9672,11 +9688,11 @@
         </is>
       </c>
       <c r="AC19" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE19" s="4" t="inlineStr">
@@ -9706,12 +9722,12 @@
       </c>
       <c r="AP19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="AQ19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Proportion of children whose fathers receive parental allowance</t>
         </is>
       </c>
       <c r="AR19" s="4" t="inlineStr">
@@ -9762,12 +9778,12 @@
       <c r="BA19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC19" s="4" t="inlineStr">
+      <c r="BB19" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC19" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9777,14 +9793,16 @@
           <t/>
         </is>
       </c>
-      <c r="BE19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF19" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE19" s="5" t="inlineStr">
+        <is>
+          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.
+Die Jahreszahlen geben das Geburtsjahr des Kindes an.</t>
+        </is>
+      </c>
+      <c r="BF19" s="5" t="inlineStr">
+        <is>
+          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.
+The years indicate the year of birth of the child.</t>
         </is>
       </c>
       <c r="BG19" s="4" t="inlineStr">
@@ -9792,12 +9810,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI19" s="4" t="inlineStr">
+      <c r="BH19" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI19" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9807,24 +9825,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL19" s="4" t="inlineStr">
+      <c r="BK19" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL19" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO19" s="4" t="inlineStr">
@@ -10163,7 +10181,7 @@
       </c>
       <c r="AD20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE20" s="4" t="inlineStr">
@@ -10193,12 +10211,12 @@
       </c>
       <c r="AP20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="AQ20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Phosphorus in flowing water</t>
         </is>
       </c>
       <c r="AR20" s="4" t="inlineStr">
@@ -10249,12 +10267,12 @@
       <c r="BA20" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC20" s="4" t="inlineStr">
+      <c r="BB20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC20" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10264,12 +10282,12 @@
           <t/>
         </is>
       </c>
-      <c r="BE20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF20" s="4" t="inlineStr">
+      <c r="BE20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF20" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10279,12 +10297,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI20" s="4" t="inlineStr">
+      <c r="BH20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI20" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10294,24 +10312,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL20" s="4" t="inlineStr">
+      <c r="BK20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL20" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO20" s="4" t="inlineStr">
@@ -10646,11 +10664,11 @@
         </is>
       </c>
       <c r="AC21" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE21" s="4" t="inlineStr">
@@ -10680,12 +10698,12 @@
       </c>
       <c r="AP21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="AQ21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="AR21" s="4" t="inlineStr">
@@ -10736,12 +10754,12 @@
       <c r="BA21" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC21" s="4" t="inlineStr">
+      <c r="BB21" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC21" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10751,14 +10769,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF21" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE21" s="5" t="inlineStr">
+        <is>
+          <t>Basis: EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.</t>
+        </is>
+      </c>
+      <c r="BF21" s="5" t="inlineStr">
+        <is>
+          <t>Basis: EEA monitoring network; the threshold is an annual average of 50 mg nitrate per litre of groundwater.</t>
         </is>
       </c>
       <c r="BG21" s="4" t="inlineStr">
@@ -10766,12 +10784,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI21" s="4" t="inlineStr">
+      <c r="BH21" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI21" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10781,24 +10799,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL21" s="4" t="inlineStr">
+      <c r="BK21" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL21" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO21" s="4" t="inlineStr">
@@ -11137,7 +11155,7 @@
       </c>
       <c r="AD22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE22" s="4" t="inlineStr">
@@ -11167,12 +11185,12 @@
       </c>
       <c r="AP22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Von Deutschland geförderter Zugang zu Trinkwasser- und Sanitärversorgung weltweit</t>
         </is>
       </c>
       <c r="AQ22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Access to drinking water and sanitation worldwide with German support</t>
         </is>
       </c>
       <c r="AR22" s="4" t="inlineStr">
@@ -11223,12 +11241,12 @@
       <c r="BA22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC22" s="4" t="inlineStr">
+      <c r="BB22" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC22" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11238,14 +11256,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF22" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE22" s="5" t="inlineStr">
+        <is>
+          <t>2019: Umstellung der Methodik. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF22" s="5" t="inlineStr">
+        <is>
+          <t>2019: Change of methodology. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG22" s="4" t="inlineStr">
@@ -11253,12 +11271,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI22" s="4" t="inlineStr">
+      <c r="BH22" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI22" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11268,12 +11286,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL22" s="4" t="inlineStr">
+      <c r="BK22" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL22" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11665,12 +11683,12 @@
       </c>
       <c r="AP23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Endenergieproduktivität und Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="AQ23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Final energy productivity and primary energy consumption</t>
         </is>
       </c>
       <c r="AR23" s="4" t="inlineStr">
@@ -11721,12 +11739,12 @@
       <c r="BA23" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC23" s="4" t="inlineStr">
+      <c r="BB23" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC23" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11736,12 +11754,12 @@
           <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
-      <c r="BE23" s="4" t="inlineStr">
+      <c r="BE23" s="5" t="inlineStr">
         <is>
           <t>2020 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Steigerung der Endenergieproduktivität um jährlich 2,1% gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
         </is>
       </c>
-      <c r="BF23" s="4" t="inlineStr">
+      <c r="BF23" s="5" t="inlineStr">
         <is>
           <t>2020 preliminary data.&lt;br&gt;The target represents an annual increase of 2.1% in final energy productivity from 2008 to 2050 (energy concept).</t>
         </is>
@@ -11751,12 +11769,12 @@
           <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
-      <c r="BH23" s="4" t="inlineStr">
+      <c r="BH23" s="5" t="inlineStr">
         <is>
           <t>2020 und 2021 vorläufige Daten.&lt;br&gt;Das Ziel entspricht einer Senkung des Primärenergieverbrauchs um 20 % gegenüber 2008 bis 2020, um 30 % bis 2030 bzw. um 50 % gegenüber 2008 bis 2050 (Energiekonzept der Bundesregierung).</t>
         </is>
       </c>
-      <c r="BI23" s="4" t="inlineStr">
+      <c r="BI23" s="5" t="inlineStr">
         <is>
           <t>2020 und 2021 preliminary data.&lt;br&gt;The target represents reduction of primary energy consumption by 20% compared to 2008 in 2020, by 30% to 2008 in 2030 or by 50% compared to 2008 in 2050 (energy concept).</t>
         </is>
@@ -11766,12 +11784,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL23" s="4" t="inlineStr">
+      <c r="BK23" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL23" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12138,6 +12156,12 @@
           <t/>
         </is>
       </c>
+      <c r="AG24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>70</v>
+      </c>
       <c r="AI24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12155,12 +12179,12 @@
       </c>
       <c r="AP24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="AQ24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Generation of renewable energies as a share of gross final energy consumption</t>
         </is>
       </c>
       <c r="AR24" s="4" t="inlineStr">
@@ -12211,12 +12235,12 @@
       <c r="BA24" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC24" s="4" t="inlineStr">
+      <c r="BB24" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC24" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12226,14 +12250,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF24" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE24" s="5" t="inlineStr">
+        <is>
+          <t>2021 teilweise vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF24" s="5" t="inlineStr">
+        <is>
+          <t>2021 partly provisional data.</t>
         </is>
       </c>
       <c r="BG24" s="4" t="inlineStr">
@@ -12241,12 +12265,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI24" s="4" t="inlineStr">
+      <c r="BH24" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI24" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12256,24 +12280,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL24" s="4" t="inlineStr">
+      <c r="BK24" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL24" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO24" s="4" t="inlineStr">
@@ -12608,7 +12632,7 @@
         </is>
       </c>
       <c r="AC25" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="4" t="inlineStr">
         <is>
@@ -12625,6 +12649,9 @@
           <t/>
         </is>
       </c>
+      <c r="AG25" s="7">
+        <v>0</v>
+      </c>
       <c r="AI25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12642,12 +12669,12 @@
       </c>
       <c r="AP25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="AQ25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Electricity from renewable sources</t>
         </is>
       </c>
       <c r="AR25" s="4" t="inlineStr">
@@ -12698,12 +12725,12 @@
       <c r="BA25" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC25" s="4" t="inlineStr">
+      <c r="BB25" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC25" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12713,14 +12740,16 @@
           <t/>
         </is>
       </c>
-      <c r="BE25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF25" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE25" s="5" t="inlineStr">
+        <is>
+          <t>2019 und 2020 vorläufige Daten. 
+Ziel für das Jahr 2050: Gesamter erzeugter und verbrauchter Strom lt. EEG treibhausgasneutral.</t>
+        </is>
+      </c>
+      <c r="BF25" s="5" t="inlineStr">
+        <is>
+          <t>Provisional data for 2019 and 2020. 
+Target for 2050: zero net greenhouse-gas emissions from all electricity generation and consumption.</t>
         </is>
       </c>
       <c r="BG25" s="4" t="inlineStr">
@@ -12728,12 +12757,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI25" s="4" t="inlineStr">
+      <c r="BH25" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI25" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12743,24 +12772,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL25" s="4" t="inlineStr">
+      <c r="BK25" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL25" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO25" s="4" t="inlineStr">
@@ -13100,7 +13129,7 @@
       </c>
       <c r="AD26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE26" s="4" t="inlineStr">
@@ -13130,12 +13159,12 @@
       </c>
       <c r="AP26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="AQ26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="AR26" s="4" t="inlineStr">
@@ -13186,12 +13215,12 @@
       <c r="BA26" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC26" s="4" t="inlineStr">
+      <c r="BB26" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC26" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13201,14 +13230,17 @@
           <t/>
         </is>
       </c>
-      <c r="BE26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF26" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE26" s="5" t="inlineStr">
+        <is>
+          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich 1,6 % Steigerung pro Jahr aufwies.
+2001 bis 2007 interpolierte Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF26" s="5" t="inlineStr">
+        <is>
+          <t>The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
+annual increase amounted to 1.6%.
+2001 to 2007 interpolated data. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG26" s="4" t="inlineStr">
@@ -13216,12 +13248,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI26" s="4" t="inlineStr">
+      <c r="BH26" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI26" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13231,24 +13263,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL26" s="4" t="inlineStr">
+      <c r="BK26" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL26" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO26" s="4" t="inlineStr">
@@ -13587,7 +13619,7 @@
       </c>
       <c r="AD27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE27" s="4" t="inlineStr">
@@ -13617,12 +13649,12 @@
       </c>
       <c r="AP27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Finanzierungssaldo und struktureller Finanzierungssaldo des Staates</t>
         </is>
       </c>
       <c r="AQ27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Financial balance and structural financial balance of general government</t>
         </is>
       </c>
       <c r="AR27" s="4" t="inlineStr">
@@ -13673,12 +13705,12 @@
       <c r="BA27" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC27" s="4" t="inlineStr">
+      <c r="BB27" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC27" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13688,14 +13720,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF27" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE27" s="5" t="inlineStr">
+        <is>
+          <t>Vorjahrespreise verkettet, 2015 = 100. 2019, 2020 und 2021 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF27" s="5" t="inlineStr">
+        <is>
+          <t>Previous years’ prices chain-linked, 2015 = 100. Provisional data for 2019, 2020 and 2021.</t>
         </is>
       </c>
       <c r="BG27" s="4" t="inlineStr">
@@ -13703,12 +13735,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI27" s="4" t="inlineStr">
+      <c r="BH27" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI27" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13718,24 +13750,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL27" s="4" t="inlineStr">
+      <c r="BK27" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL27" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO27" s="4" t="inlineStr">
@@ -14074,7 +14106,7 @@
       </c>
       <c r="AD28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE28" s="4" t="inlineStr">
@@ -14104,12 +14136,12 @@
       </c>
       <c r="AP28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Öffentlicher  Schuldenstand</t>
         </is>
       </c>
       <c r="AQ28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="AR28" s="4" t="inlineStr">
@@ -14160,12 +14192,12 @@
       <c r="BA28" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC28" s="4" t="inlineStr">
+      <c r="BB28" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC28" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14175,14 +14207,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF28" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE28" s="5" t="inlineStr">
+        <is>
+          <t>2020 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF28" s="5" t="inlineStr">
+        <is>
+          <t>2020 preliminary data.</t>
         </is>
       </c>
       <c r="BG28" s="4" t="inlineStr">
@@ -14190,12 +14222,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI28" s="4" t="inlineStr">
+      <c r="BH28" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI28" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14205,24 +14237,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL28" s="4" t="inlineStr">
+      <c r="BK28" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL28" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO28" s="4" t="inlineStr">
@@ -14557,11 +14589,11 @@
         </is>
       </c>
       <c r="AC29" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE29" s="4" t="inlineStr">
@@ -14591,12 +14623,12 @@
       </c>
       <c r="AP29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruttoanlageinvestitionen</t>
         </is>
       </c>
       <c r="AQ29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="AR29" s="4" t="inlineStr">
@@ -14647,12 +14679,12 @@
       <c r="BA29" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC29" s="4" t="inlineStr">
+      <c r="BB29" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC29" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14662,14 +14694,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF29" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE29" s="5" t="inlineStr">
+        <is>
+          <t>Ab 2019 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF29" s="5" t="inlineStr">
+        <is>
+          <t>Provisional data from 2019 onwards.</t>
         </is>
       </c>
       <c r="BG29" s="4" t="inlineStr">
@@ -14677,12 +14709,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI29" s="4" t="inlineStr">
+      <c r="BH29" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI29" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14692,24 +14724,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL29" s="4" t="inlineStr">
+      <c r="BK29" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL29" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO29" s="4" t="inlineStr">
@@ -15044,11 +15076,11 @@
         </is>
       </c>
       <c r="AC30" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE30" s="4" t="inlineStr">
@@ -15078,12 +15110,12 @@
       </c>
       <c r="AP30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="AQ30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="AR30" s="4" t="inlineStr">
@@ -15134,12 +15166,12 @@
       <c r="BA30" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC30" s="4" t="inlineStr">
+      <c r="BB30" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC30" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15149,14 +15181,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF30" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE30" s="5" t="inlineStr">
+        <is>
+          <t>Vorjahrespreise verkettet, Referenzjahr 2015. 2019 und 2020 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF30" s="5" t="inlineStr">
+        <is>
+          <t>Previous years’ prices chain-linked, reference year 2015. Provisional data for 2019 and 2020.</t>
         </is>
       </c>
       <c r="BG30" s="4" t="inlineStr">
@@ -15164,12 +15196,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI30" s="4" t="inlineStr">
+      <c r="BH30" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI30" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15179,24 +15211,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL30" s="4" t="inlineStr">
+      <c r="BK30" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL30" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO30" s="4" t="inlineStr">
@@ -15531,22 +15563,28 @@
         </is>
       </c>
       <c r="AC31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="4" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="AE31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG31" s="7">
         <v>0</v>
       </c>
-      <c r="AD31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="AH31" s="7">
+        <v>100</v>
       </c>
       <c r="AI31" s="4" t="inlineStr">
         <is>
@@ -15565,12 +15603,12 @@
       </c>
       <c r="AP31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erwerbstätigenquote</t>
         </is>
       </c>
       <c r="AQ31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Employment rate</t>
         </is>
       </c>
       <c r="AR31" s="4" t="inlineStr">
@@ -15621,12 +15659,12 @@
       <c r="BA31" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC31" s="4" t="inlineStr">
+      <c r="BB31" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC31" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15636,14 +15674,16 @@
           <t/>
         </is>
       </c>
-      <c r="BE31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF31" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE31" s="5" t="inlineStr">
+        <is>
+          <t>Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. Alterklasse 60 - 64 Jahre: Aussagewert eingeschränkt für Bremen - Männer 2010, Frauen 2010 - 2012 und 2015 sowie Saarland - Frauen 2010.
+Bundesländer,  Alterklasse 60 - 64 Jahre: Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
+        </is>
+      </c>
+      <c r="BF31" s="5" t="inlineStr">
+        <is>
+          <t>The results from 2020 onwards are only comparable with previous years to a limited extent. Age group 60 - 64 years: Limited significance for Bremen - men 2010, women 2010 - 2012 and 2015 as well as Saarland - women 2010.
+ Länder, Age group 60 - 64 years: The data is based on a special evaluation and is not publicly available.</t>
         </is>
       </c>
       <c r="BG31" s="4" t="inlineStr">
@@ -15651,12 +15691,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI31" s="4" t="inlineStr">
+      <c r="BH31" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI31" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15666,24 +15706,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL31" s="4" t="inlineStr">
+      <c r="BK31" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL31" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO31" s="4" t="inlineStr">
@@ -16022,7 +16062,7 @@
       </c>
       <c r="AD32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE32" s="4" t="inlineStr">
@@ -16052,12 +16092,12 @@
       </c>
       <c r="AP32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bündnis für nachhaltige Textilien</t>
         </is>
       </c>
       <c r="AQ32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Partnership for Sustainable Textiles</t>
         </is>
       </c>
       <c r="AR32" s="4" t="inlineStr">
@@ -16108,12 +16148,12 @@
       <c r="BA32" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC32" s="4" t="inlineStr">
+      <c r="BB32" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC32" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16123,14 +16163,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF32" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE32" s="5" t="inlineStr">
+        <is>
+          <t>Q. = Quartal. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF32" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG32" s="4" t="inlineStr">
@@ -16138,12 +16178,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI32" s="4" t="inlineStr">
+      <c r="BH32" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI32" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16153,24 +16193,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL32" s="4" t="inlineStr">
+      <c r="BK32" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL32" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO32" s="4" t="inlineStr">
@@ -16509,7 +16549,7 @@
       </c>
       <c r="AD33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE33" s="4" t="inlineStr">
@@ -16522,6 +16562,12 @@
           <t/>
         </is>
       </c>
+      <c r="AG33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>4</v>
+      </c>
       <c r="AI33" s="4" t="inlineStr">
         <is>
           <t/>
@@ -16539,12 +16585,12 @@
       </c>
       <c r="AP33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="AQ33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="AR33" s="4" t="inlineStr">
@@ -16595,12 +16641,12 @@
       <c r="BA33" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC33" s="4" t="inlineStr">
+      <c r="BB33" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC33" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16610,14 +16656,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF33" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE33" s="5" t="inlineStr">
+        <is>
+          <t>2019 vorläufige Daten; Sektor Wirtschaft: Erhebung nach Bundesländern nur in ungeraden Jahren, in geraden Jahren erfolgt die Aufteilung auf die Bundesländer prozentual nach dem jeweiligen Vorjahr.</t>
+        </is>
+      </c>
+      <c r="BF33" s="5" t="inlineStr">
+        <is>
+          <t>2019 provisional data; business enterprise sector: survey by state only in odd-numbered years, in even-numbered years the breakdown by state is based on the percentage of the respective previous year.</t>
         </is>
       </c>
       <c r="BG33" s="4" t="inlineStr">
@@ -16625,12 +16671,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI33" s="4" t="inlineStr">
+      <c r="BH33" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI33" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16640,24 +16686,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL33" s="4" t="inlineStr">
+      <c r="BK33" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL33" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO33" s="4" t="inlineStr">
@@ -16996,7 +17042,7 @@
       </c>
       <c r="AD34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE34" s="4" t="inlineStr">
@@ -17026,12 +17072,12 @@
       </c>
       <c r="AP34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Breitbandverfügbarkeit in Deutschland</t>
         </is>
       </c>
       <c r="AQ34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Broadband availability in Germany</t>
         </is>
       </c>
       <c r="AR34" s="4" t="inlineStr">
@@ -17082,12 +17128,12 @@
       <c r="BA34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC34" s="4" t="inlineStr">
+      <c r="BB34" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC34" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17097,14 +17143,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF34" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE34" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF34" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG34" s="4" t="inlineStr">
@@ -17112,12 +17158,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI34" s="4" t="inlineStr">
+      <c r="BH34" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI34" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17127,24 +17173,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL34" s="4" t="inlineStr">
+      <c r="BK34" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL34" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO34" s="4" t="inlineStr">
@@ -17479,11 +17525,11 @@
         </is>
       </c>
       <c r="AC35" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE35" s="4" t="inlineStr">
@@ -17513,12 +17559,12 @@
       </c>
       <c r="AP35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ausländische Schulabsolventinnen und -absolventen</t>
         </is>
       </c>
       <c r="AQ35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="AR35" s="4" t="inlineStr">
@@ -17569,12 +17615,12 @@
       <c r="BA35" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC35" s="4" t="inlineStr">
+      <c r="BB35" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC35" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17584,14 +17630,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF35" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE35" s="5" t="inlineStr">
+        <is>
+          <t>Bundesländer: Geschlechterspezifische Verteilung der ausländischen Absolventen/Abgänger teilweise geschätzt. Externe Absolventen werden nicht erhoben. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF35" s="5" t="inlineStr">
+        <is>
+          <t>Federal states: Gender distribution of foreign graduates/leavers partially estimated. External graduates are not surveyed. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG35" s="4" t="inlineStr">
@@ -17599,12 +17645,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI35" s="4" t="inlineStr">
+      <c r="BH35" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI35" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17614,24 +17660,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL35" s="4" t="inlineStr">
+      <c r="BK35" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL35" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO35" s="4" t="inlineStr">
@@ -17970,7 +18016,7 @@
       </c>
       <c r="AD36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE36" s="4" t="inlineStr">
@@ -18000,12 +18046,12 @@
       </c>
       <c r="AP36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verfügbares Äquivalenzeinkommen</t>
         </is>
       </c>
       <c r="AQ36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Equivalised disposable income</t>
         </is>
       </c>
       <c r="AR36" s="4" t="inlineStr">
@@ -18056,12 +18102,12 @@
       <c r="BA36" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC36" s="4" t="inlineStr">
+      <c r="BB36" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC36" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18071,14 +18117,16 @@
           <t/>
         </is>
       </c>
-      <c r="BE36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF36" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE36" s="5" t="inlineStr">
+        <is>
+          <t>Renten nicht in den Sozialleistungen eingeschlossen.  
+Gini-Koeffizient des verfügbaren Äquivalenzeinkommens: bis 2009 EU-27, ab 2010 EU-28.</t>
+        </is>
+      </c>
+      <c r="BF36" s="5" t="inlineStr">
+        <is>
+          <t>Pensions not included in social benefits.  
+Gini coefficient of equivalised disposable income: EU 27 until 2009, EU 28 from 2010.</t>
         </is>
       </c>
       <c r="BG36" s="4" t="inlineStr">
@@ -18086,12 +18134,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI36" s="4" t="inlineStr">
+      <c r="BH36" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI36" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18101,24 +18149,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL36" s="4" t="inlineStr">
+      <c r="BK36" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL36" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland/EU-28/Eurozone</t>
         </is>
       </c>
       <c r="BN36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany/EU-28/Euro-zone</t>
         </is>
       </c>
       <c r="BO36" s="4" t="inlineStr">
@@ -18453,11 +18501,11 @@
         </is>
       </c>
       <c r="AC37" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE37" s="4" t="inlineStr">
@@ -18487,12 +18535,12 @@
       </c>
       <c r="AP37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="AQ37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="AR37" s="4" t="inlineStr">
@@ -18543,12 +18591,12 @@
       <c r="BA37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC37" s="4" t="inlineStr">
+      <c r="BB37" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC37" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18558,14 +18606,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF37" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE37" s="5" t="inlineStr">
+        <is>
+          <t>Die Datenbasis für Auswertungen der Siedlungs- und Verkehrsfläche ist die amtliche Flächenerhebung. Ab dem Berichtsjahr 2016 basiert diese auf  dem Amtlichen Liegenschaftskataster-Informationssystem (ALKIS). Dadurch ist der Vergleich zu den Vorjahren beeinträchtigt und die Berechnung von Veränderungen erschwert. Die nach der Umstellung ermittelte Siedlungs- und Verkehrsfläche enthält weitgehend dieselben Nutzungsarten wie früher.</t>
+        </is>
+      </c>
+      <c r="BF37" s="5" t="inlineStr">
+        <is>
+          <t>The data for assessing settlement and transport land is taken from the official survey of land. Since 2016, the survey has been based on ALKIS, the official land register information system. As a result, the possibilities of comparison with previous years  are limited and it is more difficult to calculate the extent of changes. The settlement and transport land covered after the switch largely encompasses the same categories of land use as before.</t>
         </is>
       </c>
       <c r="BG37" s="4" t="inlineStr">
@@ -18573,12 +18621,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI37" s="4" t="inlineStr">
+      <c r="BH37" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI37" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18588,24 +18636,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL37" s="4" t="inlineStr">
+      <c r="BK37" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL37" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO37" s="4" t="inlineStr">
@@ -18940,11 +18988,11 @@
         </is>
       </c>
       <c r="AC38" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE38" s="4" t="inlineStr">
@@ -18974,12 +19022,12 @@
       </c>
       <c r="AP38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Veränderung der Freiraumfläche je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="AQ38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Changes in open space area per capita</t>
         </is>
       </c>
       <c r="AR38" s="4" t="inlineStr">
@@ -19030,12 +19078,12 @@
       <c r="BA38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC38" s="4" t="inlineStr">
+      <c r="BB38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC38" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19045,14 +19093,15 @@
           <t/>
         </is>
       </c>
-      <c r="BE38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF38" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE38" s="5" t="inlineStr">
+        <is>
+          <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur eingeschränkt möglich. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF38" s="5" t="inlineStr">
+        <is>
+          <t>A change in the data underpinning this indicator took effect on 31 December 2016, with a new land-use classification system being used from then on. This meant that no change could be recorded between 2015 and 2016. Comparisons over time are not possible without caveats. Data based on a special evaluation.
+</t>
         </is>
       </c>
       <c r="BG38" s="4" t="inlineStr">
@@ -19060,12 +19109,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI38" s="4" t="inlineStr">
+      <c r="BH38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI38" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19075,24 +19124,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL38" s="4" t="inlineStr">
+      <c r="BK38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL38" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO38" s="4" t="inlineStr">
@@ -19427,11 +19476,11 @@
         </is>
       </c>
       <c r="AC39" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE39" s="4" t="inlineStr">
@@ -19444,6 +19493,12 @@
           <t/>
         </is>
       </c>
+      <c r="AG39" s="7">
+        <v>75</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>105</v>
+      </c>
       <c r="AI39" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19461,12 +19516,12 @@
       </c>
       <c r="AP39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Einwohnerinnen und Einwohner je Quadratkilometer Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="AQ39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Inhabitants per square kilometre of settlement or transport area</t>
         </is>
       </c>
       <c r="AR39" s="4" t="inlineStr">
@@ -19517,12 +19572,12 @@
       <c r="BA39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC39" s="4" t="inlineStr">
+      <c r="BB39" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC39" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19532,14 +19587,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF39" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE39" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF39" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG39" s="4" t="inlineStr">
@@ -19547,12 +19602,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI39" s="4" t="inlineStr">
+      <c r="BH39" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI39" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19562,24 +19617,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL39" s="4" t="inlineStr">
+      <c r="BK39" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL39" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO39" s="4" t="inlineStr">
@@ -19918,7 +19973,7 @@
       </c>
       <c r="AD40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE40" s="4" t="inlineStr">
@@ -19931,6 +19986,12 @@
           <t/>
         </is>
       </c>
+      <c r="AG40" s="7">
+        <v>70</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>130</v>
+      </c>
       <c r="AI40" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19948,12 +20009,12 @@
       </c>
       <c r="AP40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="AQ40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="AR40" s="4" t="inlineStr">
@@ -20004,12 +20065,12 @@
       <c r="BA40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC40" s="4" t="inlineStr">
+      <c r="BB40" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC40" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20019,14 +20080,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF40" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE40" s="5" t="inlineStr">
+        <is>
+          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF40" s="5" t="inlineStr">
+        <is>
+          <t>2020 provisional data. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG40" s="4" t="inlineStr">
@@ -20034,12 +20095,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI40" s="4" t="inlineStr">
+      <c r="BH40" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI40" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20049,24 +20110,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL40" s="4" t="inlineStr">
+      <c r="BK40" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL40" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO40" s="4" t="inlineStr">
@@ -20405,7 +20466,7 @@
       </c>
       <c r="AD41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE41" s="4" t="inlineStr">
@@ -20418,6 +20479,12 @@
           <t/>
         </is>
       </c>
+      <c r="AG41" s="7">
+        <v>70</v>
+      </c>
+      <c r="AH41" s="7">
+        <v>120</v>
+      </c>
       <c r="AI41" s="4" t="inlineStr">
         <is>
           <t/>
@@ -20435,12 +20502,12 @@
       </c>
       <c r="AP41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="AQ41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="AR41" s="4" t="inlineStr">
@@ -20491,12 +20558,12 @@
       <c r="BA41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC41" s="4" t="inlineStr">
+      <c r="BB41" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC41" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20506,14 +20573,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF41" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE41" s="5" t="inlineStr">
+        <is>
+          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF41" s="5" t="inlineStr">
+        <is>
+          <t>2020 provisional data. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG41" s="4" t="inlineStr">
@@ -20521,12 +20588,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI41" s="4" t="inlineStr">
+      <c r="BH41" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI41" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20536,24 +20603,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL41" s="4" t="inlineStr">
+      <c r="BK41" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL41" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO41" s="4" t="inlineStr">
@@ -20889,11 +20956,11 @@
         </is>
       </c>
       <c r="AC42" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE42" s="4" t="inlineStr">
@@ -20923,12 +20990,12 @@
       </c>
       <c r="AP42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum</t>
         </is>
       </c>
       <c r="AQ42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Travel times by public transport to nearest medium-sized or major city</t>
         </is>
       </c>
       <c r="AR42" s="4" t="inlineStr">
@@ -20979,12 +21046,12 @@
       <c r="BA42" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC42" s="4" t="inlineStr">
+      <c r="BB42" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC42" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20994,14 +21061,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF42" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE42" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF42" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG42" s="4" t="inlineStr">
@@ -21009,12 +21076,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI42" s="4" t="inlineStr">
+      <c r="BH42" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI42" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21024,24 +21091,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL42" s="4" t="inlineStr">
+      <c r="BK42" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL42" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO42" s="4" t="inlineStr">
@@ -21380,7 +21447,7 @@
       </c>
       <c r="AD43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE43" s="4" t="inlineStr">
@@ -21410,12 +21477,12 @@
       </c>
       <c r="AP43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Personen, die in Haushalten leben, welche mehr als 40&amp;nbsp;% ihres verfügbaren Einkommens für Wohnen ausgeben</t>
         </is>
       </c>
       <c r="AQ43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Proportion of people living in households where more than 40% of disposable income is spent on housing</t>
         </is>
       </c>
       <c r="AR43" s="4" t="inlineStr">
@@ -21466,12 +21533,12 @@
       <c r="BA43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC43" s="4" t="inlineStr">
+      <c r="BB43" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC43" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21481,14 +21548,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF43" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE43" s="5" t="inlineStr">
+        <is>
+          <t>2019 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF43" s="5" t="inlineStr">
+        <is>
+          <t>Provisional data for 2019.</t>
         </is>
       </c>
       <c r="BG43" s="4" t="inlineStr">
@@ -21496,12 +21563,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI43" s="4" t="inlineStr">
+      <c r="BH43" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI43" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21511,24 +21578,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL43" s="4" t="inlineStr">
+      <c r="BK43" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL43" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO43" s="4" t="inlineStr">
@@ -21867,7 +21934,7 @@
       </c>
       <c r="AD44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE44" s="4" t="inlineStr">
@@ -21880,6 +21947,9 @@
           <t/>
         </is>
       </c>
+      <c r="AH44" s="7">
+        <v>60</v>
+      </c>
       <c r="AI44" s="4" t="inlineStr">
         <is>
           <t/>
@@ -21897,12 +21967,12 @@
       </c>
       <c r="AP44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="AQ44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="AR44" s="4" t="inlineStr">
@@ -21953,12 +22023,12 @@
       <c r="BA44" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC44" s="4" t="inlineStr">
+      <c r="BB44" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC44" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21968,14 +22038,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF44" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE44" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF44" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG44" s="4" t="inlineStr">
@@ -21983,12 +22053,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI44" s="4" t="inlineStr">
+      <c r="BH44" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI44" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21998,24 +22068,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL44" s="4" t="inlineStr">
+      <c r="BK44" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL44" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO44" s="4" t="inlineStr">
@@ -22354,7 +22424,7 @@
       </c>
       <c r="AD45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE45" s="4" t="inlineStr">
@@ -22367,6 +22437,12 @@
           <t/>
         </is>
       </c>
+      <c r="AG45" s="7">
+        <v>80</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>120</v>
+      </c>
       <c r="AI45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -22384,12 +22460,12 @@
       </c>
       <c r="AP45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
       <c r="AQ45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
       <c r="AR45" s="4" t="inlineStr">
@@ -22440,12 +22516,12 @@
       <c r="BA45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC45" s="4" t="inlineStr">
+      <c r="BB45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC45" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22455,14 +22531,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF45" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE45" s="5" t="inlineStr">
+        <is>
+          <t>Daten für 2016 vorläufig und aus methodischen Gründen nur eingeschränkt mit den Vorjahren vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF45" s="5" t="inlineStr">
+        <is>
+          <t>Provisional data for 2016; not directly comparable with previous years due to methodological changes. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG45" s="4" t="inlineStr">
@@ -22470,12 +22546,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI45" s="4" t="inlineStr">
+      <c r="BH45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI45" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22485,24 +22561,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL45" s="4" t="inlineStr">
+      <c r="BK45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL45" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO45" s="4" t="inlineStr">
@@ -22841,7 +22917,7 @@
       </c>
       <c r="AD46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE46" s="4" t="inlineStr">
@@ -22871,12 +22947,12 @@
       </c>
       <c r="AP46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="AQ46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Market share of products certified by publicly managed sustainability labelling schemes</t>
         </is>
       </c>
       <c r="AR46" s="4" t="inlineStr">
@@ -22927,12 +23003,12 @@
       <c r="BA46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC46" s="4" t="inlineStr">
+      <c r="BB46" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC46" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22942,14 +23018,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF46" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE46" s="5" t="inlineStr">
+        <is>
+          <t>2018 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BF46" s="5" t="inlineStr">
+        <is>
+          <t>Provisional data for 2018.</t>
         </is>
       </c>
       <c r="BG46" s="4" t="inlineStr">
@@ -22957,12 +23033,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI46" s="4" t="inlineStr">
+      <c r="BH46" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI46" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22972,24 +23048,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL46" s="4" t="inlineStr">
+      <c r="BK46" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL46" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO46" s="4" t="inlineStr">
@@ -23324,11 +23400,11 @@
         </is>
       </c>
       <c r="AC47" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE47" s="4" t="inlineStr">
@@ -23358,12 +23434,12 @@
       </c>
       <c r="AP47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Einsatz des Umweltmanagementsystems EMAS in Deutschland</t>
         </is>
       </c>
       <c r="AQ47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Use of EMAS eco-management system in Germany</t>
         </is>
       </c>
       <c r="AR47" s="4" t="inlineStr">
@@ -23414,12 +23490,12 @@
       <c r="BA47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC47" s="4" t="inlineStr">
+      <c r="BB47" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC47" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23429,14 +23505,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF47" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE47" s="5" t="inlineStr">
+        <is>
+          <t>EMAS = Eco-Management and Audit Scheme. Daten ab 2012 durch DIHK revidiert. Dies gilt auch für die Anzahl der Beschäftigten in den Jahren 2013, 2016 und 2017.  Zwischen Bundesergebnis und den Ergebnissen der Länder ergibt sich eine Differenz aufgrund von Standorten im Ausland, die in der Zählung für die Bundesergebnisse enthalten sind.</t>
+        </is>
+      </c>
+      <c r="BF47" s="5" t="inlineStr">
+        <is>
+          <t>EMAS = Eco-Management and Audit Scheme. Data from 2012 onwards revised by the Association of German Chambers of Commerce and Industry, which also revised the numbers on employees for 2013, 2016 and 2017. There is a difference between the federal result and the state results due to sites abroad that are included in the count for the federal results.</t>
         </is>
       </c>
       <c r="BG47" s="4" t="inlineStr">
@@ -23444,12 +23520,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI47" s="4" t="inlineStr">
+      <c r="BH47" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI47" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23459,24 +23535,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL47" s="4" t="inlineStr">
+      <c r="BK47" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL47" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO47" s="4" t="inlineStr">
@@ -23817,7 +23893,7 @@
       </c>
       <c r="AD48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE48" s="4" t="inlineStr">
@@ -23830,6 +23906,9 @@
           <t/>
         </is>
       </c>
+      <c r="AG48" s="7">
+        <v>80</v>
+      </c>
       <c r="AI48" s="4" t="inlineStr">
         <is>
           <t/>
@@ -23847,12 +23926,12 @@
       </c>
       <c r="AP48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nachhaltige öffentliche Beschaffung</t>
         </is>
       </c>
       <c r="AQ48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sustainable public procurement</t>
         </is>
       </c>
       <c r="AR48" s="4" t="inlineStr">
@@ -23903,12 +23982,12 @@
       <c r="BA48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC48" s="4" t="inlineStr">
+      <c r="BB48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC48" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23918,14 +23997,16 @@
           <t/>
         </is>
       </c>
-      <c r="BE48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF48" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE48" s="5" t="inlineStr">
+        <is>
+          <t>Recycling- und Gesamtpapierverbrauch: 2020 vorläufige Daten.    Methodischer Bruch (CO&amp;#8322;-Emissionen: 2017; Papierverbrauch: 2018) - Daten sind nur eingeschränkt vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF48" s="5" t="inlineStr">
+        <is>
+          <t>Recycled and total paper use: 2020 provisional data.
+Change in methodology (CO&amp;#8322; emissions: 2017; paper use: 2018) – data not directly comparable
+Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG48" s="4" t="inlineStr">
@@ -23933,12 +24014,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI48" s="4" t="inlineStr">
+      <c r="BH48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI48" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23948,24 +24029,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL48" s="4" t="inlineStr">
+      <c r="BK48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL48" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO48" s="4" t="inlineStr">
@@ -24300,11 +24381,11 @@
         </is>
       </c>
       <c r="AC49" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE49" s="4" t="inlineStr">
@@ -24334,12 +24415,12 @@
       </c>
       <c r="AP49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="AQ49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="AR49" s="4" t="inlineStr">
@@ -24390,12 +24471,12 @@
       <c r="BA49" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC49" s="4" t="inlineStr">
+      <c r="BB49" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC49" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24405,14 +24486,15 @@
           <t/>
         </is>
       </c>
-      <c r="BE49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF49" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE49" s="5" t="inlineStr">
+        <is>
+          <t>2020 vorläufige Zeitnahprognose.
+Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
+        </is>
+      </c>
+      <c r="BF49" s="5" t="inlineStr">
+        <is>
+          <t>Projected figures for 2020; Greenhouse gases = carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), sulphur hexafluoride (SF6), nitrogen trifluoride (NF3), hydrofluorocarbons (HFCs) and perfluorocarbons (PFCs)</t>
         </is>
       </c>
       <c r="BG49" s="4" t="inlineStr">
@@ -24420,12 +24502,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI49" s="4" t="inlineStr">
+      <c r="BH49" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI49" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24435,24 +24517,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL49" s="4" t="inlineStr">
+      <c r="BK49" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL49" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO49" s="4" t="inlineStr">
@@ -24791,7 +24873,7 @@
       </c>
       <c r="AD50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE50" s="4" t="inlineStr">
@@ -24821,12 +24903,12 @@
       </c>
       <c r="AP50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutsche Zahlungen vorrangig an Entwicklungs- und Schwellenländer zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="AQ50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>German payments chiefly to developing and emerging countries for climate finance</t>
         </is>
       </c>
       <c r="AR50" s="4" t="inlineStr">
@@ -24877,12 +24959,12 @@
       <c r="BA50" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC50" s="4" t="inlineStr">
+      <c r="BB50" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC50" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24892,14 +24974,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF50" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE50" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF50" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG50" s="4" t="inlineStr">
@@ -24907,12 +24989,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI50" s="4" t="inlineStr">
+      <c r="BH50" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI50" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24922,12 +25004,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL50" s="4" t="inlineStr">
+      <c r="BK50" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL50" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25279,7 +25361,7 @@
       </c>
       <c r="AD51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE51" s="4" t="inlineStr">
@@ -25309,12 +25391,12 @@
       </c>
       <c r="AP51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gesamtstickstoffkonzentration in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="AQ51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Total nitrogen concentration in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="AR51" s="4" t="inlineStr">
@@ -25365,12 +25447,12 @@
       <c r="BA51" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC51" s="4" t="inlineStr">
+      <c r="BB51" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC51" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25380,12 +25462,12 @@
           <t/>
         </is>
       </c>
-      <c r="BE51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF51" s="4" t="inlineStr">
+      <c r="BE51" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF51" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25395,12 +25477,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI51" s="4" t="inlineStr">
+      <c r="BH51" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI51" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25410,24 +25492,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL51" s="4" t="inlineStr">
+      <c r="BK51" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL51" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO51" s="4" t="inlineStr">
@@ -25766,7 +25848,7 @@
       </c>
       <c r="AD52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE52" s="4" t="inlineStr">
@@ -25796,12 +25878,12 @@
       </c>
       <c r="AP52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="AQ52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of fish stocks assessed for MSY in the North and Baltic seas which are sustainably fished</t>
         </is>
       </c>
       <c r="AR52" s="4" t="inlineStr">
@@ -25852,12 +25934,12 @@
       <c r="BA52" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC52" s="4" t="inlineStr">
+      <c r="BB52" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC52" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25867,12 +25949,12 @@
           <t/>
         </is>
       </c>
-      <c r="BE52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF52" s="4" t="inlineStr">
+      <c r="BE52" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF52" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25882,12 +25964,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI52" s="4" t="inlineStr">
+      <c r="BH52" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI52" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25897,24 +25979,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL52" s="4" t="inlineStr">
+      <c r="BK52" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL52" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gesamte Nord- und Ostsee</t>
         </is>
       </c>
       <c r="BN52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Entire North Sea and Baltic Sea</t>
         </is>
       </c>
       <c r="BO52" s="4" t="inlineStr">
@@ -26253,7 +26335,7 @@
       </c>
       <c r="AD53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE53" s="4" t="inlineStr">
@@ -26283,12 +26365,12 @@
       </c>
       <c r="AP53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bestand repräsentativer Vogelarten in verschiedenen Hauptlebensraum- und Landschaftstypen</t>
         </is>
       </c>
       <c r="AQ53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Population of representative bird species in different main habitats and landscape types</t>
         </is>
       </c>
       <c r="AR53" s="4" t="inlineStr">
@@ -26339,12 +26421,12 @@
       <c r="BA53" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC53" s="4" t="inlineStr">
+      <c r="BB53" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC53" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -26354,14 +26436,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF53" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE53" s="5" t="inlineStr">
+        <is>
+          <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt. Die historischen Werte für 1970 und 1975 sind rekonstruiert. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF53" s="5" t="inlineStr">
+        <is>
+          <t>The sub-indicator for the Alps is currently left out of the whole data set. The historical values for 1970 and 1975 are reconstructed. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG53" s="4" t="inlineStr">
@@ -26369,12 +26451,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI53" s="4" t="inlineStr">
+      <c r="BH53" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI53" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -26384,24 +26466,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL53" s="4" t="inlineStr">
+      <c r="BK53" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL53" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO53" s="4" t="inlineStr">
@@ -26740,7 +26822,7 @@
       </c>
       <c r="AD54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE54" s="4" t="inlineStr">
@@ -26770,12 +26852,12 @@
       </c>
       <c r="AP54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ökosysteme mit Überschreitung der Belastungsgrenzen für Eutrophierung durch Stickstoffeinträge</t>
         </is>
       </c>
       <c r="AQ54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ecosystems where critical loads for eutrophication are exceeded due to nitrogen input</t>
         </is>
       </c>
       <c r="AR54" s="4" t="inlineStr">
@@ -26826,12 +26908,12 @@
       <c r="BA54" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC54" s="4" t="inlineStr">
+      <c r="BB54" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC54" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -26841,14 +26923,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF54" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE54" s="5" t="inlineStr">
+        <is>
+          <t>Der Zielwert von 50% entspricht einer Senkung des Flächenanteils um 35% gegenüber 2005.</t>
+        </is>
+      </c>
+      <c r="BF54" s="5" t="inlineStr">
+        <is>
+          <t>The target of 50% equates to a 35% reduction in the proportion of land compared with 2005.</t>
         </is>
       </c>
       <c r="BG54" s="4" t="inlineStr">
@@ -26856,12 +26938,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI54" s="4" t="inlineStr">
+      <c r="BH54" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI54" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -26871,24 +26953,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL54" s="4" t="inlineStr">
+      <c r="BK54" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL54" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO54" s="4" t="inlineStr">
@@ -27227,7 +27309,7 @@
       </c>
       <c r="AD55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE55" s="4" t="inlineStr">
@@ -27257,12 +27339,12 @@
       </c>
       <c r="AP55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Zahlungen an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk sowie Bruttoentwicklungsausgaben für internationalen Bodenschutz</t>
         </is>
       </c>
       <c r="AQ55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Payments to developing and emerging countries for the verified preservation and/or restoration of forests under the REDD+ rulebook and gross development assistance for international soil protection</t>
         </is>
       </c>
       <c r="AR55" s="4" t="inlineStr">
@@ -27313,12 +27395,12 @@
       <c r="BA55" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC55" s="4" t="inlineStr">
+      <c r="BB55" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC55" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27328,14 +27410,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF55" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE55" s="5" t="inlineStr">
+        <is>
+          <t>Finanzierungsbeiträge vor 2013 sind in Antizipierung des REDD+-Regelwerks erfolgt. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF55" s="5" t="inlineStr">
+        <is>
+          <t>Financial contributions before 2013 were made in anticipation of the REDD+ rulebook. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG55" s="4" t="inlineStr">
@@ -27343,12 +27425,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI55" s="4" t="inlineStr">
+      <c r="BH55" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI55" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27358,12 +27440,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL55" s="4" t="inlineStr">
+      <c r="BK55" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL55" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27710,11 +27792,11 @@
         </is>
       </c>
       <c r="AC56" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE56" s="4" t="inlineStr">
@@ -27744,12 +27826,12 @@
       </c>
       <c r="AP56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="AQ56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="AR56" s="4" t="inlineStr">
@@ -27800,12 +27882,12 @@
       <c r="BA56" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC56" s="4" t="inlineStr">
+      <c r="BB56" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC56" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27815,14 +27897,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF56" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE56" s="5" t="inlineStr">
+        <is>
+          <t>Die Einwohnerzahlen beziehen sich laut Bundeskriminalamt auf das Vorjahr.</t>
+        </is>
+      </c>
+      <c r="BF56" s="5" t="inlineStr">
+        <is>
+          <t>According to the Federal Criminal Police Office, the population numbers relate to the previous year.</t>
         </is>
       </c>
       <c r="BG56" s="4" t="inlineStr">
@@ -27830,12 +27912,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI56" s="4" t="inlineStr">
+      <c r="BH56" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI56" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27845,24 +27927,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL56" s="4" t="inlineStr">
+      <c r="BK56" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL56" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO56" s="4" t="inlineStr">
@@ -28201,7 +28283,7 @@
       </c>
       <c r="AD57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE57" s="4" t="inlineStr">
@@ -28231,12 +28313,12 @@
       </c>
       <c r="AP57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="AQ57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="AR57" s="4" t="inlineStr">
@@ -28287,12 +28369,12 @@
       <c r="BA57" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC57" s="4" t="inlineStr">
+      <c r="BB57" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC57" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28302,14 +28384,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF57" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE57" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF57" s="5" t="inlineStr">
+        <is>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG57" s="4" t="inlineStr">
@@ -28317,12 +28399,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI57" s="4" t="inlineStr">
+      <c r="BH57" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI57" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28332,24 +28414,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL57" s="4" t="inlineStr">
+      <c r="BK57" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL57" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO57" s="4" t="inlineStr">
@@ -28688,7 +28770,7 @@
       </c>
       <c r="AD58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE58" s="4" t="inlineStr">
@@ -28718,12 +28800,12 @@
       </c>
       <c r="AP58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Korruptionswahrnehmungsindex</t>
         </is>
       </c>
       <c r="AQ58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Corruption Perceptions Index</t>
         </is>
       </c>
       <c r="AR58" s="4" t="inlineStr">
@@ -28774,12 +28856,12 @@
       <c r="BA58" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC58" s="4" t="inlineStr">
+      <c r="BB58" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC58" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28789,14 +28871,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF58" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE58" s="5" t="inlineStr">
+        <is>
+          <t>Patnerländer einschließlich Südsudan. Länderliste für die bilaterale staatliche Entwicklungszusammenarbeit des BMZ wurde in 2020 aktualisiert. Es werden 10 Länder mehr aufgeführt zuzüglich China und Sudan.</t>
+        </is>
+      </c>
+      <c r="BF58" s="5" t="inlineStr">
+        <is>
+          <t>Partner countries including South Sudan. Country list for BMZ bilateral official development cooperation updated in 2020. There are 10 more countries listed plus China and Sudan. </t>
         </is>
       </c>
       <c r="BG58" s="4" t="inlineStr">
@@ -28804,12 +28886,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI58" s="4" t="inlineStr">
+      <c r="BH58" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI58" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28819,12 +28901,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL58" s="4" t="inlineStr">
+      <c r="BK58" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL58" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29177,7 +29259,7 @@
       </c>
       <c r="AD59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE59" s="4" t="inlineStr">
@@ -29207,12 +29289,12 @@
       </c>
       <c r="AP59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der öffentlichen Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="AQ59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Official development assistance as a share of gross national income</t>
         </is>
       </c>
       <c r="AR59" s="4" t="inlineStr">
@@ -29263,12 +29345,12 @@
       <c r="BA59" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC59" s="4" t="inlineStr">
+      <c r="BB59" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC59" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29278,14 +29360,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF59" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE59" s="5" t="inlineStr">
+        <is>
+          <t>2021 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF59" s="5" t="inlineStr">
+        <is>
+          <t>2021 provisional data. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG59" s="4" t="inlineStr">
@@ -29293,12 +29375,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI59" s="4" t="inlineStr">
+      <c r="BH59" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI59" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29308,12 +29390,12 @@
           <t/>
         </is>
       </c>
-      <c r="BK59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL59" s="4" t="inlineStr">
+      <c r="BK59" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL59" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29662,11 +29744,11 @@
         </is>
       </c>
       <c r="AC60" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bar</t>
         </is>
       </c>
       <c r="AE60" s="4" t="inlineStr">
@@ -29696,12 +29778,12 @@
       </c>
       <c r="AP60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Studierende und Forschende aus Entwicklungs- und Schwellenländern in Deutschland</t>
         </is>
       </c>
       <c r="AQ60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Students and researchers in Germany from developing and emerging countries</t>
         </is>
       </c>
       <c r="AR60" s="4" t="inlineStr">
@@ -29752,12 +29834,12 @@
       <c r="BA60" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC60" s="4" t="inlineStr">
+      <c r="BB60" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC60" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29767,14 +29849,16 @@
           <t/>
         </is>
       </c>
-      <c r="BE60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF60" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE60" s="5" t="inlineStr">
+        <is>
+          <t>Das Ziel entspricht einer Steigerung der Anzahl der Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.
+LDCs (Least Developed Countries): am wenigsten entwickelte Länder. Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF60" s="5" t="inlineStr">
+        <is>
+          <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.
+LDCs: least developed countries. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG60" s="4" t="inlineStr">
@@ -29782,12 +29866,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI60" s="4" t="inlineStr">
+      <c r="BH60" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI60" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29797,24 +29881,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL60" s="4" t="inlineStr">
+      <c r="BK60" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL60" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO60" s="4" t="inlineStr">
@@ -30153,7 +30237,7 @@
       </c>
       <c r="AD61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>line</t>
         </is>
       </c>
       <c r="AE61" s="4" t="inlineStr">
@@ -30183,12 +30267,12 @@
       </c>
       <c r="AP61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern (LDCs)</t>
         </is>
       </c>
       <c r="AQ61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Imports from least developed countries (LDCs)</t>
         </is>
       </c>
       <c r="AR61" s="4" t="inlineStr">
@@ -30239,12 +30323,12 @@
       <c r="BA61" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="BB61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC61" s="4" t="inlineStr">
+      <c r="BB61" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC61" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30254,14 +30338,14 @@
           <t/>
         </is>
       </c>
-      <c r="BE61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF61" s="4" t="inlineStr">
-        <is>
-          <t/>
+      <c r="BE61" s="5" t="inlineStr">
+        <is>
+          <t>2020 vorläufige Daten. LDCs = Am wenigsten entwickelte Länder (Least Developed Countries). Die Daten basieren auf einer Sonderauswertung.</t>
+        </is>
+      </c>
+      <c r="BF61" s="5" t="inlineStr">
+        <is>
+          <t>2020 provisional data. LDCs: least developed countries. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BG61" s="4" t="inlineStr">
@@ -30269,12 +30353,12 @@
           <t/>
         </is>
       </c>
-      <c r="BH61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI61" s="4" t="inlineStr">
+      <c r="BH61" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI61" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30284,24 +30368,24 @@
           <t/>
         </is>
       </c>
-      <c r="BK61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL61" s="4" t="inlineStr">
+      <c r="BK61" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL61" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="BM61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BN61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BO61" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -1644,12 +1644,12 @@
       </c>
       <c r="CR2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_EUROSTAT</t>
         </is>
       </c>
       <c r="CS2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CT2" s="4" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="CR3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_BMEL_1</t>
         </is>
       </c>
       <c r="CS3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_JKI</t>
         </is>
       </c>
       <c r="CT3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_UG</t>
         </is>
       </c>
       <c r="CU3" s="4" t="inlineStr">
@@ -2618,17 +2618,17 @@
       </c>
       <c r="CR4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_ERSTT_1</t>
         </is>
       </c>
       <c r="CS4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_BMEL_2</t>
         </is>
       </c>
       <c r="CT4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_7</t>
         </is>
       </c>
       <c r="CU4" s="4" t="inlineStr">
@@ -3106,12 +3106,12 @@
       </c>
       <c r="CR5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="CS5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMEL</t>
         </is>
       </c>
       <c r="CT5" s="4" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="CR6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_GBE_1</t>
         </is>
       </c>
       <c r="CS6" s="4" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="CR7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_BZGA_1</t>
         </is>
       </c>
       <c r="CS7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CT7" s="4" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="CR8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_RKI</t>
         </is>
       </c>
       <c r="CS8" s="4" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="CR9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS9" s="4" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="CR10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_1</t>
         </is>
       </c>
       <c r="CS10" s="4" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="CR11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="CS11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_WHO</t>
         </is>
       </c>
       <c r="CT11" s="4" t="inlineStr">
@@ -6521,22 +6521,22 @@
       </c>
       <c r="CR12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMG</t>
         </is>
       </c>
       <c r="CS12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_AA</t>
         </is>
       </c>
       <c r="CT12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="CU12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMBF</t>
         </is>
       </c>
       <c r="CV12" s="4" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="CR13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS13" s="4" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="CR14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS14" s="4" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="CR15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS15" s="4" t="inlineStr">
@@ -8471,12 +8471,12 @@
       </c>
       <c r="CR16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="CS16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="CT16" s="4" t="inlineStr">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="CR17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_1</t>
         </is>
       </c>
       <c r="CS17" s="4" t="inlineStr">
@@ -9452,12 +9452,12 @@
       </c>
       <c r="CR18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="CS18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CT18" s="4" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="CR19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="CS19" s="4" t="inlineStr">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="CR20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_2</t>
         </is>
       </c>
       <c r="CS20" s="4" t="inlineStr">
@@ -10915,12 +10915,12 @@
       </c>
       <c r="CR21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_3</t>
         </is>
       </c>
       <c r="CS21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_LANUV_1</t>
         </is>
       </c>
       <c r="CT21" s="4" t="inlineStr">
@@ -11402,7 +11402,7 @@
       </c>
       <c r="CR22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_KFW</t>
         </is>
       </c>
       <c r="CS22" s="4" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="CR26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS26" s="4" t="inlineStr">
@@ -13866,12 +13866,12 @@
       </c>
       <c r="CR27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_3</t>
         </is>
       </c>
       <c r="CS27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMF</t>
         </is>
       </c>
       <c r="CT27" s="4" t="inlineStr">
@@ -14353,12 +14353,12 @@
       </c>
       <c r="CR28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_BB_1</t>
         </is>
       </c>
       <c r="CS28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CT28" s="4" t="inlineStr">
@@ -14840,12 +14840,12 @@
       </c>
       <c r="CR29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_SP_1</t>
         </is>
       </c>
       <c r="CT29" s="4" t="inlineStr">
@@ -15327,12 +15327,12 @@
       </c>
       <c r="CR30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_SP_2</t>
         </is>
       </c>
       <c r="CT30" s="4" t="inlineStr">
@@ -15822,17 +15822,17 @@
       </c>
       <c r="CR31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_ERSTT_2</t>
         </is>
       </c>
       <c r="CT31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_AGNE</t>
         </is>
       </c>
       <c r="CU31" s="4" t="inlineStr">
@@ -16309,7 +16309,7 @@
       </c>
       <c r="CR32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_GIZ</t>
         </is>
       </c>
       <c r="CS32" s="4" t="inlineStr">
@@ -16802,22 +16802,22 @@
       </c>
       <c r="CR33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_4</t>
         </is>
       </c>
       <c r="CS33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_9</t>
         </is>
       </c>
       <c r="CT33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_VWGDL</t>
         </is>
       </c>
       <c r="CU33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="CV33" s="4" t="inlineStr">
@@ -17289,7 +17289,7 @@
       </c>
       <c r="CR34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMDV</t>
         </is>
       </c>
       <c r="CS34" s="4" t="inlineStr">
@@ -17776,7 +17776,7 @@
       </c>
       <c r="CR35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS35" s="4" t="inlineStr">
@@ -18265,32 +18265,32 @@
       </c>
       <c r="CR36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_5</t>
         </is>
       </c>
       <c r="CS36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_ERSTT_3</t>
         </is>
       </c>
       <c r="CT36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_ERSTT_6</t>
         </is>
       </c>
       <c r="CU36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_BB_2</t>
         </is>
       </c>
       <c r="CV36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_EZB_1</t>
         </is>
       </c>
       <c r="CW36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DIW</t>
         </is>
       </c>
       <c r="CX36" s="4" t="inlineStr">
@@ -18752,12 +18752,12 @@
       </c>
       <c r="CR37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_LANUV_2</t>
         </is>
       </c>
       <c r="CT37" s="4" t="inlineStr">
@@ -19240,17 +19240,17 @@
       </c>
       <c r="CR38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="CT38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="CU38" s="4" t="inlineStr">
@@ -19733,17 +19733,17 @@
       </c>
       <c r="CR39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="CT39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_JHT</t>
         </is>
       </c>
       <c r="CU39" s="4" t="inlineStr">
@@ -20226,12 +20226,12 @@
       </c>
       <c r="CR40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="CT40" s="4" t="inlineStr">
@@ -20719,12 +20719,12 @@
       </c>
       <c r="CR41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="CT41" s="4" t="inlineStr">
@@ -21207,12 +21207,12 @@
       </c>
       <c r="CR42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BBSR</t>
         </is>
       </c>
       <c r="CS42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="CT42" s="4" t="inlineStr">
@@ -21694,12 +21694,12 @@
       </c>
       <c r="CR43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_6</t>
         </is>
       </c>
       <c r="CS43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_ERSTT_4</t>
         </is>
       </c>
       <c r="CT43" s="4" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="CR44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BKM</t>
         </is>
       </c>
       <c r="CS44" s="4" t="inlineStr">
@@ -22677,7 +22677,7 @@
       </c>
       <c r="CR45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS45" s="4" t="inlineStr">
@@ -23164,32 +23164,32 @@
       </c>
       <c r="CR46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="CS46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="CT46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="CU46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="CV46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="CW46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="CX46" s="4" t="inlineStr">
@@ -23651,7 +23651,7 @@
       </c>
       <c r="CR47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_EMAS_1</t>
         </is>
       </c>
       <c r="CS47" s="4" t="inlineStr">
@@ -24145,22 +24145,22 @@
       </c>
       <c r="CR48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_KNB</t>
         </is>
       </c>
       <c r="CS48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_IFEU</t>
         </is>
       </c>
       <c r="CT48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_UBA</t>
         </is>
       </c>
       <c r="CU48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CV48" s="4" t="inlineStr">
@@ -24633,12 +24633,12 @@
       </c>
       <c r="CR49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_5</t>
         </is>
       </c>
       <c r="CS49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_SP_3</t>
         </is>
       </c>
       <c r="CT49" s="4" t="inlineStr">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="CR50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="CS50" s="4" t="inlineStr">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="CR51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_6</t>
         </is>
       </c>
       <c r="CS51" s="4" t="inlineStr">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="CR52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_ERSTT_5</t>
         </is>
       </c>
       <c r="CS52" s="4" t="inlineStr">
@@ -26582,7 +26582,7 @@
       </c>
       <c r="CR53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BFN</t>
         </is>
       </c>
       <c r="CS53" s="4" t="inlineStr">
@@ -27069,7 +27069,7 @@
       </c>
       <c r="CR54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_7</t>
         </is>
       </c>
       <c r="CS54" s="4" t="inlineStr">
@@ -27556,12 +27556,12 @@
       </c>
       <c r="CR55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="CT55" s="4" t="inlineStr">
@@ -28043,12 +28043,12 @@
       </c>
       <c r="CR56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_BKA_1</t>
         </is>
       </c>
       <c r="CS56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CT56" s="4" t="inlineStr">
@@ -28530,7 +28530,7 @@
       </c>
       <c r="CR57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_AA</t>
         </is>
       </c>
       <c r="CS57" s="4" t="inlineStr">
@@ -29017,12 +29017,12 @@
       </c>
       <c r="CR58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_TI_1</t>
         </is>
       </c>
       <c r="CS58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="CT58" s="4" t="inlineStr">
@@ -29506,17 +29506,17 @@
       </c>
       <c r="CR59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="CT59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_OECD</t>
         </is>
       </c>
       <c r="CU59" s="4" t="inlineStr">
@@ -29997,7 +29997,7 @@
       </c>
       <c r="CR60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS60" s="4" t="inlineStr">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="CR61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="CS61" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -590,8 +590,8 @@
     <col customWidth="true" min="29" max="29" width="18.75"/>
     <col customWidth="true" min="30" max="30" width="18.75"/>
     <col customWidth="true" min="31" max="31" width="18.75"/>
-    <col customWidth="true" min="32" max="32" width="26.953125"/>
-    <col customWidth="true" min="33" max="33" width="18.75"/>
+    <col customWidth="true" min="32" max="32" width="13.8359375"/>
+    <col customWidth="true" min="33" max="33" width="13.8359375"/>
     <col customWidth="true" min="34" max="34" width="27.68359375"/>
     <col customWidth="true" min="35" max="35" width="28.7109375"/>
     <col customWidth="true" min="36" max="36" width="20.359375"/>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="AF3" s="4" t="inlineStr">
         <is>
+          <t>Z02_B01_P01_Ib01_I01_Z02</t>
+        </is>
+      </c>
+      <c r="AG3" s="4" t="inlineStr">
+        <is>
           <t>line</t>
-        </is>
-      </c>
-      <c r="AG3" s="4" t="inlineStr">
-        <is>
-          <t>Z02_B01_P01_Ib01_I01_Z02</t>
         </is>
       </c>
       <c r="AH3" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -559,7 +559,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="14.5"/>
+    <col customWidth="true" min="1" max="1" width="10.984375"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="13.8359375"/>
@@ -574,7 +574,7 @@
     <col customWidth="true" min="13" max="13" width="70.8984375"/>
     <col customWidth="true" min="14" max="14" width="48.19140625"/>
     <col customWidth="true" min="15" max="15" width="42.0390625"/>
-    <col customWidth="true" min="16" max="16" width="13.8359375"/>
+    <col customWidth="true" min="16" max="16" width="22.703125"/>
     <col customWidth="true" min="17" max="17" width="13.8359375"/>
     <col customWidth="true" min="18" max="18" width="13.8359375"/>
     <col customWidth="true" min="19" max="19" width="20.5078125"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="AD3" s="4" t="inlineStr">
         <is>
-          <t>Z02_B01_P01_Ib01_I01_Z01</t>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="AE3" s="4" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="AF3" s="4" t="inlineStr">
         <is>
-          <t>Z02_B01_P01_Ib01_I01_Z02</t>
+          <t>A_SERIES_5YAVERAGE</t>
         </is>
       </c>
       <c r="AG3" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -13334,7 +13334,7 @@
       </c>
       <c r="AI23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AJ23" s="7">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="AL23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AN23" s="7">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="BS23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="BT23" s="5" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="BV23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="BW23" s="5" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -590,7 +590,7 @@
     <col customWidth="true" min="29" max="29" width="18.75"/>
     <col customWidth="true" min="30" max="30" width="18.75"/>
     <col customWidth="true" min="31" max="31" width="18.75"/>
-    <col customWidth="true" min="32" max="32" width="13.8359375"/>
+    <col customWidth="true" min="32" max="32" width="22.1171875"/>
     <col customWidth="true" min="33" max="33" width="13.8359375"/>
     <col customWidth="true" min="34" max="34" width="27.68359375"/>
     <col customWidth="true" min="35" max="35" width="28.7109375"/>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="CL4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM4" s="4" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="AH12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="AI12" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -1661,16 +1661,15 @@
       </c>
       <c r="BT2" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.
-Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar.
-EU: Geschätzte Daten.</t>
+          <t>Die Daten basieren auf einer Sonderauswertung. &lt;br&gt;
+Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
         </is>
       </c>
       <c r="BU2" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.
-The results from 2020 onwards are only comparable with previous years to a limited extent.
-EU: Data estimated.</t>
+          <t>Data based on a special evaluation. &lt;br&gt;
+The results from 2020 onwards are only comparable with previous years to a limited extent. &lt;br&gt;
+EU: Data estimated.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
         </is>
       </c>
       <c r="BV2" s="4" t="inlineStr">
@@ -20834,14 +20833,12 @@
       </c>
       <c r="BT36" s="5" t="inlineStr">
         <is>
-          <t>Renten nicht in den Sozialleistungen eingeschlossen.  
-Gini-Koeffizient des verfügbaren Äquivalenzeinkommens: bis 2009 EU-27, ab 2010 EU-28.</t>
+          <t>Renten nicht in den Sozialleistungen eingeschlossen.  &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
         </is>
       </c>
       <c r="BU36" s="5" t="inlineStr">
         <is>
-          <t>Pensions not included in social benefits.  
-Gini coefficient of equivalised disposable income: EU 27 until 2009, EU 28 from 2010.</t>
+          <t>Pensions not included in social benefits.  &lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
         </is>
       </c>
       <c r="BV36" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -64,6 +64,11 @@
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,6 +87,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -219,6 +230,20 @@
         <color rgb="FFD0D7E5"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -254,6 +279,10 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -1646,32 +1675,32 @@
       </c>
       <c r="BQ2" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 vorläufige Daten.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung. &lt;br&gt;
+Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
         </is>
       </c>
       <c r="BR2" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT2" s="5" t="inlineStr">
-        <is>
-          <t>Die Daten basieren auf einer Sonderauswertung. &lt;br&gt;
-Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
-        </is>
-      </c>
-      <c r="BU2" s="5" t="inlineStr">
-        <is>
-          <t>Data based on a special evaluation. &lt;br&gt;
+          <t>2021 preliminary data.&lt;br&gt;Data based on a special evaluation. &lt;br&gt;
 The results from 2020 onwards are only comparable with previous years to a limited extent. &lt;br&gt;
 EU: Data estimated.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
         </is>
       </c>
+      <c r="BS2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="BV2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1716,6 +1745,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE2" s="8">
+        <v>1</v>
       </c>
       <c r="CF2" s="4" t="inlineStr">
         <is>
@@ -1808,17 +1840,17 @@
       </c>
       <c r="DG2" s="4" t="inlineStr">
         <is>
-          <t>Q_EUROSTAT</t>
+          <t>L_ERSTT_7</t>
         </is>
       </c>
       <c r="DH2" s="4" t="inlineStr">
         <is>
+          <t>L_ERSTT_8</t>
+        </is>
+      </c>
+      <c r="DI2" s="4" t="inlineStr">
+        <is>
           <t>Q_DESTATIS</t>
-        </is>
-      </c>
-      <c r="DI2" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="DJ2" s="4" t="inlineStr">
@@ -2211,12 +2243,12 @@
       </c>
       <c r="BQ3" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 teilweise vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR3" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 partly provisional data.</t>
         </is>
       </c>
       <c r="BS3" s="4" t="inlineStr">
@@ -2226,12 +2258,12 @@
       </c>
       <c r="BT3" s="5" t="inlineStr">
         <is>
-          <t>2020 teilweise vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU3" s="5" t="inlineStr">
         <is>
-          <t>2020 partly provisional data.</t>
+          <t/>
         </is>
       </c>
       <c r="BV3" s="4" t="inlineStr">
@@ -2278,6 +2310,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE3" s="8">
+        <v>1</v>
       </c>
       <c r="CF3" s="4" t="inlineStr">
         <is>
@@ -2841,6 +2876,9 @@
           <t/>
         </is>
       </c>
+      <c r="CE4" s="8">
+        <v>1</v>
+      </c>
       <c r="CF4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3336,12 +3374,12 @@
       </c>
       <c r="BQ5" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR5" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS5" s="4" t="inlineStr">
@@ -3351,12 +3389,12 @@
       </c>
       <c r="BT5" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU5" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV5" s="4" t="inlineStr">
@@ -3403,6 +3441,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE5" s="8">
+        <v>1</v>
       </c>
       <c r="CF5" s="4" t="inlineStr">
         <is>
@@ -3427,6 +3468,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CN5" s="7">
+        <v>5</v>
       </c>
       <c r="CO5" s="4" t="inlineStr">
         <is>
@@ -3899,12 +3943,12 @@
       </c>
       <c r="BQ6" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Altersstandardisierte Ergebnisse auf Basis der alten Europastandardbevölkerung.</t>
         </is>
       </c>
       <c r="BR6" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Age-standardised figures based on the old European standard population.</t>
         </is>
       </c>
       <c r="BS6" s="4" t="inlineStr">
@@ -3914,12 +3958,12 @@
       </c>
       <c r="BT6" s="5" t="inlineStr">
         <is>
-          <t>Altersstandardisierte Ergebnisse auf Basis der alten Europastandardbevölkerung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU6" s="5" t="inlineStr">
         <is>
-          <t>Age-standardised figures based on the old European standard population.</t>
+          <t/>
         </is>
       </c>
       <c r="BV6" s="4" t="inlineStr">
@@ -4461,12 +4505,14 @@
       </c>
       <c r="BQ7" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Erwachsene (15 Jahre und älter): 1995, 1999, 2003, 2005, 2009, 2013 und 2017 erhobene Daten. Zwischenjahre interpolierte Daten. 
+Jugendliche (12 bis unter 18 Jahre): vor 2003, 2006, 2009, 2013 und 2017 interpolierte Daten.</t>
         </is>
       </c>
       <c r="BR7" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Adults (15 years and older): 1995, 1999, 2003, 2005, 2009, 2013, and 2017 data collected. Intermediate years interpolated data. 
+Adolescents (12 to under 18 years): pre-2003, 2006, 2009, 2013, and 2017 interpolated data.</t>
         </is>
       </c>
       <c r="BS7" s="4" t="inlineStr">
@@ -4476,15 +4522,12 @@
       </c>
       <c r="BT7" s="5" t="inlineStr">
         <is>
-          <t>Die Daten für die Erwachsenen wurden in den Jahren 1995, 1999, 2003, 2005, 2009, 2013 und 2017 erhoben.   Die Daten für die Jugendlichen wurden seit dem Jahr 2003 in allen Jahren bis auf 2006, 2009, 2013 und 2017 erhoben.  'undefined' = Für dieses Jahr erfolgte keine Erhebung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU7" s="5" t="inlineStr">
         <is>
-          <t>The data for adults were collected in 1995, 1999, 2003, 2005, 2009, 2013 and 2017. 
-The data for the intervening years have been extrapolated. The data for adolescents have 
-been collected every year since 2003 except for 2006, 2009, 2013 and 2017. 
-Interpolated data have been used for those years.</t>
+          <t/>
         </is>
       </c>
       <c r="BV7" s="4" t="inlineStr">
@@ -4531,6 +4574,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE7" s="8">
+        <v>1</v>
       </c>
       <c r="CF7" s="4" t="inlineStr">
         <is>
@@ -4883,7 +4929,7 @@
       </c>
       <c r="AH8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="AI8" s="4" t="inlineStr">
@@ -5026,12 +5072,12 @@
       </c>
       <c r="BQ8" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Altersstandardisierte Ergebniss&lt;ungsfortschreibung zum Stichtag 31.12.2015. &lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR8" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Age-standardised figures based on population estimate for 31 December 2015. &lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS8" s="4" t="inlineStr">
@@ -5041,12 +5087,12 @@
       </c>
       <c r="BT8" s="5" t="inlineStr">
         <is>
-          <t>Altersstandardisierte Ergebnisse auf Basis der Bevölkerungsfortschreibung zum Stichtag 31.12.2015. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU8" s="5" t="inlineStr">
         <is>
-          <t>Age-standardised figures based on population estimate for 31 December 2015. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV8" s="4" t="inlineStr">
@@ -5093,6 +5139,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE8" s="8">
+        <v>1</v>
       </c>
       <c r="CF8" s="4" t="inlineStr">
         <is>
@@ -5588,12 +5637,12 @@
       </c>
       <c r="BQ9" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>1999, 2003, 2005, 2009, 2013 und 2017 erhobene Daten. Zwischenjahre interpolierte Daten. &lt;br&gt;Altersstandardisierte Ergebnisse auf Basis der neuen Europastandardbevölkerung.</t>
         </is>
       </c>
       <c r="BR9" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data collected in 1999, 2003, 2005, 2009, 2013 and 2017. Intermediate years interpolated data.&lt;br&gt;Age-standardized results based on the new European standard population.</t>
         </is>
       </c>
       <c r="BS9" s="4" t="inlineStr">
@@ -5603,14 +5652,12 @@
       </c>
       <c r="BT9" s="5" t="inlineStr">
         <is>
-          <t>Datenerhebung in den Jahren 1999, 2003, 2005, 2009, 2013 und 2017.  Altersstandardisierte Ergebnisse auf Basis der neuen Europastandardbevölkerung. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU9" s="5" t="inlineStr">
         <is>
-          <t> The data were collected in 1999, 2003, 2005, 2009, 2013 and 2017. 
-The data for the intervening years have been extrapolated.
-Age-standardised figures based on the new European standard population. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV9" s="4" t="inlineStr">
@@ -5657,6 +5704,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE9" s="8">
+        <v>1</v>
       </c>
       <c r="CF9" s="4" t="inlineStr">
         <is>
@@ -6152,12 +6202,12 @@
       </c>
       <c r="BQ10" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx ), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2,5), gemittelter Index der Messzahlen.</t>
         </is>
       </c>
       <c r="BR10" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Sulphur dioxide (SO2), nitrogen oxides (NOx), non-methane volatile organic compounds (NMVOCs) and particulate matter (PM2.5), average index of measured values.</t>
         </is>
       </c>
       <c r="BS10" s="4" t="inlineStr">
@@ -6167,12 +6217,12 @@
       </c>
       <c r="BT10" s="5" t="inlineStr">
         <is>
-          <t>Schwefeldioxid (SO2), Stickstoffoxide (NOx ), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2,5), gemittelter Index der Messzahlen.</t>
+          <t/>
         </is>
       </c>
       <c r="BU10" s="5" t="inlineStr">
         <is>
-          <t>Sulphur dioxide (SO2), nitrogen oxides (NOx), non-methane volatile organic compounds (NMVOCs) and particulate matter (PM2.5), average index of measured values.</t>
+          <t/>
         </is>
       </c>
       <c r="BV10" s="4" t="inlineStr">
@@ -6219,6 +6269,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE10" s="8">
+        <v>2</v>
       </c>
       <c r="CF10" s="4" t="inlineStr">
         <is>
@@ -6714,12 +6767,12 @@
       </c>
       <c r="BQ11" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;2020: Weniger als die Hälfte von 1 in der letzten besetzten Stelle, jedoch mehr als nichts.</t>
         </is>
       </c>
       <c r="BR11" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.&lt;br&gt;2020: Less than half of 1 in the last filled position, but more than nothing.</t>
         </is>
       </c>
       <c r="BS11" s="4" t="inlineStr">
@@ -6729,12 +6782,12 @@
       </c>
       <c r="BT11" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU11" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV11" s="4" t="inlineStr">
@@ -6781,6 +6834,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE11" s="8">
+        <v>2</v>
       </c>
       <c r="CF11" s="4" t="inlineStr">
         <is>
@@ -7276,12 +7332,12 @@
       </c>
       <c r="BQ12" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Alle Daten vorläufig. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR12" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>All data are provisional. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS12" s="4" t="inlineStr">
@@ -7291,12 +7347,12 @@
       </c>
       <c r="BT12" s="5" t="inlineStr">
         <is>
-          <t>Alle Daten vorläufig. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU12" s="5" t="inlineStr">
         <is>
-          <t>All data are provisional. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV12" s="4" t="inlineStr">
@@ -7343,6 +7399,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE12" s="8">
+        <v>1</v>
       </c>
       <c r="CF12" s="4" t="inlineStr">
         <is>
@@ -7853,12 +7912,12 @@
       </c>
       <c r="BT13" s="5" t="inlineStr">
         <is>
-          <t>Anpassung des Zieljahres und –wertes von 10 % bis 2020 auf 9,5 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Anpassung des Zieljahres und –wertes von 10 % bis 2020 auf 9,5 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BU13" s="5" t="inlineStr">
         <is>
-          <t>Adjustment of the target year and value from 10% by 2020 to 9.5% by 2030 in accordance with the German Sustainability Strategy 2021. Data based on a special evaluation.</t>
+          <t>Adjustment of the target year and value from 10% by 2020 to 9.5% by 2030 in accordance with the German Sustainability Strategy 2021.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BV13" s="4" t="inlineStr">
@@ -7905,6 +7964,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE13" s="8">
+        <v>1</v>
       </c>
       <c r="CF13" s="4" t="inlineStr">
         <is>
@@ -7997,7 +8059,7 @@
       </c>
       <c r="DG13" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_10</t>
         </is>
       </c>
       <c r="DH13" s="4" t="inlineStr">
@@ -8401,12 +8463,12 @@
       </c>
       <c r="BQ14" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Anpassung des Zieljahres und –wertes von 42 % bis 2020 auf 55 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021. &lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR14" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Adjustment target year and value from 42% by 2020 to 55% by 2030 in accordance with the German Sustainability Strategy 2021.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS14" s="4" t="inlineStr">
@@ -8416,12 +8478,12 @@
       </c>
       <c r="BT14" s="5" t="inlineStr">
         <is>
-          <t>Anpassung des Zieljahres und –wertes von 42 % bis 2020 auf 55 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU14" s="5" t="inlineStr">
         <is>
-          <t>Adjustment target year and value from 42% by 2020 to 55% by 2030 in accordance with the German Sustainability Strategy 2021. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV14" s="4" t="inlineStr">
@@ -8468,6 +8530,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE14" s="8">
+        <v>2</v>
       </c>
       <c r="CF14" s="4" t="inlineStr">
         <is>
@@ -8508,6 +8573,9 @@
           <t/>
         </is>
       </c>
+      <c r="CT14" s="7">
+        <v>2020</v>
+      </c>
       <c r="CU14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8565,7 +8633,7 @@
       </c>
       <c r="DH14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_ERSTT_9</t>
         </is>
       </c>
       <c r="DI14" s="4" t="inlineStr">
@@ -8964,12 +9032,12 @@
       </c>
       <c r="BQ15" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Betreuungszeit von mehr als sieben Stunden in Tageseinrichtungen, ohne Tagespflege. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR15" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Care period of more than seven hours in child daycare centres, excluding home-based care. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS15" s="4" t="inlineStr">
@@ -8979,12 +9047,12 @@
       </c>
       <c r="BT15" s="5" t="inlineStr">
         <is>
-          <t>Betreuungszeit von mehr als sieben Stunden in Tageseinrichtungen, ohne Tagespflege. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU15" s="5" t="inlineStr">
         <is>
-          <t>Care period of more than seven hours in child daycare centres, excluding home-based care. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV15" s="4" t="inlineStr">
@@ -9031,6 +9099,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE15" s="8">
+        <v>1</v>
       </c>
       <c r="CF15" s="4" t="inlineStr">
         <is>
@@ -9123,12 +9194,12 @@
       </c>
       <c r="DG15" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_11</t>
         </is>
       </c>
       <c r="DH15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_23</t>
         </is>
       </c>
       <c r="DI15" s="4" t="inlineStr">
@@ -9265,7 +9336,7 @@
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02</t>
+          <t>Z05_B01_P01</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
@@ -9275,72 +9346,72 @@
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
+          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
         </is>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Strengthening the economic participation of women globally</t>
+          <t>Promoting equality and a partnership-based division of responsibilities</t>
         </is>
       </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02</t>
+          <t>Z05_B01_P01</t>
         </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification of women and girls through German development cooperation</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
+          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer in Prozent der durchschnittlichen Bruttostundenverdienste der Männer.</t>
         </is>
       </c>
       <c r="T16" s="5" t="inlineStr">
         <is>
-          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation.</t>
+          <t>The indicator is a percentage figure showing the gender pay gap as the ratio of the average gross hourly earnings for women to the average gross hourly wage of men.</t>
         </is>
       </c>
       <c r="U16" s="5" t="inlineStr">
         <is>
-          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden.</t>
+          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgt daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
         </is>
       </c>
       <c r="V16" s="5" t="inlineStr">
         <is>
-          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030.</t>
+          <t>Differences in pay between men and women in modern working societies are a sign of social inequality. A narrowing of pay disparities is an indicator of progress on the road to equality. The German Government has therefore been pursuing the target of reducing the pay gap to 10% by 2020 and maintaining it until 2030.</t>
         </is>
       </c>
       <c r="W16" s="5" t="inlineStr">
         <is>
-          <t>Als Datenquelle wurden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Projekten verwendet, die sich im Jahr 2015 in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und non-formalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel der Kreditanstalt für Wiederaufbau finanziert. Die Datenerhebung erfolgte erstmalig im Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH sowie das Centrum für Evaluation GmbH und wird im dreijährigen Rhythmus durchgeführt. Insofern kann eine mögliche Zielerreichung des Indikators gemäß der im Indikatorenbericht zugrunde gelegten Methodik noch nicht beurteilt werden.&lt;br&gt;Im Jahr 2018 wurden rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Dies ist gegenüber 2015 – dem ersten Jahr der Erhebung – ein Anstieg um 243 %. Davon konnten 26,5 % über direkte Berufsbildungsmaßnahmen erreicht werden. Durch Institutionenförderung wurden 31,6 % der Frauen und Mädchen erreicht und durch Maßnahmen auf Politikfeldebene 41,8 %. Durch die finanzielle Zusammenarbeit wurden insgesamt 93,0 % der Frauen und Mädchen erreicht.&lt;br&gt;Frauen und Mädchen in Entwicklungs- und Schwellenländern werden auf unterschiedlichen Ebenen von deutscher entwicklungspolitischer Zusammenarbeit erreicht, weswegen die Daten auf drei Ebenen abgefragt wurden. (1) Bei Maßnahmen auf Individualebene kann die Anzahl der Frauen und Mädchen, die beruflich aus- und weitergebildet wurden oder an entsprechend ausgerichteten Beratungsmaßnahmen teilgenommen haben, direkt erfasst werden. Bei (2) Förderung von Institutionen oder (3) Förderung auf Politikfeldebene muss die erreichte Anzahl in den geförderten Aus- und Weiterbildungseinrichtungen geschätzt werden. Dabei werden auf Institutionenebene die Gesamtzahl der weiblichen Aus- und Weiterzubildenden in den jeweils geförderten Aus- und Weiterbildungseinrichtungen und auf Politikfeldebene alle weiblichen Aus- und Weiterzubildenden in den Partnerländern als erreichte Frauen und Mädchen angenommen. Folglich kann es zu Überschätzungen und zu Mehrfachzählungen kommen – insbesondere auf Politikfeldebene. Ferner kann nicht ausgeschlossen werden, dass es bei Nachfolgeprojekten oder bei mehreren zeitgleich durchgeführten Projekten in derselben Region zu Mehrfachzählungen der erreichten Frauen und Mädchen kommt.&lt;br&gt;Der Wert des Indikators hängt stark von der geförderten Ebene ab, da durch die Förderung von Institutionen oder Politikfeldern in der Regel mehr Frauen und Mädchen erreicht werden als bei individuellen Maßnahmen. Der Indikator trifft keine Aussage zu Erfolg, Umfang und Qualität der Qualifizierungsmaßnahmen, die recht unterschiedlich sein können. Die Maßnahmen zur Förderung der beruflichen Qualifizierung von Frauen und Mädchen sind Teil der gesamten öffentlichen Entwicklungsausgaben. Diese sind im Indikator 17.1 dargestellt.</t>
+          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Dabei werden deren Ursachen, wie Qualifikation, Tätigkeit oder unterschiedliche Erwerbsbiografien, nicht berücksichtigt.&lt;br&gt;Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen, Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap (GPG) veröffentlicht. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten und unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der „Land- und Forstwirtschaft, Fischerei“, der „öffentlichen Verwaltung, Verteidigung; Sozialversicherung“ sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.&lt;br&gt;Nach vorläufigen Zahlen lag der unbereinigte Verdienstabstand zwischen Frauen und Männern bei durchschnittlich 19 % im Jahr 2019. Das heißt, der durchschnittliche Bruttostundenverdienst von Frauen lag um rund ein Fünftel niedriger als der Verdienst der Männer. Über einen längeren Zeitraum betrachtet, zeigt sich für Gesamtdeutschland ein langsamer, aber stetiger Rückgang des unbereinigten Gender Pay Gap. Dieser hatte 2014 mit 22 % um 3 Prozentpunkte höher gelegen als 2019. Bei einer Fortsetzung der Entwicklung der letzten fünf Jahre wird das angestrebte Ziel im Jahr 2020 sowie im Jahr 2030 nicht erreicht werden.&lt;br&gt;Allerdings zeichnet sich für Deutschland kein einheitliches Bild ab. Zwischen den Bundesländern bestehen erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2019 mit 25 % in Bremen, während er in Mecklenburg-Vorpommern und Thüringen 6 % betrug. Dabei war das Verdienstniveau in Mecklenburg-Vorpommern und Thüringen insgesamt niedriger als in Bremen.&lt;br&gt;Untersuchungen der ursächlichen Faktoren des GPG können alle vier Jahre auf Basis der detaillierten Ergebnisse aus der Verdienststrukturerhebung durchgeführt werden. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Diese Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. Demnach sind 71°% des Verdienstunterschieds zwischen Männern und Frauen strukturbedingt – also unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen und Berufen arbeiten, in denen schlechter bezahlt wird und sie seltener Führungspositionen erreichen. Auch arbeiten sie häufiger als Männer in Teilzeit und in Minijobs. Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).&lt;br&gt;Im europäischen Vergleich liegen Ergebnisse für das Jahr 2018 vor. Mit 20 % lag der unbereinigte Gender Pay Gap in Deutschland für das Jahr 2018 deutlich über dem Durchschnitt der Europäischen Union (15 %, vorläufig). Von den 28 EU-Staaten im Jahr 2018 wies nur Estland mit 22 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %) sowie Rumänien (2 %).</t>
         </is>
       </c>
       <c r="X16" s="5" t="inlineStr">
         <is>
-          <t>Information provided by the Federal Ministry for Economic Cooperation and Development (BMZ) on supported projects that entered the implementation phase in 2015 served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds provided through the Kreditanstalt für Wiederaufbau (KfW). The data were collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH, and are updated at three-annual intervals. This means that it is not yet possible to gauge the prospects of meeting the target on the basis of the methodology set out in the Indicator Report.&lt;br&gt;In 2018, some 863,000 women and girls were reached by skills development measures. This is 243% higher than 2015, the first year for which data were collected. Of these women and girls, 26.5% were reached directly through individual vocational training. A total of 31.6% of the women and girls were reached through institutional funding and 41.8% through measures in specific policy fields. Of all these women and girls, 93.0% were reached through financial cooperation.&lt;br&gt;Because women and girls in developing and emerging countries are reached by German development cooperation by three different levels, the data were searched for each of those levels. (1) In the case of individualised measures, the number of women and girls who received vocational training and continuing education or participated in individualised extension measures can be recorded directly. When it comes to (2) the funding of institutions and (3) the allocation of funds to specific policy fields, the number of beneficiaries reached in the supported training and further education facilities has to be estimated. In this case, the total number of female trainees and students in each of the funded education and training establishments as well as all women and girls receiving education or training in the relevant policy field are assumed to be beneficiaries of German development cooperation. As a result, there can be overestimates and duplication, especially in the figures for policy fields. Furthermore, in the case of follow-on projects or when two or more projects are implemented simultaneously in the same region, the possibility of double counting some of the beneficiary women and girls cannot be ruled out.&lt;br&gt;The value of the indicator depends heavily on the funding level, as funding through institutions or policy fields generally reaches more women and girls than individual measures. The indicator does not provide any information on the success, scope and quality of the qualification measures, which can vary considerably. The measures designed to promote the vocational skills of women and girls are part of overall official development assistance. The total amount of ODA is shown in indicator 17.1.</t>
+          <t>The indicator presented here shows the unadjusted gender pay gap. It simply uses the percentage ratio between the average gross hourly rates of pay. Factors such as qualification levels, hours worked and occupational experience profiles are not taken into account.&lt;br&gt;The data for the indicator are based on the four-yearly wage structure survey conducted by the statistical offices of the Länder in the form of a representative sample survey with a disclosure obligation covering a maximum total of 60,000 businesses. On the basis of these data, results are calculated, broken down by age group, education level, performance group, activity category, collective agreement coverage, company size class and economic sector, and the resulting adjusted gender pay gap (GPG) is published. For the interim years, the rates of change from the quarterly wage survey are used to extrapolate the unadjusted GPG. When the adjusted and the unadjusted GPG are calculated, the EU categorisation is used, in which employees in agriculture, forestry and fishing and in public administration, defence and compulsory social security as well as employees of microenterprises are not taken into account.&lt;br&gt;According to provisional figures, the average unadjusted gender pay gap between women and men in 2019 was 19%. This means that the average gross hourly pay earned by women was about a fifth lower than that earned by men. Over the longer term, a slow but steady narrowing of the unadjusted gender pay gap is evident in the whole of Germany. It stood at 22% in 2014, which is three percentage points higher than in 2019. If the trend recorded over the last five years continues, the target will not be achieved in 2020 or in 2030.&lt;br&gt;At the same time, the picture for Germany is not a uniform one. There are considerable differences between Länder: the highest unadjusted GPG in 2019 was 25% in Bremen, while in Mecklenburg-Western Pomerania and in Thuringia the gap was only 6%. Pay levels generally, however, were lower in Mecklenburg-Western Pomerania and Thuringia than in Bremen.&lt;br&gt;Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the wage structure survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71% of the gender pay gap, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs. The remaining 29% of the pay differential corresponds to the adjusted GPG of 6% in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4% in Berlin to 7% in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.&lt;br&gt;Comparative figures for the European Union are also available for 2018. At 20%, the unadjusted gender pay gap in Germany for 2018 lay considerably above the provisional European Union average of 15%. Of the 28 EU states in 2018, only Estonia, with 22% had a higher gender pay gap. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1%, and Romania, with 2%.</t>
         </is>
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.5.1</t>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
@@ -9350,16 +9421,16 @@
       </c>
       <c r="AA16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="AB16" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="AC16" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="4" t="inlineStr">
         <is>
@@ -9368,7 +9439,7 @@
       </c>
       <c r="AE16" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AF16" s="4" t="inlineStr">
@@ -9408,12 +9479,12 @@
       </c>
       <c r="AS16" s="4" t="inlineStr">
         <is>
-          <t>Frauen und Mädchen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
+          <t>Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten von Frauen und Männern</t>
         </is>
       </c>
       <c r="AT16" s="4" t="inlineStr">
         <is>
-          <t>Women and girls reached by vocational qualification measures through German development assistance</t>
+          <t>Difference between average gross hourly earnings for women and men</t>
         </is>
       </c>
       <c r="AU16" s="4" t="inlineStr">
@@ -9526,12 +9597,12 @@
       </c>
       <c r="BQ16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 und 2021 vorläufig.</t>
         </is>
       </c>
       <c r="BR16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020 and 2021.</t>
         </is>
       </c>
       <c r="BS16" s="4" t="inlineStr">
@@ -9541,12 +9612,12 @@
       </c>
       <c r="BT16" s="5" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU16" s="5" t="inlineStr">
         <is>
-          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV16" s="4" t="inlineStr">
@@ -9581,18 +9652,21 @@
       </c>
       <c r="CB16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="CC16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="CD16" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE16" s="8">
+        <v>0</v>
       </c>
       <c r="CF16" s="4" t="inlineStr">
         <is>
@@ -9675,22 +9749,22 @@
       </c>
       <c r="DE16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="DF16" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="DG16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="DH16" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="DI16" s="4" t="inlineStr">
@@ -9847,7 +9921,7 @@
       </c>
       <c r="N17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="O17" s="4" t="inlineStr">
@@ -9857,52 +9931,52 @@
       </c>
       <c r="P17" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="Q17" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>Women in management positions in business and in the federal civil service</t>
         </is>
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer in Prozent der durchschnittlichen Bruttostundenverdienste der Männer.</t>
+          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen an Führungspositionen im öffentlichen Dienst des Bundes.</t>
         </is>
       </c>
       <c r="T17" s="5" t="inlineStr">
         <is>
-          <t>The indicator is a percentage figure showing the gender pay gap as the ratio of the average gross hourly earnings for women to the average gross hourly wage of men.</t>
+          <t>Indicator 5.1.b shows the percentage of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
         </is>
       </c>
       <c r="U17" s="5" t="inlineStr">
         <is>
-          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgt daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
+          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in den Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil an Führungspositionen im öffentlichen Dienst des Bundes. Daher soll der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis zum Jahr 2030 auf 30 % erhöht werden. Gemäß dem am 06.01.2021 im Kabinett beschlossenen Entwurf des Zweiten Führungspositionengesetzes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025 erreicht werden. Damit wird eine Vereinbarung des Koalitionsvertrages aus 2018 umgesetzt.</t>
         </is>
       </c>
       <c r="V17" s="5" t="inlineStr">
         <is>
-          <t>Differences in pay between men and women in modern working societies are a sign of social inequality. A narrowing of pay disparities is an indicator of progress on the road to equality. The German Government has therefore been pursuing the target of reducing the pay gap to 10% by 2020 and maintaining it until 2030.</t>
+          <t>Women are as highly qualified as men, yet they are they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30% by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which the Cabinet adopted on 6 January 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025. This will fulfil one of the commitments made in the coalition agreement of 2018.</t>
         </is>
       </c>
       <c r="W17" s="5" t="inlineStr">
         <is>
-          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Dabei werden deren Ursachen, wie Qualifikation, Tätigkeit oder unterschiedliche Erwerbsbiografien, nicht berücksichtigt.&lt;br&gt;Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen, Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap (GPG) veröffentlicht. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten und unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der „Land- und Forstwirtschaft, Fischerei“, der „öffentlichen Verwaltung, Verteidigung; Sozialversicherung“ sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.&lt;br&gt;Nach vorläufigen Zahlen lag der unbereinigte Verdienstabstand zwischen Frauen und Männern bei durchschnittlich 19 % im Jahr 2019. Das heißt, der durchschnittliche Bruttostundenverdienst von Frauen lag um rund ein Fünftel niedriger als der Verdienst der Männer. Über einen längeren Zeitraum betrachtet, zeigt sich für Gesamtdeutschland ein langsamer, aber stetiger Rückgang des unbereinigten Gender Pay Gap. Dieser hatte 2014 mit 22 % um 3 Prozentpunkte höher gelegen als 2019. Bei einer Fortsetzung der Entwicklung der letzten fünf Jahre wird das angestrebte Ziel im Jahr 2020 sowie im Jahr 2030 nicht erreicht werden.&lt;br&gt;Allerdings zeichnet sich für Deutschland kein einheitliches Bild ab. Zwischen den Bundesländern bestehen erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2019 mit 25 % in Bremen, während er in Mecklenburg-Vorpommern und Thüringen 6 % betrug. Dabei war das Verdienstniveau in Mecklenburg-Vorpommern und Thüringen insgesamt niedriger als in Bremen.&lt;br&gt;Untersuchungen der ursächlichen Faktoren des GPG können alle vier Jahre auf Basis der detaillierten Ergebnisse aus der Verdienststrukturerhebung durchgeführt werden. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Diese Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. Demnach sind 71°% des Verdienstunterschieds zwischen Männern und Frauen strukturbedingt – also unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen und Berufen arbeiten, in denen schlechter bezahlt wird und sie seltener Führungspositionen erreichen. Auch arbeiten sie häufiger als Männer in Teilzeit und in Minijobs. Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).&lt;br&gt;Im europäischen Vergleich liegen Ergebnisse für das Jahr 2018 vor. Mit 20 % lag der unbereinigte Gender Pay Gap in Deutschland für das Jahr 2018 deutlich über dem Durchschnitt der Europäischen Union (15 %, vorläufig). Von den 28 EU-Staaten im Jahr 2018 wies nur Estland mit 22 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %) sowie Rumänien (2 %).</t>
+          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Der Indikator erfasst den Anteil von Frauen in den Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Als Datengrundlagen dienen die Veröffentlichungen von börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet werden und in sog. WOB-Indexen veröffentlicht werden.&lt;br&gt;Der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen lag im Januar 2020 bei 35,2 %. Im Januar 2015 waren es noch 21,3 %. Der angestrebte Anteil von 30 % wurde bereits im Jahr 2018 und damit bereits zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist erreicht. Da gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern an Führungspositionen seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen sind, war bei Gesetzeskonformität dieser Anstieg zu erwarten.&lt;br&gt;Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet.  Der von der Definition vorgegebene Berichtskreis umfasst aktuell 105 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.&lt;br&gt;Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren von den insgesamt 882 000 Führungspositionen in der Wirtschaft im Jahr 2018 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.&lt;br&gt;&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Als Datengrundlage für den Indikator dienen die Ergebnisse der internen Gleichstellungsstatistik aller Dienststellen des Bundes nach Bundesgleichstellungsgesetz. Seit 2015 wird die Statistik alle zwei Jahre zum Stichtag 30. Juni durch das Statistische Bundesamt im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend erstellt. Vorher wurde die Statistik jährlich erstellt.&lt;br&gt;Der Frauenanteil an Führungspositionen im öffentlichen Dienst des Bundes lag im Jahr 2019 nach vorläufigen Daten bei 37,6 %. Im Jahr 2000 lag der Anteil bei 19,5 %. Dies ist eine Steigerung des Anteils seit 2000 um 92,8 %. Bei Fortsetzung der Entwicklung der letzten fünf jährlichen Veränderungen würde das angestrebte Ziel, von annähernd nummerischer Gleichheit bis zum Jahr 2025 in Führungspositionen im öffentlichen Dienst des Bundes, leicht verfehlt werden.&lt;br&gt;Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. In die Betrachtung einbezogen werden alle vollzeit-, teilzeitbeschäftigten und aufgrund von Familien- oder Pflege</t>
         </is>
       </c>
       <c r="X17" s="5" t="inlineStr">
         <is>
-          <t>The indicator presented here shows the unadjusted gender pay gap. It simply uses the percentage ratio between the average gross hourly rates of pay. Factors such as qualification levels, hours worked and occupational experience profiles are not taken into account.&lt;br&gt;The data for the indicator are based on the four-yearly wage structure survey conducted by the statistical offices of the Länder in the form of a representative sample survey with a disclosure obligation covering a maximum total of 60,000 businesses. On the basis of these data, results are calculated, broken down by age group, education level, performance group, activity category, collective agreement coverage, company size class and economic sector, and the resulting adjusted gender pay gap (GPG) is published. For the interim years, the rates of change from the quarterly wage survey are used to extrapolate the unadjusted GPG. When the adjusted and the unadjusted GPG are calculated, the EU categorisation is used, in which employees in agriculture, forestry and fishing and in public administration, defence and compulsory social security as well as employees of microenterprises are not taken into account.&lt;br&gt;According to provisional figures, the average unadjusted gender pay gap between women and men in 2019 was 19%. This means that the average gross hourly pay earned by women was about a fifth lower than that earned by men. Over the longer term, a slow but steady narrowing of the unadjusted gender pay gap is evident in the whole of Germany. It stood at 22% in 2014, which is three percentage points higher than in 2019. If the trend recorded over the last five years continues, the target will not be achieved in 2020 or in 2030.&lt;br&gt;At the same time, the picture for Germany is not a uniform one. There are considerable differences between Länder: the highest unadjusted GPG in 2019 was 25% in Bremen, while in Mecklenburg-Western Pomerania and in Thuringia the gap was only 6%. Pay levels generally, however, were lower in Mecklenburg-Western Pomerania and Thuringia than in Bremen.&lt;br&gt;Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the wage structure survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71% of the gender pay gap, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs. The remaining 29% of the pay differential corresponds to the adjusted GPG of 6% in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4% in Berlin to 7% in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.&lt;br&gt;Comparative figures for the European Union are also available for 2018. At 20%, the unadjusted gender pay gap in Germany for 2018 lay considerably above the provisional European Union average of 15%. Of the 28 EU states in 2018, only Estonia, with 22% had a higher gender pay gap. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1%, and Romania, with 2%.</t>
+          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The indicator records the percentage of women on the supervisory boards of joint-stock companies and partnerships limited by shares with more than 2,000 employees plus European companies (SEs) and listed companies with full co-determination. The data basis for the indicator comprises the publications of listed and fully co-determined companies, which are analysed by the Frauen in die Aufsichtsräte (Women on Board) association and published in the form of a WOB index.&lt;br&gt;In January 2020, women’s share of positions on the supervisory boards of these companies came to about 35.2%. In January 2015, it was still only 21.3%. The target of 30% was reached in 2018, which was twelve years in advance of the deadline set in the German Sustainable Development Strategy. The Gender Equality (Management Positions) Act prescribed that, in cases where elections were held for positions on the supervisory boards of the companies defined above in or after 2016, at least 30% of the seats on those boards must be occupied by women, and so compliance with the Act could be expected to yield this increase.&lt;br&gt;Given the definition used for the indicator, most of the businesses in Germany and the majority of management positions in the private sector are not taken into account. At the present time, the reported and analysed data relate to a group of 105 companies. The positions on supervisory boards that the WOB association has examined to date, fewer than 1,600 in number, are but a small fraction of the total of 882,000 management positions in the private sector identified by the pay structure survey in 2018. The figures show clearly that focusing on the supervisory board of a company reveals only some of the management positions in that company.&lt;br&gt;According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, direct, coordinate and evaluate the overall activities of enterprises, governments and other organisations, or of organisational units within them, and formulate and review their policies, laws, rules and regulations. This definition includes the activities of supervisory boards. If the ISCO classification is used as a basis, 22% of the 882,000 management positions in businesses were held by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O – Public administration and defence; compulsory social security – and parts of sector P – Education. Compared with 2014, the year of the previous pay structure survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. Before then they were compiled annually.&lt;br&gt;In 2019, according to preliminary data, the proportion of women in management positions in the federal civil service was about 37.6%. In 2000, the indicator value was 19.5%. This represents a 92.8% increase in the proportion of women since 2000. If the trend of the last five years were maintained, the target of virtual numerical equality in management positions in the federal civil service by 2025 would be narrowly missed.&lt;br&gt;The indicator is focused on the employees in management positions in all departments of the federal government. Their number includes all persons employed on a full-time or part-time basis as well as those who have been given leave of absence on grounds of family or c</t>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr">
         <is>
-          <t>8.5.1</t>
+          <t>5.5.2</t>
         </is>
       </c>
       <c r="Z17" s="4" t="inlineStr">
@@ -9912,16 +9986,16 @@
       </c>
       <c r="AA17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="AB17" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="AC17" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="4" t="inlineStr">
         <is>
@@ -9970,12 +10044,12 @@
       </c>
       <c r="AS17" s="4" t="inlineStr">
         <is>
-          <t>Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten von Frauen und Männern</t>
+          <t>Anteil von Frauen in Führungspositionen</t>
         </is>
       </c>
       <c r="AT17" s="4" t="inlineStr">
         <is>
-          <t>Difference between average gross hourly earnings for women and men</t>
+          <t>Share of women in management positions</t>
         </is>
       </c>
       <c r="AU17" s="4" t="inlineStr">
@@ -10088,12 +10162,18 @@
       </c>
       <c r="BQ17" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.&lt;br&gt;
+Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;
+Frauen im öffentlichen Dienst des Bundes Stand 30.06. des jeweiligen Jahres.&lt;br&gt;
+2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR17" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>In this context, equal representation means that approximately numerical equality is targeted.&lt;br&gt;
+Women on supervisory boards: figures as at January each year.&lt;br&gt;
+Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;
+2021 provisional data.</t>
         </is>
       </c>
       <c r="BS17" s="4" t="inlineStr">
@@ -10103,12 +10183,12 @@
       </c>
       <c r="BT17" s="5" t="inlineStr">
         <is>
-          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 vorläufig.</t>
+          <t/>
         </is>
       </c>
       <c r="BU17" s="5" t="inlineStr">
         <is>
-          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020.</t>
+          <t/>
         </is>
       </c>
       <c r="BV17" s="4" t="inlineStr">
@@ -10237,22 +10317,22 @@
       </c>
       <c r="DE17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="DF17" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="DG17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_1</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="DH17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="DI17" s="4" t="inlineStr">
@@ -10409,7 +10489,7 @@
       </c>
       <c r="N18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="O18" s="4" t="inlineStr">
@@ -10419,52 +10499,52 @@
       </c>
       <c r="P18" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="Q18" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business and in the federal civil service</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen an Führungspositionen im öffentlichen Dienst des Bundes.</t>
+          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
         </is>
       </c>
       <c r="T18" s="5" t="inlineStr">
         <is>
-          <t>Indicator 5.1.b shows the percentage of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
+          <t>The indicator shows the percentage of children whose fathers have receiving parental allowance.</t>
         </is>
       </c>
       <c r="U18" s="5" t="inlineStr">
         <is>
-          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in den Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil an Führungspositionen im öffentlichen Dienst des Bundes. Daher soll der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis zum Jahr 2030 auf 30 % erhöht werden. Gemäß dem am 06.01.2021 im Kabinett beschlossenen Entwurf des Zweiten Führungspositionengesetzes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025 erreicht werden. Damit wird eine Vereinbarung des Koalitionsvertrages aus 2018 umgesetzt.</t>
+          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
         </is>
       </c>
       <c r="V18" s="5" t="inlineStr">
         <is>
-          <t>Women are as highly qualified as men, yet they are they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30% by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which the Cabinet adopted on 6 January 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025. This will fulfil one of the commitments made in the coalition agreement of 2018.</t>
+          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65% by 2030.</t>
         </is>
       </c>
       <c r="W18" s="5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Der Indikator erfasst den Anteil von Frauen in den Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Als Datengrundlagen dienen die Veröffentlichungen von börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet werden und in sog. WOB-Indexen veröffentlicht werden.&lt;br&gt;Der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen lag im Januar 2020 bei 35,2 %. Im Januar 2015 waren es noch 21,3 %. Der angestrebte Anteil von 30 % wurde bereits im Jahr 2018 und damit bereits zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist erreicht. Da gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern an Führungspositionen seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen sind, war bei Gesetzeskonformität dieser Anstieg zu erwarten.&lt;br&gt;Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet.  Der von der Definition vorgegebene Berichtskreis umfasst aktuell 105 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.&lt;br&gt;Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren von den insgesamt 882 000 Führungspositionen in der Wirtschaft im Jahr 2018 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.&lt;br&gt;&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Als Datengrundlage für den Indikator dienen die Ergebnisse der internen Gleichstellungsstatistik aller Dienststellen des Bundes nach Bundesgleichstellungsgesetz. Seit 2015 wird die Statistik alle zwei Jahre zum Stichtag 30. Juni durch das Statistische Bundesamt im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend erstellt. Vorher wurde die Statistik jährlich erstellt.&lt;br&gt;Der Frauenanteil an Führungspositionen im öffentlichen Dienst des Bundes lag im Jahr 2019 nach vorläufigen Daten bei 37,6 %. Im Jahr 2000 lag der Anteil bei 19,5 %. Dies ist eine Steigerung des Anteils seit 2000 um 92,8 %. Bei Fortsetzung der Entwicklung der letzten fünf jährlichen Veränderungen würde das angestrebte Ziel, von annähernd nummerischer Gleichheit bis zum Jahr 2025 in Führungspositionen im öffentlichen Dienst des Bundes, leicht verfehlt werden.&lt;br&gt;Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. In die Betrachtung einbezogen werden alle vollzeit-, teilzeitbeschäftigten und aufgrund von Familien- oder Pflege</t>
+          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.&lt;br&gt;Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, so dass im Folgenden vereinfacht von Müttern und von Vätern die Rede ist.&lt;br&gt;Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2017 auf 40,4 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.&lt;br&gt;Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborenen Kinder auf 3,4 Monate für im Jahr 2017 geborene Kinder.&lt;br&gt;Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborenen Kinder auf 1,4 Monate für im Jahr 2017 geborenen Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,2 Monate im Jahr 2017 an.&lt;br&gt;Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (z. B. Kinder von ausländischen Schutzsuchenden).&lt;br&gt;Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht) auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.&lt;br&gt;Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
         </is>
       </c>
       <c r="X18" s="5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The indicator records the percentage of women on the supervisory boards of joint-stock companies and partnerships limited by shares with more than 2,000 employees plus European companies (SEs) and listed companies with full co-determination. The data basis for the indicator comprises the publications of listed and fully co-determined companies, which are analysed by the Frauen in die Aufsichtsräte (Women on Board) association and published in the form of a WOB index.&lt;br&gt;In January 2020, women’s share of positions on the supervisory boards of these companies came to about 35.2%. In January 2015, it was still only 21.3%. The target of 30% was reached in 2018, which was twelve years in advance of the deadline set in the German Sustainable Development Strategy. The Gender Equality (Management Positions) Act prescribed that, in cases where elections were held for positions on the supervisory boards of the companies defined above in or after 2016, at least 30% of the seats on those boards must be occupied by women, and so compliance with the Act could be expected to yield this increase.&lt;br&gt;Given the definition used for the indicator, most of the businesses in Germany and the majority of management positions in the private sector are not taken into account. At the present time, the reported and analysed data relate to a group of 105 companies. The positions on supervisory boards that the WOB association has examined to date, fewer than 1,600 in number, are but a small fraction of the total of 882,000 management positions in the private sector identified by the pay structure survey in 2018. The figures show clearly that focusing on the supervisory board of a company reveals only some of the management positions in that company.&lt;br&gt;According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, direct, coordinate and evaluate the overall activities of enterprises, governments and other organisations, or of organisational units within them, and formulate and review their policies, laws, rules and regulations. This definition includes the activities of supervisory boards. If the ISCO classification is used as a basis, 22% of the 882,000 management positions in businesses were held by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O – Public administration and defence; compulsory social security – and parts of sector P – Education. Compared with 2014, the year of the previous pay structure survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. Before then they were compiled annually.&lt;br&gt;In 2019, according to preliminary data, the proportion of women in management positions in the federal civil service was about 37.6%. In 2000, the indicator value was 19.5%. This represents a 92.8% increase in the proportion of women since 2000. If the trend of the last five years were maintained, the target of virtual numerical equality in management positions in the federal civil service by 2025 would be narrowly missed.&lt;br&gt;The indicator is focused on the employees in management positions in all departments of the federal government. Their number includes all persons employed on a full-time or part-time basis as well as those who have been given leave of absence on grounds of family or c</t>
+          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.&lt;br&gt;Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99% of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.&lt;br&gt;The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. For the children born in 2008, fathers received parental allowance in 21.2% of cases, and this figure rose to 40.4% by 2017. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98% in every year.&lt;br&gt;Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.4 months for children born in 2017.&lt;br&gt;These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2017. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.2 months for those born in 2017.&lt;br&gt;The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The figures relate in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.&lt;br&gt;It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.&lt;br&gt;For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
         </is>
       </c>
       <c r="Y18" s="4" t="inlineStr">
         <is>
-          <t>5.5.2</t>
+          <t/>
         </is>
       </c>
       <c r="Z18" s="4" t="inlineStr">
@@ -10474,16 +10554,16 @@
       </c>
       <c r="AA18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="AB18" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="AC18" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="4" t="inlineStr">
         <is>
@@ -10532,12 +10612,12 @@
       </c>
       <c r="AS18" s="4" t="inlineStr">
         <is>
-          <t>Anteil von Frauen in Führungspositionen</t>
+          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="AT18" s="4" t="inlineStr">
         <is>
-          <t>Share of women in management positions</t>
+          <t>Proportion of children whose fathers receive parental allowance</t>
         </is>
       </c>
       <c r="AU18" s="4" t="inlineStr">
@@ -10650,12 +10730,14 @@
       </c>
       <c r="BQ18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.
+Die Jahreszahlen geben das Geburtsjahr des Kindes an.</t>
         </is>
       </c>
       <c r="BR18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.
+The years indicate the year of birth of the child.</t>
         </is>
       </c>
       <c r="BS18" s="4" t="inlineStr">
@@ -10665,19 +10747,12 @@
       </c>
       <c r="BT18" s="5" t="inlineStr">
         <is>
-          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.
-Frauen in Aufsichtsräten: 2015 bis 2021 (Stand: Januar des jeweiligen Jahres).
-Frauen im öffentlichen Dienst des Bundes (Stand: 30.06. des jeweiligen Jahres).
-2021 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU18" s="5" t="inlineStr">
         <is>
-          <t>In this context, equal representation means that approximately numerical equality is targeted. 
-Women on supervisory boards 2015 to 2021 (figures as at January each year).
-Women in management positions in the federal civil service (figures as at 30 June each year).
-2021 provisional data.
-</t>
+          <t/>
         </is>
       </c>
       <c r="BV18" s="4" t="inlineStr">
@@ -10724,6 +10799,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE18" s="8">
+        <v>1</v>
       </c>
       <c r="CF18" s="4" t="inlineStr">
         <is>
@@ -10806,22 +10884,22 @@
       </c>
       <c r="DE18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="DF18" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="DG18" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="DH18" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t/>
         </is>
       </c>
       <c r="DI18" s="4" t="inlineStr">
@@ -10958,7 +11036,7 @@
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01</t>
+          <t>Z05_B01_P02</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
@@ -10968,67 +11046,67 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
+          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>Promoting equality and a partnership-based division of responsibilities</t>
+          <t>Strengthening the economic participation of women globally</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01</t>
+          <t>Z05_B01_P02</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Vocational qualification of women and girls through German development cooperation</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
+          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>The indicator shows the percentage of children whose fathers have receiving parental allowance.</t>
+          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation.</t>
         </is>
       </c>
       <c r="U19" s="5" t="inlineStr">
         <is>
-          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
+          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden.</t>
         </is>
       </c>
       <c r="V19" s="5" t="inlineStr">
         <is>
-          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65% by 2030.</t>
+          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030.</t>
         </is>
       </c>
       <c r="W19" s="5" t="inlineStr">
         <is>
-          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.&lt;br&gt;Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, so dass im Folgenden vereinfacht von Müttern und von Vätern die Rede ist.&lt;br&gt;Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2017 auf 40,4 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.&lt;br&gt;Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborenen Kinder auf 3,4 Monate für im Jahr 2017 geborene Kinder.&lt;br&gt;Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborenen Kinder auf 1,4 Monate für im Jahr 2017 geborenen Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,2 Monate im Jahr 2017 an.&lt;br&gt;Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (z. B. Kinder von ausländischen Schutzsuchenden).&lt;br&gt;Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht) auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.&lt;br&gt;Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
+          <t>Als Datenquelle wurden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Projekten verwendet, die sich im Jahr 2015 in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und non-formalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel der Kreditanstalt für Wiederaufbau finanziert. Die Datenerhebung erfolgte erstmalig im Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH sowie das Centrum für Evaluation GmbH und wird im dreijährigen Rhythmus durchgeführt. Insofern kann eine mögliche Zielerreichung des Indikators gemäß der im Indikatorenbericht zugrunde gelegten Methodik noch nicht beurteilt werden.&lt;br&gt;Im Jahr 2018 wurden rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Dies ist gegenüber 2015 – dem ersten Jahr der Erhebung – ein Anstieg um 243 %. Davon konnten 26,5 % über direkte Berufsbildungsmaßnahmen erreicht werden. Durch Institutionenförderung wurden 31,6 % der Frauen und Mädchen erreicht und durch Maßnahmen auf Politikfeldebene 41,8 %. Durch die finanzielle Zusammenarbeit wurden insgesamt 93,0 % der Frauen und Mädchen erreicht.&lt;br&gt;Frauen und Mädchen in Entwicklungs- und Schwellenländern werden auf unterschiedlichen Ebenen von deutscher entwicklungspolitischer Zusammenarbeit erreicht, weswegen die Daten auf drei Ebenen abgefragt wurden. (1) Bei Maßnahmen auf Individualebene kann die Anzahl der Frauen und Mädchen, die beruflich aus- und weitergebildet wurden oder an entsprechend ausgerichteten Beratungsmaßnahmen teilgenommen haben, direkt erfasst werden. Bei (2) Förderung von Institutionen oder (3) Förderung auf Politikfeldebene muss die erreichte Anzahl in den geförderten Aus- und Weiterbildungseinrichtungen geschätzt werden. Dabei werden auf Institutionenebene die Gesamtzahl der weiblichen Aus- und Weiterzubildenden in den jeweils geförderten Aus- und Weiterbildungseinrichtungen und auf Politikfeldebene alle weiblichen Aus- und Weiterzubildenden in den Partnerländern als erreichte Frauen und Mädchen angenommen. Folglich kann es zu Überschätzungen und zu Mehrfachzählungen kommen – insbesondere auf Politikfeldebene. Ferner kann nicht ausgeschlossen werden, dass es bei Nachfolgeprojekten oder bei mehreren zeitgleich durchgeführten Projekten in derselben Region zu Mehrfachzählungen der erreichten Frauen und Mädchen kommt.&lt;br&gt;Der Wert des Indikators hängt stark von der geförderten Ebene ab, da durch die Förderung von Institutionen oder Politikfeldern in der Regel mehr Frauen und Mädchen erreicht werden als bei individuellen Maßnahmen. Der Indikator trifft keine Aussage zu Erfolg, Umfang und Qualität der Qualifizierungsmaßnahmen, die recht unterschiedlich sein können. Die Maßnahmen zur Förderung der beruflichen Qualifizierung von Frauen und Mädchen sind Teil der gesamten öffentlichen Entwicklungsausgaben. Diese sind im Indikator 17.1 dargestellt.</t>
         </is>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.&lt;br&gt;Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99% of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.&lt;br&gt;The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. For the children born in 2008, fathers received parental allowance in 21.2% of cases, and this figure rose to 40.4% by 2017. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98% in every year.&lt;br&gt;Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.4 months for children born in 2017.&lt;br&gt;These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2017. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.2 months for those born in 2017.&lt;br&gt;The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The figures relate in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.&lt;br&gt;It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.&lt;br&gt;For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
+          <t>Information provided by the Federal Ministry for Economic Cooperation and Development (BMZ) on supported projects that entered the implementation phase in 2015 served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds provided through the Kreditanstalt für Wiederaufbau (KfW). The data were collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH, and are updated at three-annual intervals. This means that it is not yet possible to gauge the prospects of meeting the target on the basis of the methodology set out in the Indicator Report.&lt;br&gt;In 2018, some 863,000 women and girls were reached by skills development measures. This is 243% higher than 2015, the first year for which data were collected. Of these women and girls, 26.5% were reached directly through individual vocational training. A total of 31.6% of the women and girls were reached through institutional funding and 41.8% through measures in specific policy fields. Of all these women and girls, 93.0% were reached through financial cooperation.&lt;br&gt;Because women and girls in developing and emerging countries are reached by German development cooperation by three different levels, the data were searched for each of those levels. (1) In the case of individualised measures, the number of women and girls who received vocational training and continuing education or participated in individualised extension measures can be recorded directly. When it comes to (2) the funding of institutions and (3) the allocation of funds to specific policy fields, the number of beneficiaries reached in the supported training and further education facilities has to be estimated. In this case, the total number of female trainees and students in each of the funded education and training establishments as well as all women and girls receiving education or training in the relevant policy field are assumed to be beneficiaries of German development cooperation. As a result, there can be overestimates and duplication, especially in the figures for policy fields. Furthermore, in the case of follow-on projects or when two or more projects are implemented simultaneously in the same region, the possibility of double counting some of the beneficiary women and girls cannot be ruled out.&lt;br&gt;The value of the indicator depends heavily on the funding level, as funding through institutions or policy fields generally reaches more women and girls than individual measures. The indicator does not provide any information on the success, scope and quality of the qualification measures, which can vary considerably. The measures designed to promote the vocational skills of women and girls are part of overall official development assistance. The total amount of ODA is shown in indicator 17.1.</t>
         </is>
       </c>
       <c r="Y19" s="4" t="inlineStr">
@@ -11043,16 +11121,16 @@
       </c>
       <c r="AA19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="AB19" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="AC19" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="4" t="inlineStr">
         <is>
@@ -11061,7 +11139,7 @@
       </c>
       <c r="AE19" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AF19" s="4" t="inlineStr">
@@ -11101,12 +11179,12 @@
       </c>
       <c r="AS19" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Frauen und Mädchen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
         </is>
       </c>
       <c r="AT19" s="4" t="inlineStr">
         <is>
-          <t>Proportion of children whose fathers receive parental allowance</t>
+          <t>Women and girls reached by vocational qualification measures through German development assistance</t>
         </is>
       </c>
       <c r="AU19" s="4" t="inlineStr">
@@ -11219,12 +11297,12 @@
       </c>
       <c r="BQ19" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR19" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS19" s="4" t="inlineStr">
@@ -11234,14 +11312,12 @@
       </c>
       <c r="BT19" s="5" t="inlineStr">
         <is>
-          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.
-Die Jahreszahlen geben das Geburtsjahr des Kindes an.</t>
+          <t/>
         </is>
       </c>
       <c r="BU19" s="5" t="inlineStr">
         <is>
-          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.
-The years indicate the year of birth of the child.</t>
+          <t/>
         </is>
       </c>
       <c r="BV19" s="4" t="inlineStr">
@@ -11276,18 +11352,21 @@
       </c>
       <c r="CB19" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="CC19" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="CD19" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE19" s="8">
+        <v>0</v>
       </c>
       <c r="CF19" s="4" t="inlineStr">
         <is>
@@ -11370,22 +11449,22 @@
       </c>
       <c r="DE19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="DF19" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="DG19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_2</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="DH19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="DI19" s="4" t="inlineStr">
@@ -11725,12 +11804,12 @@
       </c>
       <c r="BE20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Messstellen, an denen der Orientierungswert des guten ökologischen Zustands für Gesamt-Phosohor eingehalten wird</t>
         </is>
       </c>
       <c r="BF20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Percentage of monitoring points at which the benchmark values for good ecological status for total phosphorous in flowing waters is not exceeded</t>
         </is>
       </c>
       <c r="BG20" s="4" t="inlineStr">
@@ -11850,6 +11929,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE20" s="8">
+        <v>1</v>
       </c>
       <c r="CF20" s="4" t="inlineStr">
         <is>
@@ -12287,12 +12369,12 @@
       </c>
       <c r="BE21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Messstellen, an denen der Schwellenwert eingehalten wird</t>
         </is>
       </c>
       <c r="BF21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Percentage of monitoring points at which the threshold is not exceeded</t>
         </is>
       </c>
       <c r="BG21" s="4" t="inlineStr">
@@ -12345,12 +12427,12 @@
       </c>
       <c r="BQ21" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Basis: EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.</t>
         </is>
       </c>
       <c r="BR21" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Basis: EEA monitoring network; the threshold is an annual average of 50 mg nitrate per litre of groundwater.</t>
         </is>
       </c>
       <c r="BS21" s="4" t="inlineStr">
@@ -12360,12 +12442,12 @@
       </c>
       <c r="BT21" s="5" t="inlineStr">
         <is>
-          <t>Basis: EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.</t>
+          <t/>
         </is>
       </c>
       <c r="BU21" s="5" t="inlineStr">
         <is>
-          <t>Basis: EEA monitoring network; the threshold is an annual average of 50 mg nitrate per litre of groundwater.</t>
+          <t/>
         </is>
       </c>
       <c r="BV21" s="4" t="inlineStr">
@@ -12412,6 +12494,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE21" s="8">
+        <v>1</v>
       </c>
       <c r="CF21" s="4" t="inlineStr">
         <is>
@@ -12509,7 +12594,7 @@
       </c>
       <c r="DH21" s="4" t="inlineStr">
         <is>
-          <t>L_LANUV_1</t>
+          <t>L_LIKI_1</t>
         </is>
       </c>
       <c r="DI21" s="4" t="inlineStr">
@@ -12764,7 +12849,7 @@
       </c>
       <c r="AH22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="AI22" s="4" t="inlineStr">
@@ -12772,6 +12857,12 @@
           <t/>
         </is>
       </c>
+      <c r="AJ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>70</v>
+      </c>
       <c r="AL22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12849,12 +12940,12 @@
       </c>
       <c r="BE22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erreichte Menschen</t>
         </is>
       </c>
       <c r="BF22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of people reached</t>
         </is>
       </c>
       <c r="BG22" s="4" t="inlineStr">
@@ -12907,12 +12998,12 @@
       </c>
       <c r="BQ22" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2019 nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich verfügbar.</t>
         </is>
       </c>
       <c r="BR22" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2019 are only comparable with previous years to a limited extent. &lt;br&gt;The data are based on a special evaluation and are not publicly available.</t>
         </is>
       </c>
       <c r="BS22" s="4" t="inlineStr">
@@ -12922,12 +13013,12 @@
       </c>
       <c r="BT22" s="5" t="inlineStr">
         <is>
-          <t>2019: Umstellung der Methodik. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU22" s="5" t="inlineStr">
         <is>
-          <t>2019: Change of methodology. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV22" s="4" t="inlineStr">
@@ -12974,6 +13065,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE22" s="8">
+        <v>1</v>
       </c>
       <c r="CF22" s="4" t="inlineStr">
         <is>
@@ -12999,6 +13093,9 @@
           <t/>
         </is>
       </c>
+      <c r="CN22" s="7">
+        <v>5</v>
+      </c>
       <c r="CO22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13013,6 +13110,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CT22" s="7">
+        <v>2019</v>
       </c>
       <c r="CU22" s="4" t="inlineStr">
         <is>
@@ -13652,7 +13752,7 @@
       </c>
       <c r="DI23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_AGEB_1</t>
         </is>
       </c>
       <c r="DJ23" s="4" t="inlineStr">
@@ -13933,12 +14033,12 @@
       </c>
       <c r="AS24" s="4" t="inlineStr">
         <is>
-          <t>Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch</t>
+          <t>Antei erneuerbarer Energien (Erzeugung) am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="AT24" s="4" t="inlineStr">
         <is>
-          <t>Generation of renewable energies as a share of gross final energy consumption</t>
+          <t>Share of renewable energies (generation) in gross final energy consumption</t>
         </is>
       </c>
       <c r="AU24" s="4" t="inlineStr">
@@ -14051,12 +14151,12 @@
       </c>
       <c r="BQ24" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 teilweise vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR24" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2021 partly provisional data.</t>
         </is>
       </c>
       <c r="BS24" s="4" t="inlineStr">
@@ -14066,12 +14166,12 @@
       </c>
       <c r="BT24" s="5" t="inlineStr">
         <is>
-          <t>2021 teilweise vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU24" s="5" t="inlineStr">
         <is>
-          <t>2021 partly provisional data.</t>
+          <t/>
         </is>
       </c>
       <c r="BV24" s="4" t="inlineStr">
@@ -14616,31 +14716,31 @@
       </c>
       <c r="BQ25" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BR25" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT25" s="5" t="inlineStr">
-        <is>
           <t>2019 und 2020 vorläufige Daten. 
 Ziel für das Jahr 2050: Gesamter erzeugter und verbrauchter Strom lt. EEG treibhausgasneutral.</t>
         </is>
       </c>
-      <c r="BU25" s="5" t="inlineStr">
+      <c r="BR25" s="5" t="inlineStr">
         <is>
           <t>Provisional data for 2019 and 2020. 
 Target for 2050: zero net greenhouse-gas emissions from all electricity generation and consumption.</t>
         </is>
       </c>
+      <c r="BS25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT25" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU25" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="BV25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14782,12 +14882,12 @@
       </c>
       <c r="DH25" s="4" t="inlineStr">
         <is>
+          <t>L_LAK_3</t>
+        </is>
+      </c>
+      <c r="DI25" s="4" t="inlineStr">
+        <is>
           <t>Q_BMWK</t>
-        </is>
-      </c>
-      <c r="DI25" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="DJ25" s="4" t="inlineStr">
@@ -15181,12 +15281,15 @@
       </c>
       <c r="BQ26" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich rund 1,6 % Steigerung pro Jahr aufwies.&lt;br&gt;
+2001 bis 2007 interpolierte Daten.</t>
         </is>
       </c>
       <c r="BR26" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
+annual increase amounted to about 1.6%.&lt;br&gt;
+2001 to 2007 interpolated data.</t>
         </is>
       </c>
       <c r="BS26" s="4" t="inlineStr">
@@ -15196,15 +15299,12 @@
       </c>
       <c r="BT26" s="5" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich 1,6 % Steigerung pro Jahr aufwies.
-2001 bis 2007 interpolierte Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU26" s="5" t="inlineStr">
         <is>
-          <t>The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
-annual increase amounted to 1.6%.
-2001 to 2007 interpolated data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV26" s="4" t="inlineStr">
@@ -15611,6 +15711,12 @@
           <t/>
         </is>
       </c>
+      <c r="AJ27" s="7">
+        <v>-6</v>
+      </c>
+      <c r="AK27" s="7">
+        <v>5</v>
+      </c>
       <c r="AL27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15688,12 +15794,12 @@
       </c>
       <c r="BE27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Finanzierungssaldo und struktureller Finanzierungssaldo: Anteil am BIP (in jeweiligen Preisen); Bruttoinlands-produkt (preisbereinigt): Veränderung gegenüber dem Vorjahr</t>
         </is>
       </c>
       <c r="BF27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Financial balance and structural financial balance: Share of GDP (current prices); gross domestic product (price-adjusted): Year-on-year change</t>
         </is>
       </c>
       <c r="BG27" s="4" t="inlineStr">
@@ -15746,12 +15852,12 @@
       </c>
       <c r="BQ27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Vorjahrespreise verkettet, 2015 = 100. 2019, 2020 und 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Previous years’ prices chain-linked, 2015 = 100. Provisional data for 2019, 2020 and 2021.</t>
         </is>
       </c>
       <c r="BS27" s="4" t="inlineStr">
@@ -15761,12 +15867,12 @@
       </c>
       <c r="BT27" s="5" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, 2015 = 100. 2019, 2020 und 2021 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU27" s="5" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, 2015 = 100. Provisional data for 2019, 2020 and 2021.</t>
+          <t/>
         </is>
       </c>
       <c r="BV27" s="4" t="inlineStr">
@@ -15813,6 +15919,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE27" s="8">
+        <v>1</v>
       </c>
       <c r="CF27" s="4" t="inlineStr">
         <is>
@@ -15837,6 +15946,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CN27" s="7">
+        <v>1</v>
       </c>
       <c r="CO27" s="4" t="inlineStr">
         <is>
@@ -16173,6 +16285,12 @@
           <t/>
         </is>
       </c>
+      <c r="AJ28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="7">
+        <v>100</v>
+      </c>
       <c r="AL28" s="4" t="inlineStr">
         <is>
           <t/>
@@ -16308,12 +16426,12 @@
       </c>
       <c r="BQ28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 und 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 and 2021 preliminary data.</t>
         </is>
       </c>
       <c r="BS28" s="4" t="inlineStr">
@@ -16323,12 +16441,12 @@
       </c>
       <c r="BT28" s="5" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU28" s="5" t="inlineStr">
         <is>
-          <t>2020 preliminary data.</t>
+          <t/>
         </is>
       </c>
       <c r="BV28" s="4" t="inlineStr">
@@ -16375,6 +16493,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE28" s="8">
+        <v>1</v>
       </c>
       <c r="CF28" s="4" t="inlineStr">
         <is>
@@ -16472,7 +16593,7 @@
       </c>
       <c r="DH28" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_2</t>
         </is>
       </c>
       <c r="DI28" s="4" t="inlineStr">
@@ -16870,12 +16991,12 @@
       </c>
       <c r="BQ29" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Ab 2019 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR29" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Provisional data from 2019 onwards.</t>
         </is>
       </c>
       <c r="BS29" s="4" t="inlineStr">
@@ -16885,12 +17006,12 @@
       </c>
       <c r="BT29" s="5" t="inlineStr">
         <is>
-          <t>Ab 2019 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU29" s="5" t="inlineStr">
         <is>
-          <t>Provisional data from 2019 onwards.</t>
+          <t/>
         </is>
       </c>
       <c r="BV29" s="4" t="inlineStr">
@@ -17029,17 +17150,17 @@
       </c>
       <c r="DG29" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_12</t>
         </is>
       </c>
       <c r="DH29" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_13</t>
+        </is>
+      </c>
+      <c r="DI29" s="4" t="inlineStr">
+        <is>
           <t>L_SP_1</t>
-        </is>
-      </c>
-      <c r="DI29" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="DJ29" s="4" t="inlineStr">
@@ -17432,12 +17553,12 @@
       </c>
       <c r="BQ30" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Vorjahrespreise verkettet, Referenzjahr 2015. 2019 und 2020 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR30" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Previous years’ prices chain-linked, reference year 2015. Provisional data for 2019 and 2020.</t>
         </is>
       </c>
       <c r="BS30" s="4" t="inlineStr">
@@ -17447,12 +17568,12 @@
       </c>
       <c r="BT30" s="5" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, Referenzjahr 2015. 2019 und 2020 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU30" s="5" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, reference year 2015. Provisional data for 2019 and 2020.</t>
+          <t/>
         </is>
       </c>
       <c r="BV30" s="4" t="inlineStr">
@@ -17591,22 +17712,22 @@
       </c>
       <c r="DG30" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_13</t>
         </is>
       </c>
       <c r="DH30" s="4" t="inlineStr">
         <is>
+          <t>L_DSTTS_14</t>
+        </is>
+      </c>
+      <c r="DI30" s="4" t="inlineStr">
+        <is>
+          <t>L_DSTTS_15</t>
+        </is>
+      </c>
+      <c r="DJ30" s="4" t="inlineStr">
+        <is>
           <t>L_SP_2</t>
-        </is>
-      </c>
-      <c r="DI30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ30" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="DK30" s="4" t="inlineStr">
@@ -18000,12 +18121,18 @@
       </c>
       <c r="BQ31" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Alterklasse 60 - 64 Jahre: Aussagewert eingeschränkt für Bremen - Männer 2010, Frauen 2010 - 2012 und 2015 sowie Saarland - Frauen 2010.
+Bundesländer,  Alterklasse 60 - 64 Jahre: Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.
+Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.
+2021 vorlüfige Daten.</t>
         </is>
       </c>
       <c r="BR31" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Age group 60 - 64 years: Limited significance for Bremen - men 2010, women 2010 - 2012 and 2015 as well as Saarland - women 2010.
+ Länder, Age group 60 - 64 years: The data is based on a special evaluation and is not publicly available.
+Due to methodological changes, the results from 2020 are only comparable with previous years to a limited extent. 
+2021 provisional data.</t>
         </is>
       </c>
       <c r="BS31" s="4" t="inlineStr">
@@ -18015,14 +18142,12 @@
       </c>
       <c r="BT31" s="5" t="inlineStr">
         <is>
-          <t>Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. Alterklasse 60 - 64 Jahre: Aussagewert eingeschränkt für Bremen - Männer 2010, Frauen 2010 - 2012 und 2015 sowie Saarland - Frauen 2010.
-Bundesländer,  Alterklasse 60 - 64 Jahre: Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich zugänglich.</t>
+          <t/>
         </is>
       </c>
       <c r="BU31" s="5" t="inlineStr">
         <is>
-          <t>The results from 2020 onwards are only comparable with previous years to a limited extent. Age group 60 - 64 years: Limited significance for Bremen - men 2010, women 2010 - 2012 and 2015 as well as Saarland - women 2010.
- Länder, Age group 60 - 64 years: The data is based on a special evaluation and is not publicly available.</t>
+          <t/>
         </is>
       </c>
       <c r="BV31" s="4" t="inlineStr">
@@ -18109,6 +18234,9 @@
           <t/>
         </is>
       </c>
+      <c r="CT31" s="7">
+        <v>2020</v>
+      </c>
       <c r="CU31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -18161,7 +18289,7 @@
       </c>
       <c r="DG31" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_SP_4</t>
         </is>
       </c>
       <c r="DH31" s="4" t="inlineStr">
@@ -18171,7 +18299,7 @@
       </c>
       <c r="DI31" s="4" t="inlineStr">
         <is>
-          <t>Q_AGNE</t>
+          <t/>
         </is>
       </c>
       <c r="DJ31" s="4" t="inlineStr">
@@ -18446,12 +18574,12 @@
       </c>
       <c r="AS32" s="4" t="inlineStr">
         <is>
-          <t>Bündnis für nachhaltige Textilien</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="AT32" s="4" t="inlineStr">
         <is>
-          <t>Partnership for Sustainable Textiles</t>
+          <t>Members of the Textile Alliance</t>
         </is>
       </c>
       <c r="AU32" s="4" t="inlineStr">
@@ -18564,12 +18692,12 @@
       </c>
       <c r="BQ32" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Stand: 31.12. des jeweiligen Jahres.</t>
         </is>
       </c>
       <c r="BR32" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>As of Dec. 31 of the respective year.</t>
         </is>
       </c>
       <c r="BS32" s="4" t="inlineStr">
@@ -18579,12 +18707,12 @@
       </c>
       <c r="BT32" s="5" t="inlineStr">
         <is>
-          <t>Q. = Quartal. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU32" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV32" s="4" t="inlineStr">
@@ -18723,12 +18851,12 @@
       </c>
       <c r="DG32" s="4" t="inlineStr">
         <is>
-          <t>Q_GIZ</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="DH32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_GIZ_1</t>
         </is>
       </c>
       <c r="DI32" s="4" t="inlineStr">
@@ -19132,12 +19260,12 @@
       </c>
       <c r="BQ33" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2019 vorläufige Daten; Sektor Wirtschaft: Erhebung nach Bundesländern nur in ungeraden Jahren, in geraden Jahren erfolgt die Aufteilung auf die Bundesländer prozentual nach dem jeweiligen Vorjahr.</t>
         </is>
       </c>
       <c r="BR33" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2019 provisional data; business enterprise sector: survey by state only in odd-numbered years, in even-numbered years the breakdown by state is based on the percentage of the respective previous year.</t>
         </is>
       </c>
       <c r="BS33" s="4" t="inlineStr">
@@ -19147,12 +19275,12 @@
       </c>
       <c r="BT33" s="5" t="inlineStr">
         <is>
-          <t>2019 vorläufige Daten; Sektor Wirtschaft: Erhebung nach Bundesländern nur in ungeraden Jahren, in geraden Jahren erfolgt die Aufteilung auf die Bundesländer prozentual nach dem jeweiligen Vorjahr.</t>
+          <t/>
         </is>
       </c>
       <c r="BU33" s="5" t="inlineStr">
         <is>
-          <t>2019 provisional data; business enterprise sector: survey by state only in odd-numbered years, in even-numbered years the breakdown by state is based on the percentage of the respective previous year.</t>
+          <t/>
         </is>
       </c>
       <c r="BV33" s="4" t="inlineStr">
@@ -19301,12 +19429,12 @@
       </c>
       <c r="DI33" s="4" t="inlineStr">
         <is>
-          <t>Q_VWGDL</t>
+          <t>Q_SVWS</t>
         </is>
       </c>
       <c r="DJ33" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t/>
         </is>
       </c>
       <c r="DK33" s="4" t="inlineStr">
@@ -19694,12 +19822,12 @@
       </c>
       <c r="BQ34" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR34" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS34" s="4" t="inlineStr">
@@ -19709,12 +19837,12 @@
       </c>
       <c r="BT34" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU34" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV34" s="4" t="inlineStr">
@@ -19853,7 +19981,7 @@
       </c>
       <c r="DG34" s="4" t="inlineStr">
         <is>
-          <t>Q_BMDV</t>
+          <t>L_BMDV_1</t>
         </is>
       </c>
       <c r="DH34" s="4" t="inlineStr">
@@ -20256,12 +20384,12 @@
       </c>
       <c r="BQ35" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Bundesländer: Geschlechterspezifische Verteilung der ausländischen Absolventen/Abgänger teilweise geschätzt. Externe Absolventen werden nicht erhoben. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR35" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Federal states: Gender distribution of foreign graduates/leavers partially estimated. External graduates are not surveyed. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS35" s="4" t="inlineStr">
@@ -20271,12 +20399,12 @@
       </c>
       <c r="BT35" s="5" t="inlineStr">
         <is>
-          <t>Bundesländer: Geschlechterspezifische Verteilung der ausländischen Absolventen/Abgänger teilweise geschätzt. Externe Absolventen werden nicht erhoben. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU35" s="5" t="inlineStr">
         <is>
-          <t>Federal states: Gender distribution of foreign graduates/leavers partially estimated. External graduates are not surveyed. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV35" s="4" t="inlineStr">
@@ -20415,12 +20543,12 @@
       </c>
       <c r="DG35" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_16</t>
         </is>
       </c>
       <c r="DH35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_DSTTS_21</t>
         </is>
       </c>
       <c r="DI35" s="4" t="inlineStr">
@@ -20818,12 +20946,13 @@
       </c>
       <c r="BQ36" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Renten nicht in den Sozialleistungen eingeschlossen.&lt;br&gt; 
+Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR36" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Pensions not included in social benefits.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).&lt;br&gt;Due to methodological changes, the results from 2020 are only comparable with previous years to a limited extent.&lt;br&gt;2021 provisional data.</t>
         </is>
       </c>
       <c r="BS36" s="4" t="inlineStr">
@@ -20833,12 +20962,12 @@
       </c>
       <c r="BT36" s="5" t="inlineStr">
         <is>
-          <t>Renten nicht in den Sozialleistungen eingeschlossen.  &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
+          <t/>
         </is>
       </c>
       <c r="BU36" s="5" t="inlineStr">
         <is>
-          <t>Pensions not included in social benefits.  &lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
+          <t/>
         </is>
       </c>
       <c r="BV36" s="4" t="inlineStr">
@@ -21380,12 +21509,12 @@
       </c>
       <c r="BQ37" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Datenbasis für Auswertungen der Siedlungs- und Verkehrsfläche ist die amtliche Flächenerhebung. Ab dem Berichtsjahr 2016 basiert diese auf  dem Amtlichen Liegenschaftskataster-Informationssystem (ALKIS). Dadurch ist der Vergleich zu den Vorjahren beeinträchtigt und die Berechnung von Veränderungen erschwert. Die nach der Umstellung ermittelte Siedlungs- und Verkehrsfläche enthält weitgehend dieselben Nutzungsarten wie früher.</t>
         </is>
       </c>
       <c r="BR37" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>The data for assessing settlement and transport land is taken from the official survey of land. Since 2016, the survey has been based on ALKIS, the official land register information system. As a result, the possibilities of comparison with previous years  are limited and it is more difficult to calculate the extent of changes. The settlement and transport land covered after the switch largely encompasses the same categories of land use as before.</t>
         </is>
       </c>
       <c r="BS37" s="4" t="inlineStr">
@@ -21395,12 +21524,12 @@
       </c>
       <c r="BT37" s="5" t="inlineStr">
         <is>
-          <t>Die Datenbasis für Auswertungen der Siedlungs- und Verkehrsfläche ist die amtliche Flächenerhebung. Ab dem Berichtsjahr 2016 basiert diese auf  dem Amtlichen Liegenschaftskataster-Informationssystem (ALKIS). Dadurch ist der Vergleich zu den Vorjahren beeinträchtigt und die Berechnung von Veränderungen erschwert. Die nach der Umstellung ermittelte Siedlungs- und Verkehrsfläche enthält weitgehend dieselben Nutzungsarten wie früher.</t>
+          <t/>
         </is>
       </c>
       <c r="BU37" s="5" t="inlineStr">
         <is>
-          <t>The data for assessing settlement and transport land is taken from the official survey of land. Since 2016, the survey has been based on ALKIS, the official land register information system. As a result, the possibilities of comparison with previous years  are limited and it is more difficult to calculate the extent of changes. The settlement and transport land covered after the switch largely encompasses the same categories of land use as before.</t>
+          <t/>
         </is>
       </c>
       <c r="BV37" s="4" t="inlineStr">
@@ -21539,7 +21668,7 @@
       </c>
       <c r="DG37" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_22</t>
         </is>
       </c>
       <c r="DH37" s="4" t="inlineStr">
@@ -21942,28 +22071,28 @@
       </c>
       <c r="BQ38" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur eingeschränkt möglich. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR38" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT38" s="5" t="inlineStr">
-        <is>
-          <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur eingeschränkt möglich. Die Daten basieren auf einer Sonderauswertung.</t>
-        </is>
-      </c>
-      <c r="BU38" s="5" t="inlineStr">
         <is>
           <t>A change in the data underpinning this indicator took effect on 31 December 2016, with a new land-use classification system being used from then on. This meant that no change could be recorded between 2015 and 2016. Comparisons over time are not possible without caveats. Data based on a special evaluation.
 </t>
+        </is>
+      </c>
+      <c r="BS38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU38" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="BV38" s="4" t="inlineStr">
@@ -22511,12 +22640,12 @@
       </c>
       <c r="BQ39" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR39" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS39" s="4" t="inlineStr">
@@ -22526,12 +22655,12 @@
       </c>
       <c r="BT39" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU39" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV39" s="4" t="inlineStr">
@@ -23079,12 +23208,12 @@
       </c>
       <c r="BQ40" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR40" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 provisional data. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS40" s="4" t="inlineStr">
@@ -23094,12 +23223,12 @@
       </c>
       <c r="BT40" s="5" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU40" s="5" t="inlineStr">
         <is>
-          <t>2020 provisional data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV40" s="4" t="inlineStr">
@@ -23647,12 +23776,12 @@
       </c>
       <c r="BQ41" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR41" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>2020 provisional data. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS41" s="4" t="inlineStr">
@@ -23662,12 +23791,12 @@
       </c>
       <c r="BT41" s="5" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU41" s="5" t="inlineStr">
         <is>
-          <t>2020 provisional data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV41" s="4" t="inlineStr">
@@ -24210,12 +24339,12 @@
       </c>
       <c r="BQ42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS42" s="4" t="inlineStr">
@@ -24225,12 +24354,12 @@
       </c>
       <c r="BT42" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU42" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV42" s="4" t="inlineStr">
@@ -24374,7 +24503,7 @@
       </c>
       <c r="DH42" s="4" t="inlineStr">
         <is>
-          <t>Q_IFEU</t>
+          <t/>
         </is>
       </c>
       <c r="DI42" s="4" t="inlineStr">
@@ -24772,12 +24901,12 @@
       </c>
       <c r="BQ43" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR43" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2020 are only comparable with previous years to a limited extent. &lt;br&gt;Provisional data for 2021.</t>
         </is>
       </c>
       <c r="BS43" s="4" t="inlineStr">
@@ -24787,12 +24916,12 @@
       </c>
       <c r="BT43" s="5" t="inlineStr">
         <is>
-          <t>2019 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU43" s="5" t="inlineStr">
         <is>
-          <t>Provisional data for 2019.</t>
+          <t/>
         </is>
       </c>
       <c r="BV43" s="4" t="inlineStr">
@@ -24879,6 +25008,9 @@
           <t/>
         </is>
       </c>
+      <c r="CT43" s="7">
+        <v>2020</v>
+      </c>
       <c r="CU43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24931,7 +25063,7 @@
       </c>
       <c r="DG43" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_6</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="DH43" s="4" t="inlineStr">
@@ -25337,12 +25469,12 @@
       </c>
       <c r="BQ44" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR44" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS44" s="4" t="inlineStr">
@@ -25352,12 +25484,12 @@
       </c>
       <c r="BT44" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU44" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV44" s="4" t="inlineStr">
@@ -25658,7 +25790,7 @@
       </c>
       <c r="N45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="O45" s="4" t="inlineStr">
@@ -25668,47 +25800,47 @@
       </c>
       <c r="P45" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="Q45" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="R45" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="S45" s="5" t="inlineStr">
         <is>
-          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Energieverbrauch, Ausstoß von Kohlendioxid (CO2) und Rohstoffeinsatz im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
+          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden.</t>
         </is>
       </c>
       <c r="T45" s="5" t="inlineStr">
         <is>
-          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
+          <t>The indicator measures the market share of products with voluntary or mandatory ecolabels which are awarded according to criteria stipulated by government bodies.</t>
         </is>
       </c>
       <c r="U45" s="5" t="inlineStr">
         <is>
-          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
+          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
         </is>
       </c>
       <c r="V45" s="5" t="inlineStr">
         <is>
-          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the German Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
+          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the German Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34% by 2030.</t>
         </is>
       </c>
       <c r="W45" s="5" t="inlineStr">
         <is>
-          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt. Der Indikator stellt drei der verantwortlichen Einflussfaktoren, nämlich Energie, CO2-Emissionen und den Rohstoffeinsatz, dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.&lt;br&gt;Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und deren Transport im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und getrennt für Energie, Rohstoffe und CO2 dargestellt.&lt;br&gt;Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.&lt;br&gt;Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe, wie land- und forstwirtschaftliche Erzeugnisse. Während der Einsatz von abiotischen Rohstoffen kontinuierlich sinkt, gibt es im Bereich der landwirtschaftlichen Erzeugnisse größere Schwankungen. Dies führte für den Zeitraum 2010 bis 2016 insgesamt zu einem leichten Rückgang um 3 %.&lt;br&gt;Im gleichen Zeitraum verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %. Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte dabei im Jahr 2016 mit insgesamt rund 3 402 Petajoule (36 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.&lt;br&gt;Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2016 667 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2016 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 1 %. Die letzten fünf Jahre zeigen hingegen insgesamt keinen Rückgang, sondern einen leichten Zuwachs der Emissionen.&lt;br&gt;Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
+          <t>Als Quellen für die Berechnung des Indikators werden Daten der Gesellschaft für Konsumforschung, des Kraftfahrt-Bundesamtes, der Agrarmarkt Informations-Gesellschaft mbH, des Bundes Ökologische Lebensmittelwirtschaft, des Verkehrsclubs Deutschland und des Umweltbundesamtes verwendet. Letzteres berechnet die Indikatorwerte jährlich ab dem Berichtsjahr 2012.&lt;br&gt;Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden können.&lt;br&gt;Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernsehgeräte und Staubsauger betrachtet. Weiterhin werden Leuchtmittel, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Autos erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet. Dies soll sicherstellen, dass hohe Marktanteile in kleinen Nischenmärkten den Indikator nicht verzerren. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.&lt;br&gt;Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltkennzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht gegeneinander aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er auch nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er folglich keine Rückschlüsse auf deren Anzahl zu. Letztlich kann eine Änderung des Wertes des Indikators daher auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.&lt;br&gt;Zwischen 2012 und 2018 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 % auf 7,5 %. Dies entspricht einem Umsatz von insgesamt 23,8 Milliarden Euro im Jahr 2018. Der Wert des Indikators ist 2017 und 2018 im Vergleich zum Vorjahr gesunken und entwickelte sich damit nicht in die angestrebte Richtung. Ohne eine Trendumkehr und erhebliche Steigerung des Marktanteils wird das Ziel bis zum Jahr 2030 erheblich verfehlt.</t>
         </is>
       </c>
       <c r="X45" s="5" t="inlineStr">
         <is>
-          <t>The spending habits of private households affect the environment in various ways. This indicator reflects three of the factors behind this impact, namely energy, CO2 emissions and the use of raw materials. The relevant data are collected  in the environmental economic accounts of a range of governmental and non-governmental sources.&lt;br&gt;Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.&lt;br&gt;The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.&lt;br&gt;However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources is steadily shrinking, there are greater fluctuations in the area of agricultural products. This resulted in a slight overall reduction of 3% between 2010 and 2016.&lt;br&gt;In contrast, energy consumption went down by 6% during the same period. Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,402 petajoules in total, home life accounted for the largest proportion, 36% of private household consumption, in 2016.&lt;br&gt;A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2016 amounted to 667 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2016, direct CO2 emissions fell by 6%, while the emissions footprint of consumer goods fell by 1%. The last five years, on the other hand, show no reduction but a slight increase in emissions.&lt;br&gt;This indicator can be usefully cross-referenced with indicator 8.1 on raw material input productivity.</t>
+          <t>The indicator is calculated on the basis of data from the consumer research institute GfK, the Federal Motor Transport Authority, the agricultural market information firm AMI, the Organic Food Production Alliance, the sustainable-mobility association Verkehrsclub Deutschland and the Federal Environment Agency. The latter has been calculating the indicator values for each reporting year since 2012.&lt;br&gt;The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups are examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.&lt;br&gt;The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.&lt;br&gt;It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.&lt;br&gt;Between 2012 and 2018, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6% to 7.5%. This is equivalent to a turnover of EUR 23.8 billion in 2018. The indicator value sank in 2017 and 2018 relative to the previous year, which is not the desired direction of travel. Unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.</t>
         </is>
       </c>
       <c r="Y45" s="4" t="inlineStr">
@@ -25723,12 +25855,12 @@
       </c>
       <c r="AA45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="AB45" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="AC45" s="6" t="b">
@@ -25741,7 +25873,7 @@
       </c>
       <c r="AE45" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AF45" s="4" t="inlineStr">
@@ -25765,10 +25897,10 @@
         </is>
       </c>
       <c r="AJ45" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="7">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AL45" s="4" t="inlineStr">
         <is>
@@ -25787,12 +25919,12 @@
       </c>
       <c r="AS45" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="AT45" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption</t>
+          <t>Market share of products certified by publicly managed sustainability labelling schemes</t>
         </is>
       </c>
       <c r="AU45" s="4" t="inlineStr">
@@ -25920,12 +26052,12 @@
       </c>
       <c r="BT45" s="5" t="inlineStr">
         <is>
-          <t>Daten für 2016 vorläufig und aus methodischen Gründen nur eingeschränkt mit den Vorjahren vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU45" s="5" t="inlineStr">
         <is>
-          <t>Provisional data for 2016; not directly comparable with previous years due to methodological changes. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV45" s="4" t="inlineStr">
@@ -26054,42 +26186,42 @@
       </c>
       <c r="DE45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="DF45" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="DG45" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="DH45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="DI45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="DJ45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="DK45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="DL45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="DM45" s="4" t="inlineStr">
@@ -26226,7 +26358,7 @@
       </c>
       <c r="N46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="O46" s="4" t="inlineStr">
@@ -26236,47 +26368,47 @@
       </c>
       <c r="P46" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="Q46" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
       <c r="S46" s="5" t="inlineStr">
         <is>
-          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden.</t>
+          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Energieverbrauch, Ausstoß von Kohlendioxid (CO2) und Rohstoffeinsatz im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
         </is>
       </c>
       <c r="T46" s="5" t="inlineStr">
         <is>
-          <t>The indicator measures the market share of products with voluntary or mandatory ecolabels which are awarded according to criteria stipulated by government bodies.</t>
+          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
         </is>
       </c>
       <c r="U46" s="5" t="inlineStr">
         <is>
-          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
+          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
         </is>
       </c>
       <c r="V46" s="5" t="inlineStr">
         <is>
-          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the German Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34% by 2030.</t>
+          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the German Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
         </is>
       </c>
       <c r="W46" s="5" t="inlineStr">
         <is>
-          <t>Als Quellen für die Berechnung des Indikators werden Daten der Gesellschaft für Konsumforschung, des Kraftfahrt-Bundesamtes, der Agrarmarkt Informations-Gesellschaft mbH, des Bundes Ökologische Lebensmittelwirtschaft, des Verkehrsclubs Deutschland und des Umweltbundesamtes verwendet. Letzteres berechnet die Indikatorwerte jährlich ab dem Berichtsjahr 2012.&lt;br&gt;Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden können.&lt;br&gt;Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernsehgeräte und Staubsauger betrachtet. Weiterhin werden Leuchtmittel, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Autos erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet. Dies soll sicherstellen, dass hohe Marktanteile in kleinen Nischenmärkten den Indikator nicht verzerren. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.&lt;br&gt;Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltkennzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht gegeneinander aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er auch nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er folglich keine Rückschlüsse auf deren Anzahl zu. Letztlich kann eine Änderung des Wertes des Indikators daher auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.&lt;br&gt;Zwischen 2012 und 2018 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 % auf 7,5 %. Dies entspricht einem Umsatz von insgesamt 23,8 Milliarden Euro im Jahr 2018. Der Wert des Indikators ist 2017 und 2018 im Vergleich zum Vorjahr gesunken und entwickelte sich damit nicht in die angestrebte Richtung. Ohne eine Trendumkehr und erhebliche Steigerung des Marktanteils wird das Ziel bis zum Jahr 2030 erheblich verfehlt.</t>
+          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt. Der Indikator stellt drei der verantwortlichen Einflussfaktoren, nämlich Energie, CO2-Emissionen und den Rohstoffeinsatz, dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.&lt;br&gt;Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und deren Transport im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und getrennt für Energie, Rohstoffe und CO2 dargestellt.&lt;br&gt;Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.&lt;br&gt;Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe, wie land- und forstwirtschaftliche Erzeugnisse. Während der Einsatz von abiotischen Rohstoffen kontinuierlich sinkt, gibt es im Bereich der landwirtschaftlichen Erzeugnisse größere Schwankungen. Dies führte für den Zeitraum 2010 bis 2016 insgesamt zu einem leichten Rückgang um 3 %.&lt;br&gt;Im gleichen Zeitraum verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %. Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte dabei im Jahr 2016 mit insgesamt rund 3 402 Petajoule (36 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.&lt;br&gt;Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2016 667 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2016 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 1 %. Die letzten fünf Jahre zeigen hingegen insgesamt keinen Rückgang, sondern einen leichten Zuwachs der Emissionen.&lt;br&gt;Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
         </is>
       </c>
       <c r="X46" s="5" t="inlineStr">
         <is>
-          <t>The indicator is calculated on the basis of data from the consumer research institute GfK, the Federal Motor Transport Authority, the agricultural market information firm AMI, the Organic Food Production Alliance, the sustainable-mobility association Verkehrsclub Deutschland and the Federal Environment Agency. The latter has been calculating the indicator values for each reporting year since 2012.&lt;br&gt;The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups are examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.&lt;br&gt;The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.&lt;br&gt;It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.&lt;br&gt;Between 2012 and 2018, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6% to 7.5%. This is equivalent to a turnover of EUR 23.8 billion in 2018. The indicator value sank in 2017 and 2018 relative to the previous year, which is not the desired direction of travel. Unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.</t>
+          <t>The spending habits of private households affect the environment in various ways. This indicator reflects three of the factors behind this impact, namely energy, CO2 emissions and the use of raw materials. The relevant data are collected  in the environmental economic accounts of a range of governmental and non-governmental sources.&lt;br&gt;Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.&lt;br&gt;The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.&lt;br&gt;However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources is steadily shrinking, there are greater fluctuations in the area of agricultural products. This resulted in a slight overall reduction of 3% between 2010 and 2016.&lt;br&gt;In contrast, energy consumption went down by 6% during the same period. Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,402 petajoules in total, home life accounted for the largest proportion, 36% of private household consumption, in 2016.&lt;br&gt;A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2016 amounted to 667 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2016, direct CO2 emissions fell by 6%, while the emissions footprint of consumer goods fell by 1%. The last five years, on the other hand, show no reduction but a slight increase in emissions.&lt;br&gt;This indicator can be usefully cross-referenced with indicator 8.1 on raw material input productivity.</t>
         </is>
       </c>
       <c r="Y46" s="4" t="inlineStr">
@@ -26291,12 +26423,12 @@
       </c>
       <c r="AA46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="AB46" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="AC46" s="6" t="b">
@@ -26309,7 +26441,7 @@
       </c>
       <c r="AE46" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AF46" s="4" t="inlineStr">
@@ -26332,6 +26464,12 @@
           <t/>
         </is>
       </c>
+      <c r="AJ46" s="7">
+        <v>80</v>
+      </c>
+      <c r="AK46" s="7">
+        <v>120</v>
+      </c>
       <c r="AL46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26349,12 +26487,12 @@
       </c>
       <c r="AS46" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
       <c r="AT46" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed sustainability labelling schemes</t>
+          <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
       <c r="AU46" s="4" t="inlineStr">
@@ -26467,12 +26605,12 @@
       </c>
       <c r="BQ46" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR46" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2020 are only comparable with previous years to a limited extent. &lt;br&gt;Provisional data for 2021.</t>
         </is>
       </c>
       <c r="BS46" s="4" t="inlineStr">
@@ -26482,12 +26620,12 @@
       </c>
       <c r="BT46" s="5" t="inlineStr">
         <is>
-          <t>2018 vorläufige Daten.</t>
+          <t/>
         </is>
       </c>
       <c r="BU46" s="5" t="inlineStr">
         <is>
-          <t>Provisional data for 2018.</t>
+          <t/>
         </is>
       </c>
       <c r="BV46" s="4" t="inlineStr">
@@ -26569,6 +26707,9 @@
           <t/>
         </is>
       </c>
+      <c r="CR46" s="7">
+        <v>2016</v>
+      </c>
       <c r="CS46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26616,42 +26757,42 @@
       </c>
       <c r="DE46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="DF46" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="DG46" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="DH46" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t/>
         </is>
       </c>
       <c r="DI46" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t/>
         </is>
       </c>
       <c r="DJ46" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t/>
         </is>
       </c>
       <c r="DK46" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t/>
         </is>
       </c>
       <c r="DL46" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t/>
         </is>
       </c>
       <c r="DM46" s="4" t="inlineStr">
@@ -27029,12 +27170,12 @@
       </c>
       <c r="BQ47" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS = Eco-Management and Audit Scheme.</t>
         </is>
       </c>
       <c r="BR47" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS = Eco-Management and Audit Scheme.</t>
         </is>
       </c>
       <c r="BS47" s="4" t="inlineStr">
@@ -27044,12 +27185,12 @@
       </c>
       <c r="BT47" s="5" t="inlineStr">
         <is>
-          <t>EMAS = Eco-Management and Audit Scheme. Daten ab 2012 durch DIHK revidiert. Dies gilt auch für die Anzahl der Beschäftigten in den Jahren 2013, 2016 und 2017.  Zwischen Bundesergebnis und den Ergebnissen der Länder ergibt sich eine Differenz aufgrund von Standorten im Ausland, die in der Zählung für die Bundesergebnisse enthalten sind.</t>
+          <t/>
         </is>
       </c>
       <c r="BU47" s="5" t="inlineStr">
         <is>
-          <t>EMAS = Eco-Management and Audit Scheme. Data from 2012 onwards revised by the Association of German Chambers of Commerce and Industry, which also revised the numbers on employees for 2013, 2016 and 2017. There is a difference between the federal result and the state results due to sites abroad that are included in the count for the federal results.</t>
+          <t/>
         </is>
       </c>
       <c r="BV47" s="4" t="inlineStr">
@@ -27596,31 +27737,31 @@
       </c>
       <c r="BQ48" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Recycling- und Gesamtpapierverbrauch: 2020 vorläufige Daten.    Methodischer Bruch (CO&amp;#8322;-Emissionen: 2017; Papierverbrauch: 2018) - Daten sind nur eingeschränkt vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR48" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT48" s="5" t="inlineStr">
-        <is>
-          <t>Recycling- und Gesamtpapierverbrauch: 2020 vorläufige Daten.    Methodischer Bruch (CO&amp;#8322;-Emissionen: 2017; Papierverbrauch: 2018) - Daten sind nur eingeschränkt vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
-        </is>
-      </c>
-      <c r="BU48" s="5" t="inlineStr">
         <is>
           <t>Recycled and total paper use: 2020 provisional data.
 Change in methodology (CO&amp;#8322; emissions: 2017; paper use: 2018) – data not directly comparable
 Data based on a special evaluation.</t>
         </is>
       </c>
+      <c r="BS48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="BV48" s="4" t="inlineStr">
         <is>
           <t/>
@@ -28160,28 +28301,28 @@
       </c>
       <c r="BQ49" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BR49" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT49" s="5" t="inlineStr">
-        <is>
           <t>2020 vorläufige Zeitnahprognose.
 Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
         </is>
       </c>
+      <c r="BR49" s="5" t="inlineStr">
+        <is>
+          <t>Projected figures for 2020; Greenhouse gases = carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), sulphur hexafluoride (SF6), nitrogen trifluoride (NF3), hydrofluorocarbons (HFCs) and perfluorocarbons (PFCs)</t>
+        </is>
+      </c>
+      <c r="BS49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT49" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="BU49" s="5" t="inlineStr">
         <is>
-          <t>Projected figures for 2020; Greenhouse gases = carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), sulphur hexafluoride (SF6), nitrogen trifluoride (NF3), hydrofluorocarbons (HFCs) and perfluorocarbons (PFCs)</t>
+          <t/>
         </is>
       </c>
       <c r="BV49" s="4" t="inlineStr">
@@ -28738,12 +28879,12 @@
       </c>
       <c r="BT50" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU50" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV50" s="4" t="inlineStr">
@@ -28882,7 +29023,7 @@
       </c>
       <c r="DG50" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>L_BZM_1</t>
         </is>
       </c>
       <c r="DH50" s="4" t="inlineStr">
@@ -29168,12 +29309,12 @@
       </c>
       <c r="AS51" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoffkonzentration in Nord- und Ostsee</t>
+          <t>Gesamtstickstoffeintrag in Nord- und Ostsee über deutsche Zuflüsse</t>
         </is>
       </c>
       <c r="AT51" s="4" t="inlineStr">
         <is>
-          <t>Total nitrogen concentration in the North and Baltic Seas</t>
+          <t>Total nitrogen input to the North Sea and Baltic Sea via German tributaries</t>
         </is>
       </c>
       <c r="AU51" s="4" t="inlineStr">
@@ -29848,12 +29989,12 @@
       </c>
       <c r="BQ52" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>MSY: Maximum Sustainable Yield.</t>
         </is>
       </c>
       <c r="BR52" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>MSY: Maximum Sustainable Yield.</t>
         </is>
       </c>
       <c r="BS52" s="4" t="inlineStr">
@@ -30410,12 +30551,12 @@
       </c>
       <c r="BQ53" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt.&lt;br&gt;Die historischen Werte für 1970 und 1975 sind rekonstruiert.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR53" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>The sub-indicator for the Alps is currently left out of the whole data set.&lt;br&gt;The historical values for 1970 and 1975 are reconstructed.&lt;br&gt;Inland waters and coasts and seas subindex: individual years extrapolated data.</t>
         </is>
       </c>
       <c r="BS53" s="4" t="inlineStr">
@@ -30425,12 +30566,12 @@
       </c>
       <c r="BT53" s="5" t="inlineStr">
         <is>
-          <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt. Die historischen Werte für 1970 und 1975 sind rekonstruiert. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU53" s="5" t="inlineStr">
         <is>
-          <t>The sub-indicator for the Alps is currently left out of the whole data set. The historical values for 1970 and 1975 are reconstructed. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV53" s="4" t="inlineStr">
@@ -30972,12 +31113,12 @@
       </c>
       <c r="BQ54" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Der Zielwert von 50% entspricht einer Senkung des Flächenanteils um 35% gegenüber 2005.</t>
         </is>
       </c>
       <c r="BR54" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>The target of 50% equates to a 35% reduction in the proportion of land compared with 2005.</t>
         </is>
       </c>
       <c r="BS54" s="4" t="inlineStr">
@@ -30987,12 +31128,12 @@
       </c>
       <c r="BT54" s="5" t="inlineStr">
         <is>
-          <t>Der Zielwert von 50% entspricht einer Senkung des Flächenanteils um 35% gegenüber 2005.</t>
+          <t/>
         </is>
       </c>
       <c r="BU54" s="5" t="inlineStr">
         <is>
-          <t>The target of 50% equates to a 35% reduction in the proportion of land compared with 2005.</t>
+          <t/>
         </is>
       </c>
       <c r="BV54" s="4" t="inlineStr">
@@ -31376,7 +31517,7 @@
       </c>
       <c r="AE55" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AF55" s="4" t="inlineStr">
@@ -31534,12 +31675,12 @@
       </c>
       <c r="BQ55" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Finanzierungsbeiträge vor 2013 sind in Antizipierung des REDD+-Regelwerks erfolgt. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR55" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Financial contributions before 2013 were made in anticipation of the REDD+ rulebook. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS55" s="4" t="inlineStr">
@@ -31549,12 +31690,12 @@
       </c>
       <c r="BT55" s="5" t="inlineStr">
         <is>
-          <t>Finanzierungsbeiträge vor 2013 sind in Antizipierung des REDD+-Regelwerks erfolgt. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU55" s="5" t="inlineStr">
         <is>
-          <t>Financial contributions before 2013 were made in anticipation of the REDD+ rulebook. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV55" s="4" t="inlineStr">
@@ -31601,6 +31742,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE55" s="8">
+        <v>1</v>
       </c>
       <c r="CF55" s="4" t="inlineStr">
         <is>
@@ -32096,12 +32240,12 @@
       </c>
       <c r="BQ56" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Einwohnerzahlen beziehen sich laut Bundeskriminalamt auf das Vorjahr.</t>
         </is>
       </c>
       <c r="BR56" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>According to the Federal Criminal Police Office, the population numbers relate to the previous year.</t>
         </is>
       </c>
       <c r="BS56" s="4" t="inlineStr">
@@ -32111,12 +32255,12 @@
       </c>
       <c r="BT56" s="5" t="inlineStr">
         <is>
-          <t>Die Einwohnerzahlen beziehen sich laut Bundeskriminalamt auf das Vorjahr.</t>
+          <t/>
         </is>
       </c>
       <c r="BU56" s="5" t="inlineStr">
         <is>
-          <t>According to the Federal Criminal Police Office, the population numbers relate to the previous year.</t>
+          <t/>
         </is>
       </c>
       <c r="BV56" s="4" t="inlineStr">
@@ -32658,12 +32802,12 @@
       </c>
       <c r="BQ57" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR57" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS57" s="4" t="inlineStr">
@@ -32673,12 +32817,12 @@
       </c>
       <c r="BT57" s="5" t="inlineStr">
         <is>
-          <t>Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU57" s="5" t="inlineStr">
         <is>
-          <t>Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV57" s="4" t="inlineStr">
@@ -33220,12 +33364,12 @@
       </c>
       <c r="BQ58" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Patnerländer einschließlich Südsudan. Länderliste für die bilaterale staatliche Entwicklungszusammenarbeit des BMZ wurde in 2020 aktualisiert. Es werden 10 Länder mehr aufgeführt zuzüglich China und Sudan.</t>
         </is>
       </c>
       <c r="BR58" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Partner countries including South Sudan. Country list for BMZ bilateral official development cooperation updated in 2020. There are 10 more countries listed plus China and Sudan. </t>
         </is>
       </c>
       <c r="BS58" s="4" t="inlineStr">
@@ -33235,12 +33379,12 @@
       </c>
       <c r="BT58" s="5" t="inlineStr">
         <is>
-          <t>Patnerländer einschließlich Südsudan. Länderliste für die bilaterale staatliche Entwicklungszusammenarbeit des BMZ wurde in 2020 aktualisiert. Es werden 10 Länder mehr aufgeführt zuzüglich China und Sudan.</t>
+          <t/>
         </is>
       </c>
       <c r="BU58" s="5" t="inlineStr">
         <is>
-          <t>Partner countries including South Sudan. Country list for BMZ bilateral official development cooperation updated in 2020. There are 10 more countries listed plus China and Sudan. </t>
+          <t/>
         </is>
       </c>
       <c r="BV58" s="4" t="inlineStr">
@@ -33784,12 +33928,12 @@
       </c>
       <c r="BQ59" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2018 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR59" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2018 are only comparable with previous years to a limited extent.&lt;br&gt;2021 provisional data.</t>
         </is>
       </c>
       <c r="BS59" s="4" t="inlineStr">
@@ -33799,12 +33943,12 @@
       </c>
       <c r="BT59" s="5" t="inlineStr">
         <is>
-          <t>2021 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU59" s="5" t="inlineStr">
         <is>
-          <t>2021 provisional data. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV59" s="4" t="inlineStr">
@@ -33851,6 +33995,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE59" s="8">
+        <v>2</v>
       </c>
       <c r="CF59" s="4" t="inlineStr">
         <is>
@@ -33891,6 +34038,9 @@
           <t/>
         </is>
       </c>
+      <c r="CT59" s="7">
+        <v>2018</v>
+      </c>
       <c r="CU59" s="4" t="inlineStr">
         <is>
           <t/>
@@ -33943,17 +34093,17 @@
       </c>
       <c r="DG59" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_17</t>
         </is>
       </c>
       <c r="DH59" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>L_BMZ_1</t>
         </is>
       </c>
       <c r="DI59" s="4" t="inlineStr">
         <is>
-          <t>Q_OECD</t>
+          <t>L_OECD_1</t>
         </is>
       </c>
       <c r="DJ59" s="4" t="inlineStr">
@@ -34348,29 +34498,29 @@
       </c>
       <c r="BQ60" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Das Ziel entspricht einer Steigerung der Anzahl an Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.
+LDCs (Least Developed Countries): am wenigsten entwickelte Länder. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR60" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BT60" s="5" t="inlineStr">
-        <is>
-          <t>Das Ziel entspricht einer Steigerung der Anzahl der Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.
-LDCs (Least Developed Countries): am wenigsten entwickelte Länder. Die Daten basieren auf einer Sonderauswertung.</t>
-        </is>
-      </c>
-      <c r="BU60" s="5" t="inlineStr">
         <is>
           <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.
 LDCs: least developed countries. Data based on a special evaluation.</t>
+        </is>
+      </c>
+      <c r="BS60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BT60" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU60" s="5" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="BV60" s="4" t="inlineStr">
@@ -34777,6 +34927,12 @@
           <t/>
         </is>
       </c>
+      <c r="AJ61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="7">
+        <v>1.6</v>
+      </c>
       <c r="AL61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -34912,12 +35068,12 @@
       </c>
       <c r="BQ61" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;2021 vorläufige Daten.&lt;br&gt;LDCs = Am wenigsten entwickelte Länder (Least Developed Countries).</t>
         </is>
       </c>
       <c r="BR61" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Data based on a special evaluation.&lt;br&gt;2021 provisional data. &lt;br&gt;LDCs: least developed countries.</t>
         </is>
       </c>
       <c r="BS61" s="4" t="inlineStr">
@@ -34927,12 +35083,12 @@
       </c>
       <c r="BT61" s="5" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. LDCs = Am wenigsten entwickelte Länder (Least Developed Countries). Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BU61" s="5" t="inlineStr">
         <is>
-          <t>2020 provisional data. LDCs: least developed countries. Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BV61" s="4" t="inlineStr">
@@ -34979,6 +35135,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CE61" s="8">
+        <v>2</v>
       </c>
       <c r="CF61" s="4" t="inlineStr">
         <is>
@@ -35004,6 +35163,9 @@
           <t/>
         </is>
       </c>
+      <c r="CN61" s="7">
+        <v>0.2</v>
+      </c>
       <c r="CO61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -35071,7 +35233,7 @@
       </c>
       <c r="DG61" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_18</t>
         </is>
       </c>
       <c r="DH61" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -1675,7 +1675,7 @@
       </c>
       <c r="BQ2" s="5" t="inlineStr">
         <is>
-          <t>2021 vorläufige Daten.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung. &lt;br&gt;
+          <t>2021 vorläufige Daten.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;
 Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
         </is>
       </c>
@@ -2670,8 +2670,11 @@
       </c>
       <c r="AI4" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_DSTTS</t>
+        </is>
+      </c>
+      <c r="AK4" s="7">
+        <v>25</v>
       </c>
       <c r="AL4" s="4" t="inlineStr">
         <is>
@@ -8894,8 +8897,11 @@
       </c>
       <c r="AI15" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="AK15" s="7">
+        <v>75</v>
       </c>
       <c r="AL15" s="4" t="inlineStr">
         <is>
@@ -9120,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="CL15" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM15" s="4" t="inlineStr">
         <is>
@@ -20384,12 +20390,12 @@
       </c>
       <c r="BQ35" s="5" t="inlineStr">
         <is>
-          <t>Bundesländer: Geschlechterspezifische Verteilung der ausländischen Absolventen/Abgänger teilweise geschätzt. Externe Absolventen werden nicht erhoben. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Bundesländer: Geschlechterspezifische Verteilung der ausländischen Absolventen/Abgänger teilweise geschätzt.&lt;br&gt;Externe Absolventen werden nicht erhoben.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR35" s="5" t="inlineStr">
         <is>
-          <t>Federal states: Gender distribution of foreign graduates/leavers partially estimated. External graduates are not surveyed. Data based on a special evaluation.</t>
+          <t>Federal states: Gender distribution of foreign graduates/leavers partially estimated.&lt;br&gt;External graduates are not surveyed.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS35" s="4" t="inlineStr">
@@ -20946,8 +20952,7 @@
       </c>
       <c r="BQ36" s="5" t="inlineStr">
         <is>
-          <t>Renten nicht in den Sozialleistungen eingeschlossen.&lt;br&gt; 
-Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
+          <t>Renten nicht in den Sozialleistungen eingeschlossen.&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BR36" s="5" t="inlineStr">
@@ -22071,13 +22076,12 @@
       </c>
       <c r="BQ38" s="5" t="inlineStr">
         <is>
-          <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur eingeschränkt möglich. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Mit der Umstellung der Datengrundlage zum Stichtag 31.12.2016 kam ein neuer Nutzungsartenkatalog zur Anwendung, sodass keine Veränderung von 2015 auf 2016 ermittelt werden kann. Zeitvergleiche sind damit nur eingeschränkt möglich.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR38" s="5" t="inlineStr">
         <is>
-          <t>A change in the data underpinning this indicator took effect on 31 December 2016, with a new land-use classification system being used from then on. This meant that no change could be recorded between 2015 and 2016. Comparisons over time are not possible without caveats. Data based on a special evaluation.
-</t>
+          <t>A change in the data underpinning this indicator took effect on 31 December 2016, with a new land-use classification system being used from then on. This meant that no change could be recorded between 2015 and 2016. Comparisons over time are not possible without caveats.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS38" s="4" t="inlineStr">
@@ -23208,12 +23212,12 @@
       </c>
       <c r="BQ40" s="5" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>2020 vorläufige Daten.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR40" s="5" t="inlineStr">
         <is>
-          <t>2020 provisional data. Data based on a special evaluation.</t>
+          <t>2020 provisional data.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS40" s="4" t="inlineStr">
@@ -23776,12 +23780,12 @@
       </c>
       <c r="BQ41" s="5" t="inlineStr">
         <is>
-          <t>2020 vorläufige Daten. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>2020 vorläufige Daten.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR41" s="5" t="inlineStr">
         <is>
-          <t>2020 provisional data. Data based on a special evaluation.</t>
+          <t>2020 provisional data.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BS41" s="4" t="inlineStr">
@@ -27737,13 +27741,13 @@
       </c>
       <c r="BQ48" s="5" t="inlineStr">
         <is>
-          <t>Recycling- und Gesamtpapierverbrauch: 2020 vorläufige Daten.    Methodischer Bruch (CO&amp;#8322;-Emissionen: 2017; Papierverbrauch: 2018) - Daten sind nur eingeschränkt vergleichbar. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Recycling- und Gesamtpapierverbrauch: 2020 vorläufige Daten.&lt;br&gt;Methodischer Bruch (CO&amp;#8322;-Emissionen: 2017; Papierverbrauch: 2018) - Daten sind nur eingeschränkt vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BR48" s="5" t="inlineStr">
         <is>
-          <t>Recycled and total paper use: 2020 provisional data.
-Change in methodology (CO&amp;#8322; emissions: 2017; paper use: 2018) – data not directly comparable
+          <t>Recycled and total paper use: 2020 provisional data.&lt;br&gt;
+Change in methodology (CO&amp;#8322; emissions: 2017; paper use: 2018) – data not directly comparable.&lt;br&gt;
 Data based on a special evaluation.</t>
         </is>
       </c>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -580,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DZ61"/>
+  <dimension ref="A1:EB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -697,9 +697,9 @@
     <col customWidth="true" min="107" max="107" width="20.21484375"/>
     <col customWidth="true" min="108" max="108" width="35.0078125"/>
     <col customWidth="true" min="109" max="109" width="34.71484375"/>
-    <col customWidth="true" min="110" max="110" width="50.390625"/>
+    <col customWidth="true" min="110" max="110" width="13.8359375"/>
     <col customWidth="true" min="111" max="111" width="13.8359375"/>
-    <col customWidth="true" min="112" max="112" width="13.8359375"/>
+    <col customWidth="true" min="112" max="112" width="50.390625"/>
     <col customWidth="true" min="113" max="113" width="13.8359375"/>
     <col customWidth="true" min="114" max="114" width="13.8359375"/>
     <col customWidth="true" min="115" max="115" width="13.8359375"/>
@@ -718,6 +718,8 @@
     <col customWidth="true" min="128" max="128" width="13.8359375"/>
     <col customWidth="true" min="129" max="129" width="13.8359375"/>
     <col customWidth="true" min="130" max="130" width="13.8359375"/>
+    <col customWidth="true" min="131" max="131" width="13.8359375"/>
+    <col customWidth="true" min="132" max="132" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -1268,105 +1270,115 @@
       </c>
       <c r="DF1" s="2" t="inlineStr">
         <is>
+          <t>x-Achsenbezeichnung De</t>
+        </is>
+      </c>
+      <c r="DG1" s="2" t="inlineStr">
+        <is>
+          <t>&lt;-Achsenbezeichnung En</t>
+        </is>
+      </c>
+      <c r="DH1" s="2" t="inlineStr">
+        <is>
           <t>Tab_4c_Linkzuordnung.IbNr</t>
         </is>
       </c>
-      <c r="DG1" s="2" t="inlineStr">
+      <c r="DI1" s="2" t="inlineStr">
         <is>
           <t>Indikator</t>
         </is>
       </c>
-      <c r="DH1" s="2" t="inlineStr">
+      <c r="DJ1" s="2" t="inlineStr">
         <is>
           <t>Link1</t>
         </is>
       </c>
-      <c r="DI1" s="2" t="inlineStr">
+      <c r="DK1" s="2" t="inlineStr">
         <is>
           <t>Link2</t>
         </is>
       </c>
-      <c r="DJ1" s="2" t="inlineStr">
+      <c r="DL1" s="2" t="inlineStr">
         <is>
           <t>Link3</t>
         </is>
       </c>
-      <c r="DK1" s="2" t="inlineStr">
+      <c r="DM1" s="2" t="inlineStr">
         <is>
           <t>Link4</t>
         </is>
       </c>
-      <c r="DL1" s="2" t="inlineStr">
+      <c r="DN1" s="2" t="inlineStr">
         <is>
           <t>Link5</t>
         </is>
       </c>
-      <c r="DM1" s="2" t="inlineStr">
+      <c r="DO1" s="2" t="inlineStr">
         <is>
           <t>Link6</t>
         </is>
       </c>
-      <c r="DN1" s="2" t="inlineStr">
+      <c r="DP1" s="2" t="inlineStr">
         <is>
           <t>Link7</t>
         </is>
       </c>
-      <c r="DO1" s="2" t="inlineStr">
+      <c r="DQ1" s="2" t="inlineStr">
         <is>
           <t>Link8</t>
         </is>
       </c>
-      <c r="DP1" s="2" t="inlineStr">
+      <c r="DR1" s="2" t="inlineStr">
         <is>
           <t>Link9</t>
         </is>
       </c>
-      <c r="DQ1" s="2" t="inlineStr">
+      <c r="DS1" s="2" t="inlineStr">
         <is>
           <t>Link10</t>
         </is>
       </c>
-      <c r="DR1" s="2" t="inlineStr">
+      <c r="DT1" s="2" t="inlineStr">
         <is>
           <t>Link11</t>
         </is>
       </c>
-      <c r="DS1" s="2" t="inlineStr">
+      <c r="DU1" s="2" t="inlineStr">
         <is>
           <t>Link12</t>
         </is>
       </c>
-      <c r="DT1" s="2" t="inlineStr">
+      <c r="DV1" s="2" t="inlineStr">
         <is>
           <t>Link13</t>
         </is>
       </c>
-      <c r="DU1" s="2" t="inlineStr">
+      <c r="DW1" s="2" t="inlineStr">
         <is>
           <t>Link14</t>
         </is>
       </c>
-      <c r="DV1" s="2" t="inlineStr">
+      <c r="DX1" s="2" t="inlineStr">
         <is>
           <t>Link15</t>
         </is>
       </c>
-      <c r="DW1" s="2" t="inlineStr">
+      <c r="DY1" s="2" t="inlineStr">
         <is>
           <t>Link16</t>
         </is>
       </c>
-      <c r="DX1" s="2" t="inlineStr">
+      <c r="DZ1" s="2" t="inlineStr">
         <is>
           <t>Link17</t>
         </is>
       </c>
-      <c r="DY1" s="2" t="inlineStr">
+      <c r="EA1" s="2" t="inlineStr">
         <is>
           <t>Link18</t>
         </is>
       </c>
-      <c r="DZ1" s="2" t="inlineStr">
+      <c r="EB1" s="2" t="inlineStr">
         <is>
           <t>Link19</t>
         </is>
@@ -1838,39 +1850,39 @@
       </c>
       <c r="DF2" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH2" s="4" t="inlineStr">
+        <is>
           <t>Z01_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG2" s="4" t="inlineStr">
+      <c r="DI2" s="4" t="inlineStr">
         <is>
           <t>01.1.a,b</t>
         </is>
       </c>
-      <c r="DH2" s="4" t="inlineStr">
+      <c r="DJ2" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_7</t>
         </is>
       </c>
-      <c r="DI2" s="4" t="inlineStr">
+      <c r="DK2" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_8</t>
         </is>
       </c>
-      <c r="DJ2" s="4" t="inlineStr">
+      <c r="DL2" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DK2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1937,6 +1949,16 @@
         </is>
       </c>
       <c r="DZ2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB2" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2406,39 +2428,39 @@
       </c>
       <c r="DF3" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH3" s="4" t="inlineStr">
+        <is>
           <t>Z02_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG3" s="4" t="inlineStr">
+      <c r="DI3" s="4" t="inlineStr">
         <is>
           <t>02.1.a</t>
         </is>
       </c>
-      <c r="DH3" s="4" t="inlineStr">
+      <c r="DJ3" s="4" t="inlineStr">
         <is>
           <t>L_BMEL_1</t>
         </is>
       </c>
-      <c r="DI3" s="4" t="inlineStr">
+      <c r="DK3" s="4" t="inlineStr">
         <is>
           <t>Q_JKI</t>
         </is>
       </c>
-      <c r="DJ3" s="4" t="inlineStr">
+      <c r="DL3" s="4" t="inlineStr">
         <is>
           <t>Q_UG</t>
         </is>
       </c>
-      <c r="DK3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2505,6 +2527,16 @@
         </is>
       </c>
       <c r="DZ3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB3" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2977,39 +3009,39 @@
       </c>
       <c r="DF4" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH4" s="4" t="inlineStr">
+        <is>
           <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG4" s="4" t="inlineStr">
+      <c r="DI4" s="4" t="inlineStr">
         <is>
           <t>02.1.b</t>
         </is>
       </c>
-      <c r="DH4" s="4" t="inlineStr">
+      <c r="DJ4" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_1</t>
         </is>
       </c>
-      <c r="DI4" s="4" t="inlineStr">
+      <c r="DK4" s="4" t="inlineStr">
         <is>
           <t>L_BMEL_2</t>
         </is>
       </c>
-      <c r="DJ4" s="4" t="inlineStr">
+      <c r="DL4" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_7</t>
         </is>
       </c>
-      <c r="DK4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3076,6 +3108,16 @@
         </is>
       </c>
       <c r="DZ4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB4" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3549,34 +3591,34 @@
       </c>
       <c r="DF5" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH5" s="4" t="inlineStr">
+        <is>
           <t>Z02_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG5" s="4" t="inlineStr">
+      <c r="DI5" s="4" t="inlineStr">
         <is>
           <t>02.2</t>
         </is>
       </c>
-      <c r="DH5" s="4" t="inlineStr">
+      <c r="DJ5" s="4" t="inlineStr">
         <is>
           <t>Q_BMZ</t>
         </is>
       </c>
-      <c r="DI5" s="4" t="inlineStr">
+      <c r="DK5" s="4" t="inlineStr">
         <is>
           <t>Q_BMEL</t>
         </is>
       </c>
-      <c r="DJ5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL5" s="4" t="inlineStr">
         <is>
           <t/>
@@ -3648,6 +3690,16 @@
         </is>
       </c>
       <c r="DZ5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB5" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4118,29 +4170,29 @@
       </c>
       <c r="DF6" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH6" s="4" t="inlineStr">
+        <is>
           <t>Z03_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG6" s="4" t="inlineStr">
+      <c r="DI6" s="4" t="inlineStr">
         <is>
           <t>03.1.a,b</t>
         </is>
       </c>
-      <c r="DH6" s="4" t="inlineStr">
+      <c r="DJ6" s="4" t="inlineStr">
         <is>
           <t>L_GBE_1</t>
         </is>
       </c>
-      <c r="DI6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4217,6 +4269,16 @@
         </is>
       </c>
       <c r="DZ6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB6" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4686,34 +4748,34 @@
       </c>
       <c r="DF7" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH7" s="4" t="inlineStr">
+        <is>
           <t>Z03_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG7" s="4" t="inlineStr">
+      <c r="DI7" s="4" t="inlineStr">
         <is>
           <t>03.1.c,d</t>
         </is>
       </c>
-      <c r="DH7" s="4" t="inlineStr">
+      <c r="DJ7" s="4" t="inlineStr">
         <is>
           <t>L_BZGA_1</t>
         </is>
       </c>
-      <c r="DI7" s="4" t="inlineStr">
+      <c r="DK7" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DJ7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL7" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4785,6 +4847,16 @@
         </is>
       </c>
       <c r="DZ7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB7" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5254,29 +5326,29 @@
       </c>
       <c r="DF8" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH8" s="4" t="inlineStr">
+        <is>
           <t>Z03_B01_P01_Ib03</t>
         </is>
       </c>
-      <c r="DG8" s="4" t="inlineStr">
+      <c r="DI8" s="4" t="inlineStr">
         <is>
           <t>03.1.e</t>
         </is>
       </c>
-      <c r="DH8" s="4" t="inlineStr">
+      <c r="DJ8" s="4" t="inlineStr">
         <is>
           <t>Q_RKI</t>
         </is>
       </c>
-      <c r="DI8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK8" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5353,6 +5425,16 @@
         </is>
       </c>
       <c r="DZ8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB8" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5670,12 +5752,12 @@
       </c>
       <c r="BR9" s="6" t="inlineStr">
         <is>
-          <t>1999, 2003, 2005, 2009, 2013 und 2017 erhobene Daten. Zwischenjahre interpolierte Daten. &lt;br&gt;Altersstandardisierte Ergebnisse auf Basis der neuen Europastandardbevölkerung.</t>
+          <t>Altersstandardisierte Ergebnisse auf Basis der neuen Europastandardbevölkerung.</t>
         </is>
       </c>
       <c r="BS9" s="6" t="inlineStr">
         <is>
-          <t>Data collected in 1999, 2003, 2005, 2009, 2013 and 2017. Intermediate years interpolated data.&lt;br&gt;Age-standardized results based on the new European standard population.</t>
+          <t>Age-standardized results based on the new European standard population.</t>
         </is>
       </c>
       <c r="BT9" s="4" t="inlineStr">
@@ -5822,29 +5904,29 @@
       </c>
       <c r="DF9" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH9" s="4" t="inlineStr">
+        <is>
           <t>Z03_B01_P01_Ib04</t>
         </is>
       </c>
-      <c r="DG9" s="4" t="inlineStr">
+      <c r="DI9" s="4" t="inlineStr">
         <is>
           <t>03.1.f</t>
         </is>
       </c>
-      <c r="DH9" s="4" t="inlineStr">
+      <c r="DJ9" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK9" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5921,6 +6003,16 @@
         </is>
       </c>
       <c r="DZ9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB9" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6307,7 +6399,7 @@
         </is>
       </c>
       <c r="CF10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG10" s="4" t="inlineStr">
         <is>
@@ -6390,29 +6482,29 @@
       </c>
       <c r="DF10" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH10" s="4" t="inlineStr">
+        <is>
           <t>Z03_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG10" s="4" t="inlineStr">
+      <c r="DI10" s="4" t="inlineStr">
         <is>
           <t>03.2.a</t>
         </is>
       </c>
-      <c r="DH10" s="4" t="inlineStr">
+      <c r="DJ10" s="4" t="inlineStr">
         <is>
           <t>L_UBA_1</t>
         </is>
       </c>
-      <c r="DI10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6489,6 +6581,16 @@
         </is>
       </c>
       <c r="DZ10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB10" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6671,6 +6773,9 @@
           <t/>
         </is>
       </c>
+      <c r="AK11" s="8">
+        <v>-5</v>
+      </c>
       <c r="AM11" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6958,34 +7063,34 @@
       </c>
       <c r="DF11" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH11" s="4" t="inlineStr">
+        <is>
           <t>Z03_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG11" s="4" t="inlineStr">
+      <c r="DI11" s="4" t="inlineStr">
         <is>
           <t>03.2.b</t>
         </is>
       </c>
-      <c r="DH11" s="4" t="inlineStr">
+      <c r="DJ11" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="DI11" s="4" t="inlineStr">
+      <c r="DK11" s="4" t="inlineStr">
         <is>
           <t>Q_WHO</t>
         </is>
       </c>
-      <c r="DJ11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL11" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7057,6 +7162,16 @@
         </is>
       </c>
       <c r="DZ11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB11" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7374,12 +7489,12 @@
       </c>
       <c r="BR12" s="6" t="inlineStr">
         <is>
-          <t>Alle Daten vorläufig. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Alle Daten vorläufig.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS12" s="6" t="inlineStr">
         <is>
-          <t>All data are provisional. Data based on a special evaluation.</t>
+          <t>All data are provisional.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT12" s="4" t="inlineStr">
@@ -7526,44 +7641,44 @@
       </c>
       <c r="DF12" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH12" s="4" t="inlineStr">
+        <is>
           <t>Z03_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG12" s="4" t="inlineStr">
+      <c r="DI12" s="4" t="inlineStr">
         <is>
           <t>03.3</t>
         </is>
       </c>
-      <c r="DH12" s="4" t="inlineStr">
+      <c r="DJ12" s="4" t="inlineStr">
         <is>
           <t>Q_BMG</t>
         </is>
       </c>
-      <c r="DI12" s="4" t="inlineStr">
+      <c r="DK12" s="4" t="inlineStr">
         <is>
           <t>Q_AA</t>
         </is>
       </c>
-      <c r="DJ12" s="4" t="inlineStr">
+      <c r="DL12" s="4" t="inlineStr">
         <is>
           <t>Q_BMZ</t>
         </is>
       </c>
-      <c r="DK12" s="4" t="inlineStr">
+      <c r="DM12" s="4" t="inlineStr">
         <is>
           <t>Q_BMBF</t>
         </is>
       </c>
-      <c r="DL12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DM12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DN12" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7625,6 +7740,16 @@
         </is>
       </c>
       <c r="DZ12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB12" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8094,29 +8219,29 @@
       </c>
       <c r="DF13" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH13" s="4" t="inlineStr">
+        <is>
           <t>Z04_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG13" s="4" t="inlineStr">
+      <c r="DI13" s="4" t="inlineStr">
         <is>
           <t>04.1.a</t>
         </is>
       </c>
-      <c r="DH13" s="4" t="inlineStr">
+      <c r="DJ13" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_10</t>
         </is>
       </c>
-      <c r="DI13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK13" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8193,6 +8318,16 @@
         </is>
       </c>
       <c r="DZ13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB13" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8666,34 +8801,34 @@
       </c>
       <c r="DF14" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH14" s="4" t="inlineStr">
+        <is>
           <t>Z04_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG14" s="4" t="inlineStr">
+      <c r="DI14" s="4" t="inlineStr">
         <is>
           <t>04.1.b</t>
         </is>
       </c>
-      <c r="DH14" s="4" t="inlineStr">
+      <c r="DJ14" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI14" s="4" t="inlineStr">
+      <c r="DK14" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_9</t>
         </is>
       </c>
-      <c r="DJ14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8765,6 +8900,16 @@
         </is>
       </c>
       <c r="DZ14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB14" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8953,8 +9098,11 @@
       </c>
       <c r="AM15" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z04_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="AO15" s="8">
+        <v>40</v>
       </c>
       <c r="AP15" s="4" t="inlineStr">
         <is>
@@ -9086,12 +9234,12 @@
       </c>
       <c r="BR15" s="6" t="inlineStr">
         <is>
-          <t>Betreuungszeit von mehr als sieben Stunden in Tageseinrichtungen, ohne Tagespflege. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Betreuungszeit von mehr als sieben Stunden in Tageseinrichtungen, ohne Tagespflege.</t>
         </is>
       </c>
       <c r="BS15" s="6" t="inlineStr">
         <is>
-          <t>Care period of more than seven hours in child daycare centres, excluding home-based care. Data based on a special evaluation.</t>
+          <t>Care period of more than seven hours in child daycare centres, excluding home-based care.</t>
         </is>
       </c>
       <c r="BT15" s="4" t="inlineStr">
@@ -9238,34 +9386,34 @@
       </c>
       <c r="DF15" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH15" s="4" t="inlineStr">
+        <is>
           <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG15" s="4" t="inlineStr">
+      <c r="DI15" s="4" t="inlineStr">
         <is>
           <t>04.2.a,b</t>
         </is>
       </c>
-      <c r="DH15" s="4" t="inlineStr">
+      <c r="DJ15" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_11</t>
         </is>
       </c>
-      <c r="DI15" s="4" t="inlineStr">
+      <c r="DK15" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_23</t>
         </is>
       </c>
-      <c r="DJ15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL15" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9337,6 +9485,16 @@
         </is>
       </c>
       <c r="DZ15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB15" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9806,34 +9964,34 @@
       </c>
       <c r="DF16" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH16" s="4" t="inlineStr">
+        <is>
           <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG16" s="4" t="inlineStr">
+      <c r="DI16" s="4" t="inlineStr">
         <is>
           <t>05.1.a</t>
         </is>
       </c>
-      <c r="DH16" s="4" t="inlineStr">
+      <c r="DJ16" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_8</t>
         </is>
       </c>
-      <c r="DI16" s="4" t="inlineStr">
+      <c r="DK16" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_19</t>
         </is>
       </c>
-      <c r="DJ16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL16" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9905,6 +10063,16 @@
         </is>
       </c>
       <c r="DZ16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB16" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10222,18 +10390,12 @@
       </c>
       <c r="BR17" s="6" t="inlineStr">
         <is>
-          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.&lt;br&gt;
-Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;
-Frauen im öffentlichen Dienst des Bundes Stand 30.06. des jeweiligen Jahres.&lt;br&gt;
-2021 vorläufige Daten.</t>
+          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.&lt;br&gt;Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes Stand 30.06. des jeweiligen Jahres.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS17" s="6" t="inlineStr">
         <is>
-          <t>In this context, equal representation means that approximately numerical equality is targeted.&lt;br&gt;
-Women on supervisory boards: figures as at January each year.&lt;br&gt;
-Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;
-2021 provisional data.</t>
+          <t>In this context, equal representation means that approximately numerical equality is targeted.&lt;br&gt;Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;2021 provisional data.</t>
         </is>
       </c>
       <c r="BT17" s="4" t="inlineStr">
@@ -10295,6 +10457,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF17" s="5">
+        <v>1</v>
       </c>
       <c r="CG17" s="4" t="inlineStr">
         <is>
@@ -10335,6 +10500,9 @@
           <t/>
         </is>
       </c>
+      <c r="CU17" s="8">
+        <v>2016</v>
+      </c>
       <c r="CV17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10377,34 +10545,34 @@
       </c>
       <c r="DF17" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH17" s="4" t="inlineStr">
+        <is>
           <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG17" s="4" t="inlineStr">
+      <c r="DI17" s="4" t="inlineStr">
         <is>
           <t>05.1.b,c</t>
         </is>
       </c>
-      <c r="DH17" s="4" t="inlineStr">
+      <c r="DJ17" s="4" t="inlineStr">
         <is>
           <t>L_FIDAR_1</t>
         </is>
       </c>
-      <c r="DI17" s="4" t="inlineStr">
+      <c r="DK17" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DJ17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10476,6 +10644,16 @@
         </is>
       </c>
       <c r="DZ17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB17" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10793,14 +10971,12 @@
       </c>
       <c r="BR18" s="6" t="inlineStr">
         <is>
-          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.
-Die Jahreszahlen geben das Geburtsjahr des Kindes an.</t>
+          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.</t>
         </is>
       </c>
       <c r="BS18" s="6" t="inlineStr">
         <is>
-          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.
-The years indicate the year of birth of the child.</t>
+          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.</t>
         </is>
       </c>
       <c r="BT18" s="4" t="inlineStr">
@@ -10947,29 +11123,29 @@
       </c>
       <c r="DF18" s="4" t="inlineStr">
         <is>
+          <t>Geburtsjahr des Kindes</t>
+        </is>
+      </c>
+      <c r="DG18" s="4" t="inlineStr">
+        <is>
+          <t>Child`s year of birth</t>
+        </is>
+      </c>
+      <c r="DH18" s="4" t="inlineStr">
+        <is>
           <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
-      <c r="DG18" s="4" t="inlineStr">
+      <c r="DI18" s="4" t="inlineStr">
         <is>
           <t>05.1.d</t>
         </is>
       </c>
-      <c r="DH18" s="4" t="inlineStr">
+      <c r="DJ18" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_20</t>
         </is>
       </c>
-      <c r="DI18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11046,6 +11222,16 @@
         </is>
       </c>
       <c r="DZ18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB18" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11515,34 +11701,34 @@
       </c>
       <c r="DF19" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH19" s="4" t="inlineStr">
+        <is>
           <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
-      <c r="DG19" s="4" t="inlineStr">
+      <c r="DI19" s="4" t="inlineStr">
         <is>
           <t>05.1.e</t>
         </is>
       </c>
-      <c r="DH19" s="4" t="inlineStr">
+      <c r="DJ19" s="4" t="inlineStr">
         <is>
           <t>Q_BMZ</t>
         </is>
       </c>
-      <c r="DI19" s="4" t="inlineStr">
+      <c r="DK19" s="4" t="inlineStr">
         <is>
           <t>Q_CEVAL</t>
         </is>
       </c>
-      <c r="DJ19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11614,6 +11800,16 @@
         </is>
       </c>
       <c r="DZ19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB19" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12083,29 +12279,29 @@
       </c>
       <c r="DF20" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH20" s="4" t="inlineStr">
+        <is>
           <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG20" s="4" t="inlineStr">
+      <c r="DI20" s="4" t="inlineStr">
         <is>
           <t>06.1.a</t>
         </is>
       </c>
-      <c r="DH20" s="4" t="inlineStr">
+      <c r="DJ20" s="4" t="inlineStr">
         <is>
           <t>L_UBA_2</t>
         </is>
       </c>
-      <c r="DI20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12182,6 +12378,16 @@
         </is>
       </c>
       <c r="DZ20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB20" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12651,34 +12857,34 @@
       </c>
       <c r="DF21" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH21" s="4" t="inlineStr">
+        <is>
           <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG21" s="4" t="inlineStr">
+      <c r="DI21" s="4" t="inlineStr">
         <is>
           <t>06.1.b</t>
         </is>
       </c>
-      <c r="DH21" s="4" t="inlineStr">
+      <c r="DJ21" s="4" t="inlineStr">
         <is>
           <t>L_UBA_3</t>
         </is>
       </c>
-      <c r="DI21" s="4" t="inlineStr">
+      <c r="DK21" s="4" t="inlineStr">
         <is>
           <t>L_LIKI_1</t>
         </is>
       </c>
-      <c r="DJ21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL21" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12750,6 +12956,16 @@
         </is>
       </c>
       <c r="DZ21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB21" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13231,29 +13447,29 @@
       </c>
       <c r="DF22" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH22" s="4" t="inlineStr">
+        <is>
           <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG22" s="4" t="inlineStr">
+      <c r="DI22" s="4" t="inlineStr">
         <is>
           <t>06.2.a,b</t>
         </is>
       </c>
-      <c r="DH22" s="4" t="inlineStr">
+      <c r="DJ22" s="4" t="inlineStr">
         <is>
           <t>Q_KFW</t>
         </is>
       </c>
-      <c r="DI22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK22" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13330,6 +13546,16 @@
         </is>
       </c>
       <c r="DZ22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB22" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13810,39 +14036,39 @@
       </c>
       <c r="DF23" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH23" s="4" t="inlineStr">
+        <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG23" s="4" t="inlineStr">
+      <c r="DI23" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="DH23" s="4" t="inlineStr">
+      <c r="DJ23" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI23" s="4" t="inlineStr">
+      <c r="DK23" s="4" t="inlineStr">
         <is>
           <t>L_LAK_1</t>
         </is>
       </c>
-      <c r="DJ23" s="4" t="inlineStr">
+      <c r="DL23" s="4" t="inlineStr">
         <is>
           <t>L_AGEB_1</t>
         </is>
       </c>
-      <c r="DK23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM23" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13909,6 +14135,16 @@
         </is>
       </c>
       <c r="DZ23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB23" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14381,39 +14617,39 @@
       </c>
       <c r="DF24" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH24" s="4" t="inlineStr">
+        <is>
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG24" s="4" t="inlineStr">
+      <c r="DI24" s="4" t="inlineStr">
         <is>
           <t>07.2.a</t>
         </is>
       </c>
-      <c r="DH24" s="4" t="inlineStr">
+      <c r="DJ24" s="4" t="inlineStr">
         <is>
           <t>L_EE_1</t>
         </is>
       </c>
-      <c r="DI24" s="4" t="inlineStr">
+      <c r="DK24" s="4" t="inlineStr">
         <is>
           <t>L_LAK_2</t>
         </is>
       </c>
-      <c r="DJ24" s="4" t="inlineStr">
+      <c r="DL24" s="4" t="inlineStr">
         <is>
           <t>Q_BMWK</t>
         </is>
       </c>
-      <c r="DK24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14480,6 +14716,16 @@
         </is>
       </c>
       <c r="DZ24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB24" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14951,39 +15197,39 @@
       </c>
       <c r="DF25" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH25" s="4" t="inlineStr">
+        <is>
           <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG25" s="4" t="inlineStr">
+      <c r="DI25" s="4" t="inlineStr">
         <is>
           <t>07.2.b</t>
         </is>
       </c>
-      <c r="DH25" s="4" t="inlineStr">
+      <c r="DJ25" s="4" t="inlineStr">
         <is>
           <t>L_EE_1</t>
         </is>
       </c>
-      <c r="DI25" s="4" t="inlineStr">
+      <c r="DK25" s="4" t="inlineStr">
         <is>
           <t>L_LAK_3</t>
         </is>
       </c>
-      <c r="DJ25" s="4" t="inlineStr">
+      <c r="DL25" s="4" t="inlineStr">
         <is>
           <t>Q_BMWK</t>
         </is>
       </c>
-      <c r="DK25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM25" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15050,6 +15296,16 @@
         </is>
       </c>
       <c r="DZ25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB25" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15520,29 +15776,29 @@
       </c>
       <c r="DF26" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH26" s="4" t="inlineStr">
+        <is>
           <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG26" s="4" t="inlineStr">
+      <c r="DI26" s="4" t="inlineStr">
         <is>
           <t>08.1</t>
         </is>
       </c>
-      <c r="DH26" s="4" t="inlineStr">
+      <c r="DJ26" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK26" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15619,6 +15875,16 @@
         </is>
       </c>
       <c r="DZ26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB26" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16097,34 +16363,34 @@
       </c>
       <c r="DF27" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH27" s="4" t="inlineStr">
+        <is>
           <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG27" s="4" t="inlineStr">
+      <c r="DI27" s="4" t="inlineStr">
         <is>
           <t>08.2.a,b</t>
         </is>
       </c>
-      <c r="DH27" s="4" t="inlineStr">
+      <c r="DJ27" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_3</t>
         </is>
       </c>
-      <c r="DI27" s="4" t="inlineStr">
+      <c r="DK27" s="4" t="inlineStr">
         <is>
           <t>Q_BMF</t>
         </is>
       </c>
-      <c r="DJ27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -16196,6 +16462,16 @@
         </is>
       </c>
       <c r="DZ27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB27" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16671,34 +16947,34 @@
       </c>
       <c r="DF28" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH28" s="4" t="inlineStr">
+        <is>
           <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG28" s="4" t="inlineStr">
+      <c r="DI28" s="4" t="inlineStr">
         <is>
           <t>08.2.c</t>
         </is>
       </c>
-      <c r="DH28" s="4" t="inlineStr">
+      <c r="DJ28" s="4" t="inlineStr">
         <is>
           <t>L_BB_1</t>
         </is>
       </c>
-      <c r="DI28" s="4" t="inlineStr">
+      <c r="DK28" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_2</t>
         </is>
       </c>
-      <c r="DJ28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL28" s="4" t="inlineStr">
         <is>
           <t/>
@@ -16770,6 +17046,16 @@
         </is>
       </c>
       <c r="DZ28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB28" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17236,39 +17522,39 @@
       </c>
       <c r="DF29" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH29" s="4" t="inlineStr">
+        <is>
           <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG29" s="4" t="inlineStr">
+      <c r="DI29" s="4" t="inlineStr">
         <is>
           <t>08.3</t>
         </is>
       </c>
-      <c r="DH29" s="4" t="inlineStr">
+      <c r="DJ29" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_12</t>
         </is>
       </c>
-      <c r="DI29" s="4" t="inlineStr">
+      <c r="DK29" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_13</t>
         </is>
       </c>
-      <c r="DJ29" s="4" t="inlineStr">
+      <c r="DL29" s="4" t="inlineStr">
         <is>
           <t>L_SP_1</t>
         </is>
       </c>
-      <c r="DK29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM29" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17335,6 +17621,16 @@
         </is>
       </c>
       <c r="DZ29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB29" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17801,44 +18097,44 @@
       </c>
       <c r="DF30" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH30" s="4" t="inlineStr">
+        <is>
           <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG30" s="4" t="inlineStr">
+      <c r="DI30" s="4" t="inlineStr">
         <is>
           <t>08.4</t>
         </is>
       </c>
-      <c r="DH30" s="4" t="inlineStr">
+      <c r="DJ30" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_13</t>
         </is>
       </c>
-      <c r="DI30" s="4" t="inlineStr">
+      <c r="DK30" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_14</t>
         </is>
       </c>
-      <c r="DJ30" s="4" t="inlineStr">
+      <c r="DL30" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_15</t>
         </is>
       </c>
-      <c r="DK30" s="4" t="inlineStr">
+      <c r="DM30" s="4" t="inlineStr">
         <is>
           <t>L_SP_2</t>
         </is>
       </c>
-      <c r="DL30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DM30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DN30" s="4" t="inlineStr">
         <is>
           <t/>
@@ -17900,6 +18196,16 @@
         </is>
       </c>
       <c r="DZ30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB30" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18381,34 +18687,34 @@
       </c>
       <c r="DF31" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH31" s="4" t="inlineStr">
+        <is>
           <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG31" s="4" t="inlineStr">
+      <c r="DI31" s="4" t="inlineStr">
         <is>
           <t>08.5.a,b</t>
         </is>
       </c>
-      <c r="DH31" s="4" t="inlineStr">
+      <c r="DJ31" s="4" t="inlineStr">
         <is>
           <t>L_SP_4</t>
         </is>
       </c>
-      <c r="DI31" s="4" t="inlineStr">
+      <c r="DK31" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_2</t>
         </is>
       </c>
-      <c r="DJ31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -18480,6 +18786,16 @@
         </is>
       </c>
       <c r="DZ31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB31" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18946,34 +19262,34 @@
       </c>
       <c r="DF32" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH32" s="4" t="inlineStr">
+        <is>
           <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG32" s="4" t="inlineStr">
+      <c r="DI32" s="4" t="inlineStr">
         <is>
           <t>08.6</t>
         </is>
       </c>
-      <c r="DH32" s="4" t="inlineStr">
+      <c r="DJ32" s="4" t="inlineStr">
         <is>
           <t>Q_BMZ</t>
         </is>
       </c>
-      <c r="DI32" s="4" t="inlineStr">
+      <c r="DK32" s="4" t="inlineStr">
         <is>
           <t>L_GIZ_1</t>
         </is>
       </c>
-      <c r="DJ32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL32" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19045,6 +19361,16 @@
         </is>
       </c>
       <c r="DZ32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB32" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19517,39 +19843,39 @@
       </c>
       <c r="DF33" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH33" s="4" t="inlineStr">
+        <is>
           <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG33" s="4" t="inlineStr">
+      <c r="DI33" s="4" t="inlineStr">
         <is>
           <t>09.1.a</t>
         </is>
       </c>
-      <c r="DH33" s="4" t="inlineStr">
+      <c r="DJ33" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_4</t>
         </is>
       </c>
-      <c r="DI33" s="4" t="inlineStr">
+      <c r="DK33" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_9</t>
         </is>
       </c>
-      <c r="DJ33" s="4" t="inlineStr">
+      <c r="DL33" s="4" t="inlineStr">
         <is>
           <t>Q_SVWS</t>
         </is>
       </c>
-      <c r="DK33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM33" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19616,6 +19942,16 @@
         </is>
       </c>
       <c r="DZ33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB33" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20082,29 +20418,29 @@
       </c>
       <c r="DF34" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH34" s="4" t="inlineStr">
+        <is>
           <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG34" s="4" t="inlineStr">
+      <c r="DI34" s="4" t="inlineStr">
         <is>
           <t>09.1.b</t>
         </is>
       </c>
-      <c r="DH34" s="4" t="inlineStr">
+      <c r="DJ34" s="4" t="inlineStr">
         <is>
           <t>L_BMDV_1</t>
         </is>
       </c>
-      <c r="DI34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK34" s="4" t="inlineStr">
         <is>
           <t/>
@@ -20181,6 +20517,16 @@
         </is>
       </c>
       <c r="DZ34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB34" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20647,34 +20993,34 @@
       </c>
       <c r="DF35" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH35" s="4" t="inlineStr">
+        <is>
           <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG35" s="4" t="inlineStr">
+      <c r="DI35" s="4" t="inlineStr">
         <is>
           <t>10.1</t>
         </is>
       </c>
-      <c r="DH35" s="4" t="inlineStr">
+      <c r="DJ35" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_16</t>
         </is>
       </c>
-      <c r="DI35" s="4" t="inlineStr">
+      <c r="DK35" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_21</t>
         </is>
       </c>
-      <c r="DJ35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL35" s="4" t="inlineStr">
         <is>
           <t/>
@@ -20746,6 +21092,16 @@
         </is>
       </c>
       <c r="DZ35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB35" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21212,54 +21568,54 @@
       </c>
       <c r="DF36" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH36" s="4" t="inlineStr">
+        <is>
           <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG36" s="4" t="inlineStr">
+      <c r="DI36" s="4" t="inlineStr">
         <is>
           <t>10.2</t>
         </is>
       </c>
-      <c r="DH36" s="4" t="inlineStr">
+      <c r="DJ36" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_5</t>
         </is>
       </c>
-      <c r="DI36" s="4" t="inlineStr">
+      <c r="DK36" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_3</t>
         </is>
       </c>
-      <c r="DJ36" s="4" t="inlineStr">
+      <c r="DL36" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_6</t>
         </is>
       </c>
-      <c r="DK36" s="4" t="inlineStr">
+      <c r="DM36" s="4" t="inlineStr">
         <is>
           <t>L_BB_2</t>
         </is>
       </c>
-      <c r="DL36" s="4" t="inlineStr">
+      <c r="DN36" s="4" t="inlineStr">
         <is>
           <t>L_EZB_1</t>
         </is>
       </c>
-      <c r="DM36" s="4" t="inlineStr">
+      <c r="DO36" s="4" t="inlineStr">
         <is>
           <t>Q_DIW</t>
         </is>
       </c>
-      <c r="DN36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DO36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DP36" s="4" t="inlineStr">
         <is>
           <t/>
@@ -21311,6 +21667,16 @@
         </is>
       </c>
       <c r="DZ36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB36" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21713,7 +22079,7 @@
         <v>1</v>
       </c>
       <c r="CM37" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN37" s="4" t="inlineStr">
         <is>
@@ -21777,34 +22143,34 @@
       </c>
       <c r="DF37" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH37" s="4" t="inlineStr">
+        <is>
           <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG37" s="4" t="inlineStr">
+      <c r="DI37" s="4" t="inlineStr">
         <is>
           <t>11.1.a</t>
         </is>
       </c>
-      <c r="DH37" s="4" t="inlineStr">
+      <c r="DJ37" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_22</t>
         </is>
       </c>
-      <c r="DI37" s="4" t="inlineStr">
+      <c r="DK37" s="4" t="inlineStr">
         <is>
           <t>L_LANUV_2</t>
         </is>
       </c>
-      <c r="DJ37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL37" s="4" t="inlineStr">
         <is>
           <t/>
@@ -21876,6 +22242,16 @@
         </is>
       </c>
       <c r="DZ37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB37" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22342,39 +22718,39 @@
       </c>
       <c r="DF38" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH38" s="4" t="inlineStr">
+        <is>
           <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG38" s="4" t="inlineStr">
+      <c r="DI38" s="4" t="inlineStr">
         <is>
           <t>11.1.b</t>
         </is>
       </c>
-      <c r="DH38" s="4" t="inlineStr">
+      <c r="DJ38" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI38" s="4" t="inlineStr">
+      <c r="DK38" s="4" t="inlineStr">
         <is>
           <t>Q_BBSR</t>
         </is>
       </c>
-      <c r="DJ38" s="4" t="inlineStr">
+      <c r="DL38" s="4" t="inlineStr">
         <is>
           <t>Q_JHT</t>
         </is>
       </c>
-      <c r="DK38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -22441,6 +22817,16 @@
         </is>
       </c>
       <c r="DZ38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB38" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22913,39 +23299,39 @@
       </c>
       <c r="DF39" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH39" s="4" t="inlineStr">
+        <is>
           <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
-      <c r="DG39" s="4" t="inlineStr">
+      <c r="DI39" s="4" t="inlineStr">
         <is>
           <t>11.1.c</t>
         </is>
       </c>
-      <c r="DH39" s="4" t="inlineStr">
+      <c r="DJ39" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI39" s="4" t="inlineStr">
+      <c r="DK39" s="4" t="inlineStr">
         <is>
           <t>Q_BBSR</t>
         </is>
       </c>
-      <c r="DJ39" s="4" t="inlineStr">
+      <c r="DL39" s="4" t="inlineStr">
         <is>
           <t>Q_JHT</t>
         </is>
       </c>
-      <c r="DK39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM39" s="4" t="inlineStr">
         <is>
           <t/>
@@ -23012,6 +23398,16 @@
         </is>
       </c>
       <c r="DZ39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB39" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23484,34 +23880,34 @@
       </c>
       <c r="DF40" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH40" s="4" t="inlineStr">
+        <is>
           <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG40" s="4" t="inlineStr">
+      <c r="DI40" s="4" t="inlineStr">
         <is>
           <t>11.2.a</t>
         </is>
       </c>
-      <c r="DH40" s="4" t="inlineStr">
+      <c r="DJ40" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI40" s="4" t="inlineStr">
+      <c r="DK40" s="4" t="inlineStr">
         <is>
           <t>Q_IFEU</t>
         </is>
       </c>
-      <c r="DJ40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL40" s="4" t="inlineStr">
         <is>
           <t/>
@@ -23583,6 +23979,16 @@
         </is>
       </c>
       <c r="DZ40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB40" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24055,34 +24461,34 @@
       </c>
       <c r="DF41" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH41" s="4" t="inlineStr">
+        <is>
           <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG41" s="4" t="inlineStr">
+      <c r="DI41" s="4" t="inlineStr">
         <is>
           <t>11.2.b</t>
         </is>
       </c>
-      <c r="DH41" s="4" t="inlineStr">
+      <c r="DJ41" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI41" s="4" t="inlineStr">
+      <c r="DK41" s="4" t="inlineStr">
         <is>
           <t>Q_IFEU</t>
         </is>
       </c>
-      <c r="DJ41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL41" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24154,6 +24560,16 @@
         </is>
       </c>
       <c r="DZ41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB41" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24621,29 +25037,29 @@
       </c>
       <c r="DF42" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH42" s="4" t="inlineStr">
+        <is>
           <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
-      <c r="DG42" s="4" t="inlineStr">
+      <c r="DI42" s="4" t="inlineStr">
         <is>
           <t>11.2.c</t>
         </is>
       </c>
-      <c r="DH42" s="4" t="inlineStr">
+      <c r="DJ42" s="4" t="inlineStr">
         <is>
           <t>Q_BBSR</t>
         </is>
       </c>
-      <c r="DI42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK42" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24720,6 +25136,16 @@
         </is>
       </c>
       <c r="DZ42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB42" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25189,34 +25615,34 @@
       </c>
       <c r="DF43" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH43" s="4" t="inlineStr">
+        <is>
           <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG43" s="4" t="inlineStr">
+      <c r="DI43" s="4" t="inlineStr">
         <is>
           <t>11.3</t>
         </is>
       </c>
-      <c r="DH43" s="4" t="inlineStr">
+      <c r="DJ43" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI43" s="4" t="inlineStr">
+      <c r="DK43" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_4</t>
         </is>
       </c>
-      <c r="DJ43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25288,6 +25714,16 @@
         </is>
       </c>
       <c r="DZ43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB43" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25757,29 +26193,29 @@
       </c>
       <c r="DF44" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH44" s="4" t="inlineStr">
+        <is>
           <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG44" s="4" t="inlineStr">
+      <c r="DI44" s="4" t="inlineStr">
         <is>
           <t>11.4</t>
         </is>
       </c>
-      <c r="DH44" s="4" t="inlineStr">
+      <c r="DJ44" s="4" t="inlineStr">
         <is>
           <t>Q_BKM</t>
         </is>
       </c>
-      <c r="DI44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK44" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25856,6 +26292,16 @@
         </is>
       </c>
       <c r="DZ44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB44" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -26328,54 +26774,54 @@
       </c>
       <c r="DF45" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH45" s="4" t="inlineStr">
+        <is>
           <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG45" s="4" t="inlineStr">
+      <c r="DI45" s="4" t="inlineStr">
         <is>
           <t>12.1.a</t>
         </is>
       </c>
-      <c r="DH45" s="4" t="inlineStr">
+      <c r="DJ45" s="4" t="inlineStr">
         <is>
           <t>Q_GFK</t>
         </is>
       </c>
-      <c r="DI45" s="4" t="inlineStr">
+      <c r="DK45" s="4" t="inlineStr">
         <is>
           <t>Q_KBA</t>
         </is>
       </c>
-      <c r="DJ45" s="4" t="inlineStr">
+      <c r="DL45" s="4" t="inlineStr">
         <is>
           <t>Q_AMI</t>
         </is>
       </c>
-      <c r="DK45" s="4" t="inlineStr">
+      <c r="DM45" s="4" t="inlineStr">
         <is>
           <t>Q_BOLW</t>
         </is>
       </c>
-      <c r="DL45" s="4" t="inlineStr">
+      <c r="DN45" s="4" t="inlineStr">
         <is>
           <t>Q_VCD</t>
         </is>
       </c>
-      <c r="DM45" s="4" t="inlineStr">
+      <c r="DO45" s="4" t="inlineStr">
         <is>
           <t>L_UBA_4</t>
         </is>
       </c>
-      <c r="DN45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DO45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DP45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26427,6 +26873,16 @@
         </is>
       </c>
       <c r="DZ45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB45" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -26902,29 +27358,29 @@
       </c>
       <c r="DF46" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH46" s="4" t="inlineStr">
+        <is>
           <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG46" s="4" t="inlineStr">
+      <c r="DI46" s="4" t="inlineStr">
         <is>
           <t>12.1.b</t>
         </is>
       </c>
-      <c r="DH46" s="4" t="inlineStr">
+      <c r="DJ46" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27001,6 +27457,16 @@
         </is>
       </c>
       <c r="DZ46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB46" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27467,29 +27933,29 @@
       </c>
       <c r="DF47" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH47" s="4" t="inlineStr">
+        <is>
           <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG47" s="4" t="inlineStr">
+      <c r="DI47" s="4" t="inlineStr">
         <is>
           <t>12.2</t>
         </is>
       </c>
-      <c r="DH47" s="4" t="inlineStr">
+      <c r="DJ47" s="4" t="inlineStr">
         <is>
           <t>L_EMAS_1</t>
         </is>
       </c>
-      <c r="DI47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK47" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27566,6 +28032,16 @@
         </is>
       </c>
       <c r="DZ47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB47" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28039,44 +28515,44 @@
       </c>
       <c r="DF48" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH48" s="4" t="inlineStr">
+        <is>
           <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG48" s="4" t="inlineStr">
+      <c r="DI48" s="4" t="inlineStr">
         <is>
           <t>12.3.a,b</t>
         </is>
       </c>
-      <c r="DH48" s="4" t="inlineStr">
+      <c r="DJ48" s="4" t="inlineStr">
         <is>
           <t>Q_KNB</t>
         </is>
       </c>
-      <c r="DI48" s="4" t="inlineStr">
+      <c r="DK48" s="4" t="inlineStr">
         <is>
           <t>Q_IFEU</t>
         </is>
       </c>
-      <c r="DJ48" s="4" t="inlineStr">
+      <c r="DL48" s="4" t="inlineStr">
         <is>
           <t>Q_UBA</t>
         </is>
       </c>
-      <c r="DK48" s="4" t="inlineStr">
+      <c r="DM48" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DL48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DM48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DN48" s="4" t="inlineStr">
         <is>
           <t/>
@@ -28138,6 +28614,16 @@
         </is>
       </c>
       <c r="DZ48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB48" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28605,34 +29091,34 @@
       </c>
       <c r="DF49" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH49" s="4" t="inlineStr">
+        <is>
           <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG49" s="4" t="inlineStr">
+      <c r="DI49" s="4" t="inlineStr">
         <is>
           <t>13.1.a</t>
         </is>
       </c>
-      <c r="DH49" s="4" t="inlineStr">
+      <c r="DJ49" s="4" t="inlineStr">
         <is>
           <t>L_UBA_5</t>
         </is>
       </c>
-      <c r="DI49" s="4" t="inlineStr">
+      <c r="DK49" s="4" t="inlineStr">
         <is>
           <t>L_SP_3</t>
         </is>
       </c>
-      <c r="DJ49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -28704,6 +29190,16 @@
         </is>
       </c>
       <c r="DZ49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB49" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29170,29 +29666,29 @@
       </c>
       <c r="DF50" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH50" s="4" t="inlineStr">
+        <is>
           <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
-      <c r="DG50" s="4" t="inlineStr">
+      <c r="DI50" s="4" t="inlineStr">
         <is>
           <t>13.1.b</t>
         </is>
       </c>
-      <c r="DH50" s="4" t="inlineStr">
+      <c r="DJ50" s="4" t="inlineStr">
         <is>
           <t>L_BZM_1</t>
         </is>
       </c>
-      <c r="DI50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK50" s="4" t="inlineStr">
         <is>
           <t/>
@@ -29269,6 +29765,16 @@
         </is>
       </c>
       <c r="DZ50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB50" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -29736,29 +30242,29 @@
       </c>
       <c r="DF51" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH51" s="4" t="inlineStr">
+        <is>
           <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG51" s="4" t="inlineStr">
+      <c r="DI51" s="4" t="inlineStr">
         <is>
           <t>14.1.a</t>
         </is>
       </c>
-      <c r="DH51" s="4" t="inlineStr">
+      <c r="DJ51" s="4" t="inlineStr">
         <is>
           <t>L_UBA_6</t>
         </is>
       </c>
-      <c r="DI51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK51" s="4" t="inlineStr">
         <is>
           <t/>
@@ -29835,6 +30341,16 @@
         </is>
       </c>
       <c r="DZ51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB51" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30301,29 +30817,29 @@
       </c>
       <c r="DF52" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH52" s="4" t="inlineStr">
+        <is>
           <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="DG52" s="4" t="inlineStr">
+      <c r="DI52" s="4" t="inlineStr">
         <is>
           <t>14.1.b</t>
         </is>
       </c>
-      <c r="DH52" s="4" t="inlineStr">
+      <c r="DJ52" s="4" t="inlineStr">
         <is>
           <t>L_ERSTT_5</t>
         </is>
       </c>
-      <c r="DI52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK52" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30400,6 +30916,16 @@
         </is>
       </c>
       <c r="DZ52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB52" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30866,29 +31392,29 @@
       </c>
       <c r="DF53" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH53" s="4" t="inlineStr">
+        <is>
           <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG53" s="4" t="inlineStr">
+      <c r="DI53" s="4" t="inlineStr">
         <is>
           <t>15.1</t>
         </is>
       </c>
-      <c r="DH53" s="4" t="inlineStr">
+      <c r="DJ53" s="4" t="inlineStr">
         <is>
           <t>Q_BFN</t>
         </is>
       </c>
-      <c r="DI53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK53" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30965,6 +31491,16 @@
         </is>
       </c>
       <c r="DZ53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB53" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -31431,29 +31967,29 @@
       </c>
       <c r="DF54" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH54" s="4" t="inlineStr">
+        <is>
           <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG54" s="4" t="inlineStr">
+      <c r="DI54" s="4" t="inlineStr">
         <is>
           <t>15.2</t>
         </is>
       </c>
-      <c r="DH54" s="4" t="inlineStr">
+      <c r="DJ54" s="4" t="inlineStr">
         <is>
           <t>L_UBA_7</t>
         </is>
       </c>
-      <c r="DI54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK54" s="4" t="inlineStr">
         <is>
           <t/>
@@ -31530,6 +32066,16 @@
         </is>
       </c>
       <c r="DZ54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB54" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -31999,34 +32545,34 @@
       </c>
       <c r="DF55" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH55" s="4" t="inlineStr">
+        <is>
           <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
-      <c r="DG55" s="4" t="inlineStr">
+      <c r="DI55" s="4" t="inlineStr">
         <is>
           <t>15.3.a,b</t>
         </is>
       </c>
-      <c r="DH55" s="4" t="inlineStr">
+      <c r="DJ55" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI55" s="4" t="inlineStr">
+      <c r="DK55" s="4" t="inlineStr">
         <is>
           <t>Q_BMZ</t>
         </is>
       </c>
-      <c r="DJ55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL55" s="4" t="inlineStr">
         <is>
           <t/>
@@ -32098,6 +32644,16 @@
         </is>
       </c>
       <c r="DZ55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB55" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -32564,34 +33120,34 @@
       </c>
       <c r="DF56" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH56" s="4" t="inlineStr">
+        <is>
           <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG56" s="4" t="inlineStr">
+      <c r="DI56" s="4" t="inlineStr">
         <is>
           <t>16.1</t>
         </is>
       </c>
-      <c r="DH56" s="4" t="inlineStr">
+      <c r="DJ56" s="4" t="inlineStr">
         <is>
           <t>L_BKA_1</t>
         </is>
       </c>
-      <c r="DI56" s="4" t="inlineStr">
+      <c r="DK56" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DJ56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL56" s="4" t="inlineStr">
         <is>
           <t/>
@@ -32663,6 +33219,16 @@
         </is>
       </c>
       <c r="DZ56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB56" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -33129,29 +33695,29 @@
       </c>
       <c r="DF57" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH57" s="4" t="inlineStr">
+        <is>
           <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG57" s="4" t="inlineStr">
+      <c r="DI57" s="4" t="inlineStr">
         <is>
           <t>16.2</t>
         </is>
       </c>
-      <c r="DH57" s="4" t="inlineStr">
+      <c r="DJ57" s="4" t="inlineStr">
         <is>
           <t>Q_AA</t>
         </is>
       </c>
-      <c r="DI57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK57" s="4" t="inlineStr">
         <is>
           <t/>
@@ -33228,6 +33794,16 @@
         </is>
       </c>
       <c r="DZ57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB57" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -33694,34 +34270,34 @@
       </c>
       <c r="DF58" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH58" s="4" t="inlineStr">
+        <is>
           <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG58" s="4" t="inlineStr">
+      <c r="DI58" s="4" t="inlineStr">
         <is>
           <t>16.3.a,b</t>
         </is>
       </c>
-      <c r="DH58" s="4" t="inlineStr">
+      <c r="DJ58" s="4" t="inlineStr">
         <is>
           <t>L_TI_1</t>
         </is>
       </c>
-      <c r="DI58" s="4" t="inlineStr">
+      <c r="DK58" s="4" t="inlineStr">
         <is>
           <t>Q_BMZ</t>
         </is>
       </c>
-      <c r="DJ58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DK58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DL58" s="4" t="inlineStr">
         <is>
           <t/>
@@ -33793,6 +34369,16 @@
         </is>
       </c>
       <c r="DZ58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB58" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -34267,39 +34853,39 @@
       </c>
       <c r="DF59" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH59" s="4" t="inlineStr">
+        <is>
           <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG59" s="4" t="inlineStr">
+      <c r="DI59" s="4" t="inlineStr">
         <is>
           <t>17.1</t>
         </is>
       </c>
-      <c r="DH59" s="4" t="inlineStr">
+      <c r="DJ59" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_17</t>
         </is>
       </c>
-      <c r="DI59" s="4" t="inlineStr">
+      <c r="DK59" s="4" t="inlineStr">
         <is>
           <t>L_BMZ_1</t>
         </is>
       </c>
-      <c r="DJ59" s="4" t="inlineStr">
+      <c r="DL59" s="4" t="inlineStr">
         <is>
           <t>L_OECD_1</t>
         </is>
       </c>
-      <c r="DK59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DL59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DM59" s="4" t="inlineStr">
         <is>
           <t/>
@@ -34366,6 +34952,16 @@
         </is>
       </c>
       <c r="DZ59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB59" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -34836,29 +35432,29 @@
       </c>
       <c r="DF60" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH60" s="4" t="inlineStr">
+        <is>
           <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG60" s="4" t="inlineStr">
+      <c r="DI60" s="4" t="inlineStr">
         <is>
           <t>17.2</t>
         </is>
       </c>
-      <c r="DH60" s="4" t="inlineStr">
+      <c r="DJ60" s="4" t="inlineStr">
         <is>
           <t>Q_DESTATIS</t>
         </is>
       </c>
-      <c r="DI60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK60" s="4" t="inlineStr">
         <is>
           <t/>
@@ -34935,6 +35531,16 @@
         </is>
       </c>
       <c r="DZ60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB60" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -35413,29 +36019,29 @@
       </c>
       <c r="DF61" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DG61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="DH61" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="DG61" s="4" t="inlineStr">
+      <c r="DI61" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="DH61" s="4" t="inlineStr">
+      <c r="DJ61" s="4" t="inlineStr">
         <is>
           <t>L_DSTTS_18</t>
         </is>
       </c>
-      <c r="DI61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="DJ61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="DK61" s="4" t="inlineStr">
         <is>
           <t/>
@@ -35512,6 +36118,16 @@
         </is>
       </c>
       <c r="DZ61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EA61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="EB61" s="4" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -1696,12 +1696,12 @@
       </c>
       <c r="BR2" s="6" t="inlineStr">
         <is>
-          <t>2021 vorläufige Daten.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.&lt;br&gt;Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
+          <t>2021 vorläufige Daten.&lt;br&gt;Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
         </is>
       </c>
       <c r="BS2" s="6" t="inlineStr">
         <is>
-          <t>2021 preliminary data.&lt;br&gt;Data based on a special evaluation. &lt;br&gt;
+          <t>2021 preliminary data.&lt;br&gt;
 The results from 2020 onwards are only comparable with previous years to a limited extent. &lt;br&gt;
 EU: Data estimated.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
         </is>
@@ -1807,6 +1807,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CU2" s="8">
+        <v>2020</v>
       </c>
       <c r="CV2" s="4" t="inlineStr">
         <is>
@@ -5056,12 +5059,12 @@
       </c>
       <c r="AT8" s="4" t="inlineStr">
         <is>
-          <t>Anteil der 3- bis 10- Jährigen und 11- bis 17-Jährigen mit Übergewicht und Adipositas</t>
+          <t>Übergewicht und Adipositas</t>
         </is>
       </c>
       <c r="AU8" s="4" t="inlineStr">
         <is>
-          <t>Overweight and obese 3 to 10-year-olds and 11 to 17-year-olds</t>
+          <t>Overweight and obese</t>
         </is>
       </c>
       <c r="AV8" s="4" t="inlineStr">
@@ -5634,12 +5637,12 @@
       </c>
       <c r="AT9" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Erwachsenen mit Adipositas</t>
+          <t>Erwachsene mit Adipositas</t>
         </is>
       </c>
       <c r="AU9" s="4" t="inlineStr">
         <is>
-          <t>Share of adults suffering from obesity</t>
+          <t>Adults suffering from obesity</t>
         </is>
       </c>
       <c r="AV9" s="4" t="inlineStr">
@@ -7949,12 +7952,12 @@
       </c>
       <c r="AT13" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger (18- bis 24-Jährige)</t>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
       <c r="AU13" s="4" t="inlineStr">
         <is>
-          <t>Early school  leavers (ages 18 to 24)</t>
+          <t>Early school  leavers</t>
         </is>
       </c>
       <c r="AV13" s="4" t="inlineStr">
@@ -8067,12 +8070,12 @@
       </c>
       <c r="BR13" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Anpassung des Zieljahres und –wertes von 10 % bis 2020 auf 9,5 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS13" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Adjustment of the target year and value from 10% by 2020 to 9.5% by 2030 in accordance with the German Sustainability Strategy 2021.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT13" s="4" t="inlineStr">
@@ -8082,12 +8085,12 @@
       </c>
       <c r="BU13" s="6" t="inlineStr">
         <is>
-          <t>Anpassung des Zieljahres und –wertes von 10 % bis 2020 auf 9,5 % bis 2030 gemäß Deutscher Nachhaltigkeitsstrategie 2021.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BV13" s="6" t="inlineStr">
         <is>
-          <t>Adjustment of the target year and value from 10% by 2020 to 9.5% by 2030 in accordance with the German Sustainability Strategy 2021.&lt;br&gt;Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BW13" s="4" t="inlineStr">
@@ -8528,12 +8531,12 @@
       </c>
       <c r="AT14" s="4" t="inlineStr">
         <is>
-          <t>30- bis 34-jährige akademisch Qualifizierte oder beruflich Höherqualifizierte</t>
+          <t>Akademisch Qualifizierte oder beruflich Höherqualifizierte</t>
         </is>
       </c>
       <c r="AU14" s="4" t="inlineStr">
         <is>
-          <t>30 to 34-year-olds with a tertiary or other post-secondary academic or vocational qualification</t>
+          <t>Tertiary or other post-secondary academically or vocational qualified persons</t>
         </is>
       </c>
       <c r="AV14" s="4" t="inlineStr">
@@ -9090,7 +9093,7 @@
       </c>
       <c r="AJ15" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I02</t>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AL15" s="8">
@@ -9102,7 +9105,7 @@
         </is>
       </c>
       <c r="AO15" s="8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AP15" s="4" t="inlineStr">
         <is>
@@ -9171,32 +9174,32 @@
       </c>
       <c r="BE15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="BF15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="BG15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>0 to 2-year-old children</t>
         </is>
       </c>
       <c r="BH15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="BI15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="BJ15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>3 to 5-year-old children</t>
         </is>
       </c>
       <c r="BK15" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -686,7 +686,7 @@
     <col customWidth="true" min="96" max="96" width="36.62109375"/>
     <col customWidth="true" min="97" max="97" width="24.31640625"/>
     <col customWidth="true" min="98" max="98" width="32.51953125"/>
-    <col customWidth="true" min="99" max="99" width="20.21484375"/>
+    <col customWidth="true" min="99" max="99" width="30.61328125"/>
     <col customWidth="true" min="100" max="100" width="35.0078125"/>
     <col customWidth="true" min="101" max="101" width="34.71484375"/>
     <col customWidth="true" min="102" max="102" width="32.51953125"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="BH1" s="2" t="inlineStr">
         <is>
-          <t>Untertitel 2  Spezifikation</t>
+          <t>Untertitel 2 Spezifikation</t>
         </is>
       </c>
       <c r="BI1" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="BK1" s="2" t="inlineStr">
         <is>
-          <t>Untertitel 3  Spezifikation</t>
+          <t>Untertitel 3 Spezifikation</t>
         </is>
       </c>
       <c r="BL1" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="BN1" s="2" t="inlineStr">
         <is>
-          <t>Untertitel 4  Spezifikation</t>
+          <t>Untertitel 4 Spezifikation</t>
         </is>
       </c>
       <c r="BO1" s="2" t="inlineStr">
@@ -9097,7 +9097,7 @@
         </is>
       </c>
       <c r="AL15" s="8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM15" s="4" t="inlineStr">
         <is>
@@ -9757,12 +9757,12 @@
       </c>
       <c r="BF16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>In Prozent der Verdienste der Männer</t>
         </is>
       </c>
       <c r="BG16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As share of the men's earnings</t>
         </is>
       </c>
       <c r="BH16" s="4" t="inlineStr">
@@ -10258,6 +10258,9 @@
           <t/>
         </is>
       </c>
+      <c r="AL17" s="8">
+        <v>50</v>
+      </c>
       <c r="AM17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11084,6 +11087,9 @@
           <t/>
         </is>
       </c>
+      <c r="CU18" s="8">
+        <v>2016</v>
+      </c>
       <c r="CV18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13143,7 +13149,7 @@
       </c>
       <c r="AI22" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="AJ22" s="4" t="inlineStr">
@@ -13769,12 +13775,12 @@
       </c>
       <c r="AT23" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität und Primärenergieverbrauch</t>
+          <t/>
         </is>
       </c>
       <c r="AU23" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity and primary energy consumption</t>
+          <t/>
         </is>
       </c>
       <c r="AV23" s="4" t="inlineStr">
@@ -14539,6 +14545,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF24" s="5">
+        <v>1</v>
+      </c>
       <c r="CG24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14991,12 +15000,12 @@
       </c>
       <c r="BF25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="BG25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As a share of gross electricity consumption</t>
         </is>
       </c>
       <c r="BH25" s="4" t="inlineStr">
@@ -15133,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="CL25" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM25" s="7" t="b">
         <v>0</v>
@@ -15627,15 +15636,13 @@
       </c>
       <c r="BR26" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich rund 1,6 % Steigerung pro Jahr aufwies.&lt;br&gt;
-2001 bis 2007 interpolierte Daten.</t>
+          <t>Das Ziel entspricht einer Beibehaltung des Trends der Jahre 2000 - 2010, welcher durchschnittlich rund 1,6 % Steigerung pro Jahr aufwies.&lt;br&gt;2001 bis 2007 interpolierte Daten.</t>
         </is>
       </c>
       <c r="BS26" s="6" t="inlineStr">
         <is>
           <t>The target represents a continuation of the trend in the period from 2000 to 2010, when the average 
-annual increase amounted to about 1.6%.&lt;br&gt;
-2001 to 2007 interpolated data.</t>
+annual increase amounted to about 1.6%.&lt;br&gt;2001 to 2007 interpolated data.</t>
         </is>
       </c>
       <c r="BT26" s="4" t="inlineStr">
@@ -16071,10 +16078,10 @@
         </is>
       </c>
       <c r="AK27" s="8">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AL27" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM27" s="4" t="inlineStr">
         <is>
@@ -16625,7 +16632,7 @@
         </is>
       </c>
       <c r="AD28" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="4" t="inlineStr">
         <is>
@@ -17951,12 +17958,12 @@
       </c>
       <c r="BR30" s="6" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, Referenzjahr 2015. 2019 und 2020 vorläufige Daten.</t>
+          <t>Vorjahrespreise verkettet, Referenzjahr 2015.&lt;br&gt;2019 und 2020 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS30" s="6" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, reference year 2015. Provisional data for 2019 and 2020.</t>
+          <t>Previous years’ prices chain-linked, reference year 2015.&lt;br&gt;Provisional data for 2019 and 2020.</t>
         </is>
       </c>
       <c r="BT30" s="4" t="inlineStr">
@@ -18018,6 +18025,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF30" s="5">
+        <v>1</v>
       </c>
       <c r="CG30" s="4" t="inlineStr">
         <is>
@@ -18606,6 +18616,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF31" s="5">
+        <v>1</v>
+      </c>
       <c r="CG31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -18623,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="CM31" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN31" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -20928,6 +20928,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF35" s="5">
+        <v>1</v>
+      </c>
       <c r="CG35" s="4" t="inlineStr">
         <is>
           <t/>
@@ -21502,6 +21505,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF36" s="5">
+        <v>3</v>
       </c>
       <c r="CG36" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -21873,7 +21873,7 @@
       </c>
       <c r="AI37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="AJ37" s="4" t="inlineStr">
@@ -22083,6 +22083,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF37" s="5">
+        <v>0</v>
       </c>
       <c r="CG37" s="4" t="inlineStr">
         <is>
@@ -22659,6 +22662,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF38" s="5">
+        <v>1</v>
+      </c>
       <c r="CG38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -23240,6 +23246,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF39" s="5">
+        <v>1</v>
+      </c>
       <c r="CG39" s="4" t="inlineStr">
         <is>
           <t/>
@@ -23821,6 +23830,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF40" s="5">
+        <v>0</v>
+      </c>
       <c r="CG40" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24402,6 +24414,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF41" s="5">
+        <v>0</v>
+      </c>
       <c r="CG41" s="4" t="inlineStr">
         <is>
           <t/>
@@ -24978,6 +24993,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF42" s="5">
+        <v>1</v>
+      </c>
       <c r="CG42" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25553,6 +25571,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF43" s="5">
+        <v>1</v>
+      </c>
       <c r="CG43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26715,6 +26736,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF45" s="5">
+        <v>1</v>
+      </c>
       <c r="CG45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27296,6 +27320,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF46" s="5">
+        <v>1</v>
+      </c>
       <c r="CG46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27874,6 +27901,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF47" s="5">
+        <v>0</v>
+      </c>
       <c r="CG47" s="4" t="inlineStr">
         <is>
           <t/>
@@ -28455,6 +28485,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF48" s="5">
+        <v>0</v>
       </c>
       <c r="CG48" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -27189,47 +27189,47 @@
       </c>
       <c r="BE46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="BF46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="BG46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Use of raw materials</t>
         </is>
       </c>
       <c r="BH46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="BI46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Energieverbrauch</t>
         </is>
       </c>
       <c r="BJ46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Energy consumption</t>
         </is>
       </c>
       <c r="BK46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="BL46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>CO2-Emissionen</t>
         </is>
       </c>
       <c r="BM46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>CO2 emissions</t>
         </is>
       </c>
       <c r="BN46" s="4" t="inlineStr">
@@ -27252,12 +27252,12 @@
       </c>
       <c r="BR46" s="6" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS46" s="6" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2020 are only comparable with previous years to a limited extent. &lt;br&gt;Provisional data for 2021.</t>
+          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT46" s="4" t="inlineStr">
@@ -27340,7 +27340,7 @@
         <v>1</v>
       </c>
       <c r="CM46" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN46" s="4" t="inlineStr">
         <is>
@@ -27357,13 +27357,13 @@
           <t/>
         </is>
       </c>
-      <c r="CS46" s="8">
+      <c r="CT46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CU46" s="8">
         <v>2016</v>
-      </c>
-      <c r="CT46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
       </c>
       <c r="CV46" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -27921,7 +27921,7 @@
         <v>1</v>
       </c>
       <c r="CM47" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN47" s="4" t="inlineStr">
         <is>
@@ -28353,32 +28353,32 @@
       </c>
       <c r="BE48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="BF48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Papierverbrauch</t>
         </is>
       </c>
       <c r="BG48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Paper consumption</t>
         </is>
       </c>
       <c r="BH48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="BI48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>CO2-Emissionen</t>
         </is>
       </c>
       <c r="BJ48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>CO2 emissions</t>
         </is>
       </c>
       <c r="BK48" s="4" t="inlineStr">
@@ -28416,44 +28416,42 @@
       </c>
       <c r="BR48" s="6" t="inlineStr">
         <is>
-          <t>Recycling- und Gesamtpapierverbrauch: 2020 vorläufige Daten.&lt;br&gt;Methodischer Bruch (CO&amp;#8322;-Emissionen: 2017; Papierverbrauch: 2018) - Daten sind nur eingeschränkt vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS48" s="6" t="inlineStr">
         <is>
-          <t>Recycled and total paper use: 2020 provisional data.&lt;br&gt;
-Change in methodology (CO&amp;#8322; emissions: 2017; paper use: 2018) – data not directly comparable.&lt;br&gt;
-Data based on a special evaluation.</t>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="BU48" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2017 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2020 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BV48" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2017 are only comparable with previous years to a limited extent.&lt;br&gt;2020 provisional data.</t>
         </is>
       </c>
       <c r="BW48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="BX48" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2018 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
         </is>
       </c>
       <c r="BY48" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2018 are only comparable with previous years to a limited extent.</t>
         </is>
       </c>
       <c r="BZ48" s="4" t="inlineStr">
@@ -28506,7 +28504,7 @@
         <v>1</v>
       </c>
       <c r="CM48" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN48" s="4" t="inlineStr">
         <is>
@@ -28525,8 +28523,11 @@
       </c>
       <c r="CT48" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z12_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="CU48" s="8">
+        <v>2017</v>
       </c>
       <c r="CV48" s="4" t="inlineStr">
         <is>
@@ -28540,8 +28541,11 @@
       </c>
       <c r="CX48" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z12_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="CY48" s="9">
+        <v>2018</v>
       </c>
       <c r="CZ48" s="4" t="inlineStr">
         <is>
@@ -29065,6 +29069,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF49" s="5">
+        <v>1</v>
+      </c>
       <c r="CG49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -29640,6 +29647,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF50" s="5">
+        <v>2</v>
+      </c>
       <c r="CG50" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30216,6 +30226,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF51" s="5">
+        <v>1</v>
+      </c>
       <c r="CG51" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30565,7 +30578,7 @@
       </c>
       <c r="AF52" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AG52" s="4" t="inlineStr">
@@ -30791,6 +30804,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF52" s="5">
+        <v>1</v>
+      </c>
       <c r="CG52" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30808,7 +30824,7 @@
         <v>1</v>
       </c>
       <c r="CM52" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN52" s="4" t="inlineStr">
         <is>
@@ -31140,7 +31156,7 @@
       </c>
       <c r="AF53" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AG53" s="4" t="inlineStr">
@@ -31365,6 +31381,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF53" s="5">
+        <v>1</v>
       </c>
       <c r="CG53" s="4" t="inlineStr">
         <is>
@@ -31815,12 +31834,12 @@
       </c>
       <c r="BF54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der bewerteten Fläche empfindlicher Ökosysteme</t>
         </is>
       </c>
       <c r="BG54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Proportion of sensitive ecosystems</t>
         </is>
       </c>
       <c r="BH54" s="4" t="inlineStr">
@@ -31940,6 +31959,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF54" s="5">
+        <v>1</v>
       </c>
       <c r="CG54" s="4" t="inlineStr">
         <is>
@@ -32325,32 +32347,32 @@
       </c>
       <c r="AS55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="AT55" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk sowie Bruttoentwicklungsausgaben für internationalen Bodenschutz</t>
+          <t>Zahlungen an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="AU55" s="4" t="inlineStr">
         <is>
-          <t>Payments to developing and emerging countries for the verified preservation and/or restoration of forests under the REDD+ rulebook and gross development assistance for international soil protection</t>
+          <t>Payments to developing and emerging countries for the verified preservation and/or restoration of forests under the REDD+ rulebook</t>
         </is>
       </c>
       <c r="AV55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="AW55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruttoentwicklungsausgaben für internationalen Bodenschutz</t>
         </is>
       </c>
       <c r="AX55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross development assistance for international soil protection</t>
         </is>
       </c>
       <c r="AY55" s="4" t="inlineStr">
@@ -32448,27 +32470,27 @@
       </c>
       <c r="BR55" s="6" t="inlineStr">
         <is>
-          <t>Finanzierungsbeiträge vor 2013 sind in Antizipierung des REDD+-Regelwerks erfolgt. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS55" s="6" t="inlineStr">
         <is>
-          <t>Financial contributions before 2013 were made in anticipation of the REDD+ rulebook. Data based on a special evaluation.</t>
+          <t>Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="BU55" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Finanzierungsbeiträge vor 2013 sind in Antizipierung des REDD+-Regelwerks erfolgt.</t>
         </is>
       </c>
       <c r="BV55" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Financial contributions before 2013 were made in anticipation of the REDD+ rulebook.</t>
         </is>
       </c>
       <c r="BW55" s="4" t="inlineStr">
@@ -32513,7 +32535,7 @@
       </c>
       <c r="CE55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="CF55" s="5">
@@ -32521,8 +32543,11 @@
       </c>
       <c r="CG55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z15_B02_P02_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="CH55" s="5">
+        <v>0</v>
       </c>
       <c r="CI55" s="4" t="inlineStr">
         <is>
@@ -32536,7 +32561,7 @@
         <v>1</v>
       </c>
       <c r="CM55" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN55" s="4" t="inlineStr">
         <is>
@@ -32883,7 +32908,7 @@
       </c>
       <c r="AI56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="AJ56" s="4" t="inlineStr">
@@ -33094,6 +33119,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF56" s="5">
+        <v>0</v>
+      </c>
       <c r="CG56" s="4" t="inlineStr">
         <is>
           <t/>
@@ -33111,7 +33139,7 @@
         <v>1</v>
       </c>
       <c r="CM56" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN56" s="4" t="inlineStr">
         <is>
@@ -33483,12 +33511,12 @@
       </c>
       <c r="AT57" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen</t>
         </is>
       </c>
       <c r="AU57" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons in affected regions of the world</t>
         </is>
       </c>
       <c r="AV57" s="4" t="inlineStr">
@@ -33656,12 +33684,12 @@
       </c>
       <c r="CC57" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="CD57" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="CE57" s="4" t="inlineStr">
@@ -35336,14 +35364,12 @@
       </c>
       <c r="BR60" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung der Anzahl an Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.
-LDCs (Least Developed Countries): am wenigsten entwickelte Länder. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Das Ziel entspricht einer Steigerung der Anzahl an Studierenden und Forschenden um 10 % gegenüber 2015 in 2020.&lt;br&gt;LDCs (Least Developed Countries): am wenigsten entwickelte Länder.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS60" s="6" t="inlineStr">
         <is>
-          <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.
-LDCs: least developed countries. Data based on a special evaluation.</t>
+          <t>The target for 2020 corresponds to a 10% increase in the number of students and researchers compared to 2015.&lt;br&gt;LDCs: least developed countries.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT60" s="4" t="inlineStr">
@@ -35405,6 +35431,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CF60" s="5">
+        <v>0</v>
       </c>
       <c r="CG60" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -611,7 +611,7 @@
     <col customWidth="true" min="21" max="21" width="24.31640625"/>
     <col customWidth="true" min="22" max="22" width="29.8828125"/>
     <col customWidth="true" min="23" max="23" width="13.8359375"/>
-    <col customWidth="true" min="24" max="24" width="14.20703125"/>
+    <col customWidth="true" min="24" max="24" width="36.03515625"/>
     <col customWidth="true" min="25" max="25" width="13.8359375"/>
     <col customWidth="true" min="26" max="26" width="13.8359375"/>
     <col customWidth="true" min="27" max="27" width="13.8359375"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="V2" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator „materielle Deprivation“ ist auch Teil der ausführlichen Armuts- und Reichtumsberichterstattung der Bundesregierung. Durch die Identifikation individueller Mangelsituationen soll er zur Abbildung armutsgefährdeter Lebenslagen dienen. Ziel der Bekämpfung „materieller Deprivation“ ist es, dass der Prozentsatz der Personen, die materiell depriviert bzw. erheblich materiell depriviert sind, jeweils unter dem Niveau der Europäischen Union liegt.</t>
+          <t>Der Indikator „materielle Deprivation“ ist auch Teil der ausführlichen Armuts- und Reichtumsberichterstattung der Bundesregierung. Durch die Identifikation individueller Mangelsituationen soll er zur Abbildung armutsgefährdeter Lebenslagen dienen. Ziel der Bekämpfung „materieller Deprivation“ ist es, dass der Prozentsatz der Personen, die materiell depriviert bzw. erheblich materiell depriviert sind, jeweils &lt;b&gt;unter dem Niveau der Europäischen Union&lt;/b&gt; liegt.</t>
         </is>
       </c>
       <c r="W2" s="6" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="V3" s="6" t="inlineStr">
         <is>
-          <t>Im Übermaß in die Umwelt eingetragener Stickstoff führt zur Belastung von Grund- und Oberflächenwasser, zur Überversorgung von Binnengewässern, Meeren und Landökosystemen mit Nährstoffen (Eutrophierung), zur Entstehung von Treibhausgasen und versauernden Luftschadstoffen mit negativen Folgen für Klima, Artenvielfalt und Landschaftsqualität. Für den Zeitraum 2028 bis 2032 soll im Mittel eine Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche pro Jahr erreicht werden.</t>
+          <t>Im Übermaß in die Umwelt eingetragener Stickstoff führt zur Belastung von Grund- und Oberflächenwasser, zur Überversorgung von Binnengewässern, Meeren und Landökosystemen mit Nährstoffen (Eutrophierung), zur Entstehung von Treibhausgasen und versauernden Luftschadstoffen mit negativen Folgen für Klima, Artenvielfalt und Landschaftsqualität. Für den Zeitraum &lt;b&gt;2028 bis 2032&lt;/b&gt; soll im Mittel eine Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf &lt;b&gt;70 Kilogramm je Hektar&lt;/b&gt; landwirtschaftlich genutzter Fläche pro Jahr erreicht werden.</t>
         </is>
       </c>
       <c r="W3" s="6" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="V4" s="6" t="inlineStr">
         <is>
-          <t>Ökologischer Landbau erhält und schont die natürlichen Ressourcen in besonderem Maße, hat vielfältige positive Auswirkungen auf Natur, Klima und Umwelt und dient der Erzeugung qualitativ hochwertiger Lebensmittel. Deshalb soll bis zum Jahr 2030 der Anteil landwirtschaftlicher Flächen unter ökologischer Bewirtschaftung 20 % betragen.&lt;br&gt;</t>
+          <t>Ökologischer Landbau erhält und schont die natürlichen Ressourcen in besonderem Maße, hat vielfältige positive Auswirkungen auf Natur, Klima und Umwelt und dient der Erzeugung qualitativ hochwertiger Lebensmittel. Deshalb soll bis zum Jahr &lt;b&gt;2030&lt;/b&gt; der Anteil landwirtschaftlicher Flächen unter ökologischer Bewirtschaftung &lt;b&gt;20 %&lt;/b&gt; betragen.</t>
         </is>
       </c>
       <c r="W4" s="6" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="V5" s="6" t="inlineStr">
         <is>
-          <t>Dem Indikator liegt die Annahme zugrunde, dass durch die Förderung der Anwendung internationaler Leitlinien und Empfehlungen im Bereich Ernährungssicherung die Ernährungssituation verbessert und somit ein wichtiger Beitrag zur Erfüllung von SDG 2 und zur Verwirklichung des Rechts auf Nahrung geleistet werden kann.&lt;br&gt;Der Indikator misst den deutschen Beitrag zur Stärkung guter Regierungsführung im Kontext von Ernährungssicherung. Der Anteil der ausgezahlten Mittel für Ernährungssicherung, der für Governance eingesetzt wird, soll bis 2030 angemessen steigen.&lt;br&gt;</t>
+          <t>Dem Indikator liegt die Annahme zugrunde, dass durch die Förderung der Anwendung internationaler Leitlinien und Empfehlungen im Bereich Ernährungssicherung die Ernährungssituation verbessert und somit ein wichtiger Beitrag zur Erfüllung von SDG 2 und zur Verwirklichung des Rechts auf Nahrung geleistet werden kann.&lt;br&gt;Der Indikator misst den deutschen Beitrag zur Stärkung guter Regierungsführung im Kontext von Ernährungssicherung. Der Anteil der ausgezahlten Mittel für Ernährungssicherung, der für Governance eingesetzt wird, soll bis &lt;b&gt;2030 angemessen steigen&lt;/b&gt;.</t>
         </is>
       </c>
       <c r="W5" s="6" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="V6" s="6" t="inlineStr">
         <is>
-          <t>Bis zum Jahr 2030 soll die vorzeitige Sterblichkeit bei Frauen bei höchstens 100 und bei Männern bei höchstens 190 Todesfällen je 100 000 Einwohnerinnen und Einwohner liegen.</t>
+          <t>Bis zum Jahr &lt;b&gt;2030&lt;/b&gt; soll die vorzeitige Sterblichkeit bei Frauen bei höchstens &lt;b&gt;100&lt;/b&gt; und bei Männern bei höchstens &lt;b&gt;190 Todesfällen je 100 000 Einwohnerinnen und Einwohner&lt;/b&gt; liegen.</t>
         </is>
       </c>
       <c r="W6" s="6" t="inlineStr">
@@ -18052,6 +18052,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CO30" s="8">
+        <v>5</v>
       </c>
       <c r="CP30" s="4" t="inlineStr">
         <is>
@@ -18643,6 +18646,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO31" s="8">
+        <v>10</v>
+      </c>
       <c r="CP31" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19778,6 +19784,9 @@
           <t/>
         </is>
       </c>
+      <c r="CF33" s="5">
+        <v>2</v>
+      </c>
       <c r="CG33" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19801,6 +19810,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CO33" s="8">
+        <v>0.5</v>
       </c>
       <c r="CP33" s="4" t="inlineStr">
         <is>
@@ -20955,6 +20967,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO35" s="8">
+        <v>10</v>
+      </c>
       <c r="CP35" s="4" t="inlineStr">
         <is>
           <t/>
@@ -21533,6 +21548,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO36" s="8">
+        <v>0.05</v>
+      </c>
       <c r="CP36" s="4" t="inlineStr">
         <is>
           <t/>
@@ -22689,6 +22707,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO38" s="8">
+        <v>1</v>
+      </c>
       <c r="CP38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -23273,6 +23294,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO39" s="8">
+        <v>5</v>
+      </c>
       <c r="CP39" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25020,6 +25044,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO42" s="8">
+        <v>5</v>
+      </c>
       <c r="CP42" s="4" t="inlineStr">
         <is>
           <t/>
@@ -25598,6 +25625,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO43" s="8">
+        <v>2</v>
+      </c>
       <c r="CP43" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26763,6 +26793,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO45" s="8">
+        <v>5</v>
+      </c>
       <c r="CP45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27347,6 +27380,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO46" s="8">
+        <v>5</v>
+      </c>
       <c r="CP46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27359,7 +27395,7 @@
       </c>
       <c r="CT46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="CU46" s="8">
@@ -27377,8 +27413,11 @@
       </c>
       <c r="CX46" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z12_B01_P01_Ib02_I02</t>
+        </is>
+      </c>
+      <c r="CY46" s="9">
+        <v>2016</v>
       </c>
       <c r="CZ46" s="4" t="inlineStr">
         <is>
@@ -27392,8 +27431,11 @@
       </c>
       <c r="DB46" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z12_B01_P01_Ib02_I03</t>
+        </is>
+      </c>
+      <c r="DC46" s="9">
+        <v>2016</v>
       </c>
       <c r="DD46" s="4" t="inlineStr">
         <is>
@@ -29096,6 +29138,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO49" s="8">
+        <v>10</v>
+      </c>
       <c r="CP49" s="4" t="inlineStr">
         <is>
           <t/>
@@ -29674,6 +29719,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO50" s="8">
+        <v>1</v>
+      </c>
       <c r="CP50" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30253,6 +30301,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO51" s="8">
+        <v>0.5</v>
+      </c>
       <c r="CP51" s="4" t="inlineStr">
         <is>
           <t/>
@@ -30831,6 +30882,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO52" s="8">
+        <v>10</v>
+      </c>
       <c r="CP52" s="4" t="inlineStr">
         <is>
           <t/>
@@ -31409,6 +31463,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO53" s="8">
+        <v>10</v>
+      </c>
       <c r="CP53" s="4" t="inlineStr">
         <is>
           <t/>
@@ -31987,6 +32044,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO54" s="8">
+        <v>10</v>
+      </c>
       <c r="CP54" s="4" t="inlineStr">
         <is>
           <t/>
@@ -32565,13 +32625,19 @@
       </c>
       <c r="CN55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z15_B02_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="CO55" s="8">
+        <v>10</v>
       </c>
       <c r="CP55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z15_B02_P02_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="CQ55" s="8">
+        <v>100</v>
       </c>
       <c r="CR55" s="4" t="inlineStr">
         <is>
@@ -33139,7 +33205,7 @@
         <v>1</v>
       </c>
       <c r="CM56" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN56" s="4" t="inlineStr">
         <is>
@@ -34875,6 +34941,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CO59" s="8">
+        <v>0.1</v>
       </c>
       <c r="CP59" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -1793,6 +1793,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO2" s="8">
+        <v>2</v>
+      </c>
       <c r="CP2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2374,6 +2377,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO3" s="8">
+        <v>20</v>
+      </c>
       <c r="CP3" s="4" t="inlineStr">
         <is>
           <t/>
@@ -2955,6 +2961,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO4" s="8">
+        <v>5</v>
+      </c>
       <c r="CP4" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4116,6 +4125,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO6" s="8">
+        <v>50</v>
+      </c>
       <c r="CP6" s="4" t="inlineStr">
         <is>
           <t/>
@@ -4694,6 +4706,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO7" s="8">
+        <v>5</v>
+      </c>
       <c r="CP7" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5272,6 +5287,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO8" s="8">
+        <v>2</v>
+      </c>
       <c r="CP8" s="4" t="inlineStr">
         <is>
           <t/>
@@ -5850,6 +5868,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO9" s="8">
+        <v>2</v>
+      </c>
       <c r="CP9" s="4" t="inlineStr">
         <is>
           <t/>
@@ -6428,6 +6449,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO10" s="8">
+        <v>10</v>
+      </c>
       <c r="CP10" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7009,6 +7033,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO11" s="8">
+        <v>5</v>
+      </c>
       <c r="CP11" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7587,6 +7614,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO12" s="8">
+        <v>100</v>
+      </c>
       <c r="CP12" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8165,6 +8195,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO13" s="8">
+        <v>2</v>
+      </c>
       <c r="CP13" s="4" t="inlineStr">
         <is>
           <t/>
@@ -8744,6 +8777,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO14" s="8">
+        <v>10</v>
+      </c>
       <c r="CP14" s="4" t="inlineStr">
         <is>
           <t/>
@@ -9332,6 +9368,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO15" s="8">
+        <v>10</v>
+      </c>
       <c r="CP15" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10491,6 +10530,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO17" s="8">
+        <v>5</v>
+      </c>
       <c r="CP17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11072,6 +11114,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO18" s="8">
+        <v>10</v>
+      </c>
       <c r="CP18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12231,6 +12276,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO20" s="8">
+        <v>10</v>
+      </c>
       <c r="CP20" s="4" t="inlineStr">
         <is>
           <t/>
@@ -12809,6 +12857,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO21" s="8">
+        <v>10</v>
+      </c>
       <c r="CP21" s="4" t="inlineStr">
         <is>
           <t/>
@@ -13161,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM22" s="4" t="inlineStr">
         <is>
@@ -13298,12 +13349,12 @@
       </c>
       <c r="BR22" s="6" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2019 nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich verfügbar.</t>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2019 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich verfügbar.</t>
         </is>
       </c>
       <c r="BS22" s="6" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2019 are only comparable with previous years to a limited extent. &lt;br&gt;The data are based on a special evaluation and are not publicly available.</t>
+          <t>Due to methodological changes, the results from 2019 are only comparable with previous years to a limited extent.&lt;br&gt;The data are based on a special evaluation and are not publicly available.</t>
         </is>
       </c>
       <c r="BT22" s="4" t="inlineStr">
@@ -13985,13 +14036,19 @@
       </c>
       <c r="CN23" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z07_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="CO23" s="8">
+        <v>10</v>
       </c>
       <c r="CP23" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z07_B01_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="CQ23" s="8">
+        <v>50</v>
       </c>
       <c r="CR23" s="4" t="inlineStr">
         <is>
@@ -14572,6 +14629,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO24" s="8">
+        <v>10</v>
+      </c>
       <c r="CP24" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15058,14 +15118,12 @@
       </c>
       <c r="BR25" s="6" t="inlineStr">
         <is>
-          <t>2019 und 2020 vorläufige Daten. 
-Ziel für das Jahr 2050: Gesamter erzeugter und verbrauchter Strom lt. EEG treibhausgasneutral.</t>
+          <t>2019 und 2020 vorläufige Daten.&lt;br&gt;Ziel für das Jahr 2050: Gesamter erzeugter und verbrauchter Strom lt. EEG treibhausgasneutral.</t>
         </is>
       </c>
       <c r="BS25" s="6" t="inlineStr">
         <is>
-          <t>Provisional data for 2019 and 2020. 
-Target for 2050: zero net greenhouse-gas emissions from all electricity generation and consumption.</t>
+          <t>Provisional data for 2019 and 2020.&lt;br&gt;Target for 2050: zero net greenhouse-gas emissions from all electricity generation and consumption.</t>
         </is>
       </c>
       <c r="BT25" s="4" t="inlineStr">
@@ -15151,6 +15209,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CO25" s="8">
+        <v>10</v>
       </c>
       <c r="CP25" s="4" t="inlineStr">
         <is>
@@ -16899,6 +16960,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CO28" s="8">
+        <v>10</v>
       </c>
       <c r="CP28" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -16279,12 +16279,12 @@
       </c>
       <c r="BR27" s="6" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, 2015 = 100. 2019, 2020 und 2021 vorläufige Daten.</t>
+          <t>Vorjahrespreise verkettet, 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS27" s="6" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, 2015 = 100. Provisional data for 2019, 2020 and 2021.</t>
+          <t>Previous years’ prices chain-linked, 2015 = 100.&lt;br&gt;Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="BT27" s="4" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="BS28" s="6" t="inlineStr">
         <is>
-          <t>2020 and 2021 preliminary data.</t>
+          <t>Provisional data for 2020 and 2021.</t>
         </is>
       </c>
       <c r="BT28" s="4" t="inlineStr">
@@ -17447,12 +17447,12 @@
       </c>
       <c r="BR29" s="6" t="inlineStr">
         <is>
-          <t>Ab 2019 vorläufige Daten.</t>
+          <t>2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS29" s="6" t="inlineStr">
         <is>
-          <t>Provisional data from 2019 onwards.</t>
+          <t>Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="BT29" s="4" t="inlineStr">
@@ -18022,12 +18022,12 @@
       </c>
       <c r="BR30" s="6" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, Referenzjahr 2015.&lt;br&gt;2019 und 2020 vorläufige Daten.</t>
+          <t>Vorjahrespreise verkettet, Referenzjahr 2015.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS30" s="6" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, reference year 2015.&lt;br&gt;Provisional data for 2019 and 2020.</t>
+          <t>Previous years’ prices chain-linked, reference year 2015.&lt;br&gt;Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="BT30" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -12762,12 +12762,12 @@
       </c>
       <c r="BR21" s="6" t="inlineStr">
         <is>
-          <t>Basis: EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.</t>
+          <t>Basis EUA-Messnetz: Schwellenwert 50 Milligramm Nitrat pro Liter im Jahresmittel.&lt;br&gt; Keine Anaben für die Stadtstaaten Berlin, Bremen und Hamburg, da zu wenige Messstellen vorhanden sind.</t>
         </is>
       </c>
       <c r="BS21" s="6" t="inlineStr">
         <is>
-          <t>Basis: EEA monitoring network; the threshold is an annual average of 50 mg nitrate per litre of groundwater.</t>
+          <t>Basis EEA monitoring network: the threshold is an annual average of 50 mg nitrate per litre of groundwater.&lt;br&gt;No data for the city states of Berlin, Bremen and Hamburg, as there are too few measuring points.</t>
         </is>
       </c>
       <c r="BT21" s="4" t="inlineStr">
@@ -13437,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="CM22" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN22" s="4" t="inlineStr">
         <is>
@@ -30728,32 +30728,32 @@
       </c>
       <c r="AS52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="AT52" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee an allen MSY-untersuchten Beständen</t>
+          <t>Nachhaltig bewirtschaftete Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="AU52" s="4" t="inlineStr">
         <is>
-          <t>Share of fish stocks assessed for MSY in the North and Baltic seas which are sustainably fished</t>
+          <t>Sustainably managed fish stocks in the North and Baltic seas</t>
         </is>
       </c>
       <c r="AV52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="AW52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="AX52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of stocks assessed for MSY</t>
         </is>
       </c>
       <c r="AY52" s="4" t="inlineStr">
@@ -30788,17 +30788,17 @@
       </c>
       <c r="BE52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="BF52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil an allen MSY-untersuchten Beständen</t>
         </is>
       </c>
       <c r="BG52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As share of all stocks assessed for MSY</t>
         </is>
       </c>
       <c r="BH52" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -13205,7 +13205,7 @@
       </c>
       <c r="AJ22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z06_B02_P01_Ib01_I00</t>
         </is>
       </c>
       <c r="AK22" s="8">
@@ -13216,17 +13216,29 @@
       </c>
       <c r="AM22" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z06_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="AN22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>10</v>
       </c>
       <c r="AP22" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>Z06_B02_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="AQ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="8">
+        <v>10</v>
       </c>
       <c r="AS22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z06_B02_P01_Ib01_I00</t>
         </is>
       </c>
       <c r="AT22" s="4" t="inlineStr">
@@ -13241,32 +13253,32 @@
       </c>
       <c r="AV22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AW22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Von Deutschland geförderter Zugang zu Trinkwasserversorgung weltweit</t>
         </is>
       </c>
       <c r="AX22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Access to drinking water worldwide with German support</t>
         </is>
       </c>
       <c r="AY22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AZ22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Von Deutschland geförderter Zugang zu Sanitärversorgung weltweit</t>
         </is>
       </c>
       <c r="BA22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Access to and sanitation worldwide with German support</t>
         </is>
       </c>
       <c r="BB22" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP22" s="4" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS22" s="4" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="BF22" s="4" t="inlineStr">
         <is>
-          <t>Erreichte Menschen</t>
+          <t>Anzahl erreichter Menschen</t>
         </is>
       </c>
       <c r="BG22" s="4" t="inlineStr">
@@ -13361,27 +13361,27 @@
       </c>
       <c r="BR22" s="6" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2019 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich verfügbar.</t>
+          <t>Die Daten basieren auf einer Sonderauswertung und sind nicht öffentlich verfügbar.</t>
         </is>
       </c>
       <c r="BS22" s="6" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2019 are only comparable with previous years to a limited extent.&lt;br&gt;The data are based on a special evaluation and are not publicly available.</t>
+          <t>The data are based on a special evaluation and are not publicly available.</t>
         </is>
       </c>
       <c r="BT22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z06_B02_P01_Ib01_I00</t>
         </is>
       </c>
       <c r="BU22" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Ab 2019 wird die Zeitreihe für die Bereiche Trinkwasserversorgung und Sanitärversorgung getrennt ausgewiesen.</t>
         </is>
       </c>
       <c r="BV22" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Beginning in 2019, the time series for drinking water supply and sanitation will be reported separately.</t>
         </is>
       </c>
       <c r="BW22" s="4" t="inlineStr">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="CT22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z06_B02_P01_Ib01_I00</t>
         </is>
       </c>
       <c r="CU22" s="8">
@@ -18034,12 +18034,12 @@
       </c>
       <c r="BR30" s="6" t="inlineStr">
         <is>
-          <t>Vorjahrespreise verkettet, Referenzjahr 2015.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
+          <t>Vorjahrespreise verkettet, 2015 = 100.&lt;br&gt;2019 bis 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS30" s="6" t="inlineStr">
         <is>
-          <t>Previous years’ prices chain-linked, reference year 2015.&lt;br&gt;Provisional data for 2019 to 2021.</t>
+          <t>Previous years’ prices chain-linked, 2015 = 100.&lt;br&gt;Provisional data for 2019 to 2021.</t>
         </is>
       </c>
       <c r="BT30" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -8460,8 +8460,7 @@
       </c>
       <c r="S14" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification 
-(30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>Persons with an academic or higher vocational qualification</t>
         </is>
       </c>
       <c r="T14" s="6" t="inlineStr">
@@ -20830,12 +20829,12 @@
       </c>
       <c r="AT35" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und -absolventen</t>
+          <t>Anteil der Schulabschlüsse</t>
         </is>
       </c>
       <c r="AU35" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Share of school-leaving qualifications</t>
         </is>
       </c>
       <c r="AV35" s="4" t="inlineStr">
@@ -29118,13 +29117,12 @@
       </c>
       <c r="BR49" s="6" t="inlineStr">
         <is>
-          <t>2020 vorläufige Zeitnahprognose.
-Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
+          <t>2020 vorläufige Zeitnahprognose.&lt;br&gt;Treibhausgase = Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Schwefelhexafluorid (SF6), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC) und perfluorierte Kohlenwasserstoffe (FKW/PFC).</t>
         </is>
       </c>
       <c r="BS49" s="6" t="inlineStr">
         <is>
-          <t>Projected figures for 2020; Greenhouse gases = carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), sulphur hexafluoride (SF6), nitrogen trifluoride (NF3), hydrofluorocarbons (HFCs) and perfluorocarbons (PFCs)</t>
+          <t>Projected figures for 2020&lt;br&gt;Greenhouse gases = carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), sulphur hexafluoride (SF6), nitrogen trifluoride (NF3), hydrofluorocarbons (HFCs) and perfluorocarbons (PFCs)</t>
         </is>
       </c>
       <c r="BT49" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -27448,7 +27448,7 @@
         <v>1</v>
       </c>
       <c r="CM46" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN46" s="4" t="inlineStr">
         <is>
@@ -27887,47 +27887,47 @@
       </c>
       <c r="BE47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="BF47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Beschäftigte in EMAS Organisationen</t>
         </is>
       </c>
       <c r="BG47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
       <c r="BH47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="BI47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS-Organisationsstandorte</t>
         </is>
       </c>
       <c r="BJ47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
       <c r="BK47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="BL47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="BM47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS organisations</t>
         </is>
       </c>
       <c r="BN47" s="4" t="inlineStr">
@@ -28005,12 +28005,12 @@
       </c>
       <c r="CC47" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="CD47" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="CE47" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -27448,7 +27448,7 @@
         <v>1</v>
       </c>
       <c r="CM46" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN46" s="4" t="inlineStr">
         <is>
@@ -27887,47 +27887,47 @@
       </c>
       <c r="BE47" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t/>
         </is>
       </c>
       <c r="BF47" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigte in EMAS Organisationen</t>
+          <t/>
         </is>
       </c>
       <c r="BG47" s="4" t="inlineStr">
         <is>
-          <t>Employees in EMAS organisations</t>
+          <t/>
         </is>
       </c>
       <c r="BH47" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t/>
         </is>
       </c>
       <c r="BI47" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationsstandorte</t>
+          <t/>
         </is>
       </c>
       <c r="BJ47" s="4" t="inlineStr">
         <is>
-          <t>Locations of organisation registered with EMAS</t>
+          <t/>
         </is>
       </c>
       <c r="BK47" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t/>
         </is>
       </c>
       <c r="BL47" s="4" t="inlineStr">
         <is>
-          <t>EMAS-Organisationen</t>
+          <t/>
         </is>
       </c>
       <c r="BM47" s="4" t="inlineStr">
         <is>
-          <t>EMAS organisations</t>
+          <t/>
         </is>
       </c>
       <c r="BN47" s="4" t="inlineStr">
@@ -28005,12 +28005,12 @@
       </c>
       <c r="CC47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="CD47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="CE47" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -21035,7 +21035,7 @@
         <v>1</v>
       </c>
       <c r="CM35" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN35" s="4" t="inlineStr">
         <is>
@@ -27297,47 +27297,47 @@
       </c>
       <c r="BE46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t/>
         </is>
       </c>
       <c r="BF46" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz</t>
+          <t/>
         </is>
       </c>
       <c r="BG46" s="4" t="inlineStr">
         <is>
-          <t>Use of raw materials</t>
+          <t/>
         </is>
       </c>
       <c r="BH46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t/>
         </is>
       </c>
       <c r="BI46" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch</t>
+          <t/>
         </is>
       </c>
       <c r="BJ46" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption</t>
+          <t/>
         </is>
       </c>
       <c r="BK46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t/>
         </is>
       </c>
       <c r="BL46" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen</t>
+          <t/>
         </is>
       </c>
       <c r="BM46" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions</t>
+          <t/>
         </is>
       </c>
       <c r="BN46" s="4" t="inlineStr">
@@ -27448,7 +27448,7 @@
         <v>1</v>
       </c>
       <c r="CM46" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN46" s="4" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
       </c>
       <c r="CT46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t/>
         </is>
       </c>
       <c r="CU46" s="8">
@@ -27488,11 +27488,8 @@
       </c>
       <c r="CX46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
-        </is>
-      </c>
-      <c r="CY46" s="9">
-        <v>2016</v>
+          <t/>
+        </is>
       </c>
       <c r="CZ46" s="4" t="inlineStr">
         <is>
@@ -27506,11 +27503,8 @@
       </c>
       <c r="DB46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
-        </is>
-      </c>
-      <c r="DC46" s="9">
-        <v>2016</v>
+          <t/>
+        </is>
       </c>
       <c r="DD46" s="4" t="inlineStr">
         <is>
@@ -27887,47 +27881,47 @@
       </c>
       <c r="BE47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="BF47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Beschäftigte in EMAS Organisationen</t>
         </is>
       </c>
       <c r="BG47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Employees in EMAS organisations</t>
         </is>
       </c>
       <c r="BH47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="BI47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS-Organisationsstandorte</t>
         </is>
       </c>
       <c r="BJ47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Locations of organisation registered with EMAS</t>
         </is>
       </c>
       <c r="BK47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="BL47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS-Organisationen</t>
         </is>
       </c>
       <c r="BM47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS organisations</t>
         </is>
       </c>
       <c r="BN47" s="4" t="inlineStr">
@@ -28005,12 +27999,12 @@
       </c>
       <c r="CC47" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="CD47" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="CE47" s="4" t="inlineStr">
@@ -28563,12 +28557,12 @@
       </c>
       <c r="BX48" s="6" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2018 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.</t>
         </is>
       </c>
       <c r="BY48" s="6" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2018 are only comparable with previous years to a limited extent.</t>
+          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.</t>
         </is>
       </c>
       <c r="BZ48" s="4" t="inlineStr">
@@ -28658,11 +28652,11 @@
       </c>
       <c r="CX48" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="CY48" s="9">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="CZ48" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -20824,7 +20824,7 @@
       </c>
       <c r="AS35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="AT35" s="4" t="inlineStr">
@@ -20839,32 +20839,32 @@
       </c>
       <c r="AV35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="AW35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Schulabschlüsse</t>
         </is>
       </c>
       <c r="AX35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of school-leaving qualifications</t>
         </is>
       </c>
       <c r="AY35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="AZ35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Differenz der Anteile an Schulabschlüssen</t>
         </is>
       </c>
       <c r="BA35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Difference in share of school-leaving qualifications</t>
         </is>
       </c>
       <c r="BB35" s="4" t="inlineStr">
@@ -20884,47 +20884,47 @@
       </c>
       <c r="BE35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="BF35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>bei deutschen Schulabgängerinnen und -abgängern</t>
         </is>
       </c>
       <c r="BG35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>with german school leavers</t>
         </is>
       </c>
       <c r="BH35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_FOREIGN</t>
         </is>
       </c>
       <c r="BI35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bei ausländischen Schulabgängerinnen und -abgängern</t>
         </is>
       </c>
       <c r="BJ35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>with foreign school leavers</t>
         </is>
       </c>
       <c r="BK35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="BL35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>zwischen deutschen und ausländischen Schulabgängern</t>
         </is>
       </c>
       <c r="BM35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>between german and foreign school leavers</t>
         </is>
       </c>
       <c r="BN35" s="4" t="inlineStr">
@@ -21039,7 +21039,7 @@
       </c>
       <c r="CN35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_GERMAN</t>
         </is>
       </c>
       <c r="CO35" s="8">
@@ -21047,13 +21047,19 @@
       </c>
       <c r="CP35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_FOREIGN</t>
+        </is>
+      </c>
+      <c r="CQ35" s="8">
+        <v>10</v>
       </c>
       <c r="CR35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="CS35" s="8">
+        <v>2</v>
       </c>
       <c r="CT35" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -20809,18 +20809,33 @@
       </c>
       <c r="AJ35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_GERMAN</t>
+        </is>
+      </c>
+      <c r="AK35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>100</v>
       </c>
       <c r="AM35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_FOREIGN</t>
+        </is>
+      </c>
+      <c r="AN35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="8">
+        <v>100</v>
       </c>
       <c r="AP35" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_DIFFERENCE</t>
+        </is>
+      </c>
+      <c r="AR35" s="8">
+        <v>-2</v>
       </c>
       <c r="AS35" s="4" t="inlineStr">
         <is>
@@ -20904,7 +20919,7 @@
       </c>
       <c r="BI35" s="4" t="inlineStr">
         <is>
-          <t>Bei ausländischen Schulabgängerinnen und -abgängern</t>
+          <t>bei ausländischen Schulabgängerinnen und -abgängern</t>
         </is>
       </c>
       <c r="BJ35" s="4" t="inlineStr">
@@ -22224,6 +22239,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="CU37" s="8">
+        <v>2016.5</v>
       </c>
       <c r="CV37" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -31460,12 +31460,12 @@
       </c>
       <c r="BR53" s="6" t="inlineStr">
         <is>
-          <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt.&lt;br&gt;Die historischen Werte für 1970 und 1975 sind rekonstruiert.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Der Teilindikator zu den Alpen ist derzeit über die gesamte Datenreihe ausgesetzt.</t>
         </is>
       </c>
       <c r="BS53" s="6" t="inlineStr">
         <is>
-          <t>The sub-indicator for the Alps is currently left out of the whole data set.&lt;br&gt;The historical values for 1970 and 1975 are reconstructed.&lt;br&gt;Inland waters and coasts and seas subindex: individual years extrapolated data.</t>
+          <t>The sub-indicator for the Alps is currently left out of the whole data set.</t>
         </is>
       </c>
       <c r="BT53" s="4" t="inlineStr">
@@ -35382,7 +35382,7 @@
       </c>
       <c r="AI60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="AJ60" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -22237,11 +22237,11 @@
       </c>
       <c r="CT37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ANNUALVAL</t>
         </is>
       </c>
       <c r="CU37" s="8">
-        <v>2016.5</v>
+        <v>2016</v>
       </c>
       <c r="CV37" s="4" t="inlineStr">
         <is>
@@ -22255,8 +22255,11 @@
       </c>
       <c r="CX37" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>A_SERIES_4YAVERAGE</t>
+        </is>
+      </c>
+      <c r="CY37" s="9">
+        <v>2016</v>
       </c>
       <c r="CZ37" s="4" t="inlineStr">
         <is>
@@ -34447,7 +34450,7 @@
         <v>1</v>
       </c>
       <c r="CM58" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN58" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -34302,32 +34302,32 @@
       </c>
       <c r="BE58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="BF58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="BG58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="BH58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="BI58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der Partnerländer, mit verbesserter Bewertung</t>
         </is>
       </c>
       <c r="BJ58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of partner countries, with improved rating</t>
         </is>
       </c>
       <c r="BK58" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -23157,7 +23157,7 @@
       </c>
       <c r="AJ39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>E_IDX2000</t>
         </is>
       </c>
       <c r="AK39" s="8">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -13815,15 +13815,18 @@
         <v>0</v>
       </c>
       <c r="AL23" s="8">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AM23" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
+      <c r="AN23" s="8">
+        <v>0</v>
+      </c>
       <c r="AO23" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AP23" s="4" t="inlineStr">
         <is>
@@ -13832,32 +13835,32 @@
       </c>
       <c r="AS23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="AT23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="AU23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Final Energy Productivity</t>
         </is>
       </c>
       <c r="AV23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="AW23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="AX23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Primary Energy Consumption</t>
         </is>
       </c>
       <c r="AY23" s="4" t="inlineStr">
@@ -14051,7 +14054,7 @@
         </is>
       </c>
       <c r="CO23" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="CP23" s="4" t="inlineStr">
         <is>
@@ -14059,7 +14062,7 @@
         </is>
       </c>
       <c r="CQ23" s="8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="CR23" s="4" t="inlineStr">
         <is>
@@ -20834,7 +20837,7 @@
           <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
-      <c r="AR35" s="8">
+      <c r="AQ35" s="8">
         <v>-2</v>
       </c>
       <c r="AS35" s="4" t="inlineStr">
@@ -22827,6 +22830,9 @@
           <t/>
         </is>
       </c>
+      <c r="CU38" s="8">
+        <v>2016</v>
+      </c>
       <c r="CV38" s="4" t="inlineStr">
         <is>
           <t/>
@@ -23164,12 +23170,18 @@
         <v>75</v>
       </c>
       <c r="AL39" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AM39" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>E_EWPKM2</t>
+        </is>
+      </c>
+      <c r="AN39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="8">
+        <v>3500</v>
       </c>
       <c r="AP39" s="4" t="inlineStr">
         <is>
@@ -23393,7 +23405,7 @@
       </c>
       <c r="CN39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>E_IDX2000</t>
         </is>
       </c>
       <c r="CO39" s="8">
@@ -23401,8 +23413,11 @@
       </c>
       <c r="CP39" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>E_EWPKM2</t>
+        </is>
+      </c>
+      <c r="CQ39" s="8">
+        <v>500</v>
       </c>
       <c r="CR39" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -13204,7 +13204,7 @@
       </c>
       <c r="AJ22" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I00</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="AK22" s="8">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="AS22" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I00</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="AT22" s="4" t="inlineStr">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="BT22" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I00</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="BU22" s="6" t="inlineStr">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="CT22" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I00</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="CU22" s="8">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -1753,12 +1753,12 @@
       </c>
       <c r="CC2" s="4" t="inlineStr">
         <is>
-          <t>Deutschland/EU-28</t>
+          <t>Deutschland/Europäische Union</t>
         </is>
       </c>
       <c r="CD2" s="4" t="inlineStr">
         <is>
-          <t>Germany/EU-28</t>
+          <t>Germany/Eropean Union</t>
         </is>
       </c>
       <c r="CE2" s="4" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="BS8" s="6" t="inlineStr">
         <is>
-          <t>Age-standardised figures based on population estimate for 31 December 2015. &lt;br&gt;Data based on a special evaluation.</t>
+          <t>Age-standardised figures based on population estimate for 31 December 2015.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT8" s="4" t="inlineStr">
@@ -6880,12 +6880,12 @@
       </c>
       <c r="BF11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl von Personen mit erhöhter Feinstaubexposition am Wohnort</t>
         </is>
       </c>
       <c r="BG11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of persons with increased exposure to particulate matter at the place of residence</t>
         </is>
       </c>
       <c r="BH11" s="4" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="AF14" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AG14" s="4" t="inlineStr">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="AI14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="AJ14" s="4" t="inlineStr">
@@ -13815,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="8">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AM23" s="4" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="8">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AP23" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -2725,11 +2725,11 @@
       </c>
       <c r="AJ4" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DSTTS</t>
+          <t/>
         </is>
       </c>
       <c r="AL4" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AM4" s="4" t="inlineStr">
         <is>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -13271,7 +13271,7 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02</t>
+          <t>Z05_B01_P01</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -13281,72 +13281,72 @@
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
+          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
         </is>
       </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
-          <t>Strengthening the economic participation of women globally</t>
+          <t>Promoting equality and a partnership-based division of responsibilities</t>
         </is>
       </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02</t>
+          <t>Z05_B01_P01</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification of women and girls through German development cooperation</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="T16" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
+          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer in Prozent der durchschnittlichen Bruttostundenverdienste der Männer.</t>
         </is>
       </c>
       <c r="U16" s="6" t="inlineStr">
         <is>
-          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation.</t>
+          <t>The indicator is a percentage figure showing the gender pay gap as the ratio of the average gross hourly earnings for women to the average gross hourly wage of men.</t>
         </is>
       </c>
       <c r="V16" s="6" t="inlineStr">
         <is>
-          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden.</t>
+          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgt daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
         </is>
       </c>
       <c r="W16" s="6" t="inlineStr">
         <is>
-          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030.</t>
+          <t>Differences in pay between men and women in modern working societies are a sign of social inequality. A narrowing of pay disparities is an indicator of progress on the road to equality. The German Government has therefore been pursuing the target of reducing the pay gap to 10% by 2020 and maintaining it until 2030.</t>
         </is>
       </c>
       <c r="X16" s="6" t="inlineStr">
         <is>
-          <t>Als Datenquelle wurden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Projekten verwendet, die sich im Jahr 2015 in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und non-formalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel der Kreditanstalt für Wiederaufbau finanziert. Die Datenerhebung erfolgte erstmalig im Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH sowie das Centrum für Evaluation GmbH und wird im dreijährigen Rhythmus durchgeführt. Insofern kann eine mögliche Zielerreichung des Indikators gemäß der im Indikatorenbericht zugrunde gelegten Methodik noch nicht beurteilt werden.&lt;br&gt;Im Jahr 2018 wurden rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Dies ist gegenüber 2015 – dem ersten Jahr der Erhebung – ein Anstieg um 243 %. Davon konnten 26,5 % über direkte Berufsbildungsmaßnahmen erreicht werden. Durch Institutionenförderung wurden 31,6 % der Frauen und Mädchen erreicht und durch Maßnahmen auf Politikfeldebene 41,8 %. Durch die finanzielle Zusammenarbeit wurden insgesamt 93,0 % der Frauen und Mädchen erreicht.&lt;br&gt;Frauen und Mädchen in Entwicklungs- und Schwellenländern werden auf unterschiedlichen Ebenen von deutscher entwicklungspolitischer Zusammenarbeit erreicht, weswegen die Daten auf drei Ebenen abgefragt wurden. (1) Bei Maßnahmen auf Individualebene kann die Anzahl der Frauen und Mädchen, die beruflich aus- und weitergebildet wurden oder an entsprechend ausgerichteten Beratungsmaßnahmen teilgenommen haben, direkt erfasst werden. Bei (2) Förderung von Institutionen oder (3) Förderung auf Politikfeldebene muss die erreichte Anzahl in den geförderten Aus- und Weiterbildungseinrichtungen geschätzt werden. Dabei werden auf Institutionenebene die Gesamtzahl der weiblichen Aus- und Weiterzubildenden in den jeweils geförderten Aus- und Weiterbildungseinrichtungen und auf Politikfeldebene alle weiblichen Aus- und Weiterzubildenden in den Partnerländern als erreichte Frauen und Mädchen angenommen. Folglich kann es zu Überschätzungen und zu Mehrfachzählungen kommen – insbesondere auf Politikfeldebene. Ferner kann nicht ausgeschlossen werden, dass es bei Nachfolgeprojekten oder bei mehreren zeitgleich durchgeführten Projekten in derselben Region zu Mehrfachzählungen der erreichten Frauen und Mädchen kommt.&lt;br&gt;Der Wert des Indikators hängt stark von der geförderten Ebene ab, da durch die Förderung von Institutionen oder Politikfeldern in der Regel mehr Frauen und Mädchen erreicht werden als bei individuellen Maßnahmen. Der Indikator trifft keine Aussage zu Erfolg, Umfang und Qualität der Qualifizierungsmaßnahmen, die recht unterschiedlich sein können. Die Maßnahmen zur Förderung der beruflichen Qualifizierung von Frauen und Mädchen sind Teil der gesamten öffentlichen Entwicklungsausgaben. Diese sind im Indikator 17.1 dargestellt.</t>
+          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Dabei werden deren Ursachen, wie Qualifikation, Tätigkeit oder unterschiedliche Erwerbsbiografien, nicht berücksichtigt.&lt;br&gt;Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen, Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap (GPG) veröffentlicht. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten und unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der „Land- und Forstwirtschaft, Fischerei“, der „öffentlichen Verwaltung, Verteidigung; Sozialversicherung“ sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.&lt;br&gt;Nach vorläufigen Zahlen lag der unbereinigte Verdienstabstand zwischen Frauen und Männern bei durchschnittlich 19 % im Jahr 2019. Das heißt, der durchschnittliche Bruttostundenverdienst von Frauen lag um rund ein Fünftel niedriger als der Verdienst der Männer. Über einen längeren Zeitraum betrachtet, zeigt sich für Gesamtdeutschland ein langsamer, aber stetiger Rückgang des unbereinigten Gender Pay Gap. Dieser hatte 2014 mit 22 % um 3 Prozentpunkte höher gelegen als 2019. Bei einer Fortsetzung der Entwicklung der letzten fünf Jahre wird das angestrebte Ziel im Jahr 2020 sowie im Jahr 2030 nicht erreicht werden.&lt;br&gt;Allerdings zeichnet sich für Deutschland kein einheitliches Bild ab. Zwischen den Bundesländern bestehen erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2019 mit 25 % in Bremen, während er in Mecklenburg-Vorpommern und Thüringen 6 % betrug. Dabei war das Verdienstniveau in Mecklenburg-Vorpommern und Thüringen insgesamt niedriger als in Bremen.&lt;br&gt;Untersuchungen der ursächlichen Faktoren des GPG können alle vier Jahre auf Basis der detaillierten Ergebnisse aus der Verdienststrukturerhebung durchgeführt werden. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Diese Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. Demnach sind 71°% des Verdienstunterschieds zwischen Männern und Frauen strukturbedingt – also unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen und Berufen arbeiten, in denen schlechter bezahlt wird und sie seltener Führungspositionen erreichen. Auch arbeiten sie häufiger als Männer in Teilzeit und in Minijobs. Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).&lt;br&gt;Im europäischen Vergleich liegen Ergebnisse für das Jahr 2018 vor. Mit 20 % lag der unbereinigte Gender Pay Gap in Deutschland für das Jahr 2018 deutlich über dem Durchschnitt der Europäischen Union (15 %, vorläufig). Von den 28 EU-Staaten im Jahr 2018 wies nur Estland mit 22 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %) sowie Rumänien (2 %).</t>
         </is>
       </c>
       <c r="Y16" s="6" t="inlineStr">
         <is>
-          <t>Information provided by the Federal Ministry for Economic Cooperation and Development (BMZ) on supported projects that entered the implementation phase in 2015 served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds provided through the Kreditanstalt für Wiederaufbau (KfW). The data were collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH, and are updated at three-annual intervals. This means that it is not yet possible to gauge the prospects of meeting the target on the basis of the methodology set out in the Indicator Report.&lt;br&gt;In 2018, some 863,000 women and girls were reached by skills development measures. This is 243% higher than 2015, the first year for which data were collected. Of these women and girls, 26.5% were reached directly through individual vocational training. A total of 31.6% of the women and girls were reached through institutional funding and 41.8% through measures in specific policy fields. Of all these women and girls, 93.0% were reached through financial cooperation.&lt;br&gt;Because women and girls in developing and emerging countries are reached by German development cooperation by three different levels, the data were searched for each of those levels. (1) In the case of individualised measures, the number of women and girls who received vocational training and continuing education or participated in individualised extension measures can be recorded directly. When it comes to (2) the funding of institutions and (3) the allocation of funds to specific policy fields, the number of beneficiaries reached in the supported training and further education facilities has to be estimated. In this case, the total number of female trainees and students in each of the funded education and training establishments as well as all women and girls receiving education or training in the relevant policy field are assumed to be beneficiaries of German development cooperation. As a result, there can be overestimates and duplication, especially in the figures for policy fields. Furthermore, in the case of follow-on projects or when two or more projects are implemented simultaneously in the same region, the possibility of double counting some of the beneficiary women and girls cannot be ruled out.&lt;br&gt;The value of the indicator depends heavily on the funding level, as funding through institutions or policy fields generally reaches more women and girls than individual measures. The indicator does not provide any information on the success, scope and quality of the qualification measures, which can vary considerably. The measures designed to promote the vocational skills of women and girls are part of overall official development assistance. The total amount of ODA is shown in indicator 17.1.</t>
+          <t>The indicator presented here shows the unadjusted gender pay gap. It simply uses the percentage ratio between the average gross hourly rates of pay. Factors such as qualification levels, hours worked and occupational experience profiles are not taken into account.&lt;br&gt;The data for the indicator are based on the four-yearly wage structure survey conducted by the statistical offices of the Länder in the form of a representative sample survey with a disclosure obligation covering a maximum total of 60,000 businesses. On the basis of these data, results are calculated, broken down by age group, education level, performance group, activity category, collective agreement coverage, company size class and economic sector, and the resulting adjusted gender pay gap (GPG) is published. For the interim years, the rates of change from the quarterly wage survey are used to extrapolate the unadjusted GPG. When the adjusted and the unadjusted GPG are calculated, the EU categorisation is used, in which employees in agriculture, forestry and fishing and in public administration, defence and compulsory social security as well as employees of microenterprises are not taken into account.&lt;br&gt;According to provisional figures, the average unadjusted gender pay gap between women and men in 2019 was 19%. This means that the average gross hourly pay earned by women was about a fifth lower than that earned by men. Over the longer term, a slow but steady narrowing of the unadjusted gender pay gap is evident in the whole of Germany. It stood at 22% in 2014, which is three percentage points higher than in 2019. If the trend recorded over the last five years continues, the target will not be achieved in 2020 or in 2030.&lt;br&gt;At the same time, the picture for Germany is not a uniform one. There are considerable differences between Länder: the highest unadjusted GPG in 2019 was 25% in Bremen, while in Mecklenburg-Western Pomerania and in Thuringia the gap was only 6%. Pay levels generally, however, were lower in Mecklenburg-Western Pomerania and Thuringia than in Bremen.&lt;br&gt;Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the wage structure survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71% of the gender pay gap, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs. The remaining 29% of the pay differential corresponds to the adjusted GPG of 6% in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4% in Berlin to 7% in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.&lt;br&gt;Comparative figures for the European Union are also available for 2018. At 20%, the unadjusted gender pay gap in Germany for 2018 lay considerably above the provisional European Union average of 15%. Of the 28 EU states in 2018, only Estonia, with 22% had a higher gender pay gap. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1%, and Romania, with 2%.</t>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>8.5.1</t>
         </is>
       </c>
       <c r="AA16" s="4" t="inlineStr">
@@ -13356,16 +13356,16 @@
       </c>
       <c r="AB16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="AD16" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="4" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="AF16" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AG16" s="4" t="inlineStr">
@@ -13414,12 +13414,12 @@
       </c>
       <c r="AT16" s="4" t="inlineStr">
         <is>
-          <t>Frauen und Mädchen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
+          <t>Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten von Frauen und Männern</t>
         </is>
       </c>
       <c r="AU16" s="4" t="inlineStr">
         <is>
-          <t>Women and girls reached by vocational qualification measures through German development assistance</t>
+          <t>Difference between average gross hourly earnings for women and men</t>
         </is>
       </c>
       <c r="AV16" s="4" t="inlineStr">
@@ -13474,12 +13474,12 @@
       </c>
       <c r="BF16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>In Prozent der Verdienste der Männer</t>
         </is>
       </c>
       <c r="BG16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As share of the men's earnings</t>
         </is>
       </c>
       <c r="BH16" s="4" t="inlineStr">
@@ -13532,12 +13532,12 @@
       </c>
       <c r="BR16" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 und 2021 vorläufig.</t>
         </is>
       </c>
       <c r="BS16" s="6" t="inlineStr">
         <is>
-          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
+          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020 and 2021.</t>
         </is>
       </c>
       <c r="BT16" s="4" t="inlineStr">
@@ -13587,12 +13587,12 @@
       </c>
       <c r="CC16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="CD16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="CE16" s="4" t="inlineStr">
@@ -13694,22 +13694,22 @@
       </c>
       <c r="DH16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="DI16" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="DJ16" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="DK16" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="DL16" s="4" t="inlineStr">
@@ -13799,7 +13799,7 @@
       </c>
       <c r="EC16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="ED16" s="7" t="b">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="O17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="P17" s="4" t="inlineStr">
@@ -14109,52 +14109,52 @@
       </c>
       <c r="Q17" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>Women in management positions in business and in the federal civil service</t>
         </is>
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer in Prozent der durchschnittlichen Bruttostundenverdienste der Männer.</t>
+          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen an Führungspositionen im öffentlichen Dienst des Bundes.</t>
         </is>
       </c>
       <c r="U17" s="6" t="inlineStr">
         <is>
-          <t>The indicator is a percentage figure showing the gender pay gap as the ratio of the average gross hourly earnings for women to the average gross hourly wage of men.</t>
+          <t>Indicator 5.1.b shows the percentage of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
         </is>
       </c>
       <c r="V17" s="6" t="inlineStr">
         <is>
-          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgt daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
+          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in den Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil an Führungspositionen im öffentlichen Dienst des Bundes. Daher soll der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis zum Jahr 2030 auf 30 % erhöht werden. Gemäß dem am 06.01.2021 im Kabinett beschlossenen Entwurf des Zweiten Führungspositionengesetzes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025 erreicht werden. Damit wird eine Vereinbarung des Koalitionsvertrages aus 2018 umgesetzt.</t>
         </is>
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>
-          <t>Differences in pay between men and women in modern working societies are a sign of social inequality. A narrowing of pay disparities is an indicator of progress on the road to equality. The German Government has therefore been pursuing the target of reducing the pay gap to 10% by 2020 and maintaining it until 2030.</t>
+          <t>Women are as highly qualified as men, yet they are they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30% by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which the Cabinet adopted on 6 January 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025. This will fulfil one of the commitments made in the coalition agreement of 2018.</t>
         </is>
       </c>
       <c r="X17" s="6" t="inlineStr">
         <is>
-          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Dabei werden deren Ursachen, wie Qualifikation, Tätigkeit oder unterschiedliche Erwerbsbiografien, nicht berücksichtigt.&lt;br&gt;Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen, Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap (GPG) veröffentlicht. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten und unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der „Land- und Forstwirtschaft, Fischerei“, der „öffentlichen Verwaltung, Verteidigung; Sozialversicherung“ sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.&lt;br&gt;Nach vorläufigen Zahlen lag der unbereinigte Verdienstabstand zwischen Frauen und Männern bei durchschnittlich 19 % im Jahr 2019. Das heißt, der durchschnittliche Bruttostundenverdienst von Frauen lag um rund ein Fünftel niedriger als der Verdienst der Männer. Über einen längeren Zeitraum betrachtet, zeigt sich für Gesamtdeutschland ein langsamer, aber stetiger Rückgang des unbereinigten Gender Pay Gap. Dieser hatte 2014 mit 22 % um 3 Prozentpunkte höher gelegen als 2019. Bei einer Fortsetzung der Entwicklung der letzten fünf Jahre wird das angestrebte Ziel im Jahr 2020 sowie im Jahr 2030 nicht erreicht werden.&lt;br&gt;Allerdings zeichnet sich für Deutschland kein einheitliches Bild ab. Zwischen den Bundesländern bestehen erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2019 mit 25 % in Bremen, während er in Mecklenburg-Vorpommern und Thüringen 6 % betrug. Dabei war das Verdienstniveau in Mecklenburg-Vorpommern und Thüringen insgesamt niedriger als in Bremen.&lt;br&gt;Untersuchungen der ursächlichen Faktoren des GPG können alle vier Jahre auf Basis der detaillierten Ergebnisse aus der Verdienststrukturerhebung durchgeführt werden. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Diese Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. Demnach sind 71°% des Verdienstunterschieds zwischen Männern und Frauen strukturbedingt – also unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen und Berufen arbeiten, in denen schlechter bezahlt wird und sie seltener Führungspositionen erreichen. Auch arbeiten sie häufiger als Männer in Teilzeit und in Minijobs. Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).&lt;br&gt;Im europäischen Vergleich liegen Ergebnisse für das Jahr 2018 vor. Mit 20 % lag der unbereinigte Gender Pay Gap in Deutschland für das Jahr 2018 deutlich über dem Durchschnitt der Europäischen Union (15 %, vorläufig). Von den 28 EU-Staaten im Jahr 2018 wies nur Estland mit 22 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %) sowie Rumänien (2 %).</t>
+          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Der Indikator erfasst den Anteil von Frauen in den Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Als Datengrundlagen dienen die Veröffentlichungen von börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet werden und in sog. WOB-Indexen veröffentlicht werden.&lt;br&gt;Der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen lag im Januar 2020 bei 35,2 %. Im Januar 2015 waren es noch 21,3 %. Der angestrebte Anteil von 30 % wurde bereits im Jahr 2018 und damit bereits zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist erreicht. Da gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern an Führungspositionen seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen sind, war bei Gesetzeskonformität dieser Anstieg zu erwarten.&lt;br&gt;Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet.  Der von der Definition vorgegebene Berichtskreis umfasst aktuell 105 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.&lt;br&gt;Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren von den insgesamt 882 000 Führungspositionen in der Wirtschaft im Jahr 2018 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.&lt;br&gt;&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Als Datengrundlage für den Indikator dienen die Ergebnisse der internen Gleichstellungsstatistik aller Dienststellen des Bundes nach Bundesgleichstellungsgesetz. Seit 2015 wird die Statistik alle zwei Jahre zum Stichtag 30. Juni durch das Statistische Bundesamt im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend erstellt. Vorher wurde die Statistik jährlich erstellt.&lt;br&gt;Der Frauenanteil an Führungspositionen im öffentlichen Dienst des Bundes lag im Jahr 2019 nach vorläufigen Daten bei 37,6 %. Im Jahr 2000 lag der Anteil bei 19,5 %. Dies ist eine Steigerung des Anteils seit 2000 um 92,8 %. Bei Fortsetzung der Entwicklung der letzten fünf jährlichen Veränderungen würde das angestrebte Ziel, von annähernd nummerischer Gleichheit bis zum Jahr 2025 in Führungspositionen im öffentlichen Dienst des Bundes, leicht verfehlt werden.&lt;br&gt;Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. In die Betrachtung einbezogen werden alle vollzeit-, teilzeitbeschäftigten und aufgrund von Familien- oder Pflege</t>
         </is>
       </c>
       <c r="Y17" s="6" t="inlineStr">
         <is>
-          <t>The indicator presented here shows the unadjusted gender pay gap. It simply uses the percentage ratio between the average gross hourly rates of pay. Factors such as qualification levels, hours worked and occupational experience profiles are not taken into account.&lt;br&gt;The data for the indicator are based on the four-yearly wage structure survey conducted by the statistical offices of the Länder in the form of a representative sample survey with a disclosure obligation covering a maximum total of 60,000 businesses. On the basis of these data, results are calculated, broken down by age group, education level, performance group, activity category, collective agreement coverage, company size class and economic sector, and the resulting adjusted gender pay gap (GPG) is published. For the interim years, the rates of change from the quarterly wage survey are used to extrapolate the unadjusted GPG. When the adjusted and the unadjusted GPG are calculated, the EU categorisation is used, in which employees in agriculture, forestry and fishing and in public administration, defence and compulsory social security as well as employees of microenterprises are not taken into account.&lt;br&gt;According to provisional figures, the average unadjusted gender pay gap between women and men in 2019 was 19%. This means that the average gross hourly pay earned by women was about a fifth lower than that earned by men. Over the longer term, a slow but steady narrowing of the unadjusted gender pay gap is evident in the whole of Germany. It stood at 22% in 2014, which is three percentage points higher than in 2019. If the trend recorded over the last five years continues, the target will not be achieved in 2020 or in 2030.&lt;br&gt;At the same time, the picture for Germany is not a uniform one. There are considerable differences between Länder: the highest unadjusted GPG in 2019 was 25% in Bremen, while in Mecklenburg-Western Pomerania and in Thuringia the gap was only 6%. Pay levels generally, however, were lower in Mecklenburg-Western Pomerania and Thuringia than in Bremen.&lt;br&gt;Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the wage structure survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71% of the gender pay gap, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs. The remaining 29% of the pay differential corresponds to the adjusted GPG of 6% in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4% in Berlin to 7% in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.&lt;br&gt;Comparative figures for the European Union are also available for 2018. At 20%, the unadjusted gender pay gap in Germany for 2018 lay considerably above the provisional European Union average of 15%. Of the 28 EU states in 2018, only Estonia, with 22% had a higher gender pay gap. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1%, and Romania, with 2%.</t>
+          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The indicator records the percentage of women on the supervisory boards of joint-stock companies and partnerships limited by shares with more than 2,000 employees plus European companies (SEs) and listed companies with full co-determination. The data basis for the indicator comprises the publications of listed and fully co-determined companies, which are analysed by the Frauen in die Aufsichtsräte (Women on Board) association and published in the form of a WOB index.&lt;br&gt;In January 2020, women’s share of positions on the supervisory boards of these companies came to about 35.2%. In January 2015, it was still only 21.3%. The target of 30% was reached in 2018, which was twelve years in advance of the deadline set in the German Sustainable Development Strategy. The Gender Equality (Management Positions) Act prescribed that, in cases where elections were held for positions on the supervisory boards of the companies defined above in or after 2016, at least 30% of the seats on those boards must be occupied by women, and so compliance with the Act could be expected to yield this increase.&lt;br&gt;Given the definition used for the indicator, most of the businesses in Germany and the majority of management positions in the private sector are not taken into account. At the present time, the reported and analysed data relate to a group of 105 companies. The positions on supervisory boards that the WOB association has examined to date, fewer than 1,600 in number, are but a small fraction of the total of 882,000 management positions in the private sector identified by the pay structure survey in 2018. The figures show clearly that focusing on the supervisory board of a company reveals only some of the management positions in that company.&lt;br&gt;According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, direct, coordinate and evaluate the overall activities of enterprises, governments and other organisations, or of organisational units within them, and formulate and review their policies, laws, rules and regulations. This definition includes the activities of supervisory boards. If the ISCO classification is used as a basis, 22% of the 882,000 management positions in businesses were held by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O – Public administration and defence; compulsory social security – and parts of sector P – Education. Compared with 2014, the year of the previous pay structure survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. Before then they were compiled annually.&lt;br&gt;In 2019, according to preliminary data, the proportion of women in management positions in the federal civil service was about 37.6%. In 2000, the indicator value was 19.5%. This represents a 92.8% increase in the proportion of women since 2000. If the trend of the last five years were maintained, the target of virtual numerical equality in management positions in the federal civil service by 2025 would be narrowly missed.&lt;br&gt;The indicator is focused on the employees in management positions in all departments of the federal government. Their number includes all persons employed on a full-time or part-time basis as well as those who have been given leave of absence on grounds of family or c</t>
         </is>
       </c>
       <c r="Z17" s="4" t="inlineStr">
         <is>
-          <t>8.5.1</t>
+          <t>5.5.2</t>
         </is>
       </c>
       <c r="AA17" s="4" t="inlineStr">
@@ -14164,252 +14164,255 @@
       </c>
       <c r="AB17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="AC17" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="AD17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF17" s="4" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="AG17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL17" s="8">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT17" s="4" t="inlineStr">
+        <is>
+          <t>Anteil von Frauen in Führungspositionen</t>
+        </is>
+      </c>
+      <c r="AU17" s="4" t="inlineStr">
+        <is>
+          <t>Share of women in management positions</t>
+        </is>
+      </c>
+      <c r="AV17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BH17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="6" t="inlineStr">
+        <is>
+          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.&lt;br&gt;Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes Stand 30.06. des jeweiligen Jahres.&lt;br&gt;2021 vorläufige Daten.</t>
+        </is>
+      </c>
+      <c r="BS17" s="6" t="inlineStr">
+        <is>
+          <t>In this context, equal representation means that approximately numerical equality is targeted.&lt;br&gt;Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;2021 provisional data.</t>
+        </is>
+      </c>
+      <c r="BT17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BV17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BX17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BZ17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CB17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC17" s="4" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="CD17" s="4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="CE17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CF17" s="5">
         <v>1</v>
-      </c>
-      <c r="AE17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF17" s="4" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="AG17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AH17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AP17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AS17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AT17" s="4" t="inlineStr">
-        <is>
-          <t>Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten von Frauen und Männern</t>
-        </is>
-      </c>
-      <c r="AU17" s="4" t="inlineStr">
-        <is>
-          <t>Difference between average gross hourly earnings for women and men</t>
-        </is>
-      </c>
-      <c r="AV17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AW17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AX17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AY17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AZ17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BA17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BB17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BC17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BD17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BF17" s="4" t="inlineStr">
-        <is>
-          <t>In Prozent der Verdienste der Männer</t>
-        </is>
-      </c>
-      <c r="BG17" s="4" t="inlineStr">
-        <is>
-          <t>As share of the men's earnings</t>
-        </is>
-      </c>
-      <c r="BH17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BJ17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BL17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BN17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BP17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR17" s="6" t="inlineStr">
-        <is>
-          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 und 2021 vorläufig.</t>
-        </is>
-      </c>
-      <c r="BS17" s="6" t="inlineStr">
-        <is>
-          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020 and 2021.</t>
-        </is>
-      </c>
-      <c r="BT17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BV17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BX17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BZ17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CB17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC17" s="4" t="inlineStr">
-        <is>
-          <t>Deutschland</t>
-        </is>
-      </c>
-      <c r="CD17" s="4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="CE17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CF17" s="5">
-        <v>0</v>
       </c>
       <c r="CG17" s="4" t="inlineStr">
         <is>
@@ -14435,6 +14438,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO17" s="8">
+        <v>5</v>
+      </c>
       <c r="CP17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14450,6 +14456,9 @@
           <t/>
         </is>
       </c>
+      <c r="CU17" s="8">
+        <v>2016</v>
+      </c>
       <c r="CV17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -14502,22 +14511,22 @@
       </c>
       <c r="DH17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="DI17" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="DJ17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="DK17" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="DL17" s="4" t="inlineStr">
@@ -14607,7 +14616,7 @@
       </c>
       <c r="EC17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="ED17" s="7" t="b">
@@ -14907,7 +14916,7 @@
       </c>
       <c r="O18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
@@ -14917,52 +14926,52 @@
       </c>
       <c r="Q18" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business and in the federal civil service</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen an Führungspositionen im öffentlichen Dienst des Bundes.</t>
+          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
         </is>
       </c>
       <c r="U18" s="6" t="inlineStr">
         <is>
-          <t>Indicator 5.1.b shows the percentage of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
+          <t>The indicator shows the percentage of children whose fathers have receiving parental allowance.</t>
         </is>
       </c>
       <c r="V18" s="6" t="inlineStr">
         <is>
-          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in den Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil an Führungspositionen im öffentlichen Dienst des Bundes. Daher soll der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis zum Jahr 2030 auf 30 % erhöht werden. Gemäß dem am 06.01.2021 im Kabinett beschlossenen Entwurf des Zweiten Führungspositionengesetzes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025 erreicht werden. Damit wird eine Vereinbarung des Koalitionsvertrages aus 2018 umgesetzt.</t>
+          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
         </is>
       </c>
       <c r="W18" s="6" t="inlineStr">
         <is>
-          <t>Women are as highly qualified as men, yet they are they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30% by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which the Cabinet adopted on 6 January 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025. This will fulfil one of the commitments made in the coalition agreement of 2018.</t>
+          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65% by 2030.</t>
         </is>
       </c>
       <c r="X18" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Der Indikator erfasst den Anteil von Frauen in den Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Als Datengrundlagen dienen die Veröffentlichungen von börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet werden und in sog. WOB-Indexen veröffentlicht werden.&lt;br&gt;Der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen lag im Januar 2020 bei 35,2 %. Im Januar 2015 waren es noch 21,3 %. Der angestrebte Anteil von 30 % wurde bereits im Jahr 2018 und damit bereits zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist erreicht. Da gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern an Führungspositionen seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen sind, war bei Gesetzeskonformität dieser Anstieg zu erwarten.&lt;br&gt;Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet.  Der von der Definition vorgegebene Berichtskreis umfasst aktuell 105 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.&lt;br&gt;Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren von den insgesamt 882 000 Führungspositionen in der Wirtschaft im Jahr 2018 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.&lt;br&gt;&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Als Datengrundlage für den Indikator dienen die Ergebnisse der internen Gleichstellungsstatistik aller Dienststellen des Bundes nach Bundesgleichstellungsgesetz. Seit 2015 wird die Statistik alle zwei Jahre zum Stichtag 30. Juni durch das Statistische Bundesamt im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend erstellt. Vorher wurde die Statistik jährlich erstellt.&lt;br&gt;Der Frauenanteil an Führungspositionen im öffentlichen Dienst des Bundes lag im Jahr 2019 nach vorläufigen Daten bei 37,6 %. Im Jahr 2000 lag der Anteil bei 19,5 %. Dies ist eine Steigerung des Anteils seit 2000 um 92,8 %. Bei Fortsetzung der Entwicklung der letzten fünf jährlichen Veränderungen würde das angestrebte Ziel, von annähernd nummerischer Gleichheit bis zum Jahr 2025 in Führungspositionen im öffentlichen Dienst des Bundes, leicht verfehlt werden.&lt;br&gt;Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. In die Betrachtung einbezogen werden alle vollzeit-, teilzeitbeschäftigten und aufgrund von Familien- oder Pflege</t>
+          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.&lt;br&gt;Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, so dass im Folgenden vereinfacht von Müttern und von Vätern die Rede ist.&lt;br&gt;Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2017 auf 40,4 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.&lt;br&gt;Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborenen Kinder auf 3,4 Monate für im Jahr 2017 geborene Kinder.&lt;br&gt;Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborenen Kinder auf 1,4 Monate für im Jahr 2017 geborenen Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,2 Monate im Jahr 2017 an.&lt;br&gt;Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (z. B. Kinder von ausländischen Schutzsuchenden).&lt;br&gt;Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht) auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.&lt;br&gt;Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
         </is>
       </c>
       <c r="Y18" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The indicator records the percentage of women on the supervisory boards of joint-stock companies and partnerships limited by shares with more than 2,000 employees plus European companies (SEs) and listed companies with full co-determination. The data basis for the indicator comprises the publications of listed and fully co-determined companies, which are analysed by the Frauen in die Aufsichtsräte (Women on Board) association and published in the form of a WOB index.&lt;br&gt;In January 2020, women’s share of positions on the supervisory boards of these companies came to about 35.2%. In January 2015, it was still only 21.3%. The target of 30% was reached in 2018, which was twelve years in advance of the deadline set in the German Sustainable Development Strategy. The Gender Equality (Management Positions) Act prescribed that, in cases where elections were held for positions on the supervisory boards of the companies defined above in or after 2016, at least 30% of the seats on those boards must be occupied by women, and so compliance with the Act could be expected to yield this increase.&lt;br&gt;Given the definition used for the indicator, most of the businesses in Germany and the majority of management positions in the private sector are not taken into account. At the present time, the reported and analysed data relate to a group of 105 companies. The positions on supervisory boards that the WOB association has examined to date, fewer than 1,600 in number, are but a small fraction of the total of 882,000 management positions in the private sector identified by the pay structure survey in 2018. The figures show clearly that focusing on the supervisory board of a company reveals only some of the management positions in that company.&lt;br&gt;According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, direct, coordinate and evaluate the overall activities of enterprises, governments and other organisations, or of organisational units within them, and formulate and review their policies, laws, rules and regulations. This definition includes the activities of supervisory boards. If the ISCO classification is used as a basis, 22% of the 882,000 management positions in businesses were held by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O – Public administration and defence; compulsory social security – and parts of sector P – Education. Compared with 2014, the year of the previous pay structure survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. Before then they were compiled annually.&lt;br&gt;In 2019, according to preliminary data, the proportion of women in management positions in the federal civil service was about 37.6%. In 2000, the indicator value was 19.5%. This represents a 92.8% increase in the proportion of women since 2000. If the trend of the last five years were maintained, the target of virtual numerical equality in management positions in the federal civil service by 2025 would be narrowly missed.&lt;br&gt;The indicator is focused on the employees in management positions in all departments of the federal government. Their number includes all persons employed on a full-time or part-time basis as well as those who have been given leave of absence on grounds of family or c</t>
+          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.&lt;br&gt;Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99% of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.&lt;br&gt;The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. For the children born in 2008, fathers received parental allowance in 21.2% of cases, and this figure rose to 40.4% by 2017. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98% in every year.&lt;br&gt;Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.4 months for children born in 2017.&lt;br&gt;These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2017. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.2 months for those born in 2017.&lt;br&gt;The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The figures relate in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.&lt;br&gt;It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.&lt;br&gt;For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
         </is>
       </c>
       <c r="Z18" s="4" t="inlineStr">
         <is>
-          <t>5.5.2</t>
+          <t/>
         </is>
       </c>
       <c r="AA18" s="4" t="inlineStr">
@@ -14972,16 +14981,16 @@
       </c>
       <c r="AB18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="AC18" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="AD18" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="4" t="inlineStr">
         <is>
@@ -15013,9 +15022,6 @@
           <t/>
         </is>
       </c>
-      <c r="AL18" s="8">
-        <v>50</v>
-      </c>
       <c r="AM18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -15033,12 +15039,12 @@
       </c>
       <c r="AT18" s="4" t="inlineStr">
         <is>
-          <t>Anteil von Frauen in Führungspositionen</t>
+          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="AU18" s="4" t="inlineStr">
         <is>
-          <t>Share of women in management positions</t>
+          <t>Proportion of children whose fathers receive parental allowance</t>
         </is>
       </c>
       <c r="AV18" s="4" t="inlineStr">
@@ -15151,12 +15157,12 @@
       </c>
       <c r="BR18" s="6" t="inlineStr">
         <is>
-          <t>Dabei bedeutet gleichberechtigte Teilhabe, dass eine annähernde numerische Gleichheit angestrebt wird.&lt;br&gt;Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes Stand 30.06. des jeweiligen Jahres.&lt;br&gt;2021 vorläufige Daten.</t>
+          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.</t>
         </is>
       </c>
       <c r="BS18" s="6" t="inlineStr">
         <is>
-          <t>In this context, equal representation means that approximately numerical equality is targeted.&lt;br&gt;Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;2021 provisional data.</t>
+          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.</t>
         </is>
       </c>
       <c r="BT18" s="4" t="inlineStr">
@@ -15247,7 +15253,7 @@
         </is>
       </c>
       <c r="CO18" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CP18" s="4" t="inlineStr">
         <is>
@@ -15309,32 +15315,32 @@
       </c>
       <c r="DF18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Geburtsjahr des Kindes</t>
         </is>
       </c>
       <c r="DG18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Child`s year of birth</t>
         </is>
       </c>
       <c r="DH18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="DI18" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="DJ18" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="DK18" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t/>
         </is>
       </c>
       <c r="DL18" s="4" t="inlineStr">
@@ -15424,7 +15430,7 @@
       </c>
       <c r="EC18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="ED18" s="7" t="b">
@@ -15704,7 +15710,7 @@
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01</t>
+          <t>Z05_B01_P02</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -15714,67 +15720,67 @@
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
+          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
         <is>
-          <t>Promoting equality and a partnership-based division of responsibilities</t>
+          <t>Strengthening the economic participation of women globally</t>
         </is>
       </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01</t>
+          <t>Z05_B01_P02</t>
         </is>
       </c>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Vocational qualification of women and girls through German development cooperation</t>
         </is>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
+          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
         </is>
       </c>
       <c r="U19" s="6" t="inlineStr">
         <is>
-          <t>The indicator shows the percentage of children whose fathers have receiving parental allowance.</t>
+          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation.</t>
         </is>
       </c>
       <c r="V19" s="6" t="inlineStr">
         <is>
-          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
+          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden.</t>
         </is>
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65% by 2030.</t>
+          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030.</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
         <is>
-          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.&lt;br&gt;Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, so dass im Folgenden vereinfacht von Müttern und von Vätern die Rede ist.&lt;br&gt;Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2017 auf 40,4 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.&lt;br&gt;Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborenen Kinder auf 3,4 Monate für im Jahr 2017 geborene Kinder.&lt;br&gt;Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborenen Kinder auf 1,4 Monate für im Jahr 2017 geborenen Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,2 Monate im Jahr 2017 an.&lt;br&gt;Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (z. B. Kinder von ausländischen Schutzsuchenden).&lt;br&gt;Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht) auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.&lt;br&gt;Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
+          <t>Als Datenquelle wurden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Projekten verwendet, die sich im Jahr 2015 in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und non-formalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel der Kreditanstalt für Wiederaufbau finanziert. Die Datenerhebung erfolgte erstmalig im Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH sowie das Centrum für Evaluation GmbH und wird im dreijährigen Rhythmus durchgeführt. Insofern kann eine mögliche Zielerreichung des Indikators gemäß der im Indikatorenbericht zugrunde gelegten Methodik noch nicht beurteilt werden.&lt;br&gt;Im Jahr 2018 wurden rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Dies ist gegenüber 2015 – dem ersten Jahr der Erhebung – ein Anstieg um 243 %. Davon konnten 26,5 % über direkte Berufsbildungsmaßnahmen erreicht werden. Durch Institutionenförderung wurden 31,6 % der Frauen und Mädchen erreicht und durch Maßnahmen auf Politikfeldebene 41,8 %. Durch die finanzielle Zusammenarbeit wurden insgesamt 93,0 % der Frauen und Mädchen erreicht.&lt;br&gt;Frauen und Mädchen in Entwicklungs- und Schwellenländern werden auf unterschiedlichen Ebenen von deutscher entwicklungspolitischer Zusammenarbeit erreicht, weswegen die Daten auf drei Ebenen abgefragt wurden. (1) Bei Maßnahmen auf Individualebene kann die Anzahl der Frauen und Mädchen, die beruflich aus- und weitergebildet wurden oder an entsprechend ausgerichteten Beratungsmaßnahmen teilgenommen haben, direkt erfasst werden. Bei (2) Förderung von Institutionen oder (3) Förderung auf Politikfeldebene muss die erreichte Anzahl in den geförderten Aus- und Weiterbildungseinrichtungen geschätzt werden. Dabei werden auf Institutionenebene die Gesamtzahl der weiblichen Aus- und Weiterzubildenden in den jeweils geförderten Aus- und Weiterbildungseinrichtungen und auf Politikfeldebene alle weiblichen Aus- und Weiterzubildenden in den Partnerländern als erreichte Frauen und Mädchen angenommen. Folglich kann es zu Überschätzungen und zu Mehrfachzählungen kommen – insbesondere auf Politikfeldebene. Ferner kann nicht ausgeschlossen werden, dass es bei Nachfolgeprojekten oder bei mehreren zeitgleich durchgeführten Projekten in derselben Region zu Mehrfachzählungen der erreichten Frauen und Mädchen kommt.&lt;br&gt;Der Wert des Indikators hängt stark von der geförderten Ebene ab, da durch die Förderung von Institutionen oder Politikfeldern in der Regel mehr Frauen und Mädchen erreicht werden als bei individuellen Maßnahmen. Der Indikator trifft keine Aussage zu Erfolg, Umfang und Qualität der Qualifizierungsmaßnahmen, die recht unterschiedlich sein können. Die Maßnahmen zur Förderung der beruflichen Qualifizierung von Frauen und Mädchen sind Teil der gesamten öffentlichen Entwicklungsausgaben. Diese sind im Indikator 17.1 dargestellt.</t>
         </is>
       </c>
       <c r="Y19" s="6" t="inlineStr">
         <is>
-          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.&lt;br&gt;Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99% of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.&lt;br&gt;The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. For the children born in 2008, fathers received parental allowance in 21.2% of cases, and this figure rose to 40.4% by 2017. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98% in every year.&lt;br&gt;Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.4 months for children born in 2017.&lt;br&gt;These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2017. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.2 months for those born in 2017.&lt;br&gt;The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The figures relate in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.&lt;br&gt;It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.&lt;br&gt;For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
+          <t>Information provided by the Federal Ministry for Economic Cooperation and Development (BMZ) on supported projects that entered the implementation phase in 2015 served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds provided through the Kreditanstalt für Wiederaufbau (KfW). The data were collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH, and are updated at three-annual intervals. This means that it is not yet possible to gauge the prospects of meeting the target on the basis of the methodology set out in the Indicator Report.&lt;br&gt;In 2018, some 863,000 women and girls were reached by skills development measures. This is 243% higher than 2015, the first year for which data were collected. Of these women and girls, 26.5% were reached directly through individual vocational training. A total of 31.6% of the women and girls were reached through institutional funding and 41.8% through measures in specific policy fields. Of all these women and girls, 93.0% were reached through financial cooperation.&lt;br&gt;Because women and girls in developing and emerging countries are reached by German development cooperation by three different levels, the data were searched for each of those levels. (1) In the case of individualised measures, the number of women and girls who received vocational training and continuing education or participated in individualised extension measures can be recorded directly. When it comes to (2) the funding of institutions and (3) the allocation of funds to specific policy fields, the number of beneficiaries reached in the supported training and further education facilities has to be estimated. In this case, the total number of female trainees and students in each of the funded education and training establishments as well as all women and girls receiving education or training in the relevant policy field are assumed to be beneficiaries of German development cooperation. As a result, there can be overestimates and duplication, especially in the figures for policy fields. Furthermore, in the case of follow-on projects or when two or more projects are implemented simultaneously in the same region, the possibility of double counting some of the beneficiary women and girls cannot be ruled out.&lt;br&gt;The value of the indicator depends heavily on the funding level, as funding through institutions or policy fields generally reaches more women and girls than individual measures. The indicator does not provide any information on the success, scope and quality of the qualification measures, which can vary considerably. The measures designed to promote the vocational skills of women and girls are part of overall official development assistance. The total amount of ODA is shown in indicator 17.1.</t>
         </is>
       </c>
       <c r="Z19" s="4" t="inlineStr">
@@ -15789,16 +15795,16 @@
       </c>
       <c r="AB19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="AD19" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="4" t="inlineStr">
         <is>
@@ -15807,7 +15813,7 @@
       </c>
       <c r="AF19" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AG19" s="4" t="inlineStr">
@@ -15847,12 +15853,12 @@
       </c>
       <c r="AT19" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Frauen und Mädchen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
         </is>
       </c>
       <c r="AU19" s="4" t="inlineStr">
         <is>
-          <t>Proportion of children whose fathers receive parental allowance</t>
+          <t>Women and girls reached by vocational qualification measures through German development assistance</t>
         </is>
       </c>
       <c r="AV19" s="4" t="inlineStr">
@@ -15965,12 +15971,12 @@
       </c>
       <c r="BR19" s="6" t="inlineStr">
         <is>
-          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.</t>
+          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS19" s="6" t="inlineStr">
         <is>
-          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.</t>
+          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT19" s="4" t="inlineStr">
@@ -16020,12 +16026,12 @@
       </c>
       <c r="CC19" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="CD19" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="CE19" s="4" t="inlineStr">
@@ -16034,7 +16040,7 @@
         </is>
       </c>
       <c r="CF19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG19" s="4" t="inlineStr">
         <is>
@@ -16060,9 +16066,6 @@
           <t/>
         </is>
       </c>
-      <c r="CO19" s="8">
-        <v>10</v>
-      </c>
       <c r="CP19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -16078,9 +16081,6 @@
           <t/>
         </is>
       </c>
-      <c r="CU19" s="8">
-        <v>2016</v>
-      </c>
       <c r="CV19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -16123,32 +16123,32 @@
       </c>
       <c r="DF19" s="4" t="inlineStr">
         <is>
-          <t>Geburtsjahr des Kindes</t>
+          <t/>
         </is>
       </c>
       <c r="DG19" s="4" t="inlineStr">
         <is>
-          <t>Child`s year of birth</t>
+          <t/>
         </is>
       </c>
       <c r="DH19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="DI19" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="DJ19" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="DK19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="DL19" s="4" t="inlineStr">
@@ -16238,7 +16238,7 @@
       </c>
       <c r="EC19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="ED19" s="7" t="b">
@@ -36923,7 +36923,7 @@
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
@@ -36933,47 +36933,47 @@
       </c>
       <c r="Q45" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="R45" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="S45" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
-          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Energieverbrauch, Ausstoß von Kohlendioxid (CO2) und Rohstoffeinsatz im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
+          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden.</t>
         </is>
       </c>
       <c r="U45" s="6" t="inlineStr">
         <is>
-          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
+          <t>The indicator measures the market share of products with voluntary or mandatory ecolabels which are awarded according to criteria stipulated by government bodies.</t>
         </is>
       </c>
       <c r="V45" s="6" t="inlineStr">
         <is>
-          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
+          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
         </is>
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the German Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
+          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the German Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34% by 2030.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
         <is>
-          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt. Der Indikator stellt drei der verantwortlichen Einflussfaktoren, nämlich Energie, CO2-Emissionen und den Rohstoffeinsatz, dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.&lt;br&gt;Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und deren Transport im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und getrennt für Energie, Rohstoffe und CO2 dargestellt.&lt;br&gt;Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.&lt;br&gt;Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe, wie land- und forstwirtschaftliche Erzeugnisse. Während der Einsatz von abiotischen Rohstoffen kontinuierlich sinkt, gibt es im Bereich der landwirtschaftlichen Erzeugnisse größere Schwankungen. Dies führte für den Zeitraum 2010 bis 2016 insgesamt zu einem leichten Rückgang um 3 %.&lt;br&gt;Im gleichen Zeitraum verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %. Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte dabei im Jahr 2016 mit insgesamt rund 3 402 Petajoule (36 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.&lt;br&gt;Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2016 667 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2016 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 1 %. Die letzten fünf Jahre zeigen hingegen insgesamt keinen Rückgang, sondern einen leichten Zuwachs der Emissionen.&lt;br&gt;Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
+          <t>Als Quellen für die Berechnung des Indikators werden Daten der Gesellschaft für Konsumforschung, des Kraftfahrt-Bundesamtes, der Agrarmarkt Informations-Gesellschaft mbH, des Bundes Ökologische Lebensmittelwirtschaft, des Verkehrsclubs Deutschland und des Umweltbundesamtes verwendet. Letzteres berechnet die Indikatorwerte jährlich ab dem Berichtsjahr 2012.&lt;br&gt;Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden können.&lt;br&gt;Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernsehgeräte und Staubsauger betrachtet. Weiterhin werden Leuchtmittel, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Autos erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet. Dies soll sicherstellen, dass hohe Marktanteile in kleinen Nischenmärkten den Indikator nicht verzerren. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.&lt;br&gt;Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltkennzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht gegeneinander aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er auch nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er folglich keine Rückschlüsse auf deren Anzahl zu. Letztlich kann eine Änderung des Wertes des Indikators daher auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.&lt;br&gt;Zwischen 2012 und 2018 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 % auf 7,5 %. Dies entspricht einem Umsatz von insgesamt 23,8 Milliarden Euro im Jahr 2018. Der Wert des Indikators ist 2017 und 2018 im Vergleich zum Vorjahr gesunken und entwickelte sich damit nicht in die angestrebte Richtung. Ohne eine Trendumkehr und erhebliche Steigerung des Marktanteils wird das Ziel bis zum Jahr 2030 erheblich verfehlt.</t>
         </is>
       </c>
       <c r="Y45" s="6" t="inlineStr">
         <is>
-          <t>The spending habits of private households affect the environment in various ways. This indicator reflects three of the factors behind this impact, namely energy, CO2 emissions and the use of raw materials. The relevant data are collected  in the environmental economic accounts of a range of governmental and non-governmental sources.&lt;br&gt;Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.&lt;br&gt;The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.&lt;br&gt;However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources is steadily shrinking, there are greater fluctuations in the area of agricultural products. This resulted in a slight overall reduction of 3% between 2010 and 2016.&lt;br&gt;In contrast, energy consumption went down by 6% during the same period. Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,402 petajoules in total, home life accounted for the largest proportion, 36% of private household consumption, in 2016.&lt;br&gt;A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2016 amounted to 667 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2016, direct CO2 emissions fell by 6%, while the emissions footprint of consumer goods fell by 1%. The last five years, on the other hand, show no reduction but a slight increase in emissions.&lt;br&gt;This indicator can be usefully cross-referenced with indicator 8.1 on raw material input productivity.</t>
+          <t>The indicator is calculated on the basis of data from the consumer research institute GfK, the Federal Motor Transport Authority, the agricultural market information firm AMI, the Organic Food Production Alliance, the sustainable-mobility association Verkehrsclub Deutschland and the Federal Environment Agency. The latter has been calculating the indicator values for each reporting year since 2012.&lt;br&gt;The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups are examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.&lt;br&gt;The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.&lt;br&gt;It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.&lt;br&gt;Between 2012 and 2018, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6% to 7.5%. This is equivalent to a turnover of EUR 23.8 billion in 2018. The indicator value sank in 2017 and 2018 relative to the previous year, which is not the desired direction of travel. Unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.</t>
         </is>
       </c>
       <c r="Z45" s="4" t="inlineStr">
@@ -36988,12 +36988,12 @@
       </c>
       <c r="AB45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="AC45" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="AD45" s="7" t="b">
@@ -37006,7 +37006,7 @@
       </c>
       <c r="AF45" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AG45" s="4" t="inlineStr">
@@ -37030,10 +37030,10 @@
         </is>
       </c>
       <c r="AK45" s="8">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="8">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM45" s="4" t="inlineStr">
         <is>
@@ -37052,12 +37052,12 @@
       </c>
       <c r="AT45" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="AU45" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption</t>
+          <t>Market share of products certified by publicly managed sustainability labelling schemes</t>
         </is>
       </c>
       <c r="AV45" s="4" t="inlineStr">
@@ -37170,12 +37170,12 @@
       </c>
       <c r="BR45" s="6" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BS45" s="6" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.&lt;br&gt;Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BT45" s="4" t="inlineStr">
@@ -37283,9 +37283,6 @@
           <t/>
         </is>
       </c>
-      <c r="CU45" s="8">
-        <v>2016</v>
-      </c>
       <c r="CV45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -37338,42 +37335,42 @@
       </c>
       <c r="DH45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="DI45" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="DJ45" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="DK45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="DL45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="DM45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="DN45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="DO45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="DP45" s="4" t="inlineStr">
@@ -37443,7 +37440,7 @@
       </c>
       <c r="EC45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="ED45" s="7" t="b">
@@ -37743,7 +37740,7 @@
       </c>
       <c r="O46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="P46" s="4" t="inlineStr">
@@ -37753,47 +37750,47 @@
       </c>
       <c r="Q46" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
       <c r="S46" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
       <c r="T46" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden.</t>
+          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Energieverbrauch, Ausstoß von Kohlendioxid (CO2) und Rohstoffeinsatz im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
         </is>
       </c>
       <c r="U46" s="6" t="inlineStr">
         <is>
-          <t>The indicator measures the market share of products with voluntary or mandatory ecolabels which are awarded according to criteria stipulated by government bodies.</t>
+          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
         </is>
       </c>
       <c r="V46" s="6" t="inlineStr">
         <is>
-          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
+          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
         </is>
       </c>
       <c r="W46" s="6" t="inlineStr">
         <is>
-          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the German Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34% by 2030.</t>
+          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the German Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
         </is>
       </c>
       <c r="X46" s="6" t="inlineStr">
         <is>
-          <t>Als Quellen für die Berechnung des Indikators werden Daten der Gesellschaft für Konsumforschung, des Kraftfahrt-Bundesamtes, der Agrarmarkt Informations-Gesellschaft mbH, des Bundes Ökologische Lebensmittelwirtschaft, des Verkehrsclubs Deutschland und des Umweltbundesamtes verwendet. Letzteres berechnet die Indikatorwerte jährlich ab dem Berichtsjahr 2012.&lt;br&gt;Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden können.&lt;br&gt;Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernsehgeräte und Staubsauger betrachtet. Weiterhin werden Leuchtmittel, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Autos erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet. Dies soll sicherstellen, dass hohe Marktanteile in kleinen Nischenmärkten den Indikator nicht verzerren. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.&lt;br&gt;Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltkennzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht gegeneinander aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er auch nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er folglich keine Rückschlüsse auf deren Anzahl zu. Letztlich kann eine Änderung des Wertes des Indikators daher auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.&lt;br&gt;Zwischen 2012 und 2018 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 % auf 7,5 %. Dies entspricht einem Umsatz von insgesamt 23,8 Milliarden Euro im Jahr 2018. Der Wert des Indikators ist 2017 und 2018 im Vergleich zum Vorjahr gesunken und entwickelte sich damit nicht in die angestrebte Richtung. Ohne eine Trendumkehr und erhebliche Steigerung des Marktanteils wird das Ziel bis zum Jahr 2030 erheblich verfehlt.</t>
+          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt. Der Indikator stellt drei der verantwortlichen Einflussfaktoren, nämlich Energie, CO2-Emissionen und den Rohstoffeinsatz, dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.&lt;br&gt;Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und deren Transport im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und getrennt für Energie, Rohstoffe und CO2 dargestellt.&lt;br&gt;Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.&lt;br&gt;Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe, wie land- und forstwirtschaftliche Erzeugnisse. Während der Einsatz von abiotischen Rohstoffen kontinuierlich sinkt, gibt es im Bereich der landwirtschaftlichen Erzeugnisse größere Schwankungen. Dies führte für den Zeitraum 2010 bis 2016 insgesamt zu einem leichten Rückgang um 3 %.&lt;br&gt;Im gleichen Zeitraum verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %. Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte dabei im Jahr 2016 mit insgesamt rund 3 402 Petajoule (36 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.&lt;br&gt;Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2016 667 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2016 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 1 %. Die letzten fünf Jahre zeigen hingegen insgesamt keinen Rückgang, sondern einen leichten Zuwachs der Emissionen.&lt;br&gt;Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
         </is>
       </c>
       <c r="Y46" s="6" t="inlineStr">
         <is>
-          <t>The indicator is calculated on the basis of data from the consumer research institute GfK, the Federal Motor Transport Authority, the agricultural market information firm AMI, the Organic Food Production Alliance, the sustainable-mobility association Verkehrsclub Deutschland and the Federal Environment Agency. The latter has been calculating the indicator values for each reporting year since 2012.&lt;br&gt;The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups are examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.&lt;br&gt;The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.&lt;br&gt;It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.&lt;br&gt;Between 2012 and 2018, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6% to 7.5%. This is equivalent to a turnover of EUR 23.8 billion in 2018. The indicator value sank in 2017 and 2018 relative to the previous year, which is not the desired direction of travel. Unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.</t>
+          <t>The spending habits of private households affect the environment in various ways. This indicator reflects three of the factors behind this impact, namely energy, CO2 emissions and the use of raw materials. The relevant data are collected  in the environmental economic accounts of a range of governmental and non-governmental sources.&lt;br&gt;Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.&lt;br&gt;The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.&lt;br&gt;However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources is steadily shrinking, there are greater fluctuations in the area of agricultural products. This resulted in a slight overall reduction of 3% between 2010 and 2016.&lt;br&gt;In contrast, energy consumption went down by 6% during the same period. Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,402 petajoules in total, home life accounted for the largest proportion, 36% of private household consumption, in 2016.&lt;br&gt;A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2016 amounted to 667 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2016, direct CO2 emissions fell by 6%, while the emissions footprint of consumer goods fell by 1%. The last five years, on the other hand, show no reduction but a slight increase in emissions.&lt;br&gt;This indicator can be usefully cross-referenced with indicator 8.1 on raw material input productivity.</t>
         </is>
       </c>
       <c r="Z46" s="4" t="inlineStr">
@@ -37808,12 +37805,12 @@
       </c>
       <c r="AB46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="AC46" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="AD46" s="7" t="b">
@@ -37826,7 +37823,7 @@
       </c>
       <c r="AF46" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AG46" s="4" t="inlineStr">
@@ -37850,10 +37847,10 @@
         </is>
       </c>
       <c r="AK46" s="8">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL46" s="8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AM46" s="4" t="inlineStr">
         <is>
@@ -37872,12 +37869,12 @@
       </c>
       <c r="AT46" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
       <c r="AU46" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed sustainability labelling schemes</t>
+          <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
       <c r="AV46" s="4" t="inlineStr">
@@ -37990,12 +37987,12 @@
       </c>
       <c r="BR46" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS46" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT46" s="4" t="inlineStr">
@@ -38103,6 +38100,9 @@
           <t/>
         </is>
       </c>
+      <c r="CU46" s="8">
+        <v>2016</v>
+      </c>
       <c r="CV46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -38155,42 +38155,42 @@
       </c>
       <c r="DH46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="DI46" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="DJ46" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="DK46" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t/>
         </is>
       </c>
       <c r="DL46" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t/>
         </is>
       </c>
       <c r="DM46" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t/>
         </is>
       </c>
       <c r="DN46" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t/>
         </is>
       </c>
       <c r="DO46" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t/>
         </is>
       </c>
       <c r="DP46" s="4" t="inlineStr">
@@ -38260,7 +38260,7 @@
       </c>
       <c r="EC46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="ED46" s="7" t="b">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -9595,7 +9595,7 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01</t>
+          <t>Z05_B01_P02</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -9605,72 +9605,72 @@
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
+          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
         </is>
       </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
-          <t>Promoting equality and a partnership-based division of responsibilities</t>
+          <t>Strengthening the economic participation of women globally</t>
         </is>
       </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01</t>
+          <t>Z05_B01_P02</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>Vocational qualification of women and girls through German development cooperation</t>
         </is>
       </c>
       <c r="T16" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer in Prozent der durchschnittlichen Bruttostundenverdienste der Männer.</t>
+          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
         </is>
       </c>
       <c r="U16" s="6" t="inlineStr">
         <is>
-          <t>The indicator is a percentage figure showing the gender pay gap as the ratio of the average gross hourly earnings for women to the average gross hourly wage of men.</t>
+          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation.</t>
         </is>
       </c>
       <c r="V16" s="6" t="inlineStr">
         <is>
-          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgt daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
+          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden.</t>
         </is>
       </c>
       <c r="W16" s="6" t="inlineStr">
         <is>
-          <t>Differences in pay between men and women in modern working societies are a sign of social inequality. A narrowing of pay disparities is an indicator of progress on the road to equality. The German Government has therefore been pursuing the target of reducing the pay gap to 10% by 2020 and maintaining it until 2030.</t>
+          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030.</t>
         </is>
       </c>
       <c r="X16" s="6" t="inlineStr">
         <is>
-          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Dabei werden deren Ursachen, wie Qualifikation, Tätigkeit oder unterschiedliche Erwerbsbiografien, nicht berücksichtigt.&lt;br&gt;Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen, Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap (GPG) veröffentlicht. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten und unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der „Land- und Forstwirtschaft, Fischerei“, der „öffentlichen Verwaltung, Verteidigung; Sozialversicherung“ sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.&lt;br&gt;Nach vorläufigen Zahlen lag der unbereinigte Verdienstabstand zwischen Frauen und Männern bei durchschnittlich 19 % im Jahr 2019. Das heißt, der durchschnittliche Bruttostundenverdienst von Frauen lag um rund ein Fünftel niedriger als der Verdienst der Männer. Über einen längeren Zeitraum betrachtet, zeigt sich für Gesamtdeutschland ein langsamer, aber stetiger Rückgang des unbereinigten Gender Pay Gap. Dieser hatte 2014 mit 22 % um 3 Prozentpunkte höher gelegen als 2019. Bei einer Fortsetzung der Entwicklung der letzten fünf Jahre wird das angestrebte Ziel im Jahr 2020 sowie im Jahr 2030 nicht erreicht werden.&lt;br&gt;Allerdings zeichnet sich für Deutschland kein einheitliches Bild ab. Zwischen den Bundesländern bestehen erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2019 mit 25 % in Bremen, während er in Mecklenburg-Vorpommern und Thüringen 6 % betrug. Dabei war das Verdienstniveau in Mecklenburg-Vorpommern und Thüringen insgesamt niedriger als in Bremen.&lt;br&gt;Untersuchungen der ursächlichen Faktoren des GPG können alle vier Jahre auf Basis der detaillierten Ergebnisse aus der Verdienststrukturerhebung durchgeführt werden. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Diese Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. Demnach sind 71°% des Verdienstunterschieds zwischen Männern und Frauen strukturbedingt – also unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen und Berufen arbeiten, in denen schlechter bezahlt wird und sie seltener Führungspositionen erreichen. Auch arbeiten sie häufiger als Männer in Teilzeit und in Minijobs. Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).&lt;br&gt;Im europäischen Vergleich liegen Ergebnisse für das Jahr 2018 vor. Mit 20 % lag der unbereinigte Gender Pay Gap in Deutschland für das Jahr 2018 deutlich über dem Durchschnitt der Europäischen Union (15 %, vorläufig). Von den 28 EU-Staaten im Jahr 2018 wies nur Estland mit 22 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %) sowie Rumänien (2 %).</t>
+          <t>Als Datenquelle wurden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Projekten verwendet, die sich im Jahr 2015 in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und non-formalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel der Kreditanstalt für Wiederaufbau finanziert. Die Datenerhebung erfolgte erstmalig im Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH sowie das Centrum für Evaluation GmbH und wird im dreijährigen Rhythmus durchgeführt. Insofern kann eine mögliche Zielerreichung des Indikators gemäß der im Indikatorenbericht zugrunde gelegten Methodik noch nicht beurteilt werden.&lt;br&gt;Im Jahr 2018 wurden rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Dies ist gegenüber 2015 – dem ersten Jahr der Erhebung – ein Anstieg um 243 %. Davon konnten 26,5 % über direkte Berufsbildungsmaßnahmen erreicht werden. Durch Institutionenförderung wurden 31,6 % der Frauen und Mädchen erreicht und durch Maßnahmen auf Politikfeldebene 41,8 %. Durch die finanzielle Zusammenarbeit wurden insgesamt 93,0 % der Frauen und Mädchen erreicht.&lt;br&gt;Frauen und Mädchen in Entwicklungs- und Schwellenländern werden auf unterschiedlichen Ebenen von deutscher entwicklungspolitischer Zusammenarbeit erreicht, weswegen die Daten auf drei Ebenen abgefragt wurden. (1) Bei Maßnahmen auf Individualebene kann die Anzahl der Frauen und Mädchen, die beruflich aus- und weitergebildet wurden oder an entsprechend ausgerichteten Beratungsmaßnahmen teilgenommen haben, direkt erfasst werden. Bei (2) Förderung von Institutionen oder (3) Förderung auf Politikfeldebene muss die erreichte Anzahl in den geförderten Aus- und Weiterbildungseinrichtungen geschätzt werden. Dabei werden auf Institutionenebene die Gesamtzahl der weiblichen Aus- und Weiterzubildenden in den jeweils geförderten Aus- und Weiterbildungseinrichtungen und auf Politikfeldebene alle weiblichen Aus- und Weiterzubildenden in den Partnerländern als erreichte Frauen und Mädchen angenommen. Folglich kann es zu Überschätzungen und zu Mehrfachzählungen kommen – insbesondere auf Politikfeldebene. Ferner kann nicht ausgeschlossen werden, dass es bei Nachfolgeprojekten oder bei mehreren zeitgleich durchgeführten Projekten in derselben Region zu Mehrfachzählungen der erreichten Frauen und Mädchen kommt.&lt;br&gt;Der Wert des Indikators hängt stark von der geförderten Ebene ab, da durch die Förderung von Institutionen oder Politikfeldern in der Regel mehr Frauen und Mädchen erreicht werden als bei individuellen Maßnahmen. Der Indikator trifft keine Aussage zu Erfolg, Umfang und Qualität der Qualifizierungsmaßnahmen, die recht unterschiedlich sein können. Die Maßnahmen zur Förderung der beruflichen Qualifizierung von Frauen und Mädchen sind Teil der gesamten öffentlichen Entwicklungsausgaben. Diese sind im Indikator 17.1 dargestellt.</t>
         </is>
       </c>
       <c r="Y16" s="6" t="inlineStr">
         <is>
-          <t>The indicator presented here shows the unadjusted gender pay gap. It simply uses the percentage ratio between the average gross hourly rates of pay. Factors such as qualification levels, hours worked and occupational experience profiles are not taken into account.&lt;br&gt;The data for the indicator are based on the four-yearly wage structure survey conducted by the statistical offices of the Länder in the form of a representative sample survey with a disclosure obligation covering a maximum total of 60,000 businesses. On the basis of these data, results are calculated, broken down by age group, education level, performance group, activity category, collective agreement coverage, company size class and economic sector, and the resulting adjusted gender pay gap (GPG) is published. For the interim years, the rates of change from the quarterly wage survey are used to extrapolate the unadjusted GPG. When the adjusted and the unadjusted GPG are calculated, the EU categorisation is used, in which employees in agriculture, forestry and fishing and in public administration, defence and compulsory social security as well as employees of microenterprises are not taken into account.&lt;br&gt;According to provisional figures, the average unadjusted gender pay gap between women and men in 2019 was 19%. This means that the average gross hourly pay earned by women was about a fifth lower than that earned by men. Over the longer term, a slow but steady narrowing of the unadjusted gender pay gap is evident in the whole of Germany. It stood at 22% in 2014, which is three percentage points higher than in 2019. If the trend recorded over the last five years continues, the target will not be achieved in 2020 or in 2030.&lt;br&gt;At the same time, the picture for Germany is not a uniform one. There are considerable differences between Länder: the highest unadjusted GPG in 2019 was 25% in Bremen, while in Mecklenburg-Western Pomerania and in Thuringia the gap was only 6%. Pay levels generally, however, were lower in Mecklenburg-Western Pomerania and Thuringia than in Bremen.&lt;br&gt;Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the wage structure survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71% of the gender pay gap, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs. The remaining 29% of the pay differential corresponds to the adjusted GPG of 6% in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4% in Berlin to 7% in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.&lt;br&gt;Comparative figures for the European Union are also available for 2018. At 20%, the unadjusted gender pay gap in Germany for 2018 lay considerably above the provisional European Union average of 15%. Of the 28 EU states in 2018, only Estonia, with 22% had a higher gender pay gap. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1%, and Romania, with 2%.</t>
+          <t>Information provided by the Federal Ministry for Economic Cooperation and Development (BMZ) on supported projects that entered the implementation phase in 2015 served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds provided through the Kreditanstalt für Wiederaufbau (KfW). The data were collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH, and are updated at three-annual intervals. This means that it is not yet possible to gauge the prospects of meeting the target on the basis of the methodology set out in the Indicator Report.&lt;br&gt;In 2018, some 863,000 women and girls were reached by skills development measures. This is 243% higher than 2015, the first year for which data were collected. Of these women and girls, 26.5% were reached directly through individual vocational training. A total of 31.6% of the women and girls were reached through institutional funding and 41.8% through measures in specific policy fields. Of all these women and girls, 93.0% were reached through financial cooperation.&lt;br&gt;Because women and girls in developing and emerging countries are reached by German development cooperation by three different levels, the data were searched for each of those levels. (1) In the case of individualised measures, the number of women and girls who received vocational training and continuing education or participated in individualised extension measures can be recorded directly. When it comes to (2) the funding of institutions and (3) the allocation of funds to specific policy fields, the number of beneficiaries reached in the supported training and further education facilities has to be estimated. In this case, the total number of female trainees and students in each of the funded education and training establishments as well as all women and girls receiving education or training in the relevant policy field are assumed to be beneficiaries of German development cooperation. As a result, there can be overestimates and duplication, especially in the figures for policy fields. Furthermore, in the case of follow-on projects or when two or more projects are implemented simultaneously in the same region, the possibility of double counting some of the beneficiary women and girls cannot be ruled out.&lt;br&gt;The value of the indicator depends heavily on the funding level, as funding through institutions or policy fields generally reaches more women and girls than individual measures. The indicator does not provide any information on the success, scope and quality of the qualification measures, which can vary considerably. The measures designed to promote the vocational skills of women and girls are part of overall official development assistance. The total amount of ODA is shown in indicator 17.1.</t>
         </is>
       </c>
       <c r="Z16" s="4" t="inlineStr">
         <is>
-          <t>8.5.1</t>
+          <t/>
         </is>
       </c>
       <c r="AA16" s="4" t="inlineStr">
@@ -9680,16 +9680,16 @@
       </c>
       <c r="AB16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="AD16" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="4" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="AF16" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AG16" s="4" t="inlineStr">
@@ -9738,12 +9738,12 @@
       </c>
       <c r="AT16" s="4" t="inlineStr">
         <is>
-          <t>Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten von Frauen und Männern</t>
+          <t>Frauen und Mädchen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
         </is>
       </c>
       <c r="AU16" s="4" t="inlineStr">
         <is>
-          <t>Difference between average gross hourly earnings for women and men</t>
+          <t>Women and girls reached by vocational qualification measures through German development assistance</t>
         </is>
       </c>
       <c r="AV16" s="4" t="inlineStr">
@@ -9798,12 +9798,12 @@
       </c>
       <c r="BF16" s="4" t="inlineStr">
         <is>
-          <t>In Prozent der Verdienste der Männer</t>
+          <t/>
         </is>
       </c>
       <c r="BG16" s="4" t="inlineStr">
         <is>
-          <t>As share of the men's earnings</t>
+          <t/>
         </is>
       </c>
       <c r="BH16" s="4" t="inlineStr">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="BR16" s="6" t="inlineStr">
         <is>
-          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 und 2021 vorläufig.</t>
+          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS16" s="6" t="inlineStr">
         <is>
-          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020 and 2021.</t>
+          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT16" s="4" t="inlineStr">
@@ -9911,12 +9911,12 @@
       </c>
       <c r="CC16" s="4" t="inlineStr">
         <is>
-          <t>Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="CD16" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t/>
         </is>
       </c>
       <c r="CE16" s="4" t="inlineStr">
@@ -10018,22 +10018,22 @@
       </c>
       <c r="DH16" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="DI16" s="4" t="inlineStr">
         <is>
-          <t>05.1.a</t>
+          <t>05.1.e</t>
         </is>
       </c>
       <c r="DJ16" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_8</t>
+          <t>Q_BMZ</t>
         </is>
       </c>
       <c r="DK16" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_19</t>
+          <t>Q_CEVAL</t>
         </is>
       </c>
       <c r="DL16" s="4" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="O17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="P17" s="4" t="inlineStr">
@@ -10203,52 +10203,52 @@
       </c>
       <c r="Q17" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business and in the federal civil service</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen an Führungspositionen im öffentlichen Dienst des Bundes.</t>
+          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer in Prozent der durchschnittlichen Bruttostundenverdienste der Männer.</t>
         </is>
       </c>
       <c r="U17" s="6" t="inlineStr">
         <is>
-          <t>Indicator 5.1.b shows the percentage of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
+          <t>The indicator is a percentage figure showing the gender pay gap as the ratio of the average gross hourly earnings for women to the average gross hourly wage of men.</t>
         </is>
       </c>
       <c r="V17" s="6" t="inlineStr">
         <is>
-          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in den Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil an Führungspositionen im öffentlichen Dienst des Bundes. Daher soll der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis zum Jahr 2030 auf 30 % erhöht werden. Gemäß dem am 06.01.2021 im Kabinett beschlossenen Entwurf des Zweiten Führungspositionengesetzes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025 erreicht werden. Damit wird eine Vereinbarung des Koalitionsvertrages aus 2018 umgesetzt.</t>
+          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgt daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
         </is>
       </c>
       <c r="W17" s="6" t="inlineStr">
         <is>
-          <t>Women are as highly qualified as men, yet they are they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30% by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which the Cabinet adopted on 6 January 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025. This will fulfil one of the commitments made in the coalition agreement of 2018.</t>
+          <t>Differences in pay between men and women in modern working societies are a sign of social inequality. A narrowing of pay disparities is an indicator of progress on the road to equality. The German Government has therefore been pursuing the target of reducing the pay gap to 10% by 2020 and maintaining it until 2030.</t>
         </is>
       </c>
       <c r="X17" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Der Indikator erfasst den Anteil von Frauen in den Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Als Datengrundlagen dienen die Veröffentlichungen von börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet werden und in sog. WOB-Indexen veröffentlicht werden.&lt;br&gt;Der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen lag im Januar 2020 bei 35,2 %. Im Januar 2015 waren es noch 21,3 %. Der angestrebte Anteil von 30 % wurde bereits im Jahr 2018 und damit bereits zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist erreicht. Da gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern an Führungspositionen seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen sind, war bei Gesetzeskonformität dieser Anstieg zu erwarten.&lt;br&gt;Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet.  Der von der Definition vorgegebene Berichtskreis umfasst aktuell 105 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.&lt;br&gt;Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren von den insgesamt 882 000 Führungspositionen in der Wirtschaft im Jahr 2018 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.&lt;br&gt;&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Als Datengrundlage für den Indikator dienen die Ergebnisse der internen Gleichstellungsstatistik aller Dienststellen des Bundes nach Bundesgleichstellungsgesetz. Seit 2015 wird die Statistik alle zwei Jahre zum Stichtag 30. Juni durch das Statistische Bundesamt im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend erstellt. Vorher wurde die Statistik jährlich erstellt.&lt;br&gt;Der Frauenanteil an Führungspositionen im öffentlichen Dienst des Bundes lag im Jahr 2019 nach vorläufigen Daten bei 37,6 %. Im Jahr 2000 lag der Anteil bei 19,5 %. Dies ist eine Steigerung des Anteils seit 2000 um 92,8 %. Bei Fortsetzung der Entwicklung der letzten fünf jährlichen Veränderungen würde das angestrebte Ziel, von annähernd nummerischer Gleichheit bis zum Jahr 2025 in Führungspositionen im öffentlichen Dienst des Bundes, leicht verfehlt werden.&lt;br&gt;Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. In die Betrachtung einbezogen werden alle vollzeit-, teilzeitbeschäftigten und aufgrund von Familien- oder Pflege</t>
+          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Dabei werden deren Ursachen, wie Qualifikation, Tätigkeit oder unterschiedliche Erwerbsbiografien, nicht berücksichtigt.&lt;br&gt;Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen, Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap (GPG) veröffentlicht. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten und unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der „Land- und Forstwirtschaft, Fischerei“, der „öffentlichen Verwaltung, Verteidigung; Sozialversicherung“ sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.&lt;br&gt;Nach vorläufigen Zahlen lag der unbereinigte Verdienstabstand zwischen Frauen und Männern bei durchschnittlich 19 % im Jahr 2019. Das heißt, der durchschnittliche Bruttostundenverdienst von Frauen lag um rund ein Fünftel niedriger als der Verdienst der Männer. Über einen längeren Zeitraum betrachtet, zeigt sich für Gesamtdeutschland ein langsamer, aber stetiger Rückgang des unbereinigten Gender Pay Gap. Dieser hatte 2014 mit 22 % um 3 Prozentpunkte höher gelegen als 2019. Bei einer Fortsetzung der Entwicklung der letzten fünf Jahre wird das angestrebte Ziel im Jahr 2020 sowie im Jahr 2030 nicht erreicht werden.&lt;br&gt;Allerdings zeichnet sich für Deutschland kein einheitliches Bild ab. Zwischen den Bundesländern bestehen erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2019 mit 25 % in Bremen, während er in Mecklenburg-Vorpommern und Thüringen 6 % betrug. Dabei war das Verdienstniveau in Mecklenburg-Vorpommern und Thüringen insgesamt niedriger als in Bremen.&lt;br&gt;Untersuchungen der ursächlichen Faktoren des GPG können alle vier Jahre auf Basis der detaillierten Ergebnisse aus der Verdienststrukturerhebung durchgeführt werden. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Diese Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. Demnach sind 71°% des Verdienstunterschieds zwischen Männern und Frauen strukturbedingt – also unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen und Berufen arbeiten, in denen schlechter bezahlt wird und sie seltener Führungspositionen erreichen. Auch arbeiten sie häufiger als Männer in Teilzeit und in Minijobs. Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).&lt;br&gt;Im europäischen Vergleich liegen Ergebnisse für das Jahr 2018 vor. Mit 20 % lag der unbereinigte Gender Pay Gap in Deutschland für das Jahr 2018 deutlich über dem Durchschnitt der Europäischen Union (15 %, vorläufig). Von den 28 EU-Staaten im Jahr 2018 wies nur Estland mit 22 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %) sowie Rumänien (2 %).</t>
         </is>
       </c>
       <c r="Y17" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The indicator records the percentage of women on the supervisory boards of joint-stock companies and partnerships limited by shares with more than 2,000 employees plus European companies (SEs) and listed companies with full co-determination. The data basis for the indicator comprises the publications of listed and fully co-determined companies, which are analysed by the Frauen in die Aufsichtsräte (Women on Board) association and published in the form of a WOB index.&lt;br&gt;In January 2020, women’s share of positions on the supervisory boards of these companies came to about 35.2%. In January 2015, it was still only 21.3%. The target of 30% was reached in 2018, which was twelve years in advance of the deadline set in the German Sustainable Development Strategy. The Gender Equality (Management Positions) Act prescribed that, in cases where elections were held for positions on the supervisory boards of the companies defined above in or after 2016, at least 30% of the seats on those boards must be occupied by women, and so compliance with the Act could be expected to yield this increase.&lt;br&gt;Given the definition used for the indicator, most of the businesses in Germany and the majority of management positions in the private sector are not taken into account. At the present time, the reported and analysed data relate to a group of 105 companies. The positions on supervisory boards that the WOB association has examined to date, fewer than 1,600 in number, are but a small fraction of the total of 882,000 management positions in the private sector identified by the pay structure survey in 2018. The figures show clearly that focusing on the supervisory board of a company reveals only some of the management positions in that company.&lt;br&gt;According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, direct, coordinate and evaluate the overall activities of enterprises, governments and other organisations, or of organisational units within them, and formulate and review their policies, laws, rules and regulations. This definition includes the activities of supervisory boards. If the ISCO classification is used as a basis, 22% of the 882,000 management positions in businesses were held by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O – Public administration and defence; compulsory social security – and parts of sector P – Education. Compared with 2014, the year of the previous pay structure survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. Before then they were compiled annually.&lt;br&gt;In 2019, according to preliminary data, the proportion of women in management positions in the federal civil service was about 37.6%. In 2000, the indicator value was 19.5%. This represents a 92.8% increase in the proportion of women since 2000. If the trend of the last five years were maintained, the target of virtual numerical equality in management positions in the federal civil service by 2025 would be narrowly missed.&lt;br&gt;The indicator is focused on the employees in management positions in all departments of the federal government. Their number includes all persons employed on a full-time or part-time basis as well as those who have been given leave of absence on grounds of family or c</t>
+          <t>The indicator presented here shows the unadjusted gender pay gap. It simply uses the percentage ratio between the average gross hourly rates of pay. Factors such as qualification levels, hours worked and occupational experience profiles are not taken into account.&lt;br&gt;The data for the indicator are based on the four-yearly wage structure survey conducted by the statistical offices of the Länder in the form of a representative sample survey with a disclosure obligation covering a maximum total of 60,000 businesses. On the basis of these data, results are calculated, broken down by age group, education level, performance group, activity category, collective agreement coverage, company size class and economic sector, and the resulting adjusted gender pay gap (GPG) is published. For the interim years, the rates of change from the quarterly wage survey are used to extrapolate the unadjusted GPG. When the adjusted and the unadjusted GPG are calculated, the EU categorisation is used, in which employees in agriculture, forestry and fishing and in public administration, defence and compulsory social security as well as employees of microenterprises are not taken into account.&lt;br&gt;According to provisional figures, the average unadjusted gender pay gap between women and men in 2019 was 19%. This means that the average gross hourly pay earned by women was about a fifth lower than that earned by men. Over the longer term, a slow but steady narrowing of the unadjusted gender pay gap is evident in the whole of Germany. It stood at 22% in 2014, which is three percentage points higher than in 2019. If the trend recorded over the last five years continues, the target will not be achieved in 2020 or in 2030.&lt;br&gt;At the same time, the picture for Germany is not a uniform one. There are considerable differences between Länder: the highest unadjusted GPG in 2019 was 25% in Bremen, while in Mecklenburg-Western Pomerania and in Thuringia the gap was only 6%. Pay levels generally, however, were lower in Mecklenburg-Western Pomerania and Thuringia than in Bremen.&lt;br&gt;Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the wage structure survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71% of the gender pay gap, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs. The remaining 29% of the pay differential corresponds to the adjusted GPG of 6% in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4% in Berlin to 7% in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.&lt;br&gt;Comparative figures for the European Union are also available for 2018. At 20%, the unadjusted gender pay gap in Germany for 2018 lay considerably above the provisional European Union average of 15%. Of the 28 EU states in 2018, only Estonia, with 22% had a higher gender pay gap. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1%, and Romania, with 2%.</t>
         </is>
       </c>
       <c r="Z17" s="4" t="inlineStr">
         <is>
-          <t>5.5.2</t>
+          <t>8.5.1</t>
         </is>
       </c>
       <c r="AA17" s="4" t="inlineStr">
@@ -10258,16 +10258,16 @@
       </c>
       <c r="AB17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="AC17" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="AD17" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="4" t="inlineStr">
         <is>
@@ -10299,9 +10299,6 @@
           <t/>
         </is>
       </c>
-      <c r="AL17" s="8">
-        <v>50</v>
-      </c>
       <c r="AM17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10319,12 +10316,12 @@
       </c>
       <c r="AT17" s="4" t="inlineStr">
         <is>
-          <t>Anteil von Frauen in Führungspositionen</t>
+          <t>Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten von Frauen und Männern</t>
         </is>
       </c>
       <c r="AU17" s="4" t="inlineStr">
         <is>
-          <t>Share of women in management positions</t>
+          <t>Difference between average gross hourly earnings for women and men</t>
         </is>
       </c>
       <c r="AV17" s="4" t="inlineStr">
@@ -10379,12 +10376,12 @@
       </c>
       <c r="BF17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>In Prozent der Verdienste der Männer</t>
         </is>
       </c>
       <c r="BG17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>As share of the men's earnings</t>
         </is>
       </c>
       <c r="BH17" s="4" t="inlineStr">
@@ -10437,12 +10434,12 @@
       </c>
       <c r="BR17" s="6" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe wird als numerische Gleichheit +/- 5 Prozentpunkte interpretiert.&lt;br&gt;Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes Stand 30.06. des jeweiligen Jahres.&lt;br&gt;2021 vorläufige Daten.</t>
+          <t>Die Daten für die Jahre 2015 bis 2019 wurden revidiert, 2020 und 2021 vorläufig.</t>
         </is>
       </c>
       <c r="BS17" s="6" t="inlineStr">
         <is>
-          <t>Equal participation is interpreted as numerical equality +/- 5 percentage points.&lt;br&gt;Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;2021 provisional data.</t>
+          <t>The data for years 2015 to 2019 have been revised. Provisional data for 2020 and 2021.</t>
         </is>
       </c>
       <c r="BT17" s="4" t="inlineStr">
@@ -10506,7 +10503,7 @@
         </is>
       </c>
       <c r="CF17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG17" s="4" t="inlineStr">
         <is>
@@ -10532,9 +10529,6 @@
           <t/>
         </is>
       </c>
-      <c r="CO17" s="8">
-        <v>5</v>
-      </c>
       <c r="CP17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10550,9 +10544,6 @@
           <t/>
         </is>
       </c>
-      <c r="CU17" s="8">
-        <v>2016</v>
-      </c>
       <c r="CV17" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10605,22 +10596,22 @@
       </c>
       <c r="DH17" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="DI17" s="4" t="inlineStr">
         <is>
-          <t>05.1.b,c</t>
+          <t>05.1.a</t>
         </is>
       </c>
       <c r="DJ17" s="4" t="inlineStr">
         <is>
-          <t>L_FIDAR_1</t>
+          <t>L_DSTTS_8</t>
         </is>
       </c>
       <c r="DK17" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>L_DSTTS_19</t>
         </is>
       </c>
       <c r="DL17" s="4" t="inlineStr">
@@ -10780,7 +10771,7 @@
       </c>
       <c r="O18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
@@ -10790,52 +10781,52 @@
       </c>
       <c r="Q18" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Women in management positions in business and in the federal civil service</t>
         </is>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
+          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen an Führungspositionen im öffentlichen Dienst des Bundes.</t>
         </is>
       </c>
       <c r="U18" s="6" t="inlineStr">
         <is>
-          <t>The indicator shows the percentage of children whose fathers have receiving parental allowance.</t>
+          <t>Indicator 5.1.b shows the percentage of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
         </is>
       </c>
       <c r="V18" s="6" t="inlineStr">
         <is>
-          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
+          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in den Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil an Führungspositionen im öffentlichen Dienst des Bundes. Daher soll der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis zum Jahr 2030 auf 30 % erhöht werden. Gemäß dem am 06.01.2021 im Kabinett beschlossenen Entwurf des Zweiten Führungspositionengesetzes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025 erreicht werden. Damit wird eine Vereinbarung des Koalitionsvertrages aus 2018 umgesetzt.</t>
         </is>
       </c>
       <c r="W18" s="6" t="inlineStr">
         <is>
-          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65% by 2030.</t>
+          <t>Women are as highly qualified as men, yet they are they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30% by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which the Cabinet adopted on 6 January 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025. This will fulfil one of the commitments made in the coalition agreement of 2018.</t>
         </is>
       </c>
       <c r="X18" s="6" t="inlineStr">
         <is>
-          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.&lt;br&gt;Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, so dass im Folgenden vereinfacht von Müttern und von Vätern die Rede ist.&lt;br&gt;Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2017 auf 40,4 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.&lt;br&gt;Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborenen Kinder auf 3,4 Monate für im Jahr 2017 geborene Kinder.&lt;br&gt;Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborenen Kinder auf 1,4 Monate für im Jahr 2017 geborenen Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,2 Monate im Jahr 2017 an.&lt;br&gt;Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (z. B. Kinder von ausländischen Schutzsuchenden).&lt;br&gt;Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht) auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.&lt;br&gt;Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
+          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Der Indikator erfasst den Anteil von Frauen in den Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Als Datengrundlagen dienen die Veröffentlichungen von börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet werden und in sog. WOB-Indexen veröffentlicht werden.&lt;br&gt;Der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen lag im Januar 2020 bei 35,2 %. Im Januar 2015 waren es noch 21,3 %. Der angestrebte Anteil von 30 % wurde bereits im Jahr 2018 und damit bereits zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist erreicht. Da gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern an Führungspositionen seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen sind, war bei Gesetzeskonformität dieser Anstieg zu erwarten.&lt;br&gt;Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet.  Der von der Definition vorgegebene Berichtskreis umfasst aktuell 105 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.&lt;br&gt;Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren von den insgesamt 882 000 Führungspositionen in der Wirtschaft im Jahr 2018 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.&lt;br&gt;&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Als Datengrundlage für den Indikator dienen die Ergebnisse der internen Gleichstellungsstatistik aller Dienststellen des Bundes nach Bundesgleichstellungsgesetz. Seit 2015 wird die Statistik alle zwei Jahre zum Stichtag 30. Juni durch das Statistische Bundesamt im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend erstellt. Vorher wurde die Statistik jährlich erstellt.&lt;br&gt;Der Frauenanteil an Führungspositionen im öffentlichen Dienst des Bundes lag im Jahr 2019 nach vorläufigen Daten bei 37,6 %. Im Jahr 2000 lag der Anteil bei 19,5 %. Dies ist eine Steigerung des Anteils seit 2000 um 92,8 %. Bei Fortsetzung der Entwicklung der letzten fünf jährlichen Veränderungen würde das angestrebte Ziel, von annähernd nummerischer Gleichheit bis zum Jahr 2025 in Führungspositionen im öffentlichen Dienst des Bundes, leicht verfehlt werden.&lt;br&gt;Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. In die Betrachtung einbezogen werden alle vollzeit-, teilzeitbeschäftigten und aufgrund von Familien- oder Pflege</t>
         </is>
       </c>
       <c r="Y18" s="6" t="inlineStr">
         <is>
-          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.&lt;br&gt;Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99% of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.&lt;br&gt;The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. For the children born in 2008, fathers received parental allowance in 21.2% of cases, and this figure rose to 40.4% by 2017. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98% in every year.&lt;br&gt;Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.4 months for children born in 2017.&lt;br&gt;These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2017. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.2 months for those born in 2017.&lt;br&gt;The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The figures relate in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.&lt;br&gt;It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.&lt;br&gt;For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
+          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The indicator records the percentage of women on the supervisory boards of joint-stock companies and partnerships limited by shares with more than 2,000 employees plus European companies (SEs) and listed companies with full co-determination. The data basis for the indicator comprises the publications of listed and fully co-determined companies, which are analysed by the Frauen in die Aufsichtsräte (Women on Board) association and published in the form of a WOB index.&lt;br&gt;In January 2020, women’s share of positions on the supervisory boards of these companies came to about 35.2%. In January 2015, it was still only 21.3%. The target of 30% was reached in 2018, which was twelve years in advance of the deadline set in the German Sustainable Development Strategy. The Gender Equality (Management Positions) Act prescribed that, in cases where elections were held for positions on the supervisory boards of the companies defined above in or after 2016, at least 30% of the seats on those boards must be occupied by women, and so compliance with the Act could be expected to yield this increase.&lt;br&gt;Given the definition used for the indicator, most of the businesses in Germany and the majority of management positions in the private sector are not taken into account. At the present time, the reported and analysed data relate to a group of 105 companies. The positions on supervisory boards that the WOB association has examined to date, fewer than 1,600 in number, are but a small fraction of the total of 882,000 management positions in the private sector identified by the pay structure survey in 2018. The figures show clearly that focusing on the supervisory board of a company reveals only some of the management positions in that company.&lt;br&gt;According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, direct, coordinate and evaluate the overall activities of enterprises, governments and other organisations, or of organisational units within them, and formulate and review their policies, laws, rules and regulations. This definition includes the activities of supervisory boards. If the ISCO classification is used as a basis, 22% of the 882,000 management positions in businesses were held by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O – Public administration and defence; compulsory social security – and parts of sector P – Education. Compared with 2014, the year of the previous pay structure survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. Before then they were compiled annually.&lt;br&gt;In 2019, according to preliminary data, the proportion of women in management positions in the federal civil service was about 37.6%. In 2000, the indicator value was 19.5%. This represents a 92.8% increase in the proportion of women since 2000. If the trend of the last five years were maintained, the target of virtual numerical equality in management positions in the federal civil service by 2025 would be narrowly missed.&lt;br&gt;The indicator is focused on the employees in management positions in all departments of the federal government. Their number includes all persons employed on a full-time or part-time basis as well as those who have been given leave of absence on grounds of family or c</t>
         </is>
       </c>
       <c r="Z18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5.5.2</t>
         </is>
       </c>
       <c r="AA18" s="4" t="inlineStr">
@@ -10845,16 +10836,16 @@
       </c>
       <c r="AB18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="AC18" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="AD18" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="4" t="inlineStr">
         <is>
@@ -10886,6 +10877,9 @@
           <t/>
         </is>
       </c>
+      <c r="AL18" s="8">
+        <v>50</v>
+      </c>
       <c r="AM18" s="4" t="inlineStr">
         <is>
           <t/>
@@ -10903,12 +10897,12 @@
       </c>
       <c r="AT18" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
+          <t>Anteil von Frauen in Führungspositionen</t>
         </is>
       </c>
       <c r="AU18" s="4" t="inlineStr">
         <is>
-          <t>Proportion of children whose fathers receive parental allowance</t>
+          <t>Share of women in management positions</t>
         </is>
       </c>
       <c r="AV18" s="4" t="inlineStr">
@@ -11021,12 +11015,12 @@
       </c>
       <c r="BR18" s="6" t="inlineStr">
         <is>
-          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.</t>
+          <t>Gleichberechtigte Teilhabe wird als numerische Gleichheit +/- 5 Prozentpunkte interpretiert.&lt;br&gt;Frauen in Aufsichtsräten: Stand Januar des jeweiligen Jahres.&lt;br&gt;Frauen im öffentlichen Dienst des Bundes Stand 30.06. des jeweiligen Jahres.&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS18" s="6" t="inlineStr">
         <is>
-          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.</t>
+          <t>Equal participation is interpreted as numerical equality +/- 5 percentage points.&lt;br&gt;Women on supervisory boards: figures as at January each year.&lt;br&gt;Women in management positions in the federal civil service: figures as at 30 June each year.&lt;br&gt;2021 provisional data.</t>
         </is>
       </c>
       <c r="BT18" s="4" t="inlineStr">
@@ -11117,7 +11111,7 @@
         </is>
       </c>
       <c r="CO18" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CP18" s="4" t="inlineStr">
         <is>
@@ -11179,32 +11173,32 @@
       </c>
       <c r="DF18" s="4" t="inlineStr">
         <is>
-          <t>Geburtsjahr des Kindes</t>
+          <t/>
         </is>
       </c>
       <c r="DG18" s="4" t="inlineStr">
         <is>
-          <t>Child`s year of birth</t>
+          <t/>
         </is>
       </c>
       <c r="DH18" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="DI18" s="4" t="inlineStr">
         <is>
-          <t>05.1.d</t>
+          <t>05.1.b,c</t>
         </is>
       </c>
       <c r="DJ18" s="4" t="inlineStr">
         <is>
-          <t>L_DSTTS_20</t>
+          <t>L_FIDAR_1</t>
         </is>
       </c>
       <c r="DK18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="DL18" s="4" t="inlineStr">
@@ -11344,7 +11338,7 @@
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02</t>
+          <t>Z05_B01_P01</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -11354,67 +11348,67 @@
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
+          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
         <is>
-          <t>Strengthening the economic participation of women globally</t>
+          <t>Promoting equality and a partnership-based division of responsibilities</t>
         </is>
       </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02</t>
+          <t>Z05_B01_P01</t>
         </is>
       </c>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification of women and girls through German development cooperation</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden.</t>
+          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
         </is>
       </c>
       <c r="U19" s="6" t="inlineStr">
         <is>
-          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation.</t>
+          <t>The indicator shows the percentage of children whose fathers have receiving parental allowance.</t>
         </is>
       </c>
       <c r="V19" s="6" t="inlineStr">
         <is>
-          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden.</t>
+          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
         </is>
       </c>
       <c r="W19" s="6" t="inlineStr">
         <is>
-          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030.</t>
+          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65% by 2030.</t>
         </is>
       </c>
       <c r="X19" s="6" t="inlineStr">
         <is>
-          <t>Als Datenquelle wurden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Projekten verwendet, die sich im Jahr 2015 in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und non-formalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel der Kreditanstalt für Wiederaufbau finanziert. Die Datenerhebung erfolgte erstmalig im Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH sowie das Centrum für Evaluation GmbH und wird im dreijährigen Rhythmus durchgeführt. Insofern kann eine mögliche Zielerreichung des Indikators gemäß der im Indikatorenbericht zugrunde gelegten Methodik noch nicht beurteilt werden.&lt;br&gt;Im Jahr 2018 wurden rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Dies ist gegenüber 2015 – dem ersten Jahr der Erhebung – ein Anstieg um 243 %. Davon konnten 26,5 % über direkte Berufsbildungsmaßnahmen erreicht werden. Durch Institutionenförderung wurden 31,6 % der Frauen und Mädchen erreicht und durch Maßnahmen auf Politikfeldebene 41,8 %. Durch die finanzielle Zusammenarbeit wurden insgesamt 93,0 % der Frauen und Mädchen erreicht.&lt;br&gt;Frauen und Mädchen in Entwicklungs- und Schwellenländern werden auf unterschiedlichen Ebenen von deutscher entwicklungspolitischer Zusammenarbeit erreicht, weswegen die Daten auf drei Ebenen abgefragt wurden. (1) Bei Maßnahmen auf Individualebene kann die Anzahl der Frauen und Mädchen, die beruflich aus- und weitergebildet wurden oder an entsprechend ausgerichteten Beratungsmaßnahmen teilgenommen haben, direkt erfasst werden. Bei (2) Förderung von Institutionen oder (3) Förderung auf Politikfeldebene muss die erreichte Anzahl in den geförderten Aus- und Weiterbildungseinrichtungen geschätzt werden. Dabei werden auf Institutionenebene die Gesamtzahl der weiblichen Aus- und Weiterzubildenden in den jeweils geförderten Aus- und Weiterbildungseinrichtungen und auf Politikfeldebene alle weiblichen Aus- und Weiterzubildenden in den Partnerländern als erreichte Frauen und Mädchen angenommen. Folglich kann es zu Überschätzungen und zu Mehrfachzählungen kommen – insbesondere auf Politikfeldebene. Ferner kann nicht ausgeschlossen werden, dass es bei Nachfolgeprojekten oder bei mehreren zeitgleich durchgeführten Projekten in derselben Region zu Mehrfachzählungen der erreichten Frauen und Mädchen kommt.&lt;br&gt;Der Wert des Indikators hängt stark von der geförderten Ebene ab, da durch die Förderung von Institutionen oder Politikfeldern in der Regel mehr Frauen und Mädchen erreicht werden als bei individuellen Maßnahmen. Der Indikator trifft keine Aussage zu Erfolg, Umfang und Qualität der Qualifizierungsmaßnahmen, die recht unterschiedlich sein können. Die Maßnahmen zur Förderung der beruflichen Qualifizierung von Frauen und Mädchen sind Teil der gesamten öffentlichen Entwicklungsausgaben. Diese sind im Indikator 17.1 dargestellt.</t>
+          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.&lt;br&gt;Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, so dass im Folgenden vereinfacht von Müttern und von Vätern die Rede ist.&lt;br&gt;Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2017 auf 40,4 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.&lt;br&gt;Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborenen Kinder auf 3,4 Monate für im Jahr 2017 geborene Kinder.&lt;br&gt;Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborenen Kinder auf 1,4 Monate für im Jahr 2017 geborenen Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,2 Monate im Jahr 2017 an.&lt;br&gt;Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (z. B. Kinder von ausländischen Schutzsuchenden).&lt;br&gt;Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht) auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.&lt;br&gt;Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
         </is>
       </c>
       <c r="Y19" s="6" t="inlineStr">
         <is>
-          <t>Information provided by the Federal Ministry for Economic Cooperation and Development (BMZ) on supported projects that entered the implementation phase in 2015 served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds provided through the Kreditanstalt für Wiederaufbau (KfW). The data were collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH, and are updated at three-annual intervals. This means that it is not yet possible to gauge the prospects of meeting the target on the basis of the methodology set out in the Indicator Report.&lt;br&gt;In 2018, some 863,000 women and girls were reached by skills development measures. This is 243% higher than 2015, the first year for which data were collected. Of these women and girls, 26.5% were reached directly through individual vocational training. A total of 31.6% of the women and girls were reached through institutional funding and 41.8% through measures in specific policy fields. Of all these women and girls, 93.0% were reached through financial cooperation.&lt;br&gt;Because women and girls in developing and emerging countries are reached by German development cooperation by three different levels, the data were searched for each of those levels. (1) In the case of individualised measures, the number of women and girls who received vocational training and continuing education or participated in individualised extension measures can be recorded directly. When it comes to (2) the funding of institutions and (3) the allocation of funds to specific policy fields, the number of beneficiaries reached in the supported training and further education facilities has to be estimated. In this case, the total number of female trainees and students in each of the funded education and training establishments as well as all women and girls receiving education or training in the relevant policy field are assumed to be beneficiaries of German development cooperation. As a result, there can be overestimates and duplication, especially in the figures for policy fields. Furthermore, in the case of follow-on projects or when two or more projects are implemented simultaneously in the same region, the possibility of double counting some of the beneficiary women and girls cannot be ruled out.&lt;br&gt;The value of the indicator depends heavily on the funding level, as funding through institutions or policy fields generally reaches more women and girls than individual measures. The indicator does not provide any information on the success, scope and quality of the qualification measures, which can vary considerably. The measures designed to promote the vocational skills of women and girls are part of overall official development assistance. The total amount of ODA is shown in indicator 17.1.</t>
+          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.&lt;br&gt;Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99% of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.&lt;br&gt;The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. For the children born in 2008, fathers received parental allowance in 21.2% of cases, and this figure rose to 40.4% by 2017. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98% in every year.&lt;br&gt;Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.4 months for children born in 2017.&lt;br&gt;These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2017. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.2 months for those born in 2017.&lt;br&gt;The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The figures relate in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.&lt;br&gt;It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.&lt;br&gt;For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
         </is>
       </c>
       <c r="Z19" s="4" t="inlineStr">
@@ -11429,16 +11423,16 @@
       </c>
       <c r="AB19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="AD19" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="4" t="inlineStr">
         <is>
@@ -11447,7 +11441,7 @@
       </c>
       <c r="AF19" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AG19" s="4" t="inlineStr">
@@ -11487,12 +11481,12 @@
       </c>
       <c r="AT19" s="4" t="inlineStr">
         <is>
-          <t>Frauen und Mädchen, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden</t>
+          <t>Anteil der Kinder, deren Väter Elterngeld bezogen haben</t>
         </is>
       </c>
       <c r="AU19" s="4" t="inlineStr">
         <is>
-          <t>Women and girls reached by vocational qualification measures through German development assistance</t>
+          <t>Proportion of children whose fathers receive parental allowance</t>
         </is>
       </c>
       <c r="AV19" s="4" t="inlineStr">
@@ -11605,12 +11599,12 @@
       </c>
       <c r="BR19" s="6" t="inlineStr">
         <is>
-          <t>Das Ziel entspricht einer Steigerung um ein Drittel gegenüber 2015. Die Daten basieren auf einer Sonderauswertung.</t>
+          <t>Einführung von ElterngeldPlus und Partnerschaftsbonus zum 1. Juli 2015.</t>
         </is>
       </c>
       <c r="BS19" s="6" t="inlineStr">
         <is>
-          <t>The target represents a one-third increase since 2015. Data based on a special evaluation.</t>
+          <t>Parental allowance plus and partnership bonus introducted on 1 July 2015.</t>
         </is>
       </c>
       <c r="BT19" s="4" t="inlineStr">
@@ -11660,12 +11654,12 @@
       </c>
       <c r="CC19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Deutschland</t>
         </is>
       </c>
       <c r="CD19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany</t>
         </is>
       </c>
       <c r="CE19" s="4" t="inlineStr">
@@ -11674,7 +11668,7 @@
         </is>
       </c>
       <c r="CF19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG19" s="4" t="inlineStr">
         <is>
@@ -11700,6 +11694,9 @@
           <t/>
         </is>
       </c>
+      <c r="CO19" s="8">
+        <v>10</v>
+      </c>
       <c r="CP19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11715,6 +11712,9 @@
           <t/>
         </is>
       </c>
+      <c r="CU19" s="8">
+        <v>2016</v>
+      </c>
       <c r="CV19" s="4" t="inlineStr">
         <is>
           <t/>
@@ -11757,32 +11757,32 @@
       </c>
       <c r="DF19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Geburtsjahr des Kindes</t>
         </is>
       </c>
       <c r="DG19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Child`s year of birth</t>
         </is>
       </c>
       <c r="DH19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="DI19" s="4" t="inlineStr">
         <is>
-          <t>05.1.e</t>
+          <t>05.1.d</t>
         </is>
       </c>
       <c r="DJ19" s="4" t="inlineStr">
         <is>
-          <t>Q_BMZ</t>
+          <t>L_DSTTS_20</t>
         </is>
       </c>
       <c r="DK19" s="4" t="inlineStr">
         <is>
-          <t>Q_CEVAL</t>
+          <t/>
         </is>
       </c>
       <c r="DL19" s="4" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
@@ -26581,47 +26581,47 @@
       </c>
       <c r="Q45" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="R45" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
       <c r="S45" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
-          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden.</t>
+          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Energieverbrauch, Ausstoß von Kohlendioxid (CO2) und Rohstoffeinsatz im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
         </is>
       </c>
       <c r="U45" s="6" t="inlineStr">
         <is>
-          <t>The indicator measures the market share of products with voluntary or mandatory ecolabels which are awarded according to criteria stipulated by government bodies.</t>
+          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
         </is>
       </c>
       <c r="V45" s="6" t="inlineStr">
         <is>
-          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
+          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
         </is>
       </c>
       <c r="W45" s="6" t="inlineStr">
         <is>
-          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the German Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34% by 2030.</t>
+          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the German Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
         </is>
       </c>
       <c r="X45" s="6" t="inlineStr">
         <is>
-          <t>Als Quellen für die Berechnung des Indikators werden Daten der Gesellschaft für Konsumforschung, des Kraftfahrt-Bundesamtes, der Agrarmarkt Informations-Gesellschaft mbH, des Bundes Ökologische Lebensmittelwirtschaft, des Verkehrsclubs Deutschland und des Umweltbundesamtes verwendet. Letzteres berechnet die Indikatorwerte jährlich ab dem Berichtsjahr 2012.&lt;br&gt;Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden können.&lt;br&gt;Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernsehgeräte und Staubsauger betrachtet. Weiterhin werden Leuchtmittel, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Autos erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet. Dies soll sicherstellen, dass hohe Marktanteile in kleinen Nischenmärkten den Indikator nicht verzerren. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.&lt;br&gt;Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltkennzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht gegeneinander aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er auch nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er folglich keine Rückschlüsse auf deren Anzahl zu. Letztlich kann eine Änderung des Wertes des Indikators daher auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.&lt;br&gt;Zwischen 2012 und 2018 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 % auf 7,5 %. Dies entspricht einem Umsatz von insgesamt 23,8 Milliarden Euro im Jahr 2018. Der Wert des Indikators ist 2017 und 2018 im Vergleich zum Vorjahr gesunken und entwickelte sich damit nicht in die angestrebte Richtung. Ohne eine Trendumkehr und erhebliche Steigerung des Marktanteils wird das Ziel bis zum Jahr 2030 erheblich verfehlt.</t>
+          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt. Der Indikator stellt drei der verantwortlichen Einflussfaktoren, nämlich Energie, CO2-Emissionen und den Rohstoffeinsatz, dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.&lt;br&gt;Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und deren Transport im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und getrennt für Energie, Rohstoffe und CO2 dargestellt.&lt;br&gt;Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.&lt;br&gt;Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe, wie land- und forstwirtschaftliche Erzeugnisse. Während der Einsatz von abiotischen Rohstoffen kontinuierlich sinkt, gibt es im Bereich der landwirtschaftlichen Erzeugnisse größere Schwankungen. Dies führte für den Zeitraum 2010 bis 2016 insgesamt zu einem leichten Rückgang um 3 %.&lt;br&gt;Im gleichen Zeitraum verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %. Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte dabei im Jahr 2016 mit insgesamt rund 3 402 Petajoule (36 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.&lt;br&gt;Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2016 667 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2016 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 1 %. Die letzten fünf Jahre zeigen hingegen insgesamt keinen Rückgang, sondern einen leichten Zuwachs der Emissionen.&lt;br&gt;Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
         </is>
       </c>
       <c r="Y45" s="6" t="inlineStr">
         <is>
-          <t>The indicator is calculated on the basis of data from the consumer research institute GfK, the Federal Motor Transport Authority, the agricultural market information firm AMI, the Organic Food Production Alliance, the sustainable-mobility association Verkehrsclub Deutschland and the Federal Environment Agency. The latter has been calculating the indicator values for each reporting year since 2012.&lt;br&gt;The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups are examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.&lt;br&gt;The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.&lt;br&gt;It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.&lt;br&gt;Between 2012 and 2018, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6% to 7.5%. This is equivalent to a turnover of EUR 23.8 billion in 2018. The indicator value sank in 2017 and 2018 relative to the previous year, which is not the desired direction of travel. Unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.</t>
+          <t>The spending habits of private households affect the environment in various ways. This indicator reflects three of the factors behind this impact, namely energy, CO2 emissions and the use of raw materials. The relevant data are collected  in the environmental economic accounts of a range of governmental and non-governmental sources.&lt;br&gt;Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.&lt;br&gt;The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.&lt;br&gt;However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources is steadily shrinking, there are greater fluctuations in the area of agricultural products. This resulted in a slight overall reduction of 3% between 2010 and 2016.&lt;br&gt;In contrast, energy consumption went down by 6% during the same period. Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,402 petajoules in total, home life accounted for the largest proportion, 36% of private household consumption, in 2016.&lt;br&gt;A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2016 amounted to 667 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2016, direct CO2 emissions fell by 6%, while the emissions footprint of consumer goods fell by 1%. The last five years, on the other hand, show no reduction but a slight increase in emissions.&lt;br&gt;This indicator can be usefully cross-referenced with indicator 8.1 on raw material input productivity.</t>
         </is>
       </c>
       <c r="Z45" s="4" t="inlineStr">
@@ -26636,12 +26636,12 @@
       </c>
       <c r="AB45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="AC45" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="AD45" s="7" t="b">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="AF45" s="4" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>line</t>
         </is>
       </c>
       <c r="AG45" s="4" t="inlineStr">
@@ -26678,10 +26678,10 @@
         </is>
       </c>
       <c r="AK45" s="8">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL45" s="8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AM45" s="4" t="inlineStr">
         <is>
@@ -26700,12 +26700,12 @@
       </c>
       <c r="AT45" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
       <c r="AU45" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed sustainability labelling schemes</t>
+          <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
       <c r="AV45" s="4" t="inlineStr">
@@ -26818,12 +26818,12 @@
       </c>
       <c r="BR45" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
         </is>
       </c>
       <c r="BS45" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.&lt;br&gt;Data based on a special evaluation.</t>
         </is>
       </c>
       <c r="BT45" s="4" t="inlineStr">
@@ -26931,6 +26931,9 @@
           <t/>
         </is>
       </c>
+      <c r="CU45" s="8">
+        <v>2016</v>
+      </c>
       <c r="CV45" s="4" t="inlineStr">
         <is>
           <t/>
@@ -26983,42 +26986,42 @@
       </c>
       <c r="DH45" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="DI45" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.b</t>
         </is>
       </c>
       <c r="DJ45" s="4" t="inlineStr">
         <is>
-          <t>Q_GFK</t>
+          <t>Q_DESTATIS</t>
         </is>
       </c>
       <c r="DK45" s="4" t="inlineStr">
         <is>
-          <t>Q_KBA</t>
+          <t/>
         </is>
       </c>
       <c r="DL45" s="4" t="inlineStr">
         <is>
-          <t>Q_AMI</t>
+          <t/>
         </is>
       </c>
       <c r="DM45" s="4" t="inlineStr">
         <is>
-          <t>Q_BOLW</t>
+          <t/>
         </is>
       </c>
       <c r="DN45" s="4" t="inlineStr">
         <is>
-          <t>Q_VCD</t>
+          <t/>
         </is>
       </c>
       <c r="DO45" s="4" t="inlineStr">
         <is>
-          <t>L_UBA_4</t>
+          <t/>
         </is>
       </c>
       <c r="DP45" s="4" t="inlineStr">
@@ -27158,7 +27161,7 @@
       </c>
       <c r="O46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="P46" s="4" t="inlineStr">
@@ -27168,47 +27171,47 @@
       </c>
       <c r="Q46" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="S46" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="T46" s="6" t="inlineStr">
         <is>
-          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Energieverbrauch, Ausstoß von Kohlendioxid (CO2) und Rohstoffeinsatz im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
+          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden.</t>
         </is>
       </c>
       <c r="U46" s="6" t="inlineStr">
         <is>
-          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
+          <t>The indicator measures the market share of products with voluntary or mandatory ecolabels which are awarded according to criteria stipulated by government bodies.</t>
         </is>
       </c>
       <c r="V46" s="6" t="inlineStr">
         <is>
-          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
+          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
         </is>
       </c>
       <c r="W46" s="6" t="inlineStr">
         <is>
-          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the German Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
+          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the German Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34% by 2030.</t>
         </is>
       </c>
       <c r="X46" s="6" t="inlineStr">
         <is>
-          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt. Der Indikator stellt drei der verantwortlichen Einflussfaktoren, nämlich Energie, CO2-Emissionen und den Rohstoffeinsatz, dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.&lt;br&gt;Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und deren Transport im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und getrennt für Energie, Rohstoffe und CO2 dargestellt.&lt;br&gt;Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.&lt;br&gt;Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe, wie land- und forstwirtschaftliche Erzeugnisse. Während der Einsatz von abiotischen Rohstoffen kontinuierlich sinkt, gibt es im Bereich der landwirtschaftlichen Erzeugnisse größere Schwankungen. Dies führte für den Zeitraum 2010 bis 2016 insgesamt zu einem leichten Rückgang um 3 %.&lt;br&gt;Im gleichen Zeitraum verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %. Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte dabei im Jahr 2016 mit insgesamt rund 3 402 Petajoule (36 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.&lt;br&gt;Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2016 667 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2016 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 1 %. Die letzten fünf Jahre zeigen hingegen insgesamt keinen Rückgang, sondern einen leichten Zuwachs der Emissionen.&lt;br&gt;Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
+          <t>Als Quellen für die Berechnung des Indikators werden Daten der Gesellschaft für Konsumforschung, des Kraftfahrt-Bundesamtes, der Agrarmarkt Informations-Gesellschaft mbH, des Bundes Ökologische Lebensmittelwirtschaft, des Verkehrsclubs Deutschland und des Umweltbundesamtes verwendet. Letzteres berechnet die Indikatorwerte jährlich ab dem Berichtsjahr 2012.&lt;br&gt;Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden können.&lt;br&gt;Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernsehgeräte und Staubsauger betrachtet. Weiterhin werden Leuchtmittel, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Autos erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet. Dies soll sicherstellen, dass hohe Marktanteile in kleinen Nischenmärkten den Indikator nicht verzerren. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.&lt;br&gt;Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltkennzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht gegeneinander aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er auch nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er folglich keine Rückschlüsse auf deren Anzahl zu. Letztlich kann eine Änderung des Wertes des Indikators daher auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.&lt;br&gt;Zwischen 2012 und 2018 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 % auf 7,5 %. Dies entspricht einem Umsatz von insgesamt 23,8 Milliarden Euro im Jahr 2018. Der Wert des Indikators ist 2017 und 2018 im Vergleich zum Vorjahr gesunken und entwickelte sich damit nicht in die angestrebte Richtung. Ohne eine Trendumkehr und erhebliche Steigerung des Marktanteils wird das Ziel bis zum Jahr 2030 erheblich verfehlt.</t>
         </is>
       </c>
       <c r="Y46" s="6" t="inlineStr">
         <is>
-          <t>The spending habits of private households affect the environment in various ways. This indicator reflects three of the factors behind this impact, namely energy, CO2 emissions and the use of raw materials. The relevant data are collected  in the environmental economic accounts of a range of governmental and non-governmental sources.&lt;br&gt;Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.&lt;br&gt;The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.&lt;br&gt;However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources is steadily shrinking, there are greater fluctuations in the area of agricultural products. This resulted in a slight overall reduction of 3% between 2010 and 2016.&lt;br&gt;In contrast, energy consumption went down by 6% during the same period. Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,402 petajoules in total, home life accounted for the largest proportion, 36% of private household consumption, in 2016.&lt;br&gt;A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2016 amounted to 667 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2016, direct CO2 emissions fell by 6%, while the emissions footprint of consumer goods fell by 1%. The last five years, on the other hand, show no reduction but a slight increase in emissions.&lt;br&gt;This indicator can be usefully cross-referenced with indicator 8.1 on raw material input productivity.</t>
+          <t>The indicator is calculated on the basis of data from the consumer research institute GfK, the Federal Motor Transport Authority, the agricultural market information firm AMI, the Organic Food Production Alliance, the sustainable-mobility association Verkehrsclub Deutschland and the Federal Environment Agency. The latter has been calculating the indicator values for each reporting year since 2012.&lt;br&gt;The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups are examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.&lt;br&gt;The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.&lt;br&gt;It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.&lt;br&gt;Between 2012 and 2018, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6% to 7.5%. This is equivalent to a turnover of EUR 23.8 billion in 2018. The indicator value sank in 2017 and 2018 relative to the previous year, which is not the desired direction of travel. Unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.</t>
         </is>
       </c>
       <c r="Z46" s="4" t="inlineStr">
@@ -27223,12 +27226,12 @@
       </c>
       <c r="AB46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="AC46" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="AD46" s="7" t="b">
@@ -27241,7 +27244,7 @@
       </c>
       <c r="AF46" s="4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="AG46" s="4" t="inlineStr">
@@ -27265,10 +27268,10 @@
         </is>
       </c>
       <c r="AK46" s="8">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="8">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM46" s="4" t="inlineStr">
         <is>
@@ -27287,12 +27290,12 @@
       </c>
       <c r="AT46" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="AU46" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption</t>
+          <t>Market share of products certified by publicly managed sustainability labelling schemes</t>
         </is>
       </c>
       <c r="AV46" s="4" t="inlineStr">
@@ -27405,12 +27408,12 @@
       </c>
       <c r="BR46" s="6" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2016 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;Die Daten basieren auf einer Sonderauswertung.</t>
+          <t/>
         </is>
       </c>
       <c r="BS46" s="6" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2016 are only comparable with previous years to a limited extent.&lt;br&gt;Data based on a special evaluation.</t>
+          <t/>
         </is>
       </c>
       <c r="BT46" s="4" t="inlineStr">
@@ -27518,9 +27521,6 @@
           <t/>
         </is>
       </c>
-      <c r="CU46" s="8">
-        <v>2016</v>
-      </c>
       <c r="CV46" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27573,42 +27573,42 @@
       </c>
       <c r="DH46" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="DI46" s="4" t="inlineStr">
         <is>
-          <t>12.1.b</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="DJ46" s="4" t="inlineStr">
         <is>
-          <t>Q_DESTATIS</t>
+          <t>Q_GFK</t>
         </is>
       </c>
       <c r="DK46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_KBA</t>
         </is>
       </c>
       <c r="DL46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_AMI</t>
         </is>
       </c>
       <c r="DM46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_BOLW</t>
         </is>
       </c>
       <c r="DN46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Q_VCD</t>
         </is>
       </c>
       <c r="DO46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>L_UBA_4</t>
         </is>
       </c>
       <c r="DP46" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -36203,17 +36203,17 @@
       </c>
       <c r="AG44" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI44" s="4" t="inlineStr">
+        <is>
           <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="AH44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI44" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="AJ44" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -2155,14 +2155,12 @@
       </c>
       <c r="BR2" s="6" t="inlineStr">
         <is>
-          <t>2021 vorläufige Daten.&lt;br&gt;Die Ergebnisse ab 2020 sind nur eingeschränkt mit den Vorjahren vergleichbar. &lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
+          <t>Ab dem Erhebungsjahr 2020 gibt es zwei Ergebnisarten: Erst- und Endergebnisse. Die aktuell dargestellten Ergebnisse sind Endergebnisse. Die bislang separat durchgeführte Erhebung "Leben in Europa" (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;2021 vorläufige Daten.&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
         </is>
       </c>
       <c r="BS2" s="6" t="inlineStr">
         <is>
-          <t>2021 preliminary data.&lt;br&gt;
-The results from 2020 onwards are only comparable with previous years to a limited extent. &lt;br&gt;
-EU: Data estimated.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
+          <t>As of reference year 2020 there have been two types of results: first and final results. The results currently shown are final results. The "Leben in Europa" survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;2021 preliminary data.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
         </is>
       </c>
       <c r="BT2" s="4" t="inlineStr">
@@ -2340,7 +2338,7 @@
       </c>
       <c r="DK2" s="4" t="inlineStr">
         <is>
-          <t>L_ERSTT_8</t>
+          <t>L_ERSTT_10</t>
         </is>
       </c>
       <c r="DL2" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -20748,6 +20748,9 @@
       <c r="AK25" s="8">
         <v>0</v>
       </c>
+      <c r="AL25" s="8">
+        <v>100</v>
+      </c>
       <c r="AM25" s="4" t="inlineStr">
         <is>
           <t/>

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -2155,12 +2155,12 @@
       </c>
       <c r="BR2" s="6" t="inlineStr">
         <is>
-          <t>Ab dem Erhebungsjahr 2020 gibt es zwei Ergebnisarten: Erst- und Endergebnisse. Die aktuell dargestellten Ergebnisse sind Endergebnisse. Die bislang separat durchgeführte Erhebung "Leben in Europa" (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;2021 vorläufige Daten.&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).</t>
+          <t>Ab dem Erhebungsjahr 2020 gibt es zwei Ergebnisarten: Erst- und Endergebnisse. Die aktuell dargestellten Ergebnisse sind Endergebnisse. Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;2019 geschätzte Daten.&lt;br&gt;2020 und 2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS2" s="6" t="inlineStr">
         <is>
-          <t>As of reference year 2020 there have been two types of results: first and final results. The results currently shown are final results. The "Leben in Europa" survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;2021 preliminary data.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).</t>
+          <t>As of reference year 2020 there have been two types of results: first and final results. The results currently shown are final results. The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).&lt;br&gt;2019 estimated data. &lt;br&gt;2020 and 21 preliminary data.</t>
         </is>
       </c>
       <c r="BT2" s="4" t="inlineStr">
@@ -29838,12 +29838,13 @@
       </c>
       <c r="BR36" s="6" t="inlineStr">
         <is>
-          <t>Renten nicht in den Sozialleistungen eingeschlossen.&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
+          <t>Ab dem Erhebungsjahr 2020 gibt es zwei Ergebnisarten: Erst- und Endergebnisse. Die aktuell dargestellten Ergebnisse sind Endergebnisse. Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;Renten nicht in den Sozialleistungen eingeschlossen.&lt;br&gt;2014 bis 2019 geschätzte Daten für die EU.</t>
         </is>
       </c>
       <c r="BS36" s="6" t="inlineStr">
         <is>
-          <t>Pensions not included in social benefits.&lt;br&gt;Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).&lt;br&gt;Due to methodological changes, the results from 2020 are only comparable with previous years to a limited extent.&lt;br&gt;2021 provisional data.</t>
+          <t>As of reference year 2020 there have been two types of results: first and final results. The results currently shown are final results. The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;
+Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).&lt;br&gt;Pensions not included in social benefits.&lt;br&gt;2014 to 2019 estimated data for the EU.</t>
         </is>
       </c>
       <c r="BT36" s="4" t="inlineStr">
@@ -35542,12 +35543,12 @@
       </c>
       <c r="BR43" s="6" t="inlineStr">
         <is>
-          <t>Aufgrund methodischer Änderungen sind die Ergebnisse ab 2020 nur eingeschränkt mit den Vorjahren vergleichbar.&lt;br&gt;2021 vorläufige Daten.</t>
+          <t>Ab dem Erhebungsjahr 2020 gibt es zwei Ergebnisarten: Erst- und Endergebnisse. Die aktuell dargestellten Ergebnisse sind Endergebnisse. Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;2021 vorläufige Daten.</t>
         </is>
       </c>
       <c r="BS43" s="6" t="inlineStr">
         <is>
-          <t>Due to methodological changes, the results from 2020 are only comparable with previous years to a limited extent. &lt;br&gt;Provisional data for 2021.</t>
+          <t>As of reference year 2020 there have been two types of results: first and final results. The results currently shown are final results. The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;Provisional data for 2021.</t>
         </is>
       </c>
       <c r="BT43" s="4" t="inlineStr">

--- a/Exp_meta.xlsx
+++ b/Exp_meta.xlsx
@@ -27459,7 +27459,7 @@
         </is>
       </c>
       <c r="CF33" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG33" s="4" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
       </c>
       <c r="DL33" s="4" t="inlineStr">
         <is>
-          <t>Q_SVWS</t>
+          <t>L_SVWS</t>
         </is>
       </c>
       <c r="DM33" s="4" t="inlineStr">
@@ -29838,12 +29838,12 @@
       </c>
       <c r="BR36" s="6" t="inlineStr">
         <is>
-          <t>Ab dem Erhebungsjahr 2020 gibt es zwei Ergebnisarten: Erst- und Endergebnisse. Die aktuell dargestellten Ergebnisse sind Endergebnisse. Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;Renten nicht in den Sozialleistungen eingeschlossen.&lt;br&gt;2014 bis 2019 geschätzte Daten für die EU.</t>
+          <t>Ab dem Erhebungsjahr 2020 gibt es zwei Ergebnisarten: Erst- und Endergebnisse. Die aktuell dargestellten Ergebnisse für 2021 sind Erstergebnisse. Die bislang separat durchgeführte Erhebung 'Leben in Europa' (EU-SILC) wurde 2020 in den Mikrozensus als Unterstichprobe integriert. Durch den Wechsel von einer freiwilligen zu einer in Teilen auskunftspflichtigen Befragung verbunden mit einer neuen Stichprobenzusammensetzung ist ein Vergleich der Daten des Erhebungsjahres 2020 mit den Vorjahren nicht möglich (Zeitreihenbruch).&lt;br&gt;Daten für die EU in der jeweiligen Zusammensetzung im Berichtsjahr (bis 2019 EU-28 ab 2020 EU-27).&lt;br&gt;Renten nicht in den Sozialleistungen eingeschlossen.&lt;br&gt;2014 bis 2019 geschätzte Daten für die EU.</t>
         </is>
       </c>
       <c r="BS36" s="6" t="inlineStr">
         <is>
-          <t>As of reference year 2020 there have been two types of results: first and final results. The results currently shown are final results. The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;
+          <t>As of reference year 2020 there have been two types of results: first and final results. The results currently shown for 2021 are first results. The 'Leben in Europa' survey (German name of the European Union Statistics on Income and Living Conditions - EU-SILC), which was conducted separately in the past, was integrated as a subsample into the microcensus in 2020. Comparing the data of reference year 2020 with those of previous years is not possible (break in the time series) as the voluntary survey was changed over to a partly compulsory survey and the composition of the sample was changed.&lt;br&gt;
 Data for the EU with the respective member states in the reporting year (until 2019 EU-28 from 2020 EU-27).&lt;br&gt;Pensions not included in social benefits.&lt;br&gt;2014 to 2019 estimated data for the EU.</t>
         </is>
       </c>
